--- a/data_files/levels_tokenize_4.xlsx
+++ b/data_files/levels_tokenize_4.xlsx
@@ -651,19 +651,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -684,59 +724,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -757,29 +757,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -806,27 +790,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -855,21 +839,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -896,10 +888,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -929,44 +925,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -990,7 +970,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1000,29 +980,69 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1039,36 +1059,124 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1076,34 +1184,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1121,79 +1269,43 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1210,124 +1322,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1335,74 +1367,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1420,24 +1408,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1465,24 +1445,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1510,16 +1482,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1547,28 +1527,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -1588,70 +1604,94 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1665,29 +1705,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1714,25 +1746,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1759,27 +1795,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1808,40 +1844,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1865,17 +1905,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1902,29 +1954,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1951,23 +1999,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1992,17 +2056,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2029,34 +2105,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2082,94 +2146,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2264,36 +2264,64 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['**Аспирантская школа по экономике**\n']]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+          <t>[['**Аспирантская школа по праву**\n']]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[['**Академическая аспирантура**\n']]</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2313,59 +2341,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
-        </is>
-      </c>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2386,11 +2390,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2419,19 +2431,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2460,64 +2464,60 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
+          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
+          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
+          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2537,17 +2537,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>

--- a/data_files/levels_tokenize_4.xlsx
+++ b/data_files/levels_tokenize_4.xlsx
@@ -651,59 +651,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -724,19 +684,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -757,13 +757,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -790,30 +806,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -839,29 +859,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -970,7 +986,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -980,78 +996,114 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['**ВИДЖЕТЫ:**\n']]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1059,7 +1111,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1069,114 +1121,74 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
+          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
+          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
+          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1184,7 +1196,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1194,65 +1206,69 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
+          <t>[['Создайте страницу, кликнув по иконке ']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
+          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
+          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
+          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
+          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
+          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1269,34 +1285,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
+          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
+          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1322,24 +1326,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
-        </is>
-      </c>
+          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1367,20 +1363,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
+          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1408,24 +1408,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1482,25 +1522,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
+          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
+          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1527,70 +1571,94 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
+          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
+          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
+          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
+          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
+          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
+          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
+          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
+          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1604,94 +1672,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1705,29 +1705,69 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[['']]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[['Что не следует делать:']]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1844,44 +1884,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1905,29 +1929,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
-        </is>
-      </c>
+          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1954,24 +1966,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
+          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1999,39 +2007,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+          <t>[['']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
+          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2105,24 +2105,44 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -2146,19 +2166,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2183,69 +2223,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
+          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[['Что не следует делать:']]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
-        </is>
-      </c>
+          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2264,64 +2264,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
+          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -2341,29 +2305,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
+          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
+          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
+          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2390,21 +2346,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2431,20 +2395,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>[['**Аспирантская школа по экономике**\n']]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская школа по праву**\n']]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[['**Академическая аспирантура**\n']]</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -2537,19 +2545,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
-        </is>
-      </c>
+          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>

--- a/data_files/levels_tokenize_4.xlsx
+++ b/data_files/levels_tokenize_4.xlsx
@@ -513,82 +513,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['Персональная страница создается автоматически после прохождения приказа о\xa0приеме на\xa0работу. Часть информации заливается на\xa0страницу из\xa0баз данных университета, остальные сведения сотрудник добавляет самостоятельно согласно стандарту.']]</t>
+          <t>[[['персональн', 'страниц', 'созда', 'автоматическ', 'прохожден', 'приказ', 'прием', 'работ', 'част', 'информац', 'залива', 'страниц', 'баз', 'дан', 'университет', 'остальн', 'сведен', 'сотрудник', 'добавля', 'самостоятельн', 'согласн', 'стандарт']]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Персональная страница создается автоматически после внесения сведений Управлением аспирантуры и\xa0докторантуры в\xa0АСАВ. Информацию о\xa0себе аспирант добавляет самостоятельно. При возникновении вопросов аспирант обращается к\xa0ответственному.']]</t>
+          <t>[[['персональн', 'страниц', 'созда', 'автоматическ', 'внесен', 'сведен', 'управлен', 'аспирантур', 'докторантур', 'аса', 'информац', 'аспирант', 'добавля', 'самостоятельн', 'при', 'возникновен', 'вопрос', 'аспирант', 'обраща', 'ответствен']]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Сайт подразделения создается после выхода приказа о\xa0создании подразделения. Обновление сайта осуществляется редактором подразделения. Ответственность за\xa0актуальность информации несет руководитель подразделения.']]</t>
+          <t>[[['сайт', 'подразделен', 'созда', 'выход', 'приказ', 'создан', 'подразделен', 'обновлен', 'сайт', 'осуществля', 'редактор', 'подразделен', 'ответствен', 'актуальн', 'информац', 'несет', 'руководител', 'подразделен']]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Все образовательные программы обязаны иметь сайты на\xa0портале ВШЭ в\xa0соответствии с\xa0утвержденным ВШЭ стандартом оформления и\xa0наполнения сайта. Обновление сайта осуществляется менеджером программы.']]</t>
+          <t>[[['все', 'образовательн', 'программ', 'обяза', 'имет', 'сайт', 'портал', 'вшэ', 'соответств', 'утвержден', 'вшэ', 'стандарт', 'оформлен', 'наполнен', 'сайт', 'обновлен', 'сайт', 'осуществля', 'менеджер', 'программ']]]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[['Промосайты создаются для презентации значимых мероприятий, проектов, программ университета. Инструкция знакомит с перечнем возможностей представления информации в данном шаблоне. ']]</t>
+          <t>[[['промосайт', 'созда', 'презентац', 'значим', 'мероприят', 'проект', 'программ', 'университет', 'инструкц', 'знаком', 'перечн', 'возможн', 'представлен', 'информац', 'дан', 'шаблон']]]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[['По\xa0вопросам ведения английских версий сайтов подразделений и\xa0образовательных программ ответственных от\xa0подразделений и\xa0менеджеров образовательных программ консультируют сотрудники Отдела развития и поддержки англоязычной версии портала.']]</t>
+          <t>[[['вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'консультир', 'сотрудник', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта']]]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на\xa0главной странице портала в\xa0разделе «Мероприятия» и\xa0в\xa0общей ленте анонсов необходимо прислать заявку на\xa0размещение анонса на\xa0portalnews@hse.ru. Анонсы размещаются в\xa0порядке общей очереди. Возможен прием оплаты за участие в мероприятии через сайт.']]</t>
+          <t>[[['для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'присла', 'заявк', 'размещен', 'анонс', 'portalnews', 'hse.ru', 'анонс', 'размеща', 'порядк', 'общ', 'очеред', 'возмож', 'при', 'оплат', 'участ', 'мероприят', 'сайт']]]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[['Научная публикация\xa0— текст, опубликованный в\xa0научном издании с\xa0соблюдением академических стандартов построения и\xa0оформления текста. Сотрудник добавляет публикации сам через личный кабинет на\xa0портале.']]</t>
+          <t>[[['научн', 'публикац', 'текст', 'опубликова', 'научн', 'издан', 'соблюден', 'академическ', 'стандарт', 'построен', 'оформлен', 'текст', 'сотрудник', 'добавля', 'публикац', 'личн', 'кабинет', 'портал']]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[['Инструкция для авторов относительно порядка работы в системе elibrary.ru: регистрация, внесение данных в регистрационную анкету, работа со списком публикаций, анализ публикационной активности']]</t>
+          <t>[[['инструкц', 'автор', 'относительн', 'порядк', 'работ', 'систем', 'elibrary.ru', 'регистрац', 'внесен', 'дан', 'регистрацион', 'анкет', 'работ', 'списк', 'публикац', 'анализ', 'публикацион', 'активн']]]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[['В\xa0НИУ ВШЭ создан единый каталог программ ДПО. Наполнение каталога происходит силами представителей подразделений ДПО при содействии Управления развития и\xa0поддержки портала и\xa0Операционного управления ДПО.']]</t>
+          <t>[[['ни', 'вшэ', 'созда', 'един', 'каталог', 'программ', 'дпо', 'наполнен', 'каталог', 'происход', 'сил', 'представител', 'подразделен', 'дпо', 'содейств', 'управлен', 'развит', 'поддержк', 'порта', 'операцион', 'управлен', 'дпо']]]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[['База учебных курсов формируется на\xa0основе Рабочих учебных планов и\xa0модуля нагрузки АСАВ. ']]</t>
+          <t>[[['баз', 'учебн', 'курс', 'формир', 'основ', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'аса']]]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[['Все студенты должны предоставлять выпускающему подразделению не\xa0позднее чем за\xa07\xa0дней до\xa0защиты распечатанную регистрационную форму, подтверждающую отправку файла с\xa0текстом ВКР в\xa0систему «Антиплагиат». С\xa02015 года работы всех студентов (кроме студентов программ ДПО) загружаются через LMS НИУ ВШЭ.']]</t>
+          <t>[[['все', 'студент', 'должн', 'предоставля', 'выпуска', 'подразделен', 'поздн', 'дне', 'защит', 'распечата', 'регистрацион', 'форм', 'подтвержда', 'отправк', 'файл', 'текст', 'вкр', 'сист', 'антиплагиат', '2015', 'год', 'работ', 'студент', 'кром', 'студент', 'программ', 'дпо', 'загружа', 'LMS', 'ни', 'вшэ']]]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[['На портале НИУ\xa0ВШЭ установлены счетчики Google Analytics и\xa0Яндекс.Метрика. Руководитель подразделения или\xa0ответственный за\xa0сайт могут получить доступ к\xa0данным Google Analytics и\xa0Яндекс.Метрики и\xa0пользоваться сервисом веб-аналитики в\xa0режиме реального времени.']]</t>
+          <t>[[['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'руководител', 'подразделен', 'ответствен', 'сайт', 'могут', 'получ', 'доступ', 'дан', 'Google', 'Analytics', 'яндекс.метрик', 'пользова', 'сервис', 'веб-аналитик', 'режим', 'реальн', 'времен']]]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[['Внедрение фирменного стиля будет проходить постепенно, в течение двух лет. Вопросы по брендбуку: visual@hse.ru (Дирекция по связям с общественностью). ']]</t>
+          <t>[[['внедрен', 'фирмен', 'стил', 'проход', 'постепен', 'течен', 'двух', 'лет', 'вопрос', 'брендбук', 'visual', 'hse.ru', 'дирекц', 'связ', 'обществен']]]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['Дизайн-система — это набор компонентов, инструментов и процессов, которые упростят создание, тестирование, визуальное и техническое обновление ИТ-продуктов Высшей школы экономики, а также обеспечат единообразие их интерфейсов.']]</t>
+          <t>[[['дизайн-систем', 'эт', 'набор', 'компонент', 'инструмент', 'процесс', 'котор', 'упрост', 'создан', 'тестирован', 'визуальн', 'техническ', 'обновлен', 'ит-продукт', 'высш', 'школ', 'экономик', 'такж', 'обеспечат', 'единообраз', 'интерфейс']]]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[['Здесь опубликованы ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала.']]</t>
+          <t>[[['зде', 'опубликова', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта']]]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -606,24 +606,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['Сотрудники НИУ ВШЭ (за\xa0исключением сотрудников категории административно-хозяйственного персонала, не\xa0занимающих руководящие должности) обязаны иметь заполненную в\xa0соответствии со\xa0Стандартом персональную страницу.'], ['Персональная страница появляется автоматически после внесения приказа о\xa0трудоустройстве сотрудника в\xa0базу Управления персонала (ЗиК, ИС-ПРО) и\xa0показывается в\xa0общем списке преподавателей и\xa0сотрудников, а\xa0также в\xa0списках сотрудников на\xa0страницах подразделений.'], ['Автоматически появляются только страницы штатных сотрудников и\xa0преподавателей, имеющих договор ГПХ ППС (такие сотрудники показываются на\xa0портале с\xa0должностью «Приглашенный преподаватель»).'], ['Если необходимо, чтобы персональная страница появилась у сотрудника, работающего по обычному договору ГПХ, то при оформлении договора в СЭД\xa0необходимо поставить соответствующую галочку. Для уже оформленных договоров галочку нужно поставить в кадровой системе ЗиК.\xa0'], ['Посмотреть, где находится галочка в интерфейсе СЭД'], [''], ['Сотрудники несут ответственность за\xa0актуальность информации, размещенной на\xa0их\xa0персональных страницах.']]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[['На\xa0странице должны быть сведения, определенные Стандартом. Также сотрудник может разместить там любую информацию, не\xa0нарушающую законов\xa0РФ и\xa0не\xa0противоречащую декларации ценностей университета.'], ['Информацию на\xa0персональную страницу сотрудник вносит самостоятельно (за\xa0исключением сведений, которые отображаются на\xa0странице из\xa0баз данных университета). При возникновении вопросов сотрудник обращается к\xa0ответственному за\xa0персональные страницы или к\xa0руководителю подразделения (в\xa0случае отсутствия ответственного в\xa0подразделении).'], ['\n\xa0\n\nДоступ\xa0к редактированию персональной страницы осуществляется по логину и паролю от ЕЛК (при наличии доступа к корпоративной почты).\nКонсультации по\xa0вопросам наполнения персональных страниц осуществляют ответственные от\xa0подразделений.\n\n']]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Часть информации попадает на\xa0персональные страницы из\xa0баз данных университета, поэтому важно, чтобы подразделения, отвечающие за\xa0внесение информации в\xa0базы, вовремя получали необходимые данные. Сведения, поступающие из\xa0баз данных университета, сотрудник не\xa0может исправить самостоятельно.'], ['Пример: Если сотрудник не\xa0предоставил в\xa0Управление персонала сведения о\xa0награде или ученой степени, то\xa0эти сведения не\xa0появятся на\xa0его персональной странице. '], ['Сведения, поступающие из\xa0систем ЗиК (Москва), ИС-ПРО (кампусы), АСАВ, РУЗ, LMS, базы данных портала могут изменить только сотрудники подразделений, отвечающие за\xa0информацию из\xa0этих систем:'], ['\n\n\nФамилия Имя Отчество (ЗиК\xa0/ ИС-ПРО)\nПол (ЗиК\xa0/ ИС-ПРО)\nПодразделение (ЗиК\xa0/ ИС-ПРО)\nДолжность / Возложение обязанностей (ЗиК\xa0/ ИС-ПРО)\nНачало работы в\xa0НИУ ВШЭ (ЗиК\xa0/ ИС-ПРО)\nНаучно-педагогический стаж (ЗиК\xa0/ ИС-ПРО)\nОбразование (ЗиК\xa0/ ИС-ПРО)\nУченая степень (ЗиК\xa0/ ИС-ПРО)\n\n\n\n\nУченое звание (ЗиК\xa0/ ИС-ПРО)\nДостижения и\xa0поощрения (ЗиК\xa0/ ИС-ПРО)\nАкадемические надбавки (база данных портала)\nУчебные курсы (АСАВ)\nРуководство аспирантами (АСАВ)\nРуководство ВКР (LMS)\nРасписание (РУЗ)\n\n\n\n\nУчастие в\xa0административном кадровом резерве (база данных портала)\nУчастие в\xa0академическом кадровом резерве (база данных портала)\nПатенты и\xa0свидетельства о\xa0правах интеллектуальной собственности (база данных портала)\nПубликации издательского дома ВШЭ (база данных портала)\n\n\n'], ['Сведения может править только Управление персонала. Изменения будут видны на\xa0портале в\xa0течение суток после их\xa0внесения в\xa0ИС-ПРО', '**Сведения из\xa0ИС-ПРО:**\n\nФамилия Имя ОтчествоПол Подразделение и\xa0должность Начало работы в\xa0НИУ ВШЭ Научно-педагогический стаж\nОбразование Ученая степень Ученое званиеДостижения и\xa0поощрения*\n\n', '**Сотрудники, отвечающие за\xa0внесения правок в\xa0Москве:**\n\n\nЩегольская Татьяна\xa0(+\xa0Наталья Малыхина) (штатные сотрудники с\xa0российским гражданством).\xa0Запросить консультацию\n\nЯлугина Анастасия\xa0(+\xa0Наталия Нижаловская) (сотрудники, работающие\xa0по\xa0договорам ГПХ ППС)\xa0Запросить консультацию\nСтарокадомская Вероника\xa0(сотрудники с\xa0иностранным гражданством)\xa0Запросить консультацию\nНаталья Малыхина\xa0(информация о\xa0наградах вне зависимости от\xa0гражданства)\xa0Запросить консультацию\n\nВ кампусах правки вносят кадровые службы кампусов.\n', '**Что сотрудник может дополнить самостоятельно:**\n\nОбразование: можно уточнить\xa01) уровень образования (например, указать BSc или\xa0BA для бакалавриата, полученного зарубежом), 2) факультет, 3) специальность на\xa0английском языке (по\xa0умолчанию перевода специальности на\xa0английский язык нет).\nУченая степень: можно уточнить тему диссертации и\xa0место защиты.\n\n'], ['Изменения будут видны на\xa0портале после синхронизации баз данных. Синхронизация происходит приблизительно раз в\xa0месяц либо по\xa0запросу от\xa0подразделения, отвечающего за\xa0информацию.', '**Учебные курсы**\nСведения формируются на\xa0основе информации из\xa0Рабочих учебных планов и\xa0модуля нагрузки преподавателей. Правки вносят ответственные от\xa0подразделений.Курирует систему заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна\nСинхронизация с\xa0порталом:\n\nучебных курсов\xa0— по\xa0запросу, приблизительно раз месяц\nпрограммы дисциплин\xa0— каждый час\nнагрузка преподавателей\xa0— ежедневно\n\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nответственный за\xa0планирование нагрузки преподавателей\nответственный за\xa0прикрепление программы дисциплин в\xa0АСАВ\n\n', '**Научное руководство аспирантами**\nСведения может править Управление аспирантуры и\xa0докторантуры\nСинхронизация с\xa0порталом\xa0— по\xa0запросу или раз в\xa0два месяца.\n'], ['Сведения вносят сотрудники учебных офисов, курирует РУЗ заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна', 'К\xa0кому обращаться для внесения правок:', '\nответственный от\xa0подразделения\nсотрудники учебных офисов\n'], ['Сведения вносят сотрудники учебных офисов, курирует LMS заместитель руководителя Центра сервиса «Департамент» Игнатова Наталия Генадиевна)', '**ВКР (выпускная квалификационная работа)**\nСинхронизация\xa0— ежедневно.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nсотрудники учебных офисов\n\n'], ['Изменения видны сразу после внесения.', '**Участие в\xa0административном кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0руководителя программы Юлии Гринкевич.\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Юлия Гринкевич\n\n', '**Участие в\xa0академическом кадровом резерве**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Управления академического развития\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nруководитель программы Управление академического развития\n\n', '**Патенты и\xa0свидетельства о\xa0правах интеллектуальной собственности**\nСведения вносит Дирекция по\xa0правовым вопросам\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nДирекция по\xa0правовым вопросам\n\n', '**Академические надбавки**\nСведения вносит Управление развития и\xa0поддержки портала по\xa0заявке от\xa0Научного фонда (Ольга Чурикова)\nК\xa0кому обращаться для внесения правок:\n\nответственный от\xa0подразделения\nначальник управления академических исследований Ольга Чурикова\n\n', '**Публикации**\nАвтоматически на\xa0портале появляются только публикации Издательского дома ВШЭ. Остальные публикации вносит представитель подразделения либо сотрудник самостоятельно. Вносить изменения в\xa0публикацию могут: авторы публикации, сотрудник, создавший публикацию, Управление развития и\xa0поддержки портала по\xa0заявке на\xa0адрес publications@hse.ru. Подробнее см. Справочник по\xa0публикациям.\n']]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[['Доступ к\xa0редактированию страниц'], ['Как это работает'], ['Добавление новых вкладок'], ['Работа с\xa0вкладками'], ['Форматирование'], ['Научные интересы'], ['Фотография'], ['Scopus, SPIN РИНЦ, ORCID...'], ['Английская версия персональной страницы'], ['Персональные страницы может редактировать:', '\nСам сотрудник.\nПредставитель персоны (директора, декана, проректора).\nОтветственный за\xa0персональные страницы (редактирование только персональных страниц сотрудников определенного подразделения).\n', 'Для получения прав редактирования необходимо отправить запрос с\xa0вашей корпоративной почты на\xa0адрес portal@hse.ru. Обязательно укажите, какие права необходимо предоставить:', '\nпредставитель персоны (указываете, чью страницу будете редактировать);\nответственный за\xa0персональные страницы (указываете подразделение, страницы сотрудников которого будете редактировать).\n'], ['Непосредственно в\xa0личном кабинете есть инструкция по\xa0редактированию страниц: большая синяя кнопка «Как это работает» (в\xa0английской версии\xa0— How it\xa0works).', ''], ['Если вы\xa0собираетесь добавить информацию, которая не\xa0подходит для предложенных вкладок, вы\xa0можете создать собственную вкладку. Для этого нажмите «Добавить вкладку», введите заголовок и\xa0нажмите «ОК».', '', 'После этого в\xa0созданной вкладке можно добавить необходимую информацию. Нажимаете «Добавить текст» и\xa0заполняете необходимые поля.'], ['Те\xa0разделы, рядом с\xa0которыми стоит «замок», формируются автоматически из\xa0различных баз Вышки. Вы\xa0не\xa0можете вносить в\xa0них изменения, удалять их\xa0или перемещать. Разделы, не\xa0отмеченные этим символом, можно легко перетаскивать мышкой, меняя их\xa0порядок. Добавить новый раздел можно, нажав на\xa0«Добавить текст». Созданный раздел также можно перетащить в\xa0любую вкладку.', 'Если вы\xa0удалили раздел, который по\xa0умолчанию предусмотрен в\xa0одной из\xa0вкладок, и\xa0информация, представленная в\xa0нем, формируется автоматически, то\xa0вы\xa0легко можете восстановить раздел, нажав символ «+» внизу вкладки. При этом будет показан список разделов, подлежащих восстановлению.', '', 'Если вы\xa0удалили раздел, который вы\xa0создали вручную, восстановить его автоматически будет невозможно. Вам придётся заново вносить всю информацию.', 'Помните! Все изменения сохраняются только после того, как вы\xa0нажали кнопку «Сохранить». Если вы\xa0случайно что-то удалили, добавили что-то не\xa0то, просто закройте страницу без сохранения изменений.', '', '\xa0'], ['Чтобы текст во\xa0всех вкладках был одинаковым, необходимо добавлять информацию по\xa0одному из\xa0следующих алгоритмов:', '1) заполнять все вкладки и\xa0поля непосредственно в\xa0личном кабинете, не\xa0копируя информацию из\xa0текстовых редакторов, браузера и\xa0т.п.;', '2) весь текст, который вы\xa0собираетесь добавить в\xa0текстовое поле, необходимо добавить сначала в\xa0блокнот, скопировать из\xa0блокнота и\xa0вставить непосредственно в\xa0текстовое поле личного кабинета;', '3) при вставке текста использовать кнопку «Вставка из\xa0Word». В\xa0случае, если текст всё равно выглядит не\xa0так, как текст на\xa0автоматических вкладках, использовать кнопку «Убрать форматирование»;', '4) при вставке текста использовать кнопку «Вставить только текст» (в\xa0этом случае всё форматирование пропадёт);', '5) после вставки текста в\xa0текстовое поле выделить весь текст и\xa0нажать кнопку «Убрать форматирование».', '', '\xa0'], ['При добавлении интересов нажимаем «Добавить рус.», после этого пишем ключевое слово и\xa0нажимаем «Найти». Отобразится список с\xa0упоминанием искомого слова. Выбираем нужное слово или словосочетание и\xa0нажимаем кнопку «Выбрать».', '\xa0'], ['Фотография загружается из\xa0базы службы безопасности. Система такова: раз в\xa0неделю Дирекция по\xa0безопасности присылает фото в\xa0Управление персонала, которое заносит их\xa0в\xa0ИС-ПРО. Однако сотрудник может залить и\xa0отредактировать фото самостоятельно в\xa0SmartPoint (ЕЛК)'], ['Инструкции:', '\nSPIN РИНЦ\nORCID\nResearcherID\nGoogle Scholar\n', 'По\xa0всем вопросам, связанным с\xa0данной базой, необходимо обращаться к\xa0ответственному от\xa0подразделения.'], ['Для активации английской версии необходимо в\xa0личном кабинете:', '\nЗаполнить поле ФИО на\xa0английском\nЗаполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В\xa0частности, необходимо заполнить поля Специальность в\xa0разделах Образование и\xa0Ученая степень\nСохранить все изменения\nВыбрать пункт «Статус английской версии» (британский флажок)\n', 'Подробнее см.: Работа с\xa0английскими версиями персональных страниц']]</t>
-        </is>
-      </c>
+          <t>[[['сотрудник', 'все', 'подразделен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'учен', 'зван', 'член', 'члены-корреспондент', 'ран', 'ра', 'имеющ', 'степен', 'PhD', 'наград', 'награжден', 'государствен', 'наград', 'почетн', 'зван', 'отмечен', 'наград', 'почетн', 'зван', 'правительств', 'федеральн', 'собран', 'федеральн', 'орган', 'исполнительн', 'власт', 'отмечен', 'наград', 'почетн', 'зван', 'регион', 'муниципальн', 'образован', 'награжден', 'наград', 'иностра', 'государств', 'награжден', 'почетн', 'знак', 'вшэ', 'лауреат', 'прем', 'золот', 'вышк', 'награжден', 'медал', 'вшэ', 'отмечен', 'почетн', 'грамот', 'университет', 'функциона', 'ответствен', 'персональн', 'страниц', 'сотрудник', 'ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'сотрудник', 'учебн', 'офис', 'аболин', 'натал', 'александровн', 'начальник', 'управлен', 'научн', 'интерес', 'wеб-технолог', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'рейтинг', 'высш', 'учебн', 'заведен', 'юзабилит', 'смирнов', 'людм', 'викторовн', 'администратор', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'никитин', 'мар', 'константиновн', 'главн', 'редактор', 'грибб', 'кристофер', 'майкл', 'редактор', 'соловов', 'екатерин', 'сергеевн', 'редактор', 'черняховск', 'ан', 'мировн', 'редактор', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'фомичев', 'татья', 'александровн', 'начальник', 'отдел', 'научн', 'интерес', 'социолог', 'наук', 'образован', 'инклюзивн', 'образован', 'интернет-исследован', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'социолог', 'сем', 'детств', 'университетск', 'сайт', 'бережн', 'ларис', 'георгиевн', 'дизайнер', 'воробьев', 'татья', 'олеговн', 'редактор', 'золотусск', 'мар', 'игоревн', 'редактор', 'клименк', 'евген', 'ивановн', 'редактор', 'новиков', 'ел', 'геннадьевн', 'редактор', 'научн', 'интерес', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'чудаев', 'ольг', 'владимировн', 'редактор', 'шушак', 'макс', 'сергеевич', 'дизайнер']]]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -651,19 +639,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['\n\n\n\t\t\t\n\t\t\t\tСотрудники\n\t\t\t\n\t\t\n\n\n\n\n\n\n\n\n\n\nВсе подразделения\nОтдел развития и поддержки англоязычной версии портала\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\nУчёные звания:\n\n\n\nЧлены и члены-корреспонденты РАН и РАО\nИмеющие степень PhD\n\n\n\n\nНаграды:\n\n\n\nНагражденные государственными наградами и почетными званиями\nОтмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти\nОтмеченные наградами и почетными званиями регионов и муниципальных образований\nНагражденные наградами иностранных государств\nНагражденные почетным знаком ВШЭ\nЛауреаты премии “Золотая Вышка”\nНагражденные медалями ВШЭ\nОтмеченные почетными грамотами университета\n\n\n\n\nФункционал:\n\n\n\nОтветственные за персональные страницы сотрудников\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nСотрудники учебного офиса\n\n\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tАболина Наталья Александровна\n\t\t\t\t\t\t\nНачальник управления\n\n\nНаучные интересы\n\nweb-технологии\nкачество и контент сайта\nмониторинг качества образования\nмониторинг качества приема в вузы\nрейтинги высших учебных заведений\nюзабилити\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСмирнова Людмила Викторовна\n\t\t\t\t\t\t\nАдминистратор\n\n\n\n\nОтдел развития и поддержки англоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНикитина Мария Константиновна\n\t\t\t\t\t\t\nГлавный редактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tГриббен Кристофер Майкл\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tСоловова Екатерина Сергеевна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧерняховская Анна Мировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\nОтдел развития и поддержки русскоязычной версии портала\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tФомичева Татьяна Александровна\n\t\t\t\t\t\t\nНачальник отдела\n\n\nНаучные интересы\n\nСоциология науки и образования\nинклюзивное образование\nинтернет-исследования\nкачество и контент сайта\nмониторинг качества образования\nсоциология семьи и детства\nуниверситетские сайты\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tБережная Лариса Георгиевна\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tВоробьева Татьяна Олеговна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЗолотусская Мария Игоревна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tКлименко Евгения Ивановна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tНовикова Елена Геннадьевна\n\t\t\t\t\t\t\nРедактор\n\n\nНаучные интересы\n\nмониторинг качества образования\nмониторинг качества приема в вузы\n\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tЧудаева Ольга Владимировна\n\t\t\t\t\t\t\nРедактор\n\n\n\n\n\n\n\n\n\n\n\t\t\t\t\t\t\tШушаков Максим Сергеевич\n\t\t\t\t\t\t\nДизайнер\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>[[['наш', 'подразделен', 'осуществля', 'концептуальн', 'структурн', 'разработк', 'сопровожден', 'корпоративн', 'порта', 'ни', 'вшэ', 'прощ', 'говор', 'развива', 'корпоративн', 'порта', 'университет', 'поддержива', 'созда', 'нов', 'тематическ', 'раздел', 'открыва', 'сайт', 'подразделен', 'образовательн', 'программ', 'конференц', 'учебн', 'курс', 'спецпроект', 'публику', 'главн', 'страниц', 'анонс', 'обуча', 'сотрудник', 'редактирован', 'сайт', 'вед', 'нескольк', 'баз', 'дан']]]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[[['над', 'портал', 'работа', 'нам', 'очен', 'тяжел', 'обойт', 'наш', 'коллег', 'друг', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[[['управлен', 'связ', 'обществен', 'основн', 'поставщик', 'новост', 'главн', 'страниц', 'корпоративн', 'порта', 'университет', 'без', 'порта', 'так', 'интересн', 'есл', 'ваш', 'подразделен', 'новостн', 'повод', 'забудьт', 'проинформирова', 'наш', 'коллег', 'мож', 'помоч', 'проанонсирова', 'ваш', 'мероприят']], [['чтоб', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'необходим', 'размест', 'анонс', 'сайт', 'подразделен', 'присла', 'ссылк', 'адрес', 'portalnews', 'hse.ru', 'подробн', 'анонсирован', 'мероприят', 'прочита']]]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[[['кажд', 'сотрудник', 'буд', 'именит', 'профессор', 'менеджер', 'бухгалтер', 'программист', 'портал', 'сво', 'страниц', 'заглянув', 'персональн', 'страниц', 'узна', 'занима', 'учен', 'как', 'предмет', 'препода', 'профессор', 'как', 'вопрос', 'помога', 'реш', 'административн', 'сотрудник', 'созда', 'автоматическ', 'внесен', 'приказ', 'прием', 'сотрудник', 'баз', 'управлен', 'персона', 'ис-пр']], [['да', 'сотрудник', 'необходим', 'прав', 'редактирован', 'персональн', 'страниц', 'для', 'получ', 'доступ', 'редактирован', 'необходим', 'написа', 'заявк', 'адрес', 'portal', 'hse.ru', 'есл', 'вопрос', 'том', 'появля', 'ин', 'информац', 'страниц', 'имен', 'публикует', 'появля', 'автоматическ', 'баз', 'дан', 'университет', 'ответ', 'найт', 'страниц', 'есл', 'вопрос', 'все-так', 'оста', 'обрат', 'ответствен', 'сво', 'подразделен', 'английск', 'верс', 'личн', 'страниц', 'активир', 'английск', 'редакц', 'порта', 'заполня', 'открыт', 'редактирован', 'пол', 'необходим', 'самостоятельн']]]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[[['осуществля', 'техническ', 'поддержк', 'баз', 'учебн', 'курс', 'портал', 'ни', 'вшэ', 'однак', 'описан', 'курс', 'ответствен', 'нес', 'вся', 'информац', 'загружа', 'нам', 'автоматическ', 'учебн', 'план', 'модул', 'нагрузк', 'систем', 'абитуриент-студент-выпускник-аспирант', 'аса', 'аса', 'получа', 'такж', 'английск', 'назван', 'курс', 'отображен', 'расписан']], [['есл', 'явля', 'ответствен', 'кафедры/департамент', 'необходим', 'получ', 'прав', 'написа', 'адрес', 'portal', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[[['вмест', 'сотрудник', 'подразделен', 'работа', 'сайт', 'подразделен', 'образовательн', 'программ', 'мероприят', 'проект']], [['сайт', 'подразделен', 'созда', 'автоматическ', 'сведен', 'внес', 'ис-пр', 'подробн', 'сайт', 'подразделен', 'прочита']], [['сайт', 'образовательн', 'программ', 'открыва', 'внесен', 'программ', 'аса', 'инач', 'сайт', 'будут', 'отобража', 'рабоч', 'учебн', 'план', 'расписан', 'при', 'дальн', 'работ', 'сайт', 'поможет', 'инструкц']], [['сайт', 'мероприят', 'семинар', 'школ', 'школьник', 'мож', 'созда', 'налич', 'материал', 'наполнен', 'сайт', 'пуст', 'сайт', 'надпис', 'разработк', 'открыва']], [['осуществля', 'первичн', 'наполнен', 'сайт', 'оказыва', 'техническ', 'поддержк', 'поддержан', 'актуальн', 'сайт', 'ответствен', 'сотрудник', 'подразделен', 'котор', 'сайт', 'созда']], [['вопрос', 'создан', 'сайт', 'обраща', 'пожалуйст', 'portal', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[[['англоязычн', 'сайт', 'высш', 'школ', 'экономик', 'заня', '2015', 'год', 'перв', 'мест', 'рейтинг', 'сайт', 'университет', 'составлен', 'российск', 'совет', 'международн', 'дел']], [['осуществля', 'перевод', 'новост', 'главн', 'лент', 'порта', 'такж', 'мож', 'помоч', 'перевест', 'основн', 'информац', 'сайт', 'подразделен', 'текст', 'подразделен', 'научн', 'деятельн', 'друг', 'текст', 'котор', 'меня', 'редк', 'перевод', 'новост', 'анонс', 'проч', 'текст', 'подразделен', 'занима', 'самостоятельн', 'такж', 'размеща', 'главн', 'лент', 'порта', 'анонс', 'англоязычн', 'мероприят', 'активиру', 'английск', 'верс', 'личн', 'страниц']], [['англоязычн', 'верс', 'сайт', 'обязательн', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'такж', 'образовательн', 'программ', 'котор', 'преподаван', 'ведет', 'английск', 'язык', 'друг', 'случа', 'сайт', 'созда', 'услов', 'готовн', 'подразделен', 'оперативн', 'поддержива', 'регулярн', 'обновля', 'сво', 'сил']], [['английск', 'верс', 'созда', 'заявк', 'подразделен', 'адрес', 'portal', 'hse.ru', 'непосредствен', 'обращен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'мар', 'бесов', 'при', 'создан', 'текст', 'необходим', 'руководствова', 'глоссар', 'термин', 'вшэ', 'стилистическ', 'справочник']]]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[[['ни', 'вшэ', 'постоя', 'что-т', 'меня', 'открыва', 'нов', 'программ', 'провод', 'исследован', 'появля', 'нов', 'подразделен', 'подготов', 'статистическ', 'информац', 'жизн', 'университет', 'нам', 'помога', 'аналитическ', 'центр']], [['когд', 'использует', 'какие-т', 'цифр', 'стат', 'интерв', 'проч.', 'пожалуйст', 'уточн', 'аналитическ', 'центр', 'будут', 'сведен', 'обновл', 'ближайш', 'врем']]]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[['предоставля', 'прав', 'преподавател', 'ни', 'вшэ', 'проверк', 'студенческ', 'работ', 'систем', 'антиплагиат']], [['чтоб', 'получ', 'доступ', 'достаточн', 'написа', 'заявк', 'люб', 'адрес', 'корпоративн', 'почт', 'адрес', 'antiplagiat', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[[['мож', 'дат', 'доступ', 'заполнен', 'след', 'электрон', 'форм', 'отчет']], [['отчет', 'деятельн', 'научно-учебн', 'проектно-учебн', 'лаборатор', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'отчет', 'участник', 'групп', 'высок', 'профессиональн', 'потенциа', 'ни', 'вшэ', 'отчет', 'кадров', 'резерв', 'отчет', 'принима', 'управлен', 'академическ', 'развит']], [['мож', 'рассказа', 'внос', 'информац', 'мож', 'рассказа', 'имен', 'должн', 'внес', 'отчет', 'вопрос', 'смогут', 'ответ', 'сотрудник', 'соответств', 'подразделен']], [['чтоб', 'получ', 'доступ', 'отчет', 'достаточн', 'написа', 'письм', 'адрес', 'portal', 'hse.ru', 'пожалуйст', 'указыва', 'письм', 'заполнен', 'как', 'отчет', 'отвеча', 'некотор', 'отчет', 'сдают', 'одн', 'врем', 'нам', 'сложн', 'поня', 'имен', 'интерес']]]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[[['разработк', 'порта', 'занима', 'управлен', 'разработк', 'информацион', 'сист', 'порта', 'есл', 'объективн', 'необходим', 'появлен', 'чего-т', 'нов', 'готов', 'обсуд', 'эт', 'вмест', 'пожалуйст', 'обсужден', 'постара', 'кратк', 'сформулирова', 'основн', 'пожелан', 'прикинут', 'как', 'систем', 'внутр', 'университет', 'эт', 'затронут', 'пожалуйст', 'нужн', 'пыта', 'заказа', 'разработк', 'одновремен', 'дирекц', 'информацион', 'технолог', 'дирекц', 'портал', 'мобильн', 'приложен', 'желан', 'подстрахова', 'естествен', 'поверьт', 'ник', 'хочет', 'дела', 'работ', 'стол']], [['есл', 'прочита', 'эт', 'нашл', 'ответ', 'сво', 'вопрос', 'напиш', 'директор', 'портал', 'дмитр', 'коптюбенк']]]</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -684,66 +712,94 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['Наше подразделение осуществляет \xa0концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.']]</t>
+          <t>[[['шаблон', 'сайт', 'образовательн', 'программ', 'сам', 'сложн', 'портал', 'при', 'формирован', 'страниц', 'использ', 'информац', 'различн', 'баз', 'дан', 'университет', 'аса', 'руз', 'внутрен', 'баз', 'порта', 'поэт', 'случа', 'необходим', 'добавления/корректировк', 'информац', 'необходим', 'правк', 'имен', 'эт', 'баз', 'дан']], [['шаблон', 'позволя', 'постав', 'главн', 'страниц', 'сайт', 'люб', 'блок', 'люб', 'последовательн', 'зависим', 'этап', 'приемн', 'кампан', 'при', 'меня', 'информац', 'страниц', 'редактор', 'сайт', 'программ', 'самостоятельн', 'обра', 'помощ', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'исключен', 'аннотац', 'шапк', 'образовательн', 'программ', 'текст', 'вывод', 'баз', 'дан', 'каталог', 'образовательн', 'программ', 'ест', 'возможн', 'созда', 'турбо-верс', 'сайт', 'эт', 'помога', 'существен', 'увелич', 'трафик', 'мобильн', 'устройств', 'размещен', 'SEO-оптимизирова', 'текст', 'SEO', 'search', 'engine', 'optimization', 'главн', 'страниц', 'служ', 'поднят', 'позиц', 'сайт', 'результат', 'выдач', 'поисков', 'сист', 'определен', 'запрос', 'пользовател', 'обрат', 'вниман', 'SEO-оптимизац', 'эт', 'комплекс', 'мероприят', 'продвижен', 'сайт', 'однак', 'наибольш', 'рол', 'игра', 'качествен', 'контент']]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.']]</t>
+          <t>[[['служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'получен', 'редакторск', 'прав', 'размещен', 'виде', 'главн', 'страниц', 'налич', 'виде', 'Youtube', 'включен', 'раздел', 'студент', 'выпускник', 'налич', 'наполнен', 'страниц', 'раздел', 'добавлен', 'ссылок', 'пункт', 'мен', 'помечен', 'замочк', 'ссылк', 'общ', 'мен', 'страниц', 'рейтинг', 'общ', 'техническ', 'вопрос', 'редактирован', 'сайт', 'вынесен', 'пункт', 'ниж', 'никитин', 'мар', 'константиновн', 'управлен', 'развит', 'поддержк', 'порта', 'английск', 'верс', 'сайт', 'райа', 'сюзан', 'халилевн', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'раздел', 'руководств', 'руководител', 'менеджер', 'игнатов', 'натал', 'генадиевн', 'центр', 'сервис', 'департамент', 'страниц', 'рейтинг', 'курс', 'преподавател', 'раздел', 'документ', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'управлен', 'развит', 'образовательн', 'программ', 'раздел', 'паспорт', 'образовательн', 'программ', 'аббасов', 'ел', 'сергеевн', 'центр', 'сервис', 'студент', 'страниц', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'редактор', 'подразделен', 'реализ', 'программ', 'размещен', 'анонс', 'шапк', 'программ', 'шишк', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'дирекц', 'маркетингов', 'коммуникац', 'съемк', 'проморолик', 'участ', 'акад', 'руководител', 'размещен', 'проморолик', 'Yоутубе-канал', 'ни', 'вшэ']]]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Управление по связям с общественностью \xa0– основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.'], ['\nЧтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.\n']]</t>
+          <t>[[['стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'бакалавриат', 'магистратур', 'специалитет', 'корпоративн', 'сайт', 'портал', 'национальн', 'исследовательск', 'университет', 'высш', 'школ', 'экономик']], [['положен', 'основн', 'образовательн', 'программ', 'высш', 'образован']], [['быстр', 'ссылк', 'как', 'нача', 'что', 'дела', 'программ', 'нов', 'сайт', 'как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'структур', 'сайт', 'образовательн', 'программ', 'шапк', 'сайт', 'образовательн', 'программ', 'размещен', 'анонс', 'шапк', 'сайт', 'главн', 'страниц', 'программ', 'верхн', 'мен', 'раздел', 'программ', 'общ', 'мен', 'создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'адрес', 'текстов', 'блок', 'учебн', 'офис', 'социальн', 'кнопк', 'буклет', 'программ', 'турбо-верс', 'английск', 'верс', 'таблиц', 'регистрацион', 'форм']]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.'], ['\n\xa0\n\nМы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо\xa0написать заявку\xa0на адрес\xa0portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от\xa0своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.\n\n']]</t>
+          <t>[[['есл', 'ран', 'работа', 'сайт', 'образовательн', 'программ', 'т.ч.', 'предыдущ', 'верс', 'получ', 'прав', 'редактор', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'указа', 'ссылк', 'сайт', 'программ', 'котор', 'необходим', 'доступ', 'для', 'получен', 'редакторск', 'доступ', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'порта', 'заявк', 'присыла', 'одн', 'письм']]]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки\xa0системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.'], ['\n\nЕсли вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.\n\n']]</t>
+          <t>[[['сайт', 'открыва', 'программ', 'утвержден', 'учен', 'совет', 'вшэ', 'контент', 'сайт', 'нача', 'готов', 'заран']], [['точн', 'назван', 'программ', 'русск', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'аннотац', 'шапк', 'программ', '500', 'знак', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'контакт', 'адрес', 'указан', 'город', 'телефон', 'e-mail', 'ком', 'предостав', 'редакторск', 'прав', 'сотрудник', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'портал']]]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[['Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.'], ['Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.'], ['Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.'], ['Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.'], ['Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.'], ['\n\nПо вопросам создания сайта обращайтесь, пожалуйста,\xa0на\xa0portal@hse.ru.\n\n']]</t>
+          <t>[[['необходим', 'определ', 'готов', 'самостоятельн', 'подготов', 'текст', 'техническ', 'задан', 'получен', 'управлен', 'развит', 'поддержк', 'порта', 'нужн', 'услуг', 'копирайтер', 'порта', 'втор', 'случа', 'срок', 'подготовк', 'текст', 'будут', 'зависет', 'общ', 'загружен', 'внешн', 'копирайтер', 'порта']], [['работ', 'подготовк', 'текст', 'начина', 'получен', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'заявк', 'подготовк', 'техническ', 'задан', 'копирайтер', 'эт', 'необходим', 'текст', 'сайт', 'заявк', 'необходим', 'указа', 'адрес', 'сайт', 'нов', 'программ', 'прилож', 'письм', 'концепц', 'программ', 'описан', 'курс', 'проч.', 'документ', 'основ', 'котор', 'состав', 'представлен', 'содержан', 'программ']], [['обрат', 'вниман', 'налич', 'SEO-оптимизирова', 'текст', 'сайт', 'программ', 'учитыва', 'KPI', 'декан', 'ежегодн', 'проверк', 'сайт', 'котор', 'обычн', 'проход', 'ноябре-декабр', 'есл', 'программ', 'англоязычн', 'SEO-оптимизац', 'обязательн', 'порядк', 'подлежат', 'такж', 'текст', 'английск', 'верс', 'сайт']]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[['Англоязычный сайт\xa0Высшей школы экономики занял в 2015 году первое место в\xa0рейтинге\xa0сайтов университетов, составленном Российским советом по международным делам.'], ['Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения\xa0 (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.'], ['Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются\xa0 только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.'], ['\n\n\nАнглийская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в\xa0Отдел развития и поддержки англоязычной версии портала (Мария Бесова).\nПри создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и\xa0 Стилистическим справочником.\n\n\n']]</t>
+          <t>[[['сайт', 'имеет', 'жестк', 'структур', 'мен', 'назван', 'раздел', 'измен']], [['главн', 'страниц', 'абитуриент', 'программ', 'ведущ', 'набор', 'текущ', 'год', 'студент', 'программ', 'имеющ', 'студент', 'выпускник', 'программ', 'имеющ', 'выпускник', 'открыва', 'желан', 'программ']], [['обязательн', 'подраздел', 'мен', 'определя', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ']], [['есл', 'программ', 'необходим', 'завест', 'страниц', 'пункт', 'мен', 'определен', 'стандарт', 'сдела', 'эт', 'самостоятельн', 'все', 'страниц', 'созда', 'редактор', 'сайт', 'самостоятельн', 'никак', 'запрет', 'эт']], [['требован', 'содержан', 'сайт', 'определ', 'закон', 'образован', 'локальн', 'акт', 'университет']]]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[['В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.'], ['\n\nКогда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.\n\n']]</t>
+          <t>[[['шапк', 'образовательн', 'программ', 'размеща']], [[]], [['аннотац', 'программ', 'объем', '500', 'знак', 'текст', 'аннотац', 'присыла', 'представител', 'программ', 'размеща', 'внос', 'правк', 'текст', 'просьб', 'служб', 'поддержк', 'порта', 'кнопк', 'обратн', 'связ', 'например', 'зада', 'вопрос', 'программ', 'опросн', 'форм', 'созда', 'размеща', 'кнопк', 'шапк', 'служб', 'поддержк', 'порта', 'чтоб', 'ознаком', 'инструкц', 'создан', 'опросн', 'форм', 'перейд', 'ссылк', 'https', '//portal.hse.ru/poll', 'тизер', 'очен', 'важн', 'анонс', 'обычн', 'анонс', 'дня', 'открыт', 'двер']], [['размещен', 'тизер', 'шапк', 'сайт']], [['перед', 'размест', 'тизер', 'шапк', 'образовательн', 'программ', 'необходим', 'размест', 'непосредствен', 'анонс', 'подробн', 'размещен', 'анонс', 'сам', 'тизер', 'шапк', 'добавля', 'сайт', 'программ', 'сайт', 'подразделен', 'котор', 'реализ', 'программ', 'для', 'необходим', 'войт', 'редактор', 'дан', 'блоки→', 'образовательн', 'программ', 'проставля', 'дат', 'событ', 'заголовок', 'заголовк', 'прописыва', 'назван', 'например', 'ден', 'открыт', 'двер', 'дополнительн', 'прописыва', 'дат', 'назван', 'программ', 'нужн', 'ссылк', 'анонс', 'обязательн', 'став', 'галочк', 'активн', 'проставля', 'дат', 'котор', 'тизер', 'отобража', 'программ', 'посл', 'клика', 'выбра', 'образовательн', 'программ', 'откроет', 'список', 'всем', 'программ', 'бакалаврск', 'магистерск', 'котор', 'реализ', 'подразделен', 'проставля', 'галк', 'напрот', 'нужн', 'сохраня']]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[['Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».'], ['\n\nЧтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.\n\n']]</t>
+          <t>[[['главн', 'страниц', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'при', 'открыт', 'сайт', 'служб', 'поддержк', 'порта', 'созда', 'базов', 'структур', 'страниц', 'поэт', 'нул', 'работа', 'не', 'придет']], [['как', 'элемент', 'страниц', 'открыт', 'сайт']], [['метаинформац']], [['основн', 'дан', 'программ', 'соста', 'элемент', 'блок', 'неизмен', 'для', 'русск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'количеств', 'мест', 'язык', 'обучен', 'информац', 'аккредитац', 'английск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'стоимост', 'обучен', 'язык', 'обучен', 'информац', 'аккредитац', 'все', 'дан', 'вывод', 'баз', 'дан', 'порта', 'котор', 'внос', 'утвержден', 'учен', 'совет', 'университет', 'случа', 'обнаружен', 'ошибк', 'напиш', 'portal', 'hse.ru', 'предварительн', 'провер', 'дан', 'сайт', 'программ', 'действительн', 'отлича', 'официальн', 'дан', 'сайт', 'приемн', 'комисс', 'бакалавриат', 'магистратур', 'есл', 'согласн', 'информац', 'эт', 'сайт', 'обраща', 'коллег', 'приемн', 'комисс', 'исключен', 'составля', 'информац', 'международн', 'аккредитац', 'профессионально-обществен', 'аккредитац', 'независим', 'оценк', 'качеств', 'образован', 'налич', 'дан', 'информац', 'размеща', 'прав', 'редактор', 'сайт', 'раздел', 'дан', 'блок', 'аккредитац', 'дан', 'стоимост', 'показыва', 'английск', 'верс', 'вид', 'диапазон', 'цен', 'случа', 'точн', 'дан', 'стипенд', 'иностранц', 'зависим', 'получен', 'балл', 'есл', 'программ', 'особ', 'услов', 'предоставлен', 'скидок', 'умолчан', 'сто', 'полн', 'стоимост', 'программ', 'письм', 'адрес', 'служб', 'поддержк', 'portal', 'hse.ru', 'добавл', 'примечан', 'особ', 'услов', 'предоставлен', 'скидок', 'формулировк', 'HSE', 'Scholarships', 'for', 'International', 'Applicants']], [['университеты-партнер', 'образовательн', 'программ']], [['дан', 'вывод', 'баз', 'порта', 'есл', 'хот', 'поменя', 'добав', 'партнер', 'portal', 'hse.ru', 'нужн', 'присла', 'назван', 'университет', 'ссылк', 'сайт', 'логотип', 'максимальн', 'числ', 'партнер', 'главн', 'есл', 'необходим', 'показа', 'возможн', 'партнерск', 'отношен', 'эт', 'необходим', 'сдела', 'отдельн', 'страниц', 'партнер', 'Partners', 'раздел', 'главн', 'подробн', 'см.', 'стандарт']], [['информац', 'раскрыва', 'блок']], [['редактирован', 'блок', 'осуществля', 'раздел', 'дан', 'блок', 'главн', 'страниц', 'информац', 'аккордеон', 'блок', 'использ', 'формирован', 'турбо-верс', 'поэт', 'подразумева', 'добавлен', 'графическ', 'информац', 'затрудня', 'загрузк', 'страниц', 'мобильн', 'устройств', 'обычн', 'раздел', 'сто', 'SEO-оптимизирова', 'текст']], [['виде', 'опциональн']], [['главн', 'страниц', 'программ', 'размест', 'проморолик', 'выступлен', 'академическ', 'руководител', 'статистик', 'просмотр', 'видеоролик', 'посмотрет', 'обычн', 'работ', 'съемк', 'видеоролик', 'организ', 'реализ', 'подразделен', 'самостоятельн', 'случа', 'невозможн', 'снят', 'виде', 'сил', 'подразделен', 'обрат', 'дирекц', 'маркетингов', 'коммуникац', 'продвижен', 'шишков', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'есл', 'программ', 'готов', 'ролик', 'необходим', 'зал', 'YоуTубе-кана', 'подразделен', 'YоуTубе-кана', 'университет', 'последн', 'случа', 'обрат', 'семенов', 'алин', 'викторовн', 'для', 'размещен', 'проморолик', 'сайт', 'программ', 'пришл', 'ссылк', 'YouTube', 'адрес', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru']], [['важн', 'объявлен']], [['использ', 'акцентирован', 'важн', 'событий/нов', 'программ', 'помн', 'важн', 'объявлен', 'должн', 'содержа', 'символ', 'он', 'занима', 'одн', 'строк', 'экран', 'все', 'подробн', 'перечисля', 'ссылк', 'важн', 'объявлен', 'одн', 'максимум', 'нужн', 'размеща', 'важн', 'объявлен', 'ссылк', 'мероприят', 'использ', 'функциона', 'анонс', 'важн', 'объявлен', 'оформля', 'ссылк', 'отдельн', 'страниц', 'сам', 'программ', 'люб', 'страниц', 'порта', 'внешн', 'ресурс', 'дан', 'редактир', 'раздел', 'дан', 'блок', 'важн', 'объявлен', 'нажм', 'важн', 'объявлен', 'добав', 'объявлен', 'заполня', 'пол', 'текст', 'пол', 'ссылк', 'добавьт', 'адрес', 'страниц', 'котор', 'перенаправл', 'пользовател', 'нажат', 'текст', 'объявлен', 'информац', 'пол', 'дат', 'отобража', 'лев', 'ссылк', 'объявлен', 'подход', 'уточнен', 'времен', 'событ', 'размещен', 'объявлен', 'пол', 'заполня', 'посл', 'обязательн', 'поставьт', 'галк', 'объявлен', 'активн', 'пол', 'укаж', 'дат', 'котор', 'дан', 'объявлен', 'вывод', 'главн', 'страниц', 'программ', 'нажима', 'сохран', 'объявлен', 'добавл']], [['мероприят']], [['раздел', 'анонсы/мероприят', 'эт', 'раздел', 'котор', 'предусмотр', 'кажд', 'образовательн', 'программ', 'располага', 'адрес', '/announcements', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'значим', 'все', 'программ', 'цел', 'например', 'предстоя', 'лекция/мастер-класс', 'учен', 'цикл', 'лекций/семинар', 'конференц', 'конкурс', 'студент', 'зимние/летн', 'школ', 'встреч', 'работодател', 'дни', 'открыт', 'двер', 'защит', 'предзащит', 'все', 'значим', 'студент', 'абитуриент', 'программ', 'зде', 'могут', 'размещ', 'объявлен', 'конкурс', 'грант', 'приглашен', 'летние/зимн', 'школ', 'мероприят', 'определен', 'срок', 'подач', 'заявок', 'при', 'добавлен', 'анонс', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'можн', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'сообщен', 'инструкц', 'размещен', 'анонс', 'наход', 'адрес', 'https', '//portal.hse.ru/instann', 'анонсирован', 'дне', 'открыт', 'двер', 'как', 'необходим', 'размеща', 'информац', 'сайт', 'факультет', 'образовательн', 'программ', 'случа', 'ден', 'открыт', 'двер', 'провод', 'сраз', 'нескольк', 'образовательн', 'программ', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'посл', 'сайт', 'факультет', 'необходим', 'размест', 'ссылк', 'анонс', 'котор', 'вывод', 'шапк', 'образовательн', 'программ', 'вид', 'тизер', 'обрат', 'вниман', 'назван', 'анонс', 'должн', 'представля', 'соб', 'развернут', 'предложен', 'достаточн', 'прост', 'написа', 'ден', 'открыт', 'двер', 'дополнительн', 'анонс', 'дня', 'открыт', 'двер', 'размест', 'анонс', 'раздел', 'главн', 'абитуриент', 'сайт', 'образовательн', 'программ', 'полност', 'копирова', 'анонс', 'мероприят', 'сайт', 'программ', 'такж', 'нужн', 'достаточн', 'воспользова', 'функционал', 'размест', 'подразделен', 'выбер', 'вариант', 'ссылк', 'оригинальн', 'анонс', 'есл', 'ден', 'открыт', 'двер', 'провод', 'одн', 'программ', 'анонс', 'размеща', 'непосредствен', 'сайт', 'соответств', 'программ', 'раздел', 'главн', 'абитуриент', 'такж', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'для', 'использ', 'функциона', 'размест', 'подразделен', 'случа', 'мероприят', 'обширн', 'программ', 'например', 'https', '//www.hse.ru/dod2021', 'мероприят', 'созда', 'отдельн', 'ресурс', 'случа', 'размещен', 'анонс', 'сайт', 'факультет', 'программ', 'такж', 'тизер', 'став', 'гиперссылк', 'сайт', 'мероприят', 'обычн', 'случа', 'реч', 'идет', 'факультетск', 'дне', 'открыт', 'двер', 'котор', 'инач', 'присутств', 'программ', 'для', 'создан', 'страниц', 'нужн', 'отправ', 'запрос', 'адрес', 'portal', 'hse.ru', 'прилож', 'письм', 'наполнен', 'сайт']], [['новост']], [['раздел', 'новост', 'предусматрива', 'размещен', 'развернут', 'материал', 'прошедш', 'состоя', 'событ', 'зде', 'например', 'могут', 'размещ', 'новост', 'имен', 'прошл', 'событ', 'анонсируем', 'мероприят', 'информац', 'студент', 'выигра', 'какие-либ', 'олимпиады/грант', 'заключен', 'договор', 'иностра', 'университет', 'программ', 'обм', 'исследован', 'каса', 'тематик', 'программ', 'поздравлен', 'значим', 'событиями/достижениями…', 'при', 'добавлен', 'новост', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'так', 'раздел', 'четыр', 'главн', 'абитуриент', 'студент', 'выпускник', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'новост', 'случа', 'выбра', 'раздел', 'программ', 'добавлен', 'информац', 'отобража', 'сайт', 'программ', 'инструкц', 'размещен', 'новост']], [['похож', 'программ']], [['вниз', 'главн', 'страниц', 'программ', 'вывод', 'список', 'программ', 'реализуем', 'вшэ', 'так', 'направлен', 'обучен', 'однак', 'список', 'отобража', 'программ', 'измен', 'редактирован', 'дан', 'блок', 'бакалаврск', 'программ', 'друг', 'образовательн', 'программ', 'для', 'изменен', 'списк', 'программ', 'заход', 'друг', 'образовательн', 'программ', 'нажима', 'добав', 'откр', 'окн', 'ввод', 'назван', 'программ', 'нажима', 'найт', 'результат', 'поиск', 'выбира', 'нужн', 'программ', 'клика', 'ок.', 'посл', 'добавл', 'хот', 'одн', 'программ', 'дан', 'блок', 'главн', 'страниц', 'пропадут', 'программ', 'котор', 'вывод', 'автоматическ', 'будут', 'вывод', 'котор', 'зада', 'вручн', 'блок', 'друг', 'образовательн', 'программ']], [['вокруг', 'социальн', 'блок']], [['есл', 'страниц', 'ваш', 'профил', 'социальн', 'сет', 'идет', 'активн', 'жизн', 'социальн', 'сет', 'материал', 'интересн', 'абитуриент', 'студент', 'программ', 'ссылк', 'актуальн', 'пост', 'запис', 'вывод', 'непосредствен', 'главн', 'страниц', 'программ', 'для', 'предусмотр', 'блок', 'вокруг', 'обрат', 'вниман', 'добавля', 'ссылк', 'кажд', 'нов', 'интересн', 'пост', 'убира', 'неактуальн', 'пост', 'необходим', 'вручн', 'раздел', 'блок', 'выбира', 'вокруг', 'социальн', 'блок', 'добавля', 'заголовок', 'блок', 'добавля', 'запис', 'заполн', 'необходим', 'пол', 'посл', 'проставля', 'галк', 'включ', 'нажима', 'сохран', 'обновля', 'главн', 'страниц', 'кнопк', 'клавиатур', 'проверя', 'отобраз', 'блок', 'социальн', 'сет']], [['мен', 'прав', 'колонк']], [['редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'мен', 'главн', 'страниц', 'может', 'дублирова', 'пункт', 'мен', 'раздел', 'главн', 'содержа', 'какие-т', 'друг', 'важн', 'пункт', 'усмотрен', 'программ', 'заполня', 'менеджер', 'программ', 'отобража', 'главн', 'страниц', 'сайт', 'программ', 'одн', 'сам', 'кликабельн', 'мест', 'справ', 'верхн', 'част', 'главн', 'страниц']], [['руководств', 'программ', 'руководител', 'менеджер']], [['раздел', 'редактир', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'вопрос', 'внесен', 'изменен', 'необходим', 'обраща', 'сюзан', 'райа']]]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[['Мы можем дать доступ к заполнению следующих электронных форм отчетов:'], ['\nотчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает\xa0Управление академического развития);\nотчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития).\xa0\n'], ['Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.'], ['\nЧтобы получить доступ к отчету, достаточно написать письмо на адрес\xa0portal@hse.ru\n\n\nПожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.\n\n\n']]</t>
+          <t>[[['верхн', 'мен', 'наход', 'раздел', 'программ', 'абитуриент', 'студент', 'выпускник', 'чтоб', 'попаст', 'главн', 'страниц', 'кажд', 'раздел', 'необходим', 'щелкнут', 'назван', 'вкладк']], [['раздел', 'программ', 'абитуриент', 'появля', 'мен', 'мер', 'наполнен', 'раздел', 'блок', 'главн', 'административн', 'интерфейс', 'раздел', 'студент', 'выпускник', 'программ', 'включаеют', 'отключа', 'служб', 'поддержк', 'порта', 'есл', 'программ', 'необходим', 'включ', 'отключ', 'раздел', 'студент', 'и/', 'выпускник', 'пиш', 'portal', 'hse.ru']], [['раздел', 'программ']], [['дан', 'раздел', 'размеща', 'общ', 'информац', 'программ', 'раздел', 'программ', 'должн', 'вход', 'след', 'пункт', 'программ', 'статстраниц', 'техническ', 'имен', 'about', 'специализац', 'налич', 'специализац', 'добавля', 'подпункт', 'мен', 'партнер', 'статстраниц', 'техническ', 'имен', 'partners', 'рассказ', 'партнер', 'программ', 'зарубежн', 'российск', 'внутрен', 'подразделен', 'вшэ', 'относя', 'факультет', 'пункт', 'явля', 'обязательн', 'достижен', 'студент', 'статстраниц', 'техническ', 'имен', 'success', 'пункт', 'созда', 'случа', 'программ', 'готов', 'дела', 'сводн', 'текст', 'достижен', 'студент', 'вест', 'статистик', 'пункт', 'явля', 'обязательн', 'выпускник', 'статстраниц', 'техническ', 'имен', 'alumni', 'страниц', 'рассказыва', 'выпускник', 'программ', 'привод', 'статистик', 'пункт', 'явля', 'обязательн', 'научно-исследовательск', 'семинар', 'статстраниц', 'техническ', 'имен', 'seminar', 'пункт', 'явля', 'обязательн', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'главн', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'абитуриент', 'набор']], [['раздел', 'абитуриент', 'доступ', 'ссылк', '/admission', 'центральн', 'част', 'дан', 'раздел', 'составля', 'паспорт', 'программ', 'такж', 'страниц', 'вывод', 'виде', 'программ', 'новост', 'мероприят', 'важн', 'объявлен', 'налич', 'вся', 'информац', 'представлен', 'паспорт', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'размещен', 'некорректн', 'информац', 'необходим', 'отправ', 'запрос', 'внесен', 'изменен', 'portal', 'hse.ru', 'раздел', 'абитуриент', 'вход', 'след', 'обязательн', 'пункт', 'траектор', 'поступлен', 'статстраниц', 'техническ', 'имен', 'tracks', 'будущ', 'професс', 'статстраниц', 'техническ', 'имен', 'career', 'подготовк', 'статстраниц', 'техническ', 'имен', 'requirements', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'абитурент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'студент', 'студент']], [['раздел', 'студент', 'программ', 'доступ', 'ссылк', '/students', 'нем', 'обязательн', 'представл', 'мен', 'предусмотрен', 'программ', 'верхн', 'сер', 'блок', 'доск', 'объявлен', 'при', 'налич', 'программ', 'новост', 'мероприят', 'ориентирова', 'студент', 'такж', 'вывод', 'главн', 'страниц', 'раздел', 'студент', 'сер', 'блок', 'сер', 'блок', 'вынос', 'тематическ', 'ссылк', 'сред', 'котор', 'обязательн', 'котор', 'программ', 'добав', 'сам', 'существ', 'ограничен', 'скольк', 'добав', 'ссылок', 'блок', 'блок', 'ссылок', 'для', 'кажд', 'филиа', 'набор', 'ссылок', 'сво', 'ссылк', 'умолчан', 'программ', 'блок', 'студенческ', 'жизн', 'студенческ', 'организац', 'вшэ', 'https', '//studlife.hse.ru/studentlife', 'спорт', 'http', '//sport.hse.ru/', 'студенческ', 'совет', 'вшэ', 'http', '//studsovet.hse.ru/', 'центр', 'развит', 'карьер', 'http', '//career.hse.ru/', 'блок', 'социальн', 'сфер', 'стипенд', 'http', '//www.hse.ru/scholarships/', 'социальн', 'поддержк', 'http', '//www.hse.ru/org/hse/aup/social/', 'служб', 'психологическ', 'помощ', 'http', '//www.hse.ru/cpc/studenti', 'общежит', 'http', '//www.hse.ru/dormitory/', 'блок', 'информацион', 'сред', 'LMS', 'http', '//lms.hse.ru/', 'антиплагиат', 'http', '//www.hse.ru/org/hse/antiplagiat_info/', 'справочник', 'учебн', 'процесс', 'http', '//www.hse.ru/studyspravka/', 'библиотек', 'http', '//library.hse.ru/', 'кажд', 'колонок', 'редактир', 'соответств', 'раздел', 'блок', 'пункт', 'колонок', 'котор', 'явля', 'обязательн', 'программ', 'отобража', 'редакторск', 'интерфейс', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'назван', 'пункт', 'меня', 'программ', 'сраз', 'редакторск', 'интерфейс', 'программ', 'отобража', 'пункт', 'колонок', 'котор', 'менеджер', 'программ', 'добавляют/редактир', 'самостоятельн', 'раздел', 'студент', 'вход', 'след', 'обязательн', 'пункт', 'рейтинг', 'автоматическ', 'страниц', 'техническ', 'имен', 'ratings', 'курс', 'выбор', 'проектн', 'работ', 'http', '//electives.hse.ru/', 'рекомендова', 'онлайн-курс', 'MOOCs', 'статстраниц', 'техническ', 'имен', 'moocs', 'студенческ', 'мобильн', 'cтажировк', 'программ', 'обмен', 'проч.', 'статстраниц', 'техническ', 'имен', 'mobility', 'практическ', 'подготовк', 'статстраниц', 'техническ', 'имен', 'internships', 'каталог', 'вкр', 'автоматическ', 'страниц', 'техническ', 'имен', 'diplomas', 'итогов', 'аттестац', 'актуальн', 'статстраниц', 'техническ', 'имен', 'assessment', 'страниц', 'рейтинг', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/ратингс', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'страниц', 'каталог', 'вкр', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/дипломас', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'студент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'доск', 'объявлен', 'доск', 'объявлен', 'доступн', 'адрес', '/blackboard', 'использ', 'коротк', 'объявлен', 'текущ', 'учебн', 'процесс', 'изменен', 'расписан', 'отм', 'перенос', 'занят', 'вопрос', 'подготовк', 'письмен', 'работ', 'консультац', 'экзамен', 'разнообразн', 'оповещен', 'справк', 'пр.', 'подробн', 'инструкц', 'настройк', 'работ', 'доск', 'объявлен', 'представл']], [['раздел', 'выпускник', 'информац', 'выпускник']], [['раздел', 'отобража', 'верхн', 'мен', 'программ', 'случа', 'заполн', 'страниц', 'относя', 'раздел', 'мен', 'выпускник', 'проставл', 'ссылк', 'дан', 'страниц', 'непосредствен', 'главн', 'страниц', 'раздел', 'могут', 'располага', 'новост', 'анонс', 'раздел', 'могут', 'вход', 'след', 'пункт', 'ваканс', 'клуб', 'выпускников/встреч', 'выпускник', 'пожертвован', 'фонд', 'целев', 'капита', 'мен', 'раздел', 'редактир', 'редактор', 'блок', 'нов', 'мен', 'выпускник']]]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[['Разработкой портала занимается Управление разработки информационных систем портала.\xa0Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий\xa0и\xa0Дирекции по порталу и мобильным приложениям.\xa0Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол.\xa0'], ['Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.']]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+          <t>[[['показыва', 'прав', 'колонк', 'страниц', 'сайт', 'программ', 'чтоб', 'вывест', 'пункт', 'сайт', 'нужн', 'написа', 'portal', 'hse.ru', 'предварительн', 'необходим', 'провер', 'показыва', 'информац', 'соответств', 'страниц']], [['учебн', 'курс']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/courses', 'основ', 'дан', 'LMS', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['преподавател']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/tutors', 'основ', 'дан', 'нагрузк', 'преподавател', 'аса', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['числ', 'студент', 'вакантн', 'бюджетн', 'мест']], [['автоматическ', 'страниц', 'доступн', 'адрес', '/vacant', 'дан', 'внос', 'редакторск', 'интерфейс', 'для', 'главн', 'страниц', 'сайт', 'программ', 'необходим', 'зайт', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'дан', 'бюджетн', 'вакантн', 'мест', 'есл', 'дан', 'обновл', 'показыва', 'некорректн', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'аббасов', 'елен', 'сергеевн', 'информац', 'обновля', 'мен', 'четырех', 'год']], [['документ']], [['раздел', 'располага', 'адрес', '/documents', 'част', 'документ', 'вывод', 'страниц', 'автоматическ', 'аса', 'част', 'внос', 'менеджер', 'структур', 'документ', 'образовательн', 'программ', 'выгляд', 'след', 'образ', 'включа', 'паспорт', 'образовательн', 'программ', 'изменя', 'част', 'документ', 'образовательн', 'программ', 'учебн', 'план', 'образовательн', 'программ', 'календарн', 'учебн', 'график', 'документ', 'автоматическ', 'загружа', 'аса', 'оценочн', 'материал', 'методическ', 'материал', 'ин', 'компонент', 'образовательн', 'программ', 'заполня', 'ответствен', 'программ', 'редактирован', 'страниц', 'образовательн', 'программ', 'инструкц', 'заполнен', 'раздел', 'документ', 'для', 'внесен', 'информац', 'раздел', 'документ', 'зайт', 'сайт', 'сво', 'образовательн', 'программ', 'дал', 'редактор', 'блок', 'раздел', 'документ', 'образовательн', 'программ', 'при', 'нажат', 'раздел', 'документ', 'откроет', 'так', 'окн', 'программ', 'практик', 'ссылк', 'страниц', 'описан', 'практик', 'добавля', 'самостоятельн', 'оценочн', 'материал', 'образовательн', 'программ', 'нажима', 'кнопк', 'добав', 'размеща', 'ссылк', 'имеющ', 'документ', 'необходим', 'например', 'программ', 'госэкзам', 'методическ', 'рекомендац', 'подготовк', 'вкр', 'ссылк', 'файл', 'добавля', 'обязательн', 'методическ', 'материал', 'образовательн', 'программ', 'могут', 'добавля', 'требован', 'организац', 'результат', 'проектн', 'научно-исследовательск', 'деятельн', 'студент', 'ссылк', 'файл', 'методическ', 'рекомендац', 'подготовк', 'курсов', 'работ', 'ссылк', 'файл', 'перечен', 'вкр', 'ссылк', 'баз', 'вкр', 'прошл', 'лет', 'выпуск', 'прикреп', 'файл', 'примерн', 'тем', 'вкр', 'обязательн', 'тем', 'вкр', 'котор', 'ин', 'компонент', 'образовательн', 'программ', 'добавля', 'ссылк', 'имеющ', 'документ', 'перечен', 'курсов', 'работ', 'предусмотр', 'прикрепля', 'файл', 'пример', 'курсов', 'перечен', 'тематик', 'проект', 'студент', 'предусмотр', 'прикрепля', 'файл', 'пример', 'проект', 'инструкц', 'заполнен', 'паспорт', 'образовательн', 'программ', 'необходим', 'зайт', 'порта', 'страниц', 'сво', 'образовательн', 'программ', 'качеств', 'редактор', 'дал', 'блок', 'паспорт', 'программ', 'приступа', 'заполнен', 'раздел', 'паспорт', 'пол', 'утвержден', 'программ', 'должн', 'пол', 'реквизит', 'документ', 'утверд', 'программ', 'например', 'приказ', '15.07.2014', '6.18.1-01/1507-07', 'тех', 'новеньк', 'протокол', 'заседан', 'учен', 'совет', '28.09.2018', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'обраща', 'вниман', 'реквизит', 'утвержден', 'программ', 'паспорт', 'дат', 'документ', 'котор', 'утвержда', 'программ', 'пол', 'дат', 'обновлен', 'паспорт', 'должн', 'дат', 'обновлен', 'документ', 'реквизит', 'соответств', 'документ', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'например', '26.08.2019', 'протокол', 'пол', 'количеств', 'зачетн', 'единиц', 'внос', 'значен', 'объем', 'ваш', 'образовательн', 'программ', 'з.е.', 'пол', 'конкурентн', 'преимуществ', 'программ', 'бер', 'соответств', 'текст', 'сво', 'программ', 'пол', 'характеристик', 'профессиональн', 'деятельн', 'перечен', 'профессиональн', 'компетенц', 'выпускник', 'бер', 'текст', 'сво', 'программ', 'соответств', 'стандарт', 'пол', 'характеристик', 'образовательн', 'модул', 'программ', 'берет', 'текст', 'сво', 'программ', 'соответств', 'учебн', 'план', 'посл', 'заполнен', 'пол', 'нажима', 'кнопк', 'сохран', 'информац', 'отраз', 'паспорт', 'вопрос', 'раздел', 'паспорт', 'образовательн', 'программ', 'необходим', 'направля', 'управлен', 'развит', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн']], [['расписан']], [['страниц', 'генерир', 'автоматическ', 'основ', 'дан', 'руз', 'доступн', 'адрес', '/timetable', 'есл', 'расписан', 'загруж', 'руз', 'формирован', 'автоматическ', 'страниц', 'адрес', 'timetable', 'необходим', 'редакторск', 'интерфейс', 'раздел', 'расписан', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'настройк', 'расписан', 'простав', 'галк', 'отобража', 'страниц', 'расписан']], [['академическ', 'совет']], [['страниц', 'академическ', 'совет', 'созда', 'редактир', 'раздел', 'академическ', 'совет', 'блок', 'зде', 'сможет', 'добав', 'сотрудник', 'вшэ', 'внешн', 'люд', 'есл', 'сотрудник', 'вшэ', 'вписыва', 'фамил', 'нажима', 'найт', 'откр', 'окн', 'выбира', 'нужн', 'персон', 'должност', 'может', 'добав', 'котор', 'предлага', 'систем', 'либ', 'вписа', 'должност', 'самостоятельн', 'меня', 'порядок', 'расположен', 'член', 'академическ', 'совет', 'прост', 'перетаскив', 'мышк', 'ин', 'зап', 'нужн', 'мест', 'обрат', 'вниман', 'дан', 'блок', 'прописыва', 'назван', 'групп', 'персон', 'академическ', 'совет', 'нужн', 'посл', 'заполн', 'блок', 'проверьт', 'страниц', 'совет', 'выгляд', 'нужн', 'адресн', 'строк', 'прописа', 'адрес', 'ваш', 'программы/аcадем_cоунc', 'когд', 'убед', 'порядк', 'напиш', 'portal', 'hse.ru', 'просьб', 'откр', 'пункт', 'мен']]]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[[['прежд', 'создава', 'страниц', 'прочита', 'информац', 'каса', 'страниц', 'раздел', 'верхн', 'мен', 'раздел', 'программ']], [['прежд', 'добав', 'нов', 'пункт', 'мен', 'необходим', 'созда', 'статическ', 'страниц', 'наполнен', 'поможет', 'инструкц', 'создан', 'нов', 'статическ', 'страниц', 'при', 'добавлен', 'страниц', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'случа', 'например', 'клик', 'раздел', 'подготовк', 'пользовател', 'остава', 'раздел', 'абитуриент', 'страниц', 'быва', 'прост', 'составн', 'есл', 'необходим', 'прост', 'аккуратн', 'размест', 'текст', 'текст', 'таблиц', 'достаточн', 'прост', 'страниц', 'есл', 'хот', 'добав', 'фот', 'преподавателей/студент', 'кнопк', 'проч.', 'воспользова', 'составн', 'страниц']], [['зат', 'выбира', 'мен', 'главн', 'абитуриент', 'студент', 'котор', 'располага', 'ссылк', 'статическ', 'страниц', 'нажима', 'добав', 'групп', 'прописыва', 'назван', 'групп', 'пункт', 'мен', 'ссылк', 'статстраниц', 'сохраня']], [[]], [['есл', 'какого-т', 'пункт', 'предусмотр', 'подмен', 'внутр', 'групп', 'клика', 'добав', 'ссылк', 'прописыва', 'назван', 'страниц', 'ссылк', 'не', 'сохраня']], [['обрат', 'вниман', 'групп', 'сто', 'символ', 'замок', 'менеджер', 'программ', 'редактирова', 'дан', 'пункт', 'мен', 'однак', 'созда', 'редактирова', 'непосредствен', 'страниц', 'для', 'внесен', 'изменен', 'мен', 'добавлен', 'ссылк', 'страниц', 'заблокирова', 'пункт', 'мен', 'необходим', 'отправ', 'письм', 'portal', 'hse.ru']], [['пункт', 'мен', 'раздел', 'общ', 'такж', 'открыва', 'служб', 'поддержк', 'порта', 'запрос', 'программ']], [['важн', 'создава', 'нов', 'пункт', 'мен', 'аналогичн', 'наход', 'замочк']]]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[[['отредактирова', 'добав', 'адрес', 'подразделен', 'реализ', 'программ', 'зайд', 'раздел', 'текстов', 'блок', 'главн', 'страниц', 'заход', 'редактор', 'дан', 'блок', 'заголовк', 'указыва', 'назван', 'блок', 'опциональн', 'пол', 'текст', 'непосредствен', 'фактическ', 'адрес']], [[]], [['кром', 'текстов', 'блок', 'позволя', 'добавля', 'люб', 'дополнительн', 'информац', 'прав', 'колонк', 'сайт', 'контактн', 'информац', 'дополнительн', 'ссылк', 'руководств', 'т.п']], [['текстов', 'блок', 'использ', 'след', 'визуальн', 'редактор']], [[]], [['иллюстрац', 'указа', 'основн', 'инструмент', 'обрат', 'вниман', 'назначен', 'кажд', 'инструмент', 'узна', 'навед', 'курсор', 'соответств', 'иконк', 'панел']], [[]]]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[[['нов', 'буклет', 'образовательн', 'программ', 'ежегодн', 'верста', 'сотрудник', 'отдел', 'визуальн', 'коммуникац', 'обновля', 'буклет', 'сайт', 'служб', 'поддержк', 'порта', 'получен', 'файл', 'отдел', 'визуальн', 'коммуникац', 'обрат', 'вниман', 'созда', 'буклет', 'самостоятельн', 'отправ', 'служб', 'поддержк', 'порта', 'просьб', 'замен', 'буклет', 'сайт', 'снача', 'соглас', 'готов', 'макет', 'руководител', 'отдел', 'визуальн', 'коммуникац', 'кутьков', 'ю.']]]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[[['главн', 'страниц', 'необходим', 'добав', 'ссылк', 'учебн', 'офис', 'программ', 'редакторск', 'интерфейс', 'сайт', 'образовательн', 'программ', 'предусмотр', 'возможн', 'создан', 'страниц', 'учебн', 'офис', 'специальн', 'функциона', 'чтоб', 'добра', 'блок', 'учебн', 'офис', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'учебн', 'офис']], [[]], [['вам', 'необходим', 'зайт', 'блок', 'учебн', 'офис', 'добав', 'персон', 'обрат', 'вниман', 'такж', 'предусмотр', 'возможн', 'добавлен', 'контактн', 'дан', 'кажд', 'персон', 'нажа', 'кнопк', 'сохран', 'посмотрет', 'получ', 'может', 'страниц', 'адрес', 'http', '//адрес_вашей_программы/студы_оффиc', 'например', 'http', '//www.hse.ru/ba/cultural/study_office/', 'посл', 'нов', 'ссылк', 'необходим', 'добав', 'раздел', 'ссылк', 'учебн', 'офис']], [[]]]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[[['блок', 'социальн', 'кнопк', 'использ', 'программ', 'проф', 'популярн', 'социальн', 'сет', 'редакторск', 'интерфейс', 'необходим', 'лиш', 'выбра', 'сет', 'дат', 'ссылк', 'профил']], [[]], [['порядок', 'расположен', 'ссылок', 'социальн', 'сет', 'легк', 'меня', 'прост', 'перетащ', 'ссылк', 'нужн', 'строк']]]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[[['турбо-страниц', 'ускоря', 'загрузк', 'контент', 'поиск', 'яндекс', 'новост', 'дзен', '3G-сет', 'турбо-страниц', 'формир', 'един', 'шаблон', 'быстр', 'загружа', 'смартфон', 'медлен', 'нестабильн', 'интернет']], [['при', 'открыт', 'сайт', 'нов', 'программ', 'турбо-верс', 'созда', 'служб', 'поддержк', 'порта', 'дальн', 'корректировк', 'содержан', 'турбо-верс', 'дела', 'самостоятельн', 'изменен', 'турбо-верс', 'привод', 'автоматическ', 'изменен', 'главн', 'страниц', 'сайт']], [['турбо-верс', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'турбо-верс']], [[]], [['шапк', 'турбо-верс']], [['навигацион', 'мен', 'содержа', 'максимальн', 'вкладк', 'кажд', 'дает', 'ссылк', 'главн', 'страниц', 'сайт']], [['программ', 'абитуриент', 'студент', 'выпускник']], [['есл', 'программ', 'появ', 'вкладк', 'котор', 'ран', 'например', 'студент', 'выпускник', 'добавьт', 'навигацион', 'мен', 'турбо-верс', 'заголовок', 'ссылк', 'забудьт', 'сохран', 'изменен']], [['важн', 'заголовк', 'уровн', 'такж', 'изображен', 'внос', 'сотрудник', 'служб', 'поддержк', 'порта']], [[]], [['главн', 'страниц', 'турбо-верс']], [['виджет', 'текст', 'текстов', 'пол', 'внос', 'скопирова', 'главн', 'страниц', 'описан', 'программ', 'при', 'изменен', 'описан', 'зам', 'текст', 'главн', 'страниц', 'производ', 'сотрудник', 'служб', 'порта', 'меня', 'текст', 'турбо-верс']], [['виджет', 'информац', 'аккордеон', 'зам', 'текст', 'внутр', 'происход', 'автоматическ', 'измен', 'текст', 'раскрыва', 'блок', 'главн', 'страниц', 'сайт']], [['виджет', 'кнопк', 'заголовок', 'вынос', 'назван', 'кнопк', 'пол', 'ссылк', 'став', 'ссылк', 'есл', 'главн', 'страниц', 'поменя', 'назван', 'кнопк', 'ссылк', 'забудьт', 'внест', 'обновлен', 'турбо-верс', 'добавля', 'турбо-верс', 'одн', 'кнопк']], [['виджет', 'ссылк', 'виде', 'став', 'налич', 'виде', 'главн', 'страниц', 'оп.', 'есл', 'виде', 'измен', 'главн', 'страниц', 'он', 'появ', 'автоматическ', 'турбо-верс', 'должн', 'поменя', 'ссылк', 'самостоятельн']], [[]]]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[[['есл', 'программ', 'английск', 'верс', 'редактирован', 'происход', 'русск', 'верс', 'английск', 'блок', 'редактор', 'дан', 'блок', 'англ.']], [['единствен', 'отлич', 'создан', 'статическ', 'страниц', 'пол', 'язык', 'необходим', 'установ', 'английск', 'есл', 'программ', 'существ', 'страниц', 'одинаков', 'содержан', 'русск', 'английск', 'язык', 'например', 'программ', 'техническ', 'им', 'должн', 'совпада', 'нужн', 'имен', 'английск', 'страниц', 'задава', 'различ', 'дан', 'случа', 'служ', 'пол', 'язык']], [['тольк', 'случа', 'им', 'стат.', 'страниц', 'разн', 'язык', 'совпада', 'пользовател', 'переход', 'страниц', 'одн', 'язык', 'страниц', 'друг', 'язык', 'попада', 'идентичн', 'страниц', 'главн', 'страниц', 'программ', 'есл', 'программ', 'английск', 'верс', 'необходим', 'программ', 'провод', 'английск', 'язык', 'больш', 'числ', 'англоязычн', 'курс', 'след', 'присла', 'заявк', 'активац', 'английск', 'верс', 'главн', 'редактор', 'мар', 'никитин', 'mpustovoyt', 'hse.ru', 'письм', 'необходим', 'прилож', 'имеющ', 'английск', 'текст', 'программ', 'есл', 'готов', 'текст', 'нужн', 'указа', 'список', 'страниц', 'перевод']], [['есл', 'программ', 'существ', 'английск', 'верс', 'необходим', 'поддержива', 'обновля', 'добавля', 'новост', 'анонс', 'мероприят', 'интересн', 'иностра', 'аудитор']], [['подробн', 'инструкц', 'guidelines', 'работ', 'английск', 'верс', 'сайт', 'образовательн', 'программ']]]</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -757,37 +813,69 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  ']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Для публикации анонса на главной странице портала в разделе\xa0«Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).', 'Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).', 'Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой\xa0ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).', 'Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).', 'Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.', 'Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях. \xa0']]</t>
+          <t>[[['чтоб', 'включ', 'доск', 'объявлен', 'сайт', 'образовательн', 'программ', 'необходим', 'откр', 'блок', 'доск', 'объявлен', 'дан', 'блок', 'постав', 'соответств', 'галочк']]]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[' название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.', 'На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.', 'Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.'], ['На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.', 'Инструкция по размещению анонсов']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
+          <t>[[['блок', 'добав', 'нов', 'рубрик', 'фильтр', 'обрат', 'вниман', 'умолчан', 'доск', 'объявлен', 'содержат', 'ряд', 'типов', 'част', 'встреча', 'рубрик', 'кажд', 'объявлен', 'обязательн', 'порядк', 'должн', 'привяза', 'хот', 'одн', 'фильтр', 'умолчан', 'эт', 'курс', 'хот', 'одн', 'рубрик']]]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[['Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.', 'Сотрудники портала заводят\xa0сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также\xa0помогает с оформлением в части, где нужна\xa0сложная\xa0верстка.', 'Для того чтобы заказать сайт мероприятия, необходимо прислать на\xa0portal@hse.ru заявку, в\xa0которой указывается:', ' желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на\xa0сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за\xa0редактирование сайта. ']]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>[[['программ', 'котор', 'имеют', 'нескольк', 'специализац', 'рекоменду', 'добав', 'дополнительн', 'фильтр', 'рубрик', 'специализац', 'имет', 'возможн', 'публикова', 'объявлен', 'студент', 'обуча', 'разн', 'трекам.чтоб', 'добав', 'нов', 'объявлен', 'мен', 'личн', 'кабинет', 'hse.ru/user', 'раздел', 'мо', 'задач', 'редактор', 'сайт', 'образовательн', 'программ', 'долж', 'выбра', 'пункт', 'объявлен', 'доск', 'объявлен']]]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[[['откр', 'страниц', 'будут', 'доступн', 'ссылк', 'добавлен', 'нов', 'объявлен', 'ниж', 'наход', 'список', 'размещен', 'ран', 'объявлен', 'таков']]]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[[['обрат', 'вниман', 'явля', 'редактор', 'сайт', 'нескольк', 'программ', 'создан', 'нов', 'объявлен', 'след', 'выбра', 'нужн', 'доск', 'списк']]]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[[['что', 'след', 'дела']]]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[[['создава', 'фильтр', 'тем', 'несущ', 'смыслов', 'нагрузк', 'так', 'например', 'относ', 'важн', 'информац', 'важн', 'пропуст', 'всем', 'использова', 'написан', 'заголовк', 'прописн', 'заглавн', 'букв', 'неправильн', 'обновл', 'расписан', 'правильн', 'обновл', 'расписан', 'пренебрега', 'форматирован', 'текст', 'текст', 'больш', 'количеств', 'пробел', 'интервал', 'т.п.', 'неудобн', 'чита']]]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[[['все', 'материал', 'связа', 'образовательн', 'программ', 'необходим', 'размеща', 'сайт', 'программ', 'например', 'расписан', 'должн', 'наход', 'сайт', 'образовательн', 'программ', 'сайт', 'факультет']]]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[[['инструкц', 'редактирован', 'сайт', 'образовательн', 'программ', 'размещ', 'http', '//portal.hse.ru/progs']]]</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -806,34 +894,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['Вход в редакторский режим https://www.hse.ru/adm/\xa0\xa0Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).']]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[['Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».'], [''], ['Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» —\xa0для английской версии сайта).'], ['Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом. \xa0'], [''], ['**1 —\xa05 пункт заполняется в Блоки — Правая колонка\xa0—\xa0Данные о мероприятии.**\n'], ['Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст —\xa0основное название мероприятия —\xa0отображается крупно.'], ['Создание формы регистрации.'], ['Заполняется в поле «Пояснение». Надпись\xa0«Важные даты» может варьироваться по усмотрению.'], ['В этой же вкладке Вы можете заполнять и использовать все другие поля.\xa0«Время начала мероприятия», «Языки мероприятия», ссылка на карту\xa0«Как добраться», «Важные ссылки», «Файлы»\xa0— все эти данные будут отображаться в правой части сайта.'], ['**6. Меню (горизонтальное) в центральной части страницы**\n'], ['Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка\xa0— название пункта меню, вторая\xa0— ссылка на страницу (создание и редактирование статических страниц).', '', 'Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.', '', 'Возможен еще один вариант расположения меню —\xa0в правой части сайта под датой мероприятия (см. рисунок ниже).', 'По логике заполнения и редактирования правой части сайта, данные пункты вносятся в'], ['', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.'], ['Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/\xa0— Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.'], ['Аннотация находится в поле\xa0«О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.']]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.'], ['Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.', '', 'По аналогичному принципу устроен пункт оформления партнеров мероприятия.'], ['где необходимо добавлять логотип организации-партнера и ссылку на них.', '', 'Однако зачастую бывает удобнее размещать партнеров в правой части сайта.', '', 'Здесь снова работает логика работы с правой колонкой.'], ['Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.', '']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[['Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.'], ['Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.', '', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[['Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо\xa0использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции:\xa0https://portal.hse.ru/sostav.'], [''], ['\xa0'], ['И главное —\xa0не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.']]</t>
-        </is>
-      </c>
+          <t>[[['шаг', 'необходим', 'удостовер', 'ваш', 'персональн', 'страниц', 'появ', 'сайт', 'персональн', 'страниц', 'появля', 'портал', 'автоматическ', 'внесен', 'дан', 'баз', 'сотрудник', 'управлен', 'персона', 'шаг', 'след', 'авторизова', 'един', 'личн', 'кабинет', 'елк', 'для', 'необходим', 'качеств', 'логин', 'ввест', 'адрес', 'корпоративн', 'почт', 'сотрудник', 'качеств', 'парол', 'парол', 'почт', 'есл', 'помн', 'парол', 'сво', 'почт', 'возника', 'ошибк', 'авторизац', 'обраща', 'digital', 'hse.ru', 'шаг', 'елк', 'нужн', 'перейт', 'раздел', 'корпоративн', 'порта', 'нажа', 'персональн', 'страниц', 'порта', 'есл', 'сможет', 'войт', 'редактирован', 'персональн', 'страниц', 'знач', 'ваш', 'корпоративн', 'e-mail', 'прописа', 'необходим', 'пол', 'напиш', 'пожалуйст', 'portal', 'hse.ru', 'письм', 'укаж', 'фи', 'сотрудник', 'адрес', 'корпоративн', 'почт', 'служб', 'порта', 'пропишет', 'e-mail', 'сможет', 'войт', 'письм', 'должн', 'отправл', 'строг', 'корпоративн', 'почт', 'сотрудник', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -859,22 +927,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  ']]</t>
+          <t>[[['сотрудник', 'ни', 'вшэ', 'исключен', 'сотрудник', 'категор', 'административно-хозяйствен', 'персона', 'занима', 'руководя', 'должност', 'обяза', 'имет', 'заполнен', 'соответств', 'стандарт', 'персональн', 'страниц']], [['персональн', 'страниц', 'появля', 'автоматическ', 'внесен', 'приказ', 'трудоустройств', 'сотрудник', 'баз', 'управлен', 'персона', 'зик', 'ис-пр', 'показыва', 'общ', 'списк', 'преподавател', 'сотрудник', 'такж', 'списк', 'сотрудник', 'страниц', 'подразделен']], [['автоматическ', 'появля', 'страниц', 'штатн', 'сотрудник', 'преподавател', 'имеющ', 'договор', 'гпх', 'ппс', 'так', 'сотрудник', 'показыва', 'портал', 'должност', 'приглашен', 'преподавател']], [['есл', 'необходим', 'персональн', 'страниц', 'появ', 'сотрудник', 'работа', 'обычн', 'договор', 'гпх', 'оформлен', 'договор', 'сэд', 'необходим', 'постав', 'соответств', 'галочк', 'для', 'оформлен', 'договор', 'галочк', 'нужн', 'постав', 'кадров', 'систем', 'зик']], [['посмотрет', 'наход', 'галочк', 'интерфейс', 'сэд']], [[]], [['сотрудник', 'несут', 'ответствен', 'актуальн', 'информац', 'размещен', 'персональн', 'страниц']]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору\xa0– Данные\xa0– Опросы и регистрационные формы.', '', 'Нажимаем на +, чтобы создать форму.', '', 'Далее нужно указать:', ' название (если в названии используются\xa0длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык\xa0–\xa0«английский»). ', 'Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.', 'Галочка «пройти можно только раз»\xa0нужна только в том случае, если вы создаете опрос.', 'Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.', '', 'Далее необходимо нажать на кнопку «Добавить блок вопросов».', 'Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов»\xa0(при необходимости также поле «Описание»).', 'Пример блоков', '  ', 'Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к\xa0кнопке\xa0«Добавить вопрос».\xa0В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание»\xa0можно\xa0добавить комментарии к вопросу.', 'Далее нажимаем кнопку\xa0«Добавить ответ» и вписываем необходимый вариант.', 'Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.', 'Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле\xa0«Формат ответа».\xa0Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле\xa0«Формат ответа»', '', 'Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа»\xa0нужно выбрать соответствующую строку.', 'Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.', 'Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку\xa0«Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.', '', 'Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.', 'После заполнения необходимо сохранить форму, нажав на кнопку «Создать».', '']]</t>
+          <t>[[['страниц', 'должн', 'сведен', 'определен', 'стандарт', 'такж', 'сотрудник', 'размест', 'люб', 'информац', 'наруша', 'закон', 'противореча', 'декларац', 'ценност', 'университет']], [['информац', 'персональн', 'страниц', 'сотрудник', 'внос', 'самостоятельн', 'исключен', 'сведен', 'котор', 'отобража', 'страниц', 'баз', 'дан', 'университет', 'при', 'возникновен', 'вопрос', 'сотрудник', 'обраща', 'ответствен', 'персональн', 'страниц', 'руководител', 'подразделен', 'случа', 'отсутств', 'ответствен', 'подразделен']], [['доступ', 'редактирован', 'персональн', 'страниц', 'осуществля', 'логин', 'парол', 'елк', 'налич', 'доступ', 'корпоративн', 'почт', 'консультац', 'вопрос', 'наполнен', 'персональн', 'страниц', 'осуществля', 'ответствен', 'подразделен']]]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Чтобы открыть «Дополнительные параметры», необходимо\xa0нажать на стрелку.', '', 'В открывшемся окне вы можете:', ' Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу\xa0«Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); ', '', 'В разделе «Дополнительные\xa0параметры» вы также сможете:', ' Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах\xa0(каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);\xa0 Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); ', '', 'Если вы хотите, чтобы на почту пользователя\xa0приходило ответное\xa0письмо, надо поставить галочку напротив «Направить ответное письмо пользователю».\xa0Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию\xa0– куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.', '', '', 'Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами\xa0были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.', '', '', '']]</t>
+          <t>[[['част', 'информац', 'попада', 'персональн', 'страниц', 'баз', 'дан', 'университет', 'поэт', 'важн', 'подразделен', 'отвеча', 'внесен', 'информац', 'баз', 'воврем', 'получа', 'необходим', 'дан', 'сведен', 'поступа', 'баз', 'дан', 'университет', 'сотрудник', 'исправ', 'самостоятельн']], [['пример', 'есл', 'сотрудник', 'предостав', 'управлен', 'персона', 'сведен', 'наград', 'учен', 'степен', 'сведен', 'появ', 'персональн', 'страниц']], [['сведен', 'поступа', 'сист', 'зик', 'москв', 'ис-пр', 'кампус', 'аса', 'руз', 'LMS', 'баз', 'дан', 'порта', 'могут', 'измен', 'сотрудник', 'подразделен', 'отвеча', 'информац', 'эт', 'сист']], [['фамил', 'им', 'отчеств', 'зик', 'ис-пр', 'пол', 'зик', 'ис-пр', 'подразделен', 'зик', 'ис-пр', 'должност', 'возложен', 'обязан', 'зик', 'ис-пр', 'нача', 'работ', 'ни', 'вшэ', 'зик', 'ис-пр', 'научно-педагогическ', 'стаж', 'зик', 'ис-пр', 'образован', 'зик', 'ис-пр', 'учен', 'степен', 'зик', 'ис-пр', 'учен', 'зван', 'зик', 'ис-пр', 'достижен', 'поощрен', 'зик', 'ис-пр', 'академическ', 'надбавк', 'баз', 'дан', 'порта', 'учебн', 'курс', 'аса', 'руководств', 'аспирант', 'аса', 'руководств', 'вкр', 'LMS', 'расписан', 'руз', 'участ', 'административн', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'участ', 'академическ', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'баз', 'дан', 'порта', 'публикац', 'издательск', 'дом', 'вшэ', 'баз', 'дан', 'порта']], [['сведен', 'прав', 'управлен', 'персона', 'изменен', 'будут', 'видн', 'портал', 'течен', 'суток', 'внесен', 'ис-пр'], ['сведен', 'ис-пр', 'фамил', 'им', 'отчествопол', 'подразделен', 'должност', 'нача', 'работ', 'ни', 'вшэ', 'научно-педагогическ', 'стаж', 'образован', 'учен', 'степен', 'учен', 'званиедостижен', 'поощрен'], ['сотрудник', 'отвеча', 'внесен', 'правок', 'москв', 'щегольск', 'татья', 'натал', 'малыхин', 'штатн', 'сотрудник', 'российск', 'гражданств', 'запрос', 'консультац', 'ялугин', 'анастас', 'натал', 'нижаловск', 'сотрудник', 'работа', 'договор', 'гпх', 'ппс', 'запрос', 'консультац', 'старокадомск', 'вероник', 'сотрудник', 'иностра', 'гражданств', 'запрос', 'консультац', 'натал', 'малыхин', 'информац', 'наград', 'вне', 'зависим', 'гражданств', 'запрос', 'консультац', 'кампус', 'правк', 'внос', 'кадров', 'служб', 'кампус'], ['что', 'сотрудник', 'дополн', 'самостоятельн', 'образован', 'уточн', 'уровен', 'образован', 'например', 'указа', 'BSc', 'бакалавриат', 'получен', 'зарубеж', 'факультет', 'специальн', 'английск', 'язык', 'умолчан', 'перевод', 'специальн', 'английск', 'язык', 'учен', 'степен', 'уточн', 'тем', 'диссертац', 'мест', 'защит']], [['изменен', 'будут', 'видн', 'портал', 'синхронизац', 'баз', 'дан', 'синхронизац', 'происход', 'приблизительн', 'месяц', 'либ', 'запрос', 'подразделен', 'отвеча', 'информац'], ['учебн', 'курс', 'сведен', 'формир', 'основ', 'информац', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'преподавател', 'правк', 'внос', 'ответствен', 'подразделений.курир', 'сист', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'синхронизац', 'портал', 'учебн', 'курс', 'запрос', 'приблизительн', 'месяц', 'программ', 'дисциплин', 'кажд', 'час', 'нагрузк', 'преподавател', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'ответствен', 'планирован', 'нагрузк', 'преподавател', 'ответствен', 'прикреплен', 'программ', 'дисциплин', 'аса'], ['научн', 'руководств', 'аспирант', 'сведен', 'прав', 'управлен', 'аспирантур', 'докторантур', 'синхронизац', 'портал', 'запрос', 'месяц']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'руз', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['ком', 'обраща', 'внесен', 'правок'], ['ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'LMS', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['вкр', 'выпускн', 'квалификацион', 'работ', 'синхронизац', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['изменен', 'видн', 'сраз', 'внесен'], ['участ', 'административн', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'руководител', 'программ', 'юл', 'гринкевич', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'юл', 'гринкевич'], ['участ', 'академическ', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'управлен', 'академическ', 'развит', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'управлен', 'академическ', 'развит'], ['патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'сведен', 'внос', 'дирекц', 'правов', 'вопрос', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'дирекц', 'правов', 'вопрос'], ['академическ', 'надбавк', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'научн', 'фонд', 'ольг', 'чуриков', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'начальник', 'управлен', 'академическ', 'исследован', 'ольг', 'чуриков'], ['публикац', 'автоматическ', 'портал', 'появля', 'публикац', 'издательск', 'дом', 'вшэ', 'остальн', 'публикац', 'внос', 'представител', 'подразделен', 'либ', 'сотрудник', 'самостоятельн', 'внос', 'изменен', 'публикац', 'могут', 'автор', 'публикац', 'сотрудник', 'созда', 'публикац', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'адрес', 'publications', 'hse.ru', 'подробн', 'см.', 'справочник', 'публикац']]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Необходимо зайти\xa0в Редактору\xa0– Данные\xa0–\xa0Опросы и регистрационные формы\xa0и там вы сможете:', '', '1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку\xa0«Сохранить»).', '2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).', '3. Найти ссылку на форму\xa0(нажимаете на "встраивание", в открывшемся окне выбираете\xa0ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете\xa0на ссылку и в адресной строке открышегося окна копируете\xa0ссылку на вашу форму). Пример:', '', '4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).']]</t>
+          <t>[[['доступ', 'редактирован', 'страниц']], [['как', 'эт', 'работа']], [['добавлен', 'нов', 'вкладок']], [['работ', 'вкладк']], [['форматирован']], [['научн', 'интерес']], [['фотограф']], [['Scopus', 'SPIN', 'ринц', 'ORCID', '...']], [['английск', 'верс', 'персональн', 'страниц']], [['персональн', 'страниц', 'редактирова'], ['сам', 'сотрудник', 'представител', 'персон', 'директор', 'дека', 'проректор', 'ответствен', 'персональн', 'страниц', 'редактирован', 'персональн', 'страниц', 'сотрудник', 'определен', 'подразделен'], ['для', 'получен', 'прав', 'редактирован', 'необходим', 'отправ', 'запрос', 'ваш', 'корпоративн', 'почт', 'адрес', 'portal', 'hse.ru', 'обязательн', 'укаж', 'как', 'прав', 'необходим', 'предостав'], ['представител', 'персон', 'указыва', 'чью', 'страниц', 'будет', 'редактирова', 'ответствен', 'персональн', 'страниц', 'указыва', 'подразделен', 'страниц', 'сотрудник', 'котор', 'будет', 'редактирова']], [['непосредствен', 'личн', 'кабинет', 'инструкц', 'редактирован', 'страниц', 'больш', 'син', 'кнопк', 'как', 'эт', 'работа', 'английск', 'верс', 'How', 'works'], []], [['есл', 'собира', 'добав', 'информац', 'котор', 'подход', 'предложен', 'вкладок', 'может', 'созда', 'собствен', 'вкладк', 'для', 'нажм', 'добав', 'вкладк', 'введ', 'заголовок', 'нажм'], [], ['посл', 'созда', 'вкладк', 'добав', 'необходим', 'информац', 'нажима', 'добав', 'текст', 'заполня', 'необходим', 'пол']], [['раздел', 'ряд', 'котор', 'сто', 'замок', 'формир', 'автоматическ', 'различн', 'баз', 'вышк', 'может', 'внос', 'изменен', 'удаля', 'перемеща', 'раздел', 'отмечен', 'эт', 'символ', 'легк', 'перетаскива', 'мышк', 'мен', 'порядок', 'добав', 'нов', 'раздел', 'нажа', 'добав', 'текст', 'созда', 'раздел', 'такж', 'перетащ', 'люб', 'вкладк'], ['есл', 'удал', 'раздел', 'котор', 'умолчан', 'предусмотр', 'одн', 'вкладок', 'информац', 'представлен', 'нем', 'формир', 'автоматическ', 'легк', 'может', 'восстанов', 'раздел', 'нажа', 'символ', 'вниз', 'вкладк', 'при', 'показа', 'список', 'раздел', 'подлежа', 'восстановлен'], [], ['есл', 'удал', 'раздел', 'котор', 'созда', 'вручн', 'восстанов', 'автоматическ', 'невозможн', 'вам', 'придет', 'занов', 'внос', 'информац'], ['помн', 'все', 'изменен', 'сохраня', 'нажа', 'кнопк', 'сохран', 'есл', 'случайн', 'что-т', 'удал', 'добав', 'что-т', 'прост', 'закройт', 'страниц', 'сохранен', 'изменен'], [], []], [['чтоб', 'текст', 'вкладк', 'одинаков', 'необходим', 'добавля', 'информац', 'одн', 'след', 'алгоритм'], ['заполня', 'вкладк', 'пол', 'непосредствен', 'личн', 'кабинет', 'копиру', 'информац', 'текстов', 'редактор', 'браузер', 'т.п.'], ['ве', 'текст', 'котор', 'собира', 'добав', 'текстов', 'пол', 'необходим', 'добав', 'снача', 'блокнот', 'скопирова', 'блокнот', 'встав', 'непосредствен', 'текстов', 'пол', 'личн', 'кабинет'], ['вставк', 'текст', 'использова', 'кнопк', 'вставк', 'Word', 'случа', 'текст', 'все', 'равн', 'выгляд', 'текст', 'автоматическ', 'вкладк', 'использова', 'кнопк', 'убра', 'форматирован'], ['вставк', 'текст', 'использова', 'кнопк', 'встав', 'текст', 'случа', 'все', 'форматирован', 'пропадет'], ['вставк', 'текст', 'текстов', 'пол', 'выдел', 'ве', 'текст', 'нажа', 'кнопк', 'убра', 'форматирован'], [], []], [['при', 'добавлен', 'интерес', 'нажима', 'добав', 'рус.', 'пиш', 'ключев', 'слов', 'нажима', 'найт', 'отобраз', 'список', 'упоминан', 'иском', 'слов', 'выбира', 'нужн', 'слов', 'словосочетан', 'нажима', 'кнопк', 'выбра'], []], [['фотограф', 'загружа', 'баз', 'служб', 'безопасн', 'систем', 'таков', 'недел', 'дирекц', 'безопасн', 'присыла', 'фот', 'управлен', 'персона', 'котор', 'занос', 'ис-пр', 'однак', 'сотрудник', 'зал', 'отредактирова', 'фот', 'самостоятельн', 'SmartPoint', 'елк']], [['инструкц'], ['SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Google', 'Scholar'], ['всем', 'вопрос', 'связа', 'дан', 'баз', 'необходим', 'обраща', 'ответствен', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет'], ['заполн', 'пол', 'фи', 'английск', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок'], ['подробн', 'см.', 'работ', 'английск', 'верс', 'персональн', 'страниц']]]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -904,17 +972,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  ']]</t>
+          <t>[[['отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'управлен', 'развит', 'поддержк', 'порта', 'консультир', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ']]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[' Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю.\xa0Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.\xa0 Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит\xa0как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru ', '\xa0'], ['При копировании информации из документа Microsoft Word используйте следующую последовательность действий:', '1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;', '2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;', '', '3) Удалите лишние пробелы и переносы строк;', '4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:', '', 'Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter.\xa0', 'Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице.\xa0Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.'], ['Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.', '', 'Получается:', '   маркированный список маркированный список    нумерованный список нумерованный список  '], ['Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".', '', ' Предусмотрены 6 уровней заголовков:'], ['**Заголовок 3**\n**Заголовок 4**\nЗаголовки используются последовательно, по мере понижения значимости информации.\xa0\nЗаголовок 1\xa0— заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.\nДля выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".\nЗаголовки\xa0— важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы.\xa0\n\n', '**Якорь**\nЯкорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.\nЧтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".\n\n\nЕсли ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/format#anchor), нажать "вставить".\n\n', '**Вставка картинки/фото**\nПри загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.\n1. Нажимаем кнопку "Загрузка и вставка картинки"\n\n2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра\xa0— размер в пикселях по ширине, вторая\xa0— размер в пикселях по высоте.\n\n3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.\n4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".\n\n5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".\nЕсли Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы). \xa0Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу. \xa0\n', '****\n', '**Загрузка файлов**\nДля размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:\n\nПосле этого откроется диалоговое окно загрузки файла:\n\nВ поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.\nНажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":\n\nПосле того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.\n']]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>[[['быстр', 'ссылк', 'персональн', 'страниц', 'подразделен', 'образовательн', 'программ']]]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[[['английск', 'верс', 'персональн', 'страниц', 'активир', 'желан', 'сотрудник', 'род', 'деятельн', 'необходим', 'взаимодействова', 'иностранц']], [['кром', 'английск', 'верс', 'активир', 'возника', 'необходим', 'дат', 'ссылк', 'страниц', 'сотрудник', 'английск', 'новости/анонса/страниц', 'мероприят', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет']], [['заполн', 'пол', 'фамил', 'им', 'английск', 'отчеств', 'полност', 'добавля', 'постав', 'перв', 'букв', 'отчеств', 'например', 'Ivan', 'Ivanov', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен']], [[]], [[]], [['сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок']], [[]], [['дал', 'постав', 'статус', 'черновик']], [['посл', 'выставлен', 'статус', 'черновик', 'страниц', 'поступа', 'редактор', 'порта', 'котор', 'проверя', 'информац', 'страниц', 'отобража', 'корректн', 'меня', 'статус', 'провер', 'английск', 'страниц', 'появля', 'портал']], [['информац', 'пол', 'закрыт', 'редактирован', 'выгружа', 'автоматическ', 'основ', 'дан', 'зик/ис-пр', 'поступа', 'управлен', 'персонал']], [['информац', 'автоматическ', 'загружа', 'баз', 'дан', 'подразделен', 'должност', 'образован', 'учен', 'степен', 'учен', 'зван', 'отобража', 'един', 'формат', 'сотрудник']], [['английск', 'верс', 'предусмотр', 'вывод', 'информац', 'зик/ис-пр', 'раздел', 'достижен', 'поощрен', 'есл', 'нужн', 'добав', 'раздел', 'английск', 'верс', 'эт', 'сдела', 'функц', 'добав', 'текст', 'сдела', 'текстов', 'вставк', 'чтоб', 'вставк', 'появля', 'английск', 'верс', 'остав', 'пуст', 'пол', 'заголовок', 'русск', 'текст', 'комментар', 'русск', 'заполн', 'пол', 'заголовок', 'английск', 'текст', 'комментар', 'английск']], [[]], [[]]]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[[['англоязычн', 'верс', 'сайт', 'созда', 'структурн', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'заявк', 'структурн', 'подразделен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин'], ['для', 'структурн', 'подразделен', 'ведущ', 'международн', 'деятельн', 'взаимодейств', 'англоязычн', 'студент', 'преподавател', 'партнер', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'структурн', 'подразделен', 'обновлен', 'информац', 'англоязычн', 'сайт', 'осуществля', 'сил', 'ответствен', 'подразделен', 'веден', 'сайт'], ['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['есл', 'английск', 'верс', 'нужн', 'ресурс', 'поддержан', 'необходим', 'присла', 'заявк', 'активац', 'английск', 'верс', 'вмест', 'текст', 'первоначальн', 'наполнен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'нельз', 'выставля', 'статус', 'английск', 'верс', 'черновик', 'подготов', 'текст', 'сайт', 'присла', 'предварительн', 'заявк', 'открыт', 'английск', 'верс'], [], [], ['открыва', 'пуст', 'сайт', 'английск', 'статическ', 'страниц', 'поэт', 'нужн', 'снача', 'присла', 'текст', 'английск', 'верс', 'сайт', 'активирова'], ['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'подразделения_раздел', 'например', 'департамент', 'математик', 'фэн_абоут.доc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'подробн', 'форматирован', 'редактирован', 'страниц', 'сайт', 'почита'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'подразделен', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'подразделен', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'есл', 'вариант', 'перевод', 'назван', 'подразделен', 'портал', 'устраива', 'необходим', 'присла', 'заявк', 'смен', 'назван', 'обоснован', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'факультет', 'поменя', 'руководств', 'нов', 'люд', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'значим', 'англоязычн', 'публикац', 'международн', 'проект', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал'], [], [], ['есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова'], []], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'подразделен', 'появля', 'информац', 'актуальн', 'иностра', 'сотрудник', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[[['англоязычн', 'верс', 'сайт', 'обязательн', 'порядк', 'созда', 'образовательн', 'программ', 'осуществля', 'полност', 'частичн', 'английск', 'язык', 'для', 'образовательн', 'программ', 'реализуем', 'русск', 'язык', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'менеджер', 'образовательн', 'программ']], [['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присыла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'программы_кампус_раздел', 'например', 'big', 'data_stpete_about.doc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'программ', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'программ', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'корректн', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'поменя', 'описан', 'программ', 'нов', 'информац', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'обязательн', 'рекомендова', 'страниц', 'порядок', 'ссылок', 'мен', 'английск', 'верс', 'сайт', 'образовательн', 'программ'], ['раздел', 'ABOUT'], ['Programme', 'Overview', 'техническ', 'им', 'страниц', 'about', 'Curriculum', 'описан', 'содержания/структур', 'программ', 'прост', 'список', 'курс', 'Partnerships', 'налич', 'рассказ', 'характер', 'партнерств', 'польз', 'студент', 'Faculty', 'Members', 'рассказ', 'ключев', 'преподавател', 'прост', 'список', 'Student', 'Profiles', 'мини-интерв', 'фотограф', 'минимум', 'студент', 'Alumni', 'минимум', 'выпускник', 'налич', 'рассказ', 'карьер', 'выпуск', 'необходим', 'фотограф', 'техническ', 'им', 'страниц', 'alumni', 'Career', 'Opportunities', 'карьерн', 'траектор', 'пример', 'компан', 'ожида', 'зарплат', 'выпуск', 'техническ', 'им', 'страниц', 'career'], ['раздел', 'FOR', 'PROSPECTIVE', 'STUDENTS'], ['Requirements', 'требован', 'портфол', 'предыдущ', 'уровн', 'образования/опыт', 'техническ', 'им', 'страниц', 'requirements', 'How', 'Apply', 'процесс', 'подач', 'документ', 'техническ', 'им', 'страниц', 'tracks', 'Class', 'Profile', 'рекомендова', 'страниц', 'пример', 'https', '//www.hse.ru/en/ma/sti/classprofile', 'FAQ', 'рекомендова', 'страниц'], ['раздел', 'FOR', 'STUDENTS', 'рекомендова', 'ссылк', 'страниц'], ['Notice', 'Board', 'доск', 'объявлен', 'Student', 'Ratings', 'Student', 'Theses', 'Final', 'Assessment', 'техническ', 'им', 'assessment', 'Academic', 'Mobility', 'техническ', 'им', 'страниц', 'mobility', 'Practical', 'Training', 'техническ', 'им', 'страниц', 'internships', 'Recommended', 'MOOCs', 'техническ', 'им', 'страниц', 'moocs'], ['список', 'перевод', 'рубрик', 'сайт', 'образовательн', 'программ', 'назван', 'раздела/подраздел', 'English', 'titles', 'учебн', 'курс', 'Courses', 'преподавател', 'Faculty', 'документ', 'Documents', 'расписан', 'Timetable', 'тизер', 'дня', 'открыт', 'двер', 'Open', 'House', 'академическ', 'совет', 'Academic', 'Council', 'академическ', 'руководител', 'Academic', 'Supervisor', 'отдел', 'сопровожден', 'учебн', 'процесс', 'образовательн', 'программы/менеджер', 'образовательн', 'программ', 'Study', 'Office', 'Programme', 'Coordinator', 'важн', 'объявлен', 'Important', 'Announcements', 'новост', 'News', 'анонс', 'Events', 'кратк', 'паспорт', 'программ', 'Programme', 'Facts', 'программ', 'Programme', 'Overview', 'партнер', 'Partnerships', 'Double', 'degree', 'Programme', 'налич', 'проф', 'студент', 'русск', 'верс', 'достижен', 'студент', 'Student', 'Profiles', 'выпускник', 'Alumni', 'научно-исследовательск', 'семинар', 'нис', 'англ', 'верс', 'необязательн', 'раздел', 'Research', 'Seminar', 'проектн', 'исследовательск', 'работ', 'англ', 'верс', 'обязательн', 'раздел', 'Project', 'and', 'Research', 'Work', 'Research', 'Opportunities', 'представл', 'список', 'возможн', 'мест', 'описан', 'осуществлен', 'проект', 'паспорт', 'образовательн', 'программ', 'Programme', 'Facts', 'будущ', 'професс', 'Career', 'Opportunitiies', 'траектор', 'поступлен', 'How', 'Apply', 'подготовк', 'Requirements', 'информацион', 'блок', 'полезн', 'ссылк', 'студент', 'программ', 'рейтинг', 'Student', 'Rating', 'студенческ', 'мобильн', 'Academic', 'Mobility', 'практическ', 'подготовк', 'практик', 'Practical', 'Training', 'Internship', 'курсов', 'выпускн', 'квалификацион', 'работ', 'вкр', 'Term', 'Papers', 'and', 'Student', 'Theses', 'итогов', 'аттестац', 'Final', 'Assessment', 'рекомендова', 'онлайн-курс', 'Recommended', 'MOOCs', 'скача', 'одн', 'файл', 'английск', 'назван', 'рубрик', 'DOCX']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'международн', 'проект', 'стажировк', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'скриншот', 'выш', 'раздел', 'сайт', 'подразделен', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова']], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'появля', 'информац', 'актуальн', 'иностра', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -941,25 +1021,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  ']]</t>
+          <t>[[['сайт', 'структурн', 'подразделен', 'должн', 'соответствова', 'утвержден', 'стандарт']], [['дизайн', 'сайт', 'долж', 'выполн', 'общ', 'стилистик', 'корпоративн', 'порта', 'элемент', 'фирмен', 'стил', 'могут', 'противореч', 'брендбук', 'ни', 'вшэ', 'использован', 'должн', 'согласова', 'отдел', 'визуальн', 'коммуникац', 'visual', 'hse.ru']], [['рекомендац', 'цветов', 'палитр', 'см.', 'брендбук', 'ни', 'вшэ', 'цифров', 'носител']], [['сайт', 'размеща', 'домен', 'hse.ru', 'имеют', 'адрес', 'вид', 'http', '//www.hсе.ру/им', 'http', '//имя.hсе.р', 'см.', 'регламент']], [['англоязычн', 'верс', 'сайт', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'для', 'остальн', 'подразделен', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'подразделен']], [['ответствен', 'своевремен', 'размещен', 'актуализац', 'информац', 'несет', 'руководител', 'подразделен']], [['обновлен', 'информац', 'осуществля', 'ответствен', 'структурн', 'подразделен', 'веден', 'сайт']], [['заявк', 'создан', 'сайт', 'нужн', 'присла', 'portal', 'hse.ru', 'указа', 'назван', 'подразделен', 'готов', 'контент', 'имеет', 'размещен', 'подробн', 'дальн', 'шаг', 'будут', 'содержа', 'ответн', 'письм']]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.'], ['Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":'], [''], ['Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.'], [''], ['Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.'], [' Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. ']]</t>
+          <t>[[['основн', 'принцип', 'работ', 'сайт', 'как', 'получ', 'доступ', 'редактирован', 'редактирован', 'блок', 'функциона', 'сотрудник', 'подразделен', 'редактирован', 'блок', 'показ', 'списк', 'карт', 'раздел', 'сотрудник', 'размещен', 'новост', 'размещен', 'анонс', 'создан', 'статическ', 'страниц', 'прост', 'статическ', 'страниц', 'составн', 'статическ', 'страниц', 'создан', 'таблиц', 'оптимизац', 'фотограф', 'размещен', 'баннер', 'создан', 'опроса/регистрацион', 'форм', 'как', 'переда', 'дан', 'CRM', 'размещен', 'мета-тег', 'рекомендац', 'поисков', 'оптимизац', 'помощ', 'редактор', 'фотобанк', 'инструмент', 'шрифт', 'HSE', 'Sans', 'редактирован', 'английск', 'верс', 'русско-английск', 'глоссар', 'термин', 'вшэ']]]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку '], ['В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).'], ['После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).'], ['Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).'], ['']]</t>
+          <t>[[['список', 'редактор', 'вшэ-москв', 'кампус', 'вшэ', 'нижн', 'новгород', 'перм', 'санкт-петербург']]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Таблицу можно также добавить через «специальные шаблоны».\xa0Нажмите на кнопку добавления специального элемента.'], [' '], [''], ['Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.'], [''], ['Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.'], [''], ['\xa0'], ['Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.'], [' ']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>[[['JavaScript', 'iframe', 'сайт', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[[['HSESans/HSESlab', 'ZIP', '228'], []]]</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -986,124 +1070,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы.\xa0После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":']]</t>
+          <t>[[['сайт', 'подразделен', 'существ', 'функциона', 'позволя', 'подразделен', 'самостоятельн', 'формирова', 'списк', 'сотрудник', 'котор', 'обраща', 'ин', 'вопрос']]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['списк', 'показыва', 'справочник', 'сотрудник', 'такж', 'личн', 'кабинет', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа\xa0— непосредственно поле для размещения виджетов и, соответственно, информации.']]</t>
+          <t>[[['настоя', 'врем', 'сайт', 'подразделен', 'завед', 'след', 'категор', 'функциональн', 'ответствен']]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку.\xa0']]</t>
+          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[['Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.']]</t>
+          <t>[[['добавлен', 'список', 'ответствен', 'автоматическ', 'дает', 'доступ', 'редактирован', 'сайт', 'персональн', 'страниц', 'для', 'необходим', 'получ', 'соответств', 'прав', 'подразделен', 'отвеча', 'соответств', 'ресурс']]]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[['После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!']]</t>
+          <t>[[['управлен', 'информацион', 'ресурс', 'выда', 'прав', 'заявк', 'адрес', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[['**ВИДЖЕТЫ:**\n']]</t>
+          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[[' Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу\xa0Enter. В остальном принципы оформления текста те же, что и на простой статической странице. ']]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[[' Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо\xa0оптимизировать ']]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[[' Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  ']]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[[' Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке.\xa0Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря\xa0с символом решетки (#) впереди (напр:\xa0https://portal.hse.ru/#anchor).  ']]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[[' Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке\xa0– их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[[' Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[[' Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список".\xa0Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию.\xa0Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице.\xa0В поле "Описание/контакты" добавляете необходимую информацию.\xa0Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия\xa0– те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>[[' С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    ']]</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>[[' Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[[' Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>[[' Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки\xa0без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[[' Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>[[' Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>[[' Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>[[' Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  ']]</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>[[' \xa0 Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  ']]</t>
-        </is>
-      </c>
+          <t>[[['необходим', 'перейт', 'реж', 'редактирован', 'сайт', 'конкретн', 'подразделен', 'раздел', 'дан', 'блок', 'функциона', 'сотрудник', 'подразделен', 'нажа', 'кнопк', 'добав', 'сотрудник', 'вбит', 'пол', 'поиск', 'фи', 'выбра', 'сотрудник', 'галочк', 'выбра', 'возможн', 'категор', 'ответствен']], [['для', 'удален', 'сотрудник', 'необходим', 'убра', 'галк', 'списк', 'функциональн', 'ответствен', 'сотрудник'], [], ['обрат', 'вниман', 'ниж', 'блок', 'функциона', 'список', 'активн', 'рол', 'подразделен', 'нем', 'указа', 'люд', 'котор', 'имеют', 'доступ', 'просмотр', 'редактирован', 'дан', 'портал', 'относя', 'ваш', 'подразделен', 'есл', 'сред', 'люд', 'котор', 'работа', 'вшэ', 'имеют', 'отношен', 'конкретн', 'подразделен', 'необходим', 'сообщ', 'portal', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1111,74 +1131,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:']]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'новост', 'предосмотр', 'новост', 'составн', 'редактор', 'иллюстрац', 'новост', 'копирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Вы можете сами проверить свой сайт с помощью этого инструмента.']]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[['Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.']]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[[' Для начала уменьшите\xa0изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете\xa0воспользоваться, например, онлайн-сервисом Photoshop Express\xa0или Pixlr. Самая широкая картинка\xa0на портале не\xa0превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. ']]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[['Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.']]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[['Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:']]</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[['А для главной страницы типичной образовательной программы – так:']]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[['Разница в объеме потенциально оптимизируемого – в 17 раз.']]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[['Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».']]</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[['К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.']]</t>
-        </is>
-      </c>
+          <t>[[['раздел', 'новост', 'предусматрива', 'размещен', 'репортаж', 'прошедш', 'мероприят', 'сообщен', 'получен', 'наград', 'профессиональн', 'обществен', 'признан', 'образовательн', 'программ', 'мегафакультет', 'преподавател', 'т.п']], [['новост', 'обязательн', 'должн', 'содержа', 'заголовок', 'кратк', 'аннотац', 'текст', 'новост', 'рубрик', 'ключев', 'слов', 'желан', 'текст', 'новост', 'сопровожда', 'иллюстрац']], [['недопустим', 'размещен', 'английск', 'текст', 'русск', 'верс', 'сайт', 'русск', 'текст', 'английск', 'верс', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент']], [['размеща', 'лент', 'новост', 'анонс', 'мероприят', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн']], [['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'новост', 'пиш', 'portal', 'hse.ru']], [['для', 'добавлен', 'новост', 'необходим', 'зайт', 'редактор', 'дан', 'новост', 'нов', 'зап', 'добавля', 'клик', 'иконк'], ['заголовок', 'кратк', 'указыва', 'сам', 'сут', 'событ', 'заголовок', 'долж', 'назывн', 'кратк', 'заголовок', 'став', 'нескольк', 'предложен', 'одн', 'длин', 'предложен', 'больш', 'количеств', 'подробн', 'пример', 'длин', 'заголовк', 'посмотрет', 'главн', 'лент', 'порта', 'заголовк', 'употребля', 'слов', 'вниман', 'важн', 'информац', 'дорог', 'друз', 'т.д.', 'точк', 'конц', 'заголовк', 'став', 'CapsLock', 'заглавн', 'букв', 'использу'], ['аннотац', 'должн', 'обязательн', 'кратк', 'изложен', 'чем', 'читател', 'узна', 'стат', '2-3', 'предложен'], ['текст', 'долж', 'обязательн', 'непосредствен', 'тел', 'новост', 'подробн', 'раскрыва', 'сут', 'событ', 'новост', 'состоя', 'одн', 'предложен', 'фотограф', 'подробн', 'сопроводительн', 'текст'], ['дублирова', 'аннотац', 'пол', 'текст', 'нужн', 'есл', 'ваш', 'аннотац', 'повторя', 'перв', 'абзац', 'текст', 'новост', 'став', 'напрот', 'пол', 'отобража', 'аннотац', 'нет'], ['при', 'копирован', 'текст', 'Word', 'вставк', 'сайт', 'необходим', 'обязательн', 'порядк', 'чист', 'формат'], ['обязательн', 'выбира', 'рубрик', 'ключев', 'слов'], ['есл', 'имеющ', 'рубрик', 'соответств', 'тематик', 'ваш', 'сайт', 'напиш', 'portal', 'hse.ru', 'пришл', 'список', 'необходим', 'рубрик', 'завед', 'специальн', 'ваш', 'сайт'], [], ['есл', 'необходим', 'может', 'выбра', 'тип', 'материала/статус', 'новости/сфер', 'деятельн', 'выбира', 'действительн', 'соответств', 'содержан', 'новост', 'эт', 'раздел', 'разработа', 'главн', 'лент', 'hse.ru', 'есл', 'подход', 'новост', 'ваш', 'подразделен', 'пропуска'], [], ['ключев', 'слов', 'выбира', 'соответств', 'содержан', 'ваш', 'новост', 'он', 'дальн', 'позволя', 'дела', 'выборк', 'новост', 'ин', 'тем', 'внутр', 'ваш', 'сайт'], ['ключев', 'слов', 'рубрик', 'нужн', 'читател', 'могл', 'найт', 'нужн', 'интересн', 'новост', 'поэт', 'выбира', 'рубрик', 'ключев', 'слов', 'котор', 'соответств', 'тематик', 'новост', 'инач', 'эт', 'прост', 'набор', 'рубрик', 'ключев', 'слов', 'котор', 'ваш', 'новост', 'найдут'], [], ['необходим', 'нажа', 'добав', 'ключев', 'слов', 'вписа', 'необходим', 'слов', 'нажа', 'поиск', 'зат', 'выбра', 'слов', 'словосочетан', 'есл', 'нашл', 'нужн', 'ключев', 'слов', 'может', 'ввест', 'самостоятельн', 'он', 'попадет', 'баз', 'ключев', 'слов', 'настоятельн', 'просьб', 'прежд', 'эт', 'сдела', 'убед', 'нужн', 'ключев', 'слов', 'действительн', 'отсутств']], [['прежд', 'вывод', 'новост', 'лент', 'ваш', 'сайт', 'посмотр', 'пожалуйст', 'получ', 'для', 'нужн', 'воспользова', 'функц', 'предосмотр', 'ссылк', 'располож', 'редакторск', 'интерфейс', 'ряд', 'заголовк', 'новост'], []], [['есл', 'новост', 'треб', 'использова', 'сложн', 'верстк', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['обрат', 'вниман', 'картинк', 'используем', 'новост', 'сайт', 'цел', 'должн', 'размеща', 'соблюден', 'закон', 'авторск', 'прав', 'т.е.', 'эт', 'должн', 'фот', 'либ', 'сдела', 'непосредствен', 'сотрудниками/студент', 'либ', 'приобретен', 'фотоагентств', 'фото/картинк', 'найден', 'случайн', 'образ', 'простор', 'интернет', 'недопустим', 'размещен'], ['фот', 'явля', 'обязательн', 'элемент', 'новост', 'фотограф', 'должн', 'горизонтальн', 'хорош', 'качеств', 'есл', 'картинк', 'плох', 'качеств', 'несет', 'никак', 'смыслов', 'нагрузк', 'нужн', 'загружа', 'новост', 'нужн', 'загружа', 'качеств', 'иллюстрац', 'новост', 'главн', 'страниц', 'сайт', 'скан', 'скриншот', 'баннер', 'постер', 'обложк', 'логотип', 'портретн', 'фот', 'крупн', 'одн', 'лиц'], ['чтоб', 'картинк', 'появ', 'лент', 'новост', 'ваш', 'сайт', 'нужн', 'загруз', 'сплеш-картинк', 'новост', 'размер', 'фот', '1083', '722'], [], ['есл', 'собира', 'размест', 'нескольк', 'изображен', 'воспользова', 'опц', 'фотоальб', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'новост', 'либ', 'может', 'воспользова', 'функционал', 'составн', 'редактор'], ['обрат', 'ваш', 'вниман', 'фот', 'размеща', 'портал', 'необходим', 'оптимизирова']], [['чтоб', 'воспользова', 'функц', 'необходим', 'залогин', 'портал', 'посл', 'открыва', 'нужн', 'новост', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'новост'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'новост', 'двум', 'способ', 'ссылк', 'оригинальн', 'новост', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'аннотац', 'котор', 'будут', 'увод', 'оригинальн', 'новост', 'сможет', 'редактирова', 'втор', 'случа', 'новост', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'новост', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'новост', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'новост', 'размещен', 'ссылк', 'оригинальн', 'новост', 'вам', 'необходим', 'зайт', 'раздел', 'новост', 'импортирова', 'новост', 'ссылк', 'справ', 'найт', 'нужн', 'новост', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'новост', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1196,79 +1168,75 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.']]</t>
+          <t>[[['поч', 'эт', 'важн', 'мног', 'трафик', 'ваш', 'сайт', 'следств', 'степен', 'интерес', 'ваш', 'продукт', 'результат', 'деятельн', 'завис', 'скорост', 'загрузк', 'страниц', 'вот', 'некотор', 'страниц', 'порта', 'дума', 'искусствен', 'интеллект']]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Создайте страницу, кликнув по иконке ']]</t>
+          <t>[[['может', 'сам', 'провер', 'сво', 'сайт', 'помощ', 'инструмент']]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['как', 'эт', 'борот', 'прежд', 'тщательн', 'след', 'загружа', 'вам', 'порта', 'фотограф', 'чрезмерн', 'тяжел', 'помн', 'размер', 'фотограф', 'вес', 'фотограф', 'отчаст', 'завис', 'размер', 'пиксел', 'сам', 'маленьк', 'изображен', 'вес', 'достаточн', 'он', 'хорош', 'качеств']]]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[['При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!']]</t>
+          <t>[[['для', 'нача', 'уменьш', 'изображен', 'нужн', 'размер', 'эт', 'сдела', 'люб', 'графическ', 'редактор', 'есл', 'компьютер', 'установлен', 'программ', 'может', 'воспользова', 'например', 'онлайн-сервис', 'Photoshop', 'Express', 'Pixlr', 'сам', 'широк', 'картинк', 'портал', 'превыша', '1600', 'пиксел', 'ширин', 'ориентир', 'ширин', 'максимальн', 'оптимизир', 'изображен', 'помощ', 'сервис', 'Tinypng', 'эт', 'очен', 'прост', 'заход', 'сайт', 'перетаскива', 'изображен', 'специальн', 'контейнер', 'прям', 'сайт', 'посл', 'останет', 'скача', 'обратн', 'сво', 'компьютер', 'сжат', 'картинк', 'тепер', 'использова', 'портал']]]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[['Техническое имя страницы\xa0(поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя\xa0делать пробелы между словами —\xa0«help managers». Должно быть: либо «help_managers», либо «help/managers».']]</t>
+          <t>[[['можн', 'продолжа', 'работа', 'сайт', 'оптимизиру', 'изображен', 'так', 'случа', 'нужн', 'помн', 'эт', 'повлечет', 'соб', 'потер', 'част', 'посетител', 'ваш', 'сайт', 'прежд', 'сам', 'продвинут', 'заходя', 'интернет', 'мобильн', 'телефон', 'такж', 'потенциальн', 'клиент', 'ряд', 'зарубежн', 'стран', 'скорост', 'интернет', 'оставля', 'жела', 'лучш', 'команд', 'порта', 'сво', 'сторон', 'прикладыва', 'усил', 'оптимизирова', 'друг', 'элемент', 'страниц', 'технологическ', 'средств']]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['чтоб', 'узна', 'как', 'изображен', 'числ', 'тех', 'размещ', 'ваш', 'сайт', 'нужда', 'оптимизац', 'воспольз', 'сервис', 'Google', 'PageSpeed', 'Insights', 'зайд', 'страниц', 'сервис', 'введ', 'адрес', 'страниц', 'котор', 'нужн', 'провер', 'дожд', 'результат', 'найд', 'вкладк', 'оптимизир', 'изображен', 'например', 'главн', 'страниц', 'порта', 'выгляд']]]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[['Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[['Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие\xa0— при создании английской страницы в поле «Язык» необходимо проставить значение «английский».']]</t>
+          <t>[[['главн', 'страниц', 'типичн', 'образовательн', 'программ']]]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[['В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[['После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.']]</t>
+          <t>[[['разниц', 'объем', 'потенциальн', 'оптимизируем']]]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[['После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/\xa0— адрес главной страницы сайта, pages\xa0— путь страницы.']]</t>
+          <t>[[['может', 'оптимизирова', 'размещен', 'сайт', 'изображен', 'помощ', 'встроен', 'инструмент', 'Google', 'PageSpeed', 'Insights', 'для', 'вниз', 'страниц', 'результат', 'обследован', 'ваш', 'страниц', 'найд', 'ссылк', 'скача', 'оптимизирова', 'изображен', 'ресурс', 'JavaScript', 'CSS', 'страниц']]]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[['Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню.\xa0']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[['Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.']]</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>[['Инструкцию по дальнейшей работе со страницей вы можете найти здесь.']]</t>
-        </is>
-      </c>
+          <t>[[['компьютер', 'скача', 'арх', 'одн', 'папк', 'котор', 'будут', 'содержа', 'ужат', 'изображен', 'необходим', 'опубликова', 'ваш', 'сайт', 'взам', 'тех', 'котор', 'ран']]]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1285,40 +1253,124 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).'], ['']]</t>
+          <t>[[['для', 'создан', 'составн', 'статическ', 'страниц', 'необходим', 'продела', 'шаг', 'создан', 'прост', 'статическ', 'страниц', 'посл', 'заполнен', 'основн', 'пол', 'переход', 'пол', 'вид', 'страниц', 'располож', 'пол', 'текст', 'умолчан', 'флажок', 'установл', 'положен', 'прост', 'клика', 'выбира', 'составн']]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Шапка Меню Основная колонка Виджеты  ']]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['В\xa0данном разделе редактируется\xa0то, что размещается в\xa0шапке сайта (картинка, заголовок, подзаголовок, кнопки).', 'При выборе картинки в\xa0шапку имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру. Размер изображения \xad— 1600 пикселей по\xa0ширине, вес\xa0— 200-300\xa0кб. Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у\xa0проекта есть свой фирстиль, который должен быть отражен в\xa0шапке, то\xa0необходимо учитывать требования к\xa0картинке.', 'Чтобы шапка отображалась не\xa0только на\xa0главной, но\xa0и\xa0на\xa0внутренних страницах сайта, нужно зайти в\xa0раздел «Шапка на\xa0вторых страницах» и\xa0выбрать: «Шапка с\xa0главной страницы» или «Своя шапка». Обычно для показа на\xa0внутренних страницах сайта используется «Шапка с\xa0главной страницы».'], ['Отображение меню регулируется в\xa0разделе «Шапка». По\xa0умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы\xa0хотите его вывести\xa0— «снизу» или «сверху».', 'Есть также опция сделать меню «по\xa0центру». Сами пункты меню редактируются в\xa0Данные-Блоки-Меню'], ['«Основная колонка главной страницы»\xa0— главный раздел, которым вы\xa0пользуетесь. Слева расположен набор виджетов, справа\xa0— поле, куда виджет нужно переместить и\xa0где будет располагаться ваш контент.', 'Выбираем виджет, подходящий для информации, которую необходимо разместить на\xa0странице, цепляем его курсором в\xa0левой колонке и\xa0тянем мышкой вправо, в\xa0большую центральную колонку. Нажимаем «Сохранить» в\xa0конце страницы и\xa0обязательно проверяем, что получилось!', '', '**Текст**\n Для размещения текста нужно выбрать виджет «Фрагмент текста с\xa0заголовком».  После вставки текста его нужно обязательно выделить и\xa0нажать на\xa0панели инструментов кнопку\xa0Tx для очистки лишнего кода. Далее необходимо разбить текст на\xa0абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в\xa0браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и\xa0цифры соединяли тире, а\xa0не\xa0дефисы), используйте программу «Типограф». \n', '**Изображения**\n Вы\xa0можете разместить как одиночное изображение, так и\xa0фотогалерею.  При загрузке изображений обязательно помните, что сначала их\xa0необходимо оптимизировать \n', '**Видео**\n Видео сначала необходимо разместить на\xa0Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Копируете оттуда значение c\xa0embed и\xa0вставляете эту ссылку в\xa0виджет. Если необходимо, можно добавить заголовок.  \n', '**Якорь**\n Якорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «адрес» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  \n', '**Цветные блоки**\n Для оформления контента в\xa0виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в\xa0строке\xa0— их\xa0может быть 2\xa0или\xa03, нажимаете на\xa0кнопку «добавить», открывается окно, в\xa0котором вы\xa0прописывает заголовок, ссылку, боковое меню (если нужно), а\xa0также загружаете фоновую фотографию.  Пример:  \n', '**Новости**\n Новости размещаются в\xa0разделе «Новости», см. инструкцию. При этом, чтобы они показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Новости», выбрав оформление «Плитки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в\xa0поле «Заголовок».  Пример:  \n', '**Мероприятия (анонсы)**\n Анонсы размещаются в\xa0разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на\xa0странице, их\xa0нужно вывести с\xa0помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы\xa0хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в\xa0поле «Заголовок».  Пример:  \n', '**Связанные материалы**\n Если нужно вынести на\xa0главную страницу материалы, которые связаны между собой какой-то общей темой, вы\xa0можете воспользоваться виджетом «Связанные материалы». Например, у\xa0вас есть несколько интервью выпускников или студентов, вы\xa0ставите их\xa0фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и\xa0ссылку.  Пример:  \n', '**Список персон**\n Информацию о\xa0персонах можно представить на\xa0странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а\xa0не\xa0овальное. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с\xa0подписью и\xa0текстом, вы\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. В\xa0поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL.  Пример:  Круглое большое фото в\xa0колонках Если вы\xa0хотите разместить несколько подряд круглых фото в\xa0колонке, то\xa0перемещаете сначала виджет «Строка с\xa0колонками», а\xa0потом непосредственного в\xa0него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы\xa0хотите 3\xa0персоны в\xa0ряд. Выставляете ширину колонки «3», если вы\xa0хотите 4\xa0персоны в\xa0ряд. В\xa0сумме ширина всех колонок должна быть равна числу «12». Остальные действия\xa0— те\xa0же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у\xa0вас много персон, и\xa0вы\xa0хотите, чтобы они выстраивались в\xa0один ряд, то\xa0выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из\xa0ВШЭ, то\xa0вы\xa0вводите ФИО, нажимаете «Найти» и\xa0выбираете нужного сотрудника из\xa0базы. Должность можно ввести вручную или выбрать из\xa0предлагаемого списка должностей. Фото и\xa0ссылка на\xa0личную страницу подтягиваются автоматически. Если персона не\xa0из\xa0ВШЭ, то\xa0вы\xa0меняете положение «Из\xa0ВШЭ» на\xa0«Не\xa0из\xa0ВШЭ». Вручную вписываете фио и\xa0должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на\xa0странице. Если необходимо поставить ссылку с\xa0ФИО, вы\xa0ставите ее\xa0в\xa0поле URL  Пример:  \n', '**Хронология**\n С\xa0помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из\xa0левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то\xa0ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В\xa0появившемся окне вписываете заголовок и\xa0текст, далее нажимаете опять «Добавить запись» за\xa0пределами окна. Если вам нужно добавить плашки (они выстраиваются в\xa0колонки), то\xa0нажимаете «Добавить запись» внутри окна.  Пример:    \n', '**Партнеры**\n Чтобы разместить логотипы партнеров, нужно переместить из\xa0левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и\xa0написать название компании-партнера. Логотипы встают в\xa0колонки по\xa04\xa0в строке.  Пример:  \n', '**Колонки**\n Если нужно разместить информацию в\xa0колонки, пожалуйста, не\xa0создавайте таблицу, пользуйтесь виджетом «Строка с\xa0колонками». У\xa0колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в\xa0который вы\xa0будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Контент-блок**\n Если необходимо разбить текст на\xa0смысловые части, наложив текст на\xa0фон (цвет или картинка), то\xa0надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в\xa0который непосредственно будете размещать информацию\xa0— например, виджет «Фрагмент текста с\xa0заголовком».  Пример:  \n', '**Соцсети**\n Если необходимо разместить иконки социальных сетей, нужно переместить из\xa0левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на\xa0соцсеть, а\xa0также выбрать из\xa0перечня нужную вам иконку. При необходимости иконки можно расположить по\xa0центру, поставив соответствующую галочку.  Пример:  \n', '**Плашка**\n Для выделения значимых пунктов в\xa0тексте можно воспользоваться виджетом «Плашка с\xa0цифрой». Перемещаете виджет в\xa0центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и\xa0поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы\xa0не\xa0ставите галочку около «Нумерация». Пример:  Плашки можно поставить в\xa0колонки. Тогда предварительно нужно переместить виджет «Строка с\xa0колонками» (о\xa0том, как это сделать смотрите выше), а\xa0потом в\xa0него переместить виджет «Плашка с\xa0цифрой». Пример:  \n', '**Даты**\n Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы\xa0переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и\xa0«Текст». Если вы\xa0хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  \n', '**Цифра**\n Если в\xa0тексте нужно разместить блок со\xa0значимыми цифрами, то\xa0вы\xa0выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и\xa0текста и\xa0заполняете необходимые поля.  Пример:  \n', '**Выпадайки**\n Если нужно разместить раскрывающийся цветной блок, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в\xa0поле «Описание» ставите текст, который будет показываться до\xa0скрытого текста, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то\xa0вы\xa0выбираете виджет «Набор с\xa0выпадайками 2». Нажимаете кнопку «Добавить блок», в\xa0поле «Заголовок» вписываете текст, по\xa0которому будут кликать, в\xa0поле «Открывающийся текст» вписываете текст, который будет открываться по\xa0клику.  Пример:  \n', '**Кнопка**\n Если вам нужно создать кнопку, например «Регистрация», вы\xa0выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и\xa0ссылку на\xa0страницу, на\xa0которую кнопка должна вести.  Пример:  \n', '**Часто задаваемые вопросы**\n Если вам нужно создать блок «Часто задаваемые вопросы», то\xa0вы\xa0выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и\xa0«Ответ». Далее нажимаете «Добавить». В\xa0открывшемся поле заполняете название кнопки и\xa0ссылку на\xa0страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с\xa0заливкой, так и\xa0прозрачной.  Пример:  Чтобы разместить все вопросы на\xa0странице, надо выбрать виджет «Вопросы и\xa0ответы (FAQ)», нажать «Добавить вопрос» и\xa0заполнить поля «Вопрос» и\xa0«Ответ».  Пример:  \n', '**Вкладки**\n Если вы\xa0хотите разместить информацию в\xa0виде переключающихся между собой блоков, то\xa0нужно выбрать виджет «Вкладки». Далее вы\xa0нажимаете «Добавить вкладку», в\xa0поле «Заголовок» пишите название вкладки, в\xa0пустое поле перемещаете виджет «Фрагмент текста с\xa0заголовком», где и\xa0размещаете информацию.  Пример:  \n', '**Слайдер**\n Инструкцию по\xa0размещению баннера в\xa0виджете «Слайдер» вы\xa0можете прочитать здесь. \n']]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+          <t>[[['слев', 'располож', 'виджет', 'отвеча', 'формат', 'размещен', 'информац', 'ин', 'блок', 'текст', 'фот', 'виде', '...', 'справ', 'непосредствен', 'пол', 'размещен', 'виджет', 'соответствен', 'информац']]]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[[['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк']]]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[[['внутр', 'центральн', 'част', 'страниц', 'редакторск', 'интерфейс', 'виджет', 'легк', 'меня', 'мест', 'прост', 'перетягив', 'мыш', 'удаля', 'ненужн', 'добавля', 'нов']]]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[[['посл', 'размещен', 'необходим', 'информац', 'нажима', 'сохран', 'обязательн', 'проверя', 'получ']]]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[[['виджет']]]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[[['для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'остальн', 'принцип', 'оформлен', 'текст', 'прост', 'статическ', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[[['может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова']]]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[[['виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок']]]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[[['якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'опеределен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor']]]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[[['для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[[['информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[[['помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[[['для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'можн', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[[['когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример']]]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1326,27 +1378,79 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo']]</t>
+          <t>[[['перейд', 'раздел', 'страниц', 'верхн', 'мен', 'режим', 'редактирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:'], ['1. Фон (пример: заливка цветом, паттерн).'], ['2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).'], ['3. Графический элемент (пример: логотип, иллюстрация, фото).'], ['При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:'], ['1. 375px для мобильных устройств;'], ['2. 800px для планшетов;'], ['3. 1600px для пк и ноутбуков.'], ['Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу\xa0– служебные поля, в которых может быть размещен только фон.'], ['Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.'], ['Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.']]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[[['созда', 'страниц', 'кликнув', 'иконк']]]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[[['при', 'заполнен', 'пол', 'заголовок', 'использ', 'форматирован', 'текст', 'разбива', 'текст', 'строк', 'вставля', 'пол', 'картинк', 'есл', 'копирует', 'эт', 'пол', 'текст', 'Word', 'обязательн', 'очист', 'форматирован', 'эт', 'пол', 'предназнач', 'исключительн', 'текст', 'форматирован', 'люб', 'случа', 'отраж', 'готов', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[[['техническ', 'им', 'страниц', 'пол', 'пут', 'указыва', 'латинск', 'строчн', 'букв', 'желательн', 'техническ', 'им', 'состоя', 'одн', 'слов', 'есл', 'необходим', 'использова', 'слов', 'назван', 'страниц', 'ко', 'случа', 'дела', 'пробел', 'слов', 'help', 'managers', 'должн', 'либ', 'help_managers', 'либ', 'help/managers']]]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[[['нельз', 'создава', 'пуст', 'страниц', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одного-единствен', 'файл']]]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[[['английск', 'верс', 'русск', 'страниц', 'должн', 'имет', 'так', 'техническ', 'им', 'русскоязычн', 'страниц', 'единствен', 'отлич', 'создан', 'английск', 'страниц', 'пол', 'язык', 'необходим', 'простав', 'значен', 'английск']]]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[[['рамк', 'одн', 'сайт', 'должн', 'статическ', 'страниц', 'одинаков', 'адрес', 'пол', 'пут', 'одн', 'язык']]]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[[['посл', 'наполн', 'страниц', 'прописа', 'техническ', 'им', 'необходим', 'сохран', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[[['посл', 'сохранен', 'страниц', 'доступн', 'адрес', 'адрес-главной-страницы-сайта/пут', 'например', 'дан', 'страниц', 'адрес', 'https', '//portal.hse.ru/pages/', 'https', '//portal.hse.ru/', 'адрес', 'главн', 'страниц', 'сайт', 'pages', 'пут', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'страниц', 'могл', 'заход', 'пользовател', 'ссылк', 'не', 'необходим', 'добав', 'мен']]]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[[['ссылк', 'мен', 'добавля', 'страниц', 'полност', 'готов', 'наполн', 'содержим']]]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[[['инструкц', 'дальн', 'работ', 'страниц', 'может', 'найт']]]</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1363,24 +1467,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.']]</t>
+          <t>[[['быстр', 'ссылк', 'оформлен', 'вставк', 'текст', 'списк', 'заголовк', 'якор', 'вставк', 'картинки/фот', 'загрузк', 'файл', 'вставк', 'таблиц']]]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[[''], [' Заголовок. Несколько слов, кратко и\xa0емко описывающих тему. Если заголовок будет слишком длинным, вместе с\xa0текстом анонса он\xa0может не\xa0поместиться на\xa0мобильной версии.'], ['Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у\xa0заголовка.'], [' Как на\xa0мобильной версии скрыть часть анонса Если вы\xa0видите, что на\xa0экране мобильного текст анонса не\xa0помещается полностью, оберните его в\xa0тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на\xa0мобильном и\xa0скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; ']]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Существует два варианта оформления баннера:\xa0заливка цветом\xa0и фоновая картинка.', 'По умолчанию редактор предлагает стиль Amethyst и\xa0другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих\xa0цветов.', 'Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»', '', 'Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на\xa0фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине.\xa0Перед загрузкой картинки необходимо\xa0оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.\xa0 На\xa0этой странице вы\xa0найдете ссылки на\xa0бесплатные фотобанки и\xa0фотографии нашего университета. Используя\xa0их, вы\xa0можете быть уверены, что не\xa0нарушаете авторские права. На баннерах нельзя размещать изображения с\xa0готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все\xa0значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и\xa0текст на\xa0нем теряется, его можно затемнить.', ' Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в\xa0программе, выбираем в\xa0верхнем меню\xa0— Изображение\xa0— Коррекция\xa0— Кривые или используем горячие клавиши Ctrl + M. Далее с\xa0помощью изменения точек кривой затемняем изображение до\xa0нужного уровня. ', 'Стили CSS. В\xa0этом поле можно установить позиционирование фонового баннера на\xa0странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в\xa0примере выше это .vp) должно быть уникальным для каждого баннера и\xa0написанным на\xa0латинице. Так, .vp\xa0— cокращение от\xa0«Высший пилотаж». Используйте следующий код, заменив первое значение:', '.vp.splash.pseudo { background-position: 50% 25%; }', 'CSS класс. Чтобы стили работали, скопируйте значение первого класса из\xa0Стилей CSS, но\xa0без точки (в\xa0примере это\xa0vp).', 'Темный текст. Устанавливаете, если фон сплешки светлый.']]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[['Если вам нужно\xa0скрыть баннер, делаете\xa0его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать\xa0на\xa0крестик в правом углу и\xa0сохранить\xa0изменения.', '']]</t>
-        </is>
-      </c>
+          <t>[[['все', 'элемент', 'форматирован', 'оформлен', 'придума', 'прост', 'так.', 'люб', 'страниц', 'сайт', 'должн', 'имет', 'правильн', 'структур', 'котор', 'определен', 'образ', 'обрабатыва', 'браузер', 'поисков', 'систем', 'чем', 'прощ', 'логичн', 'понятн', 'структур', 'страниц', 'быстр', 'открыва', 'загружа', 'правильн', 'индексир', 'поисков', 'робот', 'влия', 'выдач', 'сайт', 'поисков', 'систем', 'создава', 'пуст', 'страниц', 'вывод', 'мен', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одн', 'нескольк', 'файл', 'эт', 'плох', 'влия', 'имидж', 'ваш', 'сайт', 'такж', 'индексац', 'поисков', 'систем', 'задава', 'красн', 'строк', 'выравнива', 'текст', 'ширин', 'центр', 'лев', 'кра', 'прав', 'кра', 'дан', 'тип', 'верстк', 'использ', 'веб-страниц', 'например', 'веб-верстк', 'выравниван', 'ширин', 'привод', 'том', 'слов', 'располза', 'появля', 'больш', 'интервал', 'внимательн', 'такж', 'след', 'наследуем', 'Word', 'двойн', 'пробел', 'использова', 'дополнительн', 'форматирован', 'текст', 'оформлен', 'должн', 'строг', 'корпоративн', 'стил', 'должн', 'лишн', 'подчеркиван', 'веб-верстк', 'эт', 'выгляд', 'гиперссылк', 'котор', 'никуд', 'ведет', 'выделен', 'информац', 'множеств', 'восклицательн', 'знак', 'принудительн', 'увеличен', 'размер', 'шрифт', 'изменен', 'стил', 'шрифт', 'раскрашиван', 'текст', 'разн', 'цвет', 'пожалуйст', 'польз', 'штатн', 'инструмент', 'форматирован', 'для', 'интересн', 'оформлен', 'воспользова', 'виджет', 'котор', 'функционал', 'составн', 'страниц', 'есл', 'что-т', 'получа', 'знает', 'оформ', 'пиш', 'portal', 'hse.ru'], []], [['при', 'копирован', 'информац', 'документ', 'Microsoft', 'Word', 'использ', 'след', 'последовательн', 'действ'], ['скопир', 'текст', 'документ', 'нажм', 'значок', 'вставк', 'информац', 'word', 'файл', 'вставьт', 'скопирова', 'материал', 'откр', 'окн', 'нажм', 'встав'], ['выдел', 'ве', 'вставлен', 'текст', 'пол', 'зат', 'последовательн', 'нажм', 'значок', 'очистк', 'лишн', 'код', 'очистк', 'формат'], [], ['удал', 'лишн', 'пробел', 'перенос', 'строк'], ['разб', 'текст', 'абзац', 'для', 'необходим', 'выдел', 'ве', 'текст', 'выбра', 'абзац', 'панел', 'редактирован'], [], ['чтоб', 'разб', 'текст', 'абзац', 'такж', 'использова', 'сочетан', 'клавиш', 'Shift+Enter'], ['есл', 'текст', 'вставл', 'Word', 'некорректн', 'все', 'форматирован', 'отобража', 'редакторск', 'интерфейс', 'пропаст', 'отобража', 'неправильн', 'готов', 'страниц', 'лучш', 'форматирова', 'текст', 'текстов', 'редактор', 'Word', 'непосредствен', 'визуальн', 'редактор']], [['существ', 'возможн', 'созда', 'нумерова', 'маркирова', 'список', 'для', 'необходим', 'выдел', 'текст', 'нажа', 'соответств', 'кнопк', 'панел', 'инструмент'], [], ['получа'], ['маркирова', 'список', 'маркирова', 'список', 'нумерова', 'список', 'нумерова', 'список']], [['когд', 'страниц', 'размещ', 'текст', 'больш', 'объем', 'необходим', 'разб', 'логическ', 'част', 'структурирова', 'назван', 'кажд', 'част', 'оформ', 'элемент', 'заголовок'], [], ['предусмотр', 'уровн', 'заголовк']], [['заголовок', 'заголовок', 'заголовк', 'использ', 'последовательн', 'мер', 'понижен', 'значим', 'информац', 'заголовок', 'заголовок', 'перв', 'уровн', 'сам', 'важн', 'котор', 'использ', 'пол', 'заголовок', 'страниц', 'отображен', 'готов', 'страниц', 'нужн', 'пол', 'заголовок', 'страниц', 'принудительн', 'выбира', 'заголовок', 'страниц', 'использова', 'нескольк', 'заголовк', 'перв', 'уровн', 'поэт', 'пол', 'текст', 'оформля', 'какой-либ', 'заголовок', 'стил', 'заголовок', 'нужн', 'для', 'выделен', 'информац', 'одинаков', 'значим', 'рамк', 'одн', 'страниц', 'использ', 'заголовк', 'одинаков', 'уровн', 'например', 'заголовок', 'есл', 'внутр', 'так', 'заголовк', 'необход', 'подзаголовок', 'оформлен', 'использ', 'заголовок', 'четверт', 'уровн', 'заголовок', 'крайн', 'желательн', 'пропуска', 'уровн', 'заголовк', 'например', 'заголовк', 'использ', 'заголовок', 'подзаголовк', 'долж', 'использова', 'заголовок', 'заголовок', 'заголовок', 'заголовк', 'важн', 'элемент', 'поисков', 'сист', 'он', 'зада', 'правильн', 'структур', 'страниц', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац'], ['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'якор', 'удобн', 'применя', 'документ', 'больш', 'объем', 'быстр', 'переход', 'нужн', 'раздел', 'чтоб', 'созда', 'якор', 'необходим', 'постав', 'курсор', 'соответств', 'мест', 'страниц', 'панел', 'инструмент', 'нажа', 'значок', 'якор', 'откр', 'окн', 'прописа', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'нажа', 'встав', 'есл', 'ссылк', 'якор', 'нужн', 'размест', 'то', 'страниц', 'сдела', 'якор', 'необходим', 'нажа', 'значок', 'ссылк', 'панел', 'инструмент', 'пол', 'якор', 'выбра', 'соответств', 'им', 'якор', 'дал', 'нажа', 'встав', 'есл', 'ссылк', 'якор', 'нужн', 'размест', 'страниц', 'необходим', 'нажа', 'значок', 'ссылк', 'панел', 'инструмент', 'пол', 'адрес', 'прописа', 'ссылк', 'страниц', 'якор', 'такж', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/format', 'anchor', 'нажа', 'встав'], ['вставк', 'картинки/фот', 'при', 'загрузк', 'изображен', 'обраща', 'вниман', 'размер', 'чем', 'шир', 'изображен', 'мест', 'он', 'занима', 'страниц', 'измен', 'размер', 'изображен', 'непосредствен', 'загрузк', 'нажима', 'кнопк', 'загрузк', 'вставк', 'картинк', 'ждем', 'загрузк', 'изображен', 'переход', 'вкладк', 'положен', 'пол', 'размер', 'перв', 'цифр', 'размер', 'пиксел', 'ширин', 'втор', 'размер', 'пиксел', 'высот', 'есл', 'размер', 'изображен', 'ширин', 'высот', 'устраива', 'нажима', 'встав', 'случа', 'размещен', 'картинк', 'занима', 'слишк', 'мест', 'непосредствен', 'редакторск', 'интерфейс', 'готов', 'страниц', 'сохранен', 'редакторск', 'интерфейс', 'клика', 'картинк', 'лев', 'кнопк', 'мыш', 'сам', 'выбир', 'изображен', 'границ', 'изображен', 'появ', 'рамк', 'клика', 'прав', 'кнопк', 'мыш', 'появ', 'мен', 'выбира', 'пункт', 'добавить/измен', 'изображен', 'откр', 'окн', 'снов', 'выбира', 'вкладк', 'положен', 'меня', 'размер', 'картинк', 'нажима', 'кнопк', 'обнов', 'есл', 'собира', 'размест', 'нескольк', 'изображен', 'страниц', 'воспользова', 'опц', 'фотоальб', 'вниз', 'страниц', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'страниц'], [], ['загрузк', 'файл', 'для', 'размещен', 'файл', 'страниц', 'необходим', 'воспользова', 'кнопк', 'панел', 'редактирован', 'посл', 'откроет', 'диалогов', 'окн', 'загрузк', 'файл', 'пол', 'выбер', 'файл', 'выбира', 'нужн', 'файл', 'желательн', 'имен', 'файл', 'латинск', 'букв', 'слов', 'пробел', 'пол', 'назван', 'обязательн', 'указыва', 'назван', 'файл', 'имен', 'эт', 'назван', 'вывод', 'сайт', 'использова', 'поиск', 'портал', 'поисков', 'систем', 'обрат', 'вниман', 'загружа', 'файл', 'должн', 'внятн', 'назван', 'сокращен', 'многоточ', 'т.п.', 'нельз', 'называ', 'файл', 'регламент', 'исп-', '...', '...', 'технич-г', 'рег-т', 'т.п.', 'пользовател', 'поймет', 'подобн', 'назван', 'нажима', 'кнопк', 'загруз', 'посл', 'файл', 'загруз', 'вид', 'окн', 'измен', 'для', 'вставк', 'файл', 'страниц', 'нажима', 'встав', 'посл', 'файл', 'появ', 'редакторск', 'интерфейс', 'назван', 'необходим', 'поправ']]]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1408,64 +1504,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.']]</t>
+          <t>[[['быстр', 'ссылк', 'копирован', 'таблиц', 'Word', 'Excel', 'создан', 'таблиц', 'визуальн', 'редактор', 'специальн', 'шаблон', 'создан', 'таблиц']]]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).']]</t>
+          <t>[[['случа', 'копирует', 'таблиц', 'Word', 'Excel', 'необходим', 'пользова', 'инструмент', 'очистк', 'лишн', 'код', 'форматирован']], [['снача', 'нужн', 'воспользова', 'кнопк', 'очистк', 'стил', 'таблиц']], [[]], [['дал', 'необходим', 'использова', 'метелк', 'ластик', 'очистк', 'формат', 'текст']], [[]], [['есл', 'таблиц', 'вставл', 'некорректн', 'некорректн', 'отобража', 'экран', 'компьютер', 'мобильн', 'устройств']], [['оформлен', 'должн', 'строг', 'корпоративн', 'стил', 'задава', 'красн', 'строк', 'выравнива', 'текст', 'ширин', 'центр', 'лев', 'кра', 'прав', 'кра', 'выравниван', 'ширин', 'применя', 'книжн', 'верстк', 'перенос', 'веб-верстк', 'перенос', 'отсутств', 'выравниван', 'ширин', 'привод', 'том', 'слов', 'располза', 'появля', 'больш', 'интервал', 'внимательн', 'след', 'двойн', 'пробел', 'лишн', 'подчеркиван', 'выделен', 'информац', 'множеств', 'восклицательн', 'знак', 'пут', 'раскрашиван', 'текст', 'цвет', 'радуг']]]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.']]</t>
+          <t>[[['создава', 'таблиц', 'непосредствен', 'визуальн', 'редактор', 'статическ', 'страниц', 'для', 'создан', 'таблиц', 'кликн', 'иконк']], [['появ', 'окн', 'укаж', 'необходим', 'количеств', 'строк', 'столбц', 'при', 'необходим', 'отметьт', 'флажок', 'заголовок', 'ячейк', 'случа', 'перв', 'строчк', 'таблиц', 'ячейк', 'будут', 'объедин', 'момент', 'первоначальн', 'создан', 'таблиц', 'рекоменду', 'задава', 'границ', 'таблиц', 'поскольк', 'случа', 'визуальн', 'редактор', 'границ', 'таблиц', 'отобража', 'будут', 'хот', 'сохранен', 'страниц', 'просмотр', 'обычн', 'режим', 'границ', 'отобраз']], [['посл', 'заполнен', 'необходим', 'пол', 'нажима', 'кнопк', 'встав', 'посл', 'работ', 'таблиц', 'редакторск', 'интерфейс', 'происход', 'люб', 'текстов', 'редактор', 'прав', 'кнопк', 'мышк', 'либ', 'помощ', 'кнопок', 'работ', 'таблиц', 'добавля', 'удаля', 'строк', 'объединя', 'разбива', 'ячейк', 'устанавлива', 'ширин', 'высот', 'строк', 'случа', 'эт', 'действительн', 'необходим']], [['есл', 'сам', 'начал', 'работ', 'таблиц', 'постав', 'значен', 'границ', 'границ', 'дан', 'таблиц', 'необходим', 'зада', 'двум', 'способ', 'став', 'курсор', 'люб', 'мест', 'таблиц', 'клика', 'прав', 'кнопк', 'мышк', 'появ', 'контекстн', 'мен', 'выбира', 'параметр', 'таблиц', 'пол', 'границ', 'проставля', 'значен', 'толщин', 'границ', 'практическ', 'универсальн', 'размер', 'границ', 'став', 'курсор', 'люб', 'мест', 'таблиц', 'снов', 'нажима', 'иконк', 'создан', 'таблиц', 'появ', 'окошк', 'пол', 'границ', 'проставля', 'значен', 'толщин', 'границ', 'практическ', 'универсальн', 'размер', 'границ']], [[]]]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['А на этой странице собраны ссылки на\xa0зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с\xa0сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками\xa0Дирекции по порталу и мобильным приложениям\xa0\xa0в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы\xa0пользуетесь удобным ресурсом, о\xa0котором мы\xa0еще не\xa0знаем, присылайте информацию на\xa0адрес dkoptubenko@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[['\nColordot\xa0— инструмент для определения HTML-кода для требуемого цвета. В\xa0отличие от\xa0аналогов имеет визуально удобную палитру\nPixlr —\xa0не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений\nTinyPNG\xa0— один из проверенных инструментов для сжатия изображений перед публикацией их на сайте\n']]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[['\nUnsplash\xa0—\xa0изумительной красоты фотографии, в основном, видовые\nGratisography\xa0—\xa0бесплатные жанровые фотографии\nStockSnap.io\xa0—\xa0каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений\nPicjumbo\xa0—\xa0платный ресурс, но часть фотографий можно брать оттуда за просто так\nPicography\xa0—\xa0небольшая по объему коллекция бесплатных фотографий\nLibrary of Congress\xa0—\xa0исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения\nMorguefile\xa0—\xa0в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки\nTextures\xa0—\xa0подборка паттернов и фоновых изображений\nL+T\xa0—\xa0альтернативный сервис по подборке фоновых изображений\nFreeStockTextures\xa0—\xa0более 800 паттернов\nTextureZoom\xa0—\xa0тематические текстуры\n']]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[['\ndraw.io\xa0— интерактивные блок-схемы мы создаем при помощи этого инструмента\neaselly\xa0—\xa0простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось\nMyBalsamiq\xa0—\xa0сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами\n']]</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[['\nStoryMap\xa0— с\xa0его помощью можно создавать интерактивные карты.\nJuxtapose\xa0— элегантный инструмент для демонстрации изменений на\xa0однотипных объектах. С\xa0помощью слайдера пользователь может сравнить, как было, и\xa0как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с\xa0одного ракурса\nTimeline JS\xa0— с\xa0его помощью можно создавать таймлайны (интерактивные истории, растянутые во\xa0времени). На\xa0портале использовался, например, при создании страницы к\xa020-летию нижегородского кампуса\nSoundcite\xa0— инструмент для создания аудиопрезентаций\nPrezi\xa0— мощная альтернатива Powerpoint для создания презентаций\nFliphtml5\xa0— инструмент для размещения pdf-файлов в\xa0виде раскрытой книги с\xa0возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.\nФормулы\xa0—\xa0инструмент для отображения формул на сайте.\xa0\n']]</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[['\nGoogle Формы\xa0— бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за\xa0периметром портала. Для формирования опросных или регистрационных форм на\xa0портале есть штатный инструмент\n']]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[['\nВКонтакте pages.clearCache\xa0—\xa0 инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и\xa0учтет внесенные на\xa0нее изменения\nvk.com/cc\xa0— инструмент для генерации коротких ссылок для «ВКонтакте»\nSMMPlanner\xa0—\xa0отложенный постинг в социальные сети\nEzgif\xa0—\xa0создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)\nMake Beliefs Comix\xa0—\xa0создание комиксов\n']]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[['Онлайн-инструменты для любителей PDF —\xa0полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.']]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[['\nTutorialspoint\xa0— обширный набор учебников и\xa0инструкций: как пользоваться MS\xa0Word, Powepoint, Excel и\xa0сотнями других программ и\xa0приложений\nhtml academy\xa0— на сайте есть отличный бесплатный базовый курс по\xa0html и\xa0css, «настольная книга» для каждого, кто имеет доступ к\xa0редактированию страниц на\xa0портале\nCodecademy\xa0—\xa0интерактивные курсы по программированию\n'], ['https://smmplanner.com/']]</t>
-        </is>
-      </c>
+          <t>[[['таблиц', 'такж', 'добав', 'специальн', 'шаблон', 'нажм', 'кнопк', 'добавлен', 'специальн', 'элемент']], [[]], [[]], [['строк', 'дан', 'включа', 'заголовок', 'строк', 'дан', 'значен', 'расшифровк', 'можн', 'размест', 'столбц', 'возможн', 'объединен']], [[]], [['блок', 'дан', 'представля', 'нескольк', 'колонок', 'информац', 'максимальн', 'количеств', 'колонок', 'такж', 'равн']], [[]], [[]], [['воздушн', 'таблиц', 'отдел', 'верхн', 'контент', 'страниц', 'лин', 'наведен', 'строк', 'таблиц', 'изменя', 'цвет']], [[]]]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1485,17 +1549,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  ']]</t>
+          <t>[[['редакторск', 'режим', 'сайт', 'статическ', 'страниц', 'новост', 'анонс', 'вид', 'след', 'пол', 'заполнен']]]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.'], [' Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. '], ['Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)'], ['Не надо размещать в ленту новостей анонсы мероприятий!\xa0Если вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на\xa0главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.'], ['Если у вас возникают вопросы технического характера по размещению новостей, пишите на\xa0portal@hse.ru.'], ['Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке\xa0 .', 'Заголовок:\xa0кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей.\xa0Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.', 'Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.', 'Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.', 'Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию»\xa0—\xa0«Нет».', 'При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке\xa0чистить формат.', 'Обязательно выбираете\xa0рубрику и ключевые слова.', 'Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на\xa0portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.', '', 'Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.', '', 'Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.', 'Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость.\xa0Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.', '', 'Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).'], ['Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.', ''], ['Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора»\xa0выбираем «составной»:', '', 'Далее следуем инструкции по составной странице.'], ['Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!', 'Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать\xa0в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные\xa0фото (где крупно одно лицо).', 'Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:', '', 'Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.', 'Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.'], ['Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить новость можно двумя способами – «Ссылкой на оригинальную новость»\xa0и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.', '', '', 'Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости»\xa0–\xa0«Импортированные новости» (ссылка справа), найти\xa0нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».']]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[[['быстр', 'ссылк', 'описан', 'документ', 'соцсет']]]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[[['сам', 'важн', 'пол', 'описан', 'документ', 'мер', 'наполнен', 'сайт', 'забыва', 'заполня', 'эт', 'пол', 'нов', 'страниц', 'новост', 'анонс', 'больш', 'просьб', 'такж', 'заполн', 'созда', 'сайт', 'статическ', 'страниц']], [['напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск']], [[]], [['что', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'описан', 'документ', 'эт', 'фактическ', 'кратк', 'описан', 'написа', 'главн', 'страниц', 'сайт', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст']], [['мета-описан', 'должн', 'содержа', 'нескольк', 'слов', 'должн', 'описыва', 'конкретн', 'страниц', 'сайт', 'сайт', 'цел', 'мета-описан', 'должн', 'написа', 'люд', 'нормальн', 'человеческ', 'язык', 'развернут', 'правильн', 'выстроен', 'предложен', 'злоупотреблен', 'ключев', 'слов', 'фраз', 'заглавн', 'букв', 'рекламн', 'лозунг', 'пр.', 'мета-описан', 'должн', 'емк', 'содержательн', 'стара', 'выраз', 'основн', 'сут', 'документ', 'нескольк', 'предложен', 'содержим', 'тег', 'meta', 'должн', 'актуальн', 'отража', 'текущ', 'состоян', 'страниц', 'мета-описан', 'должн', 'соответствова', 'язык', 'документ']], [['наполнен', 'мета-описан', 'времен', 'служебн', 'информац', 'например', 'заб', 'добав', 'текст', 'устаревш', 'описан', 'например', 'цен', 'сайт', 'измен', 'описыва', 'документ', 'располож', 'друг', 'адрес', 'описан', 'прежн', 'размещен', 'важн', 'информац', 'конц', 'текст', 'стара', 'располага', 'наибол', 'важн', 'информац', 'фраз', 'начал', 'мета-описан']], [['https', '//elearning.hse.ru/mooc', 'массов', 'открыт', 'онлайн', 'курс', 'ни', 'вшэ'], ['description', 'открыт', 'доступ', 'международн', 'платформ', 'Coursera', 'российск', 'национальн', 'платформ', 'открыт', 'образован', 'нпо', 'может', 'бесплатн', 'изуча', 'курс', 'лучш', 'преподавател', 'высш', 'школ', 'экономик'], ['https', '//www.hse.ru/abiturient', 'поступа', 'ни', 'вшэ'], ['description', 'высш', 'школ', 'экономик', 'эт', 'отличн', 'старт', 'карьер', 'бизнес', 'государствен', 'служб', 'наук', 'зде', 'готов', 'высококлассн', 'специалист', 'нужн', 'стран', 'все', 'нужн', 'знат', 'поступа', 'ни', 'вшэ', 'дни', 'открыт', 'двер', 'проходн', 'балл', 'друг', 'информац'], ['https', '//www.hse.ru/figures/', 'цифр', 'факт'], ['description', 'что', 'так', 'вшэ', 'цифр', 'факт', 'статистик', 'рейтинг', 'инфографик', 'мног', 'друг', 'хотел', 'знат', 'вышк'], ['https', '//ma.hse.ru/', 'абитуриент', 'магистратур'], ['description', 'при', 'информац', 'поступа', 'магистратур', 'ни', 'вшэ', 'список', 'направлен', 'подготовк', 'программ', 'вопрос', 'ответ', 'вступительн', 'испытан', 'дни', 'открыт', 'двер', 'официальн', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[[['есл', 'хот', 'ваш', 'сайт', 'отдельн', 'страниц', 'красив', 'выглядел', 'соцсет', 'пользовател', 'дел', 'ссылк', 'нужн', 'пол', 'заполн']], [['картинк', 'ниж', 'увидет', 'отлича', 'ссылк', 'соцсет', 'случа', 'соответств', 'пол', 'заполн']], [['картинк', 'заполн']], [[]], [['картинк', 'заполн']], [[]], [['чтоб', 'посмотрет', 'отобража', 'ин', 'страниц', 'копирован', 'ссылк', 'вконтакт', 'воспользова', 'инструмент', 'вконтакт', 'pages.clearCache', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен']]]</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1522,29 +1598,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Создание анонса Составной редактор Анонс в английской версии Копирование на другой сайт Подписка\xa0на анонсы подразделения  ']]</t>
+          <t>[[['настоя', 'врем', 'сведен', 'блок', 'показ', 'списк', 'карт', 'дан', 'показ', 'списк', 'карт', 'показыва', 'сайт', 'подразделен', 'однак', 'использ', 'отображен', 'информац', 'подразделен', 'раздел', 'порта']]]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, которые состоятся в ближайшем будущем. Анонс - это не новость, в новостях рассказывается об уже прошедших событиях.\xa0Если в будущем у программы не планируется никаких событий, блок «Мероприятия» не выводится.'], ['Для добавления анонса необходимо открыть «Данные» и выбрать соответствующий пункт «Анонсы». Новая запись в разделе добавляется кликом по иконке.'], ['**Заголовок**\nВ анонсе заполняются следующие поля: заголовок, язык (изменяется для англ. анонсов), метка-комментарий (при необходимости), семафор-онлайн (при необходимости), Мероприятие начнётся, Мероприятие завершится, Когда убрать анонс о мероприятии с сайта, аннотация, текст, добавить ключевые слова, Учет результатов работы НИУ ВШЭ. Остальные поля можно не трогать.\nЗаголовок должен быть кратким и отражать формат мероприятия и его название. Например:\n IX Всероссийская научная конференция памяти Юрия Левады «Современное российское общество и социология» Лекция Ирины Новиковой «Образы России и русских в истории латвийских медиа» Международная летняя школа по киберправу (ISSC 2015) \nВ соответствии со\xa0стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большие количество знаков. На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения. Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.\n', '**Мероприятие имеет ограничение по возрасту**\nСогласно законодательству, все мероприятия, кроме научных,\xa0 должны иметь соответствующую маркировку по возрасту (0+, 6+, 12+ и т.д.). Например, маркировку должны иметь анонсы дней открытых дверей. Подробнее об этом написано в Положении о защите несовершеннолетних обучающихся НИУ ВШЭ от информации, причиняющей вред их здоровью и развитию.\nДля этого необходимо в режиме редактирования анонса в поле «Мероприятие имеет ограничение по возрасту» выставить нужный возраст.\n\n**Как понять к какой категории относится ваша информация?**\nНа основании ст. 5-10 Федерального закона от 29.12.2010 N 436-ФЗ «О защите детей от информации, причиняющей вред их здоровью и развитию».\n\n']]</t>
+          <t>[[['здан', 'наук', 'поиск', 'подразделен', 'сведен', 'образовательн', 'организац', 'кром', 'информац', 'раздел', 'переда', 'яндекс.карт', 'эт', 'каса', 'прежд', 'крупн', 'подразделен']]]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[['Большая часть информации, распространяемой в Университете, относится к категории 0+, т.е. той, которая может свободно распространяться среди детей любого возраста. По общему правилу на такой информации достаточно указать «0+», ограничивать доступ к такой информации не требуется.'], ['На основании ст. 11 Закона о защите детей. 1. Мероприятия на территории Университета не должны содержать информацию 18+ (если только на то не было получено специальное разрешение ректора или проректора).'], ['Подробнее о Защите несовершеннолетних обучающихя от информации, причиняющей вред их здоровью и развитию.\xa0']]</t>
+          <t>[[['чтоб', 'перейт', 'редактирован', 'блок', 'зайд', 'административн', 'интерфейс', 'порта', 'перейд', 'дан', 'показ', 'списк', 'карт']]]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['**Язык мероприятия (изменяется для англ. анонсов)**\n'], ['В поле «Новый портал: Метка комментарий» указывается информация о сроках окончания подачи заявок на мероприятие (отображается с флажком под заголовком).', '\xa0'], ['Поле «Новый портал: Семафор «Онлайн»» включается при наличии онлайн-трансляции мероприятия.\xa0', ''], ['При добавлении анонсов особое внимание обращайте на пункты «Когда убрать анонс о мероприятии с сайта» и «Даты показа анонса на главной странице». При игнорировании этих пунктов ваш анонс отправится в архив, так и не отобразившись на сайте подразделения.', '', 'Например, дата в поле «Мероприятие начнётся» «Мероприятие завершится» должна совпадать с реальной датой события, а не с датой, когда вы добавляете анонс. Как только дата начала мероприятия совпадёт с реальной датой и временем, анонс пропадёт из блока «Мероприятия».', '«Когда убрать анонс мероприятия с сайта» —\xa0как правило, ставится дата последнего дня мероприятия, время 23.55.', 'И обратите внимание, что можно указать часовой пояс. По умолчанию стоит московское время.'], ['Поле «Даты показа анонса на главной странице» используются при необходимости отображения на главной странице подразделения, а не только в общей ленте анонсов. Как правило, используется для мероприятий со сроками подачи заявок.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Нет», анонс не будет выводиться на главной странице в блоке «Мероприятия», но будет доступен в общем списке анонсов по адресу /announcements.', '', 'При проставлении флажка «Показывать анонс на главной странице» в положение «Да», анонс выводится на главную страницу.', '', '', 'Если у вас несколько анонсов, и вы хотите выстроить их в блоке «Мероприятия» в календарном порядке, то обратите особое внимание на поле «Даты показа анонса на главной странице». Желательно, чтобы у всех анонсов дата в первом поле «Дата показа анонса на главной странице с» была одинаковой. Далее вы регулируете положение анонсов в блоке на главной временем показа. Чем раньше время, тем выше будет анонс в блоке на главной, вне зависимости от даты реального события.', 'Например:', '', '1. Набор на образовательную программу «Bridge It! - 2015»', '', '2. Конкурс «Cоздание международных лабораторий в НИУ ВШЭ - Санкт-Петербург»', '', '3. HSE Filmfest 2015', '', 'Дата начала показа у всех анонсов одинаковая – 1 января 2015 г. А временем: 21.45, 22.00, 22.10 – скорректирована последовательность отображения.'], ['Текст аннотации будет выводиться в общем тексте анонса. Пожалуйста, не дублируйте эту информацию в следующем поле.'], ['В поле «Текст» указываются все подробности предстоящего мероприятия.', 'Текст должен содержать всю необходимую информацию, которая может понадобиться посетителю мероприятия\xa0 как из числа сотрудников \xa0Вышки, так и посетителю со стороны:', ' название мероприятия организаторы (подразделение ВШЭ) краткая аннотация основные докладчики, с указанием уч.степеней, и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками ', 'Обратите внимание, при копировании текса из Word в окно Текст,\xa0чтобы текст анонса располагался ровно на странице, необходимо чистить код. Для этого выделите весь текст в окне и нажмите на 2 значка в панели управления:\xa0«ластик» и\xa0«метелку».', '', 'После этого, если понадобится, удалите лишние абзацы и пробелы в начале строк.', 'Не используйте курсив, разные цвета и Caps Lock. Не злоупотребляйте выделением жирным шрифтом.', 'Подробно о форматировании текста и использовании основных\xa0инструментов редактирования страницы\xa0можно прочитать здесь.', 'Расставите в тексте ссылки на упомянутых в тексте персон и подразделения.', 'Для этого выделите необходимый врагмент текста, нажмите на значок\xa0«цепочка»', '', 'В открывшемся окне необходимо вставить ссылку или адрес электронной почты в графу Адрес. И нажать снизу кнопку Вставить.\xa0', '', 'Либо, если персона или подразделение принадлежит НИУ ВШЭ, желательно выбрать их из базы подразделений или персон портала. Тогда автоматически подгрузится страница данной персоны или подразделения. Это избавит вас от необходимости искать страницы персон или подразделений отдельно через поиск на портале, и позволит сэкономить время.', 'Для этого ничего не вставляя в графу Адрес, нужно выбрать в строке Своя ссылка пункт Персоны или Подразделения.', '', 'Нажать кнопку Выбрать рядом с графой Своя ссылка, и, в появившемся окне через поиск или с помощью поисковой строки (Ctrl + F), найти нужное подразделение.', '', 'Когда персона или подразделение выбрано через базу, их адрес в строке Адрес будет иметь следующий вид:', '', 'Когда ссылка будет сформирована, не забудьте нажать на кнопку Вставить.'], ['Для добавления ключевых слов к анонсам, нажмите на кнопку Добавить ключевое слово. Через поиск найдите нужное слово в базе ключевых слов портала и добавьте его.', '', 'По завершении заполнения необходимых полей статус анонса проставляется как «Активно», после этого нажимаете кнопку «Сохранить». Анонс готов.'], ['Если в анонсе вам требуется использовать верстку с различными элементами (например, поставить кнопку «Регистрация»), то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:', '', 'Далее следуем\xa0инструкции по составной странице.'], ['**Важно**\nВ английской версии подразделения также должны публиковаться анонсы мероприятий, которые проводятся на английском языке.\nСуществует 2 варианта размещения.\n', '**Вариант 1**\nПоставить анонс переводом.\nДля этого необходимо вставить перевод в сохраненный ранее анонс русской версии. Над заголовком нажать на британский флаг (Перевод)\n\nИ заполнить все соответствующие поля: Заголовок, Перевод, Англ. ключевые слова.\nПоставить статус: показывается.\nНажать —\xa0сохранить.\n\n', '**Важно**\nПосле сохранения перевода Вы окажетесь в русской версии анонса. Следом нажать еще раз сохранить, уже в русской странице.\n', '**Вариант 2**\nПолностью английский анонс.\nСоздаете новый анонс. Новая запись в разделе добавляется кликом по иконке\xa0\nЗаполняется по принципу русскоязычного анонса, только полностью на английском.\nИ ставится язык: английский.\n\nАнонс будет отображаться в английской версии сайта.\n'], ['Чтобы воспользоваться этой функцией, необходимо выполнить вход в личный кабинет (по адресу https://www.hse.ru/user/). После этого открываем нужный анонс. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст анонса.', 'В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».', 'Разместить анонс можно двумя способами – «Ссылкой на оригинальный анонс»\xa0и «Полным клонированием». В первом случае на сайте Вашего подразделения появится лишь заголовок, который будет уводить на оригинальный анонс. Вы не сможете его редактировать. Во втором случае анонс целиком копируется на сайт Вашего подразделения, Вы сможете его редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальный анонс, в Вашем отражаться не будут. Например, если добавится перевод на английский язык к анонсу, размещенному через «полное клонирование», он не подтянется.', '', ' ', 'Если Вам необходимо убрать анонс, размещенный «Ссылкой на оригинальный анонс», Вам необходимо зайти в раздел «Анонсы»\xa0–\xa0«Импортированные анонсы» (ссылка справа), найти\xa0нужный анонс, нажать слева на иконку «карандаш», далее нажать на «Убрать анонс из подразделения».', 'Если Вы не уверены, куда размещать информацию (в\xa0«Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости\xa0и анонсы представлено достаточно наглядно.', 'Если у вас возникают вопросы технического характера по размещению анонсов, пишите на\xa0portal@hse.ru.']]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[['Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.', 'Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение\xa0→\xa0скопируйте появившуюся в адресной строке браузера\xa0ссылку →\xa0добавьте ссылку на подписку в нужный вам раздел сайта.\xa0', '']]</t>
-        </is>
-      </c>
+          <t>[[['телефон', 'адрес']], [['основн', 'телефон', 'укаж', 'телефон', 'формат', '4957787704', 'внутрен', 'телефон', 'необход', 'при', 'необходим', 'укаж', 'ком', 'принадлеж', 'номер']], [['есл', 'подразделен', 'располага', 'разн', 'здан', 'кажд', 'адрес', 'указа', 'сво', 'номер', 'телефон']], [['есл', 'укажет', 'телефон', 'кажд', 'адрес', 'указыва', 'основн', 'телефон', 'необязательн', 'отображен', 'яндекс.карт', 'будут', 'использова', 'телефон', 'указа', 'адрес', 'есл', 'указа', 'основн', 'телефон', 'показыва', 'обо', 'адрес']], [['есл', 'нашл', 'адрес', 'ни', 'вшэ', 'справочник', 'напиш', 'portal', 'hse.ru']], [['поч', 'важн', 'указа', 'телефон', 'подразделен', 'вам', 'удобн', 'связа', 'тольк', 'налич', 'адрес', 'телефон', 'подразделен', 'показа', 'яндекс.карт', 'обрат', 'вниман', 'яндекс.карт', 'показыва', 'факультет', 'крупн', 'институт', 'международн', 'лаборатор', 'редакц', 'журнал']], [['электрон', 'почт']], [['укаж', 'корпоративн', 'почт', 'подразделен', 'корпоративн', 'почт', 'сотрудник', 'выполня', 'обязан', 'секретаря/менеджер']], [['уровен', 'подготовк']], [['указан', 'уровн', 'образован', 'актуальн', 'подразделен', 'реализ', 'образовательн', 'программ', 'имеющ', 'аспирантск', 'школ']], [['тип', 'подразделен', 'яндекс', 'актуальн', 'крупн', 'подразделен']], [['тип', 'факультет', 'указыва', 'подразделен', 'реализ', 'основн', 'образовательн', 'программ', 'крупн', 'институт']], [['тип', 'дополнительн', 'образован', 'курс', 'иностра', 'язык', 'маркетингов', 'услуг', 'учебн', 'центр', 'центр', 'повышен', 'квалификац', 'указыва', 'тех', 'подразделен', 'котор', 'эт']], [['категор', 'подразделен']], [['скор', 'категор', 'проставл', 'есл', 'проставьт']], [['обрат', 'вниман', 'научно-учебн', 'лаборатор', 'явля', 'международн', 'долж', 'стоя', 'тип', 'международн', 'лаборатор', 'возникновен', 'вопрос', 'обраща', 'мар', 'юдкевич']], [['тематик', 'исследован']], [['дан', 'справочник', 'основа', 'расширен', 'классификатор', 'OECD', 'использ', 'отображен', 'подразделен', 'раздел', 'наук', 'такж', 'общ', 'каталог', 'подразделен', 'ни', 'вшэ']]]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1571,94 +1643,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.'], [' Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение\xa0SEO-оптимизированного текста (SEO - search engine optimization) на главной странице\xa0 служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. ']]</t>
+          <t>[[['баннер', 'размеща', 'главн', 'страниц', 'сайт', 'эт', 'прост', 'элемент', 'оформлен', 'повесел', 'баннер', 'призва', 'обрат', 'вниман', 'посетител', 'какой-т', 'контент', 'например', 'ссылк', 'баннер', 'вест', 'анонс', 'конференц', 'новост', 'крупн', 'проект']]]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['  Служба поддержки портала,\xa0 portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и\xa0страницу\xa0«Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,\xa0 УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,\xa0 Центр поддержки и мониторинга образовательных программ  Раздел\xa0«Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы\xa0«Рейтинги»,\xa0«Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса\xa0в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   ']]</t>
+          <t>[[[]], [['заголовок', 'нескольк', 'слов', 'кратк', 'емк', 'описыва', 'тем', 'есл', 'заголовок', 'слишк', 'длин', 'вмест', 'текст', 'анонс', 'помест', 'мобильн', 'верс']], [['анонс', 'бол', 'детальн', 'раскрыва', 'тем', 'баннер', 'зада', 'обычн', 'шрифт', 'поэт', 'длин', 'заголовк']], [['как', 'мобильн', 'верс', 'скрыт', 'част', 'анонс', 'есл', 'вид', 'экран', 'мобильн', 'текст', 'анонс', 'помеща', 'полност', 'оберн', 'тэг', 'span', 'class=', 'is-desktop', 'текст', 'скрыт', 'мобильн', '/span', 'есл', 'нужн', 'наоборот', 'отобража', 'какой-т', 'фрагмент', 'текст', 'мобильн', 'скрыва', 'больш', 'экран', 'использ', 'span', 'class=', 'is-mobile', '…текст…', '/span']]]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[['Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»'], ['Положение об основной образовательной программе высшего образования'], [' Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  ']]</t>
+          <t>[[['существ', 'вариант', 'оформлен', 'баннер', 'заливк', 'цвет', 'фонов', 'картинк'], ['умолчан', 'редактор', 'предлага', 'стил', 'Amethyst', 'друг', 'градиентн', 'фон', 'может', 'выбра', 'котор', 'наибол', 'подход', 'цвет', 'ваш', 'сайт', 'стара', 'избега', 'крича', 'цвет'], ['есл', 'хот', 'использова', 'качеств', 'фон', 'картинк', 'пол', 'стил', 'выбира', 'сво', 'баннер'], [], ['фон', 'сплешк', 'эт', 'фонов', 'фотограф', 'баннер', 'выбир', 'изображен', 'ориентир', 'фотостил', 'вышк', 'размер', 'обычн', 'пропорц', 'горизонтальн', 'ориентирова', 'фот', '1600', 'ширин', 'перед', 'загрузк', 'картинк', 'необходим', 'оптимизирова', 'подробн', 'поч', 'важн', 'оптимизирова', 'фот', 'прочита', 'страниц', 'найдет', 'ссылк', 'бесплатн', 'фотобанк', 'фотограф', 'наш', 'университет', 'использу', 'может', 'увер', 'наруша', 'авторск', 'прав', 'баннер', 'размеща', 'изображен', 'готов', 'текст', 'больш', 'вероятн', 'обреза', 'различн', 'устройств', 'похож', 'рекомендац', 'относ', 'композиц', 'след', 'след', 'экран', 'мобильн', 'отобража', 'значим', 'част', 'фотограф', 'иллюстрац', 'есл', 'фонов', 'фот', 'достаточн', 'светл', 'текст', 'нем', 'теря', 'затемн'], ['как', 'затемн', 'фонов', 'изображен', 'можн', 'воспользова', 'программ', 'Photoshop', 'бесплатн', 'онлайн-фотошоп', 'открыва', 'изображен', 'программ', 'выбира', 'верхн', 'мен', 'изображен', 'коррекц', 'крив', 'использу', 'горяч', 'клавиш', 'Ctrl', 'дал', 'помощ', 'изменен', 'точек', 'крив', 'затемня', 'изображен', 'нужн', 'уровн'], ['стил', 'CSS', 'пол', 'установ', 'позиционирован', 'фонов', 'баннер', 'страниц', 'чем', 'меньш', 'значен', 'ниж', 'изображен', 'значен', 'перв', 'класс', 'пример', 'выш', 'эт', '.vp', 'должн', 'уникальн', 'кажд', 'баннер', 'написа', 'латиниц', 'так', '.vp', 'cокращен', 'высш', 'пилотаж', 'использ', 'след', 'код', 'замен', 'перв', 'значен'], ['.vp.splash.pseudo', 'background-position'], ['CSS', 'класс', 'чтоб', 'стил', 'работа', 'скопир', 'значен', 'перв', 'класс', 'стил', 'CSS', 'точк', 'пример', 'эт'], ['темн', 'текст.', 'устанавлива', 'фон', 'сплешк', 'светл']]]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['Если вы\xa0никогда ранее не\xa0работали с\xa0с сайтом образовательной программы (в\xa0т.ч. предыдущей версии), получите права редактора, написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес\xa0portal@hse.ru\xa0(служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом.\xa0']]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[['Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).'], [' Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). ']]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[['Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала.\xa0'], ['Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.'], ['Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.']]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[['Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.'], [' Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) '], ['Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.'], ['Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.'], ['Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.']]</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[['В шапке образовательной программы размещаются:'], [''], [' Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП)\xa0служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией\xa0по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс\xa0дня\xa0открытых дверей). '], ['Размещение тизера в шапке сайта.'], [' Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору\xa0→ Данные\xa0→ Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. ']]</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[['Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба\xa0поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.'], ['Какие элементы есть на странице при открытии сайта:'], ['Метаинформация'], [' Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения\xa0Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы\xa0действительно\xa0отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.\xa0 Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен\xa0в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» '], ['Университеты-партнеры образовательной программы'], [' Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип.\xa0Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. '], ['Информация об ОП (раскрывающиеся блоки)'], [' Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. '], ['Видео (опционально)'], [' На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению\xa0 к Шишкову Олегу Геннадьевичу или\xa0Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к\xa0Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. '], ['Важные объявления'], [' Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум\xa0— два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления»\xa0→ «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! '], ['Мероприятия'], [' Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.\xa0 Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в\xa0виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом\xa0«Разместить в подразделении»\xa0(выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.\xa0 Для создания такой страницы нужно отправить запрос на адрес\xa0portal@hse.ru\xa0и приложить к письму наполнение для сайта.\xa0 '], ['Новости'], [' Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле\xa0«Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам,\xa0можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. '], ['Похожие программы'], [' Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». '], ['Вокруг нас (социальный блок)'], [' Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  '], ['Меню (правая колонка)'], [' Редактируется через Редактору\xa0→ Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  '], ['Руководство программы (руководители, менеджеры)'], [' Раздел редактируется\xa0Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к\xa0Сюзанне Райан. ']]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[['В верхнем\xa0меню\xa0находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.'], ['Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба\xa0поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.'], ['Раздел О программе'], [' В данном разделе размещается общая информация о программе. В раздел\xa0«О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Абитуриентам (если есть набор)'], [' Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой\xa0поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на\xa0portal@hse.ru.\xa0   В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической\xa0страницы и что делать, если пункт меню помечен «замочком» '], ['Раздел Студентам (если есть студенты)'], [' Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба\xa0поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел\xa0«Студентам» входят следующие обязательные пункты:  Рейтинги*\xa0(автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs)\xa0(статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.)\xa0(статстраница с техническим именем mobility) Практическая подготовка\xa0(статстраница с техническим именем internships) Каталог ВКР**\xa0(автоматическая страница с техническим именем\xa0diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется \xa0в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена\xa0здесь. '], ['Раздел Выпускникам (если есть информация для выпускников)'], [' Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел\xa0могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  ']]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>[['Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.'], ['Учебные курсы'], [' Страница генерируется автоматически по адресу /courses на основе данных LMS.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Преподаватели'], [' Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ.\xa0Если на странице\xa0отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. '], ['Число студентов и вакантные бюджетные места'], [' Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. '], ['Документы'], [' Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела\xa0«Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы.\xa0Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики\xa0– добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов\xa0 (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО\xa0- на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07,\xa0или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле \xa0«Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.\xa0 Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. '], ['Расписание'], [' Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».\xa0 '], ['Академический совет'], [' Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. ']]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[['Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».'], ['Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе\xa0«Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей.\xa0'], ['Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.'], [''], ['Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.'], ['Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения изменений в меню (добавления ссылки на страницу в заблокированный пункт меню) необходимо отправить письмо на\xa0portal@hse.ru.'], ['Пункты меню в разделе «Общее» также открывает\xa0только служба\xa0поддержки портала по запросу программы.'], ['Важно! Не надо создавать новые пункты меню, аналогичные тем, что уже есть, но находятся под «замочком»!\xa0']]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>[['Отредактировать или добавить адрес подразделения, реализующего программу, можно, зайдя в раздел «Текстовые блоки» (с главной страницы заходим в Редактору\xa0→ Данные\xa0→ Блоки). В заголовке указывается название блока (опционально), в поле «Текст»\xa0— непосредственно фактический адрес.'], [''], ['Кроме того, текстовые блоки позволяют добавлять любую дополнительную информацию в правой колонке сайта (контактная информация, дополнительные ссылки, руководство и т.п.)'], ['В текстовых блоках используется следующий визуальный редактор:'], [''], ['На иллюстрации указаны основные инструменты. Обратите внимание, что назначение каждого инструмента можно узнать, наведя курсор на соответствующую иконку панели.'], ['']]</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[['Новые буклеты образовательных программ ежегодно верстаются сотрудниками отдела визуальных коммуникаций. Обновляет буклет на сайте ОП служба поддержки портала после получения файлов от отдела визуальных коммуникаций. Обратите внимание - если вы создали буклет самостоятельно, то перед тем, как отправить его в службу поддержки портала с просьбой заменить буклет на сайте ОП, сначала согласуйте готовый макет с руководителем отдела визуальных коммуникаций Кутьковым Ю.Ю.']]</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>[['На главной странице необходимо добавить ссылку на учебный офис программы.\xa0В редакторском интерфейсе сайтов образовательных программ предусмотрена возможность создания страницы учебного офиса через специальный функционал. Чтобы добраться до блока «Учебный офис»\xa0с главной страницы программы заходим в Редактору → Данные → Блоки → Образовательная программа → Учебный офис.'], [''], ['Вам необходимо зайти в блок «Учебный офис», добавить персоны (обратите внимание, также предусмотрена возможность добавления контактных данных каждой персоны), нажать кнопку «Сохранить». Посмотреть, что получилось, вы можете на странице с адресом: http://адрес_вашей_программы/study_office\xa0(например,\xa0http://www.hse.ru/ba/cultural/study_office/). После этого новую ссылку необходимо добавить в раздел «Ссылка на учебный офис».'], ['']]</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>[['Блок «Социальные кнопки» используется, если у программы есть\xa0профили в популярных социальных сетях. В редакторском интерфейсе необходимо лишь выбрать сеть и дать ссылку на профиль:'], [''], ['Порядок расположения ссылок на социальные сети можно легко менять, просто перетащив ссылку на нужную строку.']]</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>[['Турбо-страницы ускоряют загрузку контента из поиска Яндекса, Новостей и Дзена в 15 раз в 3G-сетях. Турбо-страницы формируются по единому шаблону \xa0и быстро загружаются на смартфонах с медленным или нестабильным интернетом.'], ['При открытии сайта новой программы турбо-версия создается службой поддержки портала. Дальнейшую корректировку содержания турбо-версии вы делаете самостоятельно. Изменения в турбо-версии не приводят к автоматическим изменениям на главной странице сайта!'], ['Турбо-версия \xa0программы редактируется Данные → Блоки → Общее → Главная страница (Турбо-версия)'], [''], ['Шапка турбо-версии:'], ['Навигационное меню – может содержать максимально 4 вкладки (на каждую дается ссылка с главной страницы сайта ОП):'], [' о программе абитуриентам студентам выпускникам '], ['Если на программе появилась вкладка, которой не было ранее (например, Студентам или Выпускникам), добавьте ее в навигационное меню турбо-версии (заголовок и ссылку). Не забудьте сохранить изменения.'], ['Важно! Заголовки 1 и 2 уровня, а также изображение вносятся сотрудниками службы поддержки портала.'], [''], ['Главная страница турбо-версии:'], ['Виджет «Текст» – в текстовое поле вносится скопированное с главной страницы ОП описание программы. При изменении описания ОП замена текста на главной странице производится сотрудниками службы портала, а вы меняете текст на турбо-версии.'], ['Виджет «Информация об ОП (аккордеон)» – замена текста внутри него происходит автоматически, если вы изменили текст в раскрывающихся блоках на главной странице сайта ОП.'], ['Виджет «Кнопка» – в заголовок выносится название кнопки, в поле ссылка – ставится ссылка. Если на главной странице ОП поменялось название кнопки или ссылка на нее, не забудьте внести обновления на турбо-версию. Не добавляйте в турбо-версию более одной кнопки!'], ['Виджет «Ссылка на видео» – ставится при наличии видео на главной странице ОП. Если видео изменилось на главной странице, оно не появится автоматически в турбо-версии, вы должны поменять ссылку самостоятельно.'], ['']]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[['Если у программы есть английская версия, её редактирование происходит так же, как в русской версии, только через английские блоки: Редактору → Данные → Блоки (англ.).'], ['Единственное отличие —\xa0при создании статической страницы в поле «Язык» необходимо установить «английский». Если у программы существуют страницы с одинаковым содержанием на русском и английском языках (например, о программе), то их технические имена должны совпадать (не нужно в имени английских страниц задавать en)! Различием в данном случае будет служить поле «Язык».'], ['Только в том случае, когда имена стат. страниц на разных языках совпадают, пользователь при переходе со страницы на одном языке на ту же страницу на другом языке будет попадать на идентичную страницу, а не на главную страницу программы. Если у программы нет английской версии, но она необходима (программа проводится на английском языке или есть большое число англоязычных курсов), следует прислать заявку на активацию английской версии главному редактору Марии Никитиной на\xa0mpustovoyt@hse.ru. К письму необходимо приложить имеющиеся английские тексты о программе. Если готовых текстов нет, то нужно указать список страниц на перевод.'], ['Если у программы существует английская версия, то ее необходимо поддерживать и обновлять (добавлять новости, анонсы мероприятий, интересных иностранной аудитории).'], ['Подробная инструкция и guidelines\xa0по работе с английской версией сайта образовательной программы.']]</t>
-        </is>
-      </c>
+          <t>[[['есл', 'нужн', 'скрыт', 'баннер', 'дела', 'неактивн', 'убра', 'галочк', 'слайд', 'актив', 'чтоб', 'удал', 'неактуальн', 'баннер', 'необходим', 'нажа', 'крестик', 'прав', 'угл', 'сохран', 'изменен'], []]]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1672,20 +1688,64 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['\n\n\n\n\n        \t\t    \n        \t\t    Шаг 1\n                \nНеобходимо удостовериться, что ваша персональная страница появилась на сайте.\xa0Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала.\xa0\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 2\n                \nСледует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина\xa0ввести адрес корпоративной почты сотрудника, в качестве пароля\xa0– пароль от этой почты.\nЕсли вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь\xa0на digital@hse.ru\n\n\n\n\n\n\n        \t\t    \n        \t\t    Шаг 3\n                \nВ\xa0ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста,\xa0на\xa0portal@hse.ru.\nВ письме укажите:\n• ФИО сотрудника\n• Адрес корпоративной почты\nСлужба портала пропишет e-mail, и вы сможете войти.\nПисьмо должно быть отправлено\xa0строго с корпоративной почты сотрудника @hse.ru\xa0\n\xa0\n\n\n\n\n']]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>[[['мног', 'использ', 'сво', 'работ', 'фот', 'виде', 'изображен', 'университет', 'дирекц', 'связ', 'обществен', 'подготов', 'собра', 'фото-', 'видеоконтент', 'котор', 'показыва', 'наш', 'корпус', 'учебн', 'процесс', 'переда', 'атмосфер', 'вышк']]]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[[['YоуTубе-канал', 'может', 'найт', 'плейлист', 'имиджев', 'ролик', 'экскурс', 'здан', 'лета', 'видеогид', 'покровк', 'ролик', 'университетск', 'лаборатор', 'вопрос', 'учен', 'мног', 'друг']]]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[[['такж', 'воспользова', 'фотограф', 'университет', 'страниц', 'love.hse', 'размещ', 'вариант', 'обоев/фон', 'зум', 'стикерпак']]]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[[['страниц', 'собра', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта', 'больш', 'част', 'эт', 'сервис', 'использ', 'сотрудник', 'дирекц', 'портал', 'мобильн', 'приложен', 'повседневн', 'работ', 'однак', 'необходим', 'имет', 'вид', 'сотрудник', 'дирекц', 'осуществля', 'поддержк', 'числ', 'имеют', 'возможн', 'консультирова', 'использован', 'есл', 'пользует', 'удобн', 'ресурс', 'котор', 'зна', 'присыла', 'информац', 'адрес', 'dkoptubenko', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[[['Colordot', 'инструмент', 'определен', 'HTML-код', 'требуем', 'цвет', 'отлич', 'аналог', 'имеет', 'визуальн', 'удобн', 'палитр', 'Pixlr', 'обработк', 'фот', 'тех', 'ког', 'рук', 'фотошоп', 'аналог', 'зде', 'удобн', 'дела', 'коллаж', 'нескольк', 'изображен', 'TinyPNG', 'проверен', 'инструмент', 'сжат', 'изображен', 'публикац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[[['Unsplash', 'изумительн', 'красот', 'фотограф', 'основн', 'видов', 'Gratisography', 'бесплатн', 'жанров', 'фотограф', 'StockSnap.io', 'кажд', 'недел', 'сервис', 'пополня', 'сотн', 'нов', 'разрешен', 'свободн', 'использован', 'изображен', 'Picjumbo', 'платн', 'ресурс', 'част', 'фотограф', 'брат', 'оттуд', 'прост', 'Picography', 'небольш', 'обь', 'коллекц', 'бесплатн', 'фотограф', 'Library', 'Congress', 'историческ', 'фотограф', 'коллекц', 'библиотек', 'конгресс', 'сша', 'перед', 'использован', 'кажд', 'фотограф', 'прочита', 'распространя', 'прав', 'использован', 'разрешен', 'Morguefile', 'основн', 'пользовательск', 'фотограф', 'невысок', 'качеств', 'встреча', 'превосходн', 'снимк', 'Textures', 'подборк', 'паттерн', 'фонов', 'изображен', 'L+T', 'альтернативн', 'сервис', 'подборк', 'фонов', 'изображен', 'FreeStockTextures', '800', 'паттерн', 'TextureZoom', 'тематическ', 'текстур']]]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[[['draw.io', 'интерактивн', 'блок-схем', 'созда', 'помощ', 'инструмент', 'easelly', 'прост', 'употреблен', 'сервис', 'инфографик', 'след', 'обрат', 'вниман', 'русскоязычн', 'шрифт', 'отобража', 'задумыва', 'MyBalsamiq', 'сервис', 'создан', 'прототип', 'можн', 'использова', 'взаимодейств', 'иллюстратор']]]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[[['StoryMap', 'помощ', 'создава', 'интерактивн', 'карт', 'Juxtapose', 'элегантн', 'инструмент', 'демонстрац', 'изменен', 'однотипн', 'объект', 'помощ', 'слайдер', 'пользовател', 'сравн', 'стал', 'подобн', 'инструмент', 'активн', 'применя', 'сми', 'демонстрац', 'изменен', 'например', 'реконструкц', 'дом', 'улиц', 'снят', 'одн', 'ракурс', 'Timeline', 'помощ', 'создава', 'таймлайн', 'интерактивн', 'истор', 'растянут', 'времен', 'портал', 'использова', 'например', 'создан', 'страниц', '20-лет', 'нижегородск', 'кампус', 'Soundcite', 'инструмент', 'создан', 'аудиопрезентац', 'Prezi', 'мощн', 'альтернатив', 'Powerpoint', 'создан', 'презентац', 'Fliphtml5', 'инструмент', 'размещен', 'пдф-файл', 'вид', 'раскрыт', 'книг', 'возможн', 'листан', 'страниц', 'мышк', 'единствен', 'известн', 'нам', 'стабильн', 'бесплатн', 'инструмент', 'подобн', 'род', 'формул', 'инструмент', 'отображен', 'формул', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[['Google', 'форм', 'бесплатн', 'генератор', 'опрос', 'может', 'пригод', 'нужн', 'провест', 'опрос', 'периметр', 'порта', 'для', 'формирован', 'опросн', 'регистрацион', 'форм', 'портал', 'штатн', 'инструмент']]]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[[['вконтакт', 'pages.clearCache', 'инструмент', 'вконтакт', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен', 'vk.com/cc', 'инструмент', 'генерац', 'коротк', 'ссылок', 'вконтакт', 'SMMPlanner', 'отложен', 'постинг', 'социальн', 'сет', 'Ezgif', 'создан', 'гиф-изображен', 'видеозапис', 'такж', 'редактур', 'изменен', 'размер', 'обрезк', 'дал', 'Make', 'Beliefs', 'Comix', 'создан', 'комикс']]]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[[['онлайн-инструмент', 'любител', 'PDF', 'полност', 'бесплатн', 'онлайн-инструмент', 'объединен', 'разделен', 'сжат', 'PDF-файл', 'преобразован', 'документ', 'Office', 'PDF-файл', 'преобразован', 'PDF-файл', 'JPG', 'JPG', 'PDF', 'без', 'необходим', 'установк']]]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[[['Tutorialspoint', 'обширн', 'набор', 'учебник', 'инструкц', 'пользова', 'Word', 'Powepoint', 'Excel', 'сотн', 'друг', 'программ', 'приложен', 'html', 'academy', 'сайт', 'отличн', 'бесплатн', 'базов', 'курс', 'html', 'css', 'настольн', 'книг', 'кажд', 'имеет', 'доступ', 'редактирован', 'страниц', 'портал', 'Codecademy', 'интерактивн', 'курс', 'программирован']], [['https', '//smmplanner.com/']]]</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1705,69 +1765,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'форм', 'уведомлен', 'почт', 'ответн', 'письм', 'пользовател', 'ссылк', 'форму/клонирование/выгрузк', 'результат', 'CRM-систем']]]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки)\xa0и поставить соответствующую галочку.']]</t>
+          <t>[[['для', 'создан', 'регистрацион', 'форм', 'форм', 'подписк', 'новост', 'опрос', 'др.', 'необходим', 'сайт', 'ваш', 'подразделен', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм'], [], ['нажима', 'созда', 'форм'], [], ['дал', 'нужн', 'указа'], ['назван', 'назван', 'использ', 'длин', 'слов', 'может', 'постав', 'галочк', 'расстав', 'мягк', 'перенос', 'врем', 'проведен', 'период', 'времен', 'течен', 'котор', 'ответ', 'вопрос', 'статус', 'меня', 'активн', 'форм', 'готов', 'язык', 'форм', 'английск', 'язык', 'необходим', 'выстав', 'язык', 'английск'], ['есл', 'регистрац', 'мероприят', 'ограничен', 'количеств', 'участник', 'существ', 'возможн', 'закр', 'регистрац', 'определен', 'количеств', 'заявок', 'ин', 'случа', 'оставля', 'эт', 'пол', 'незаполнен'], ['галочк', 'пройт', 'нужн', 'случа', 'созда', 'опрос'], ['галочк', 'автоматическ', 'нумерова', 'вопрос', 'сто', 'умолчан', 'однак', 'быва', 'случа', 'автоматическ', 'нумерац', 'нужн', 'галочк', 'нужн', 'убра'], [], ['дал', 'необходим', 'нажа', 'кнопк', 'добав', 'блок', 'вопрос'], ['есл', 'нужн', 'разб', 'вопрос', 'нескольк', 'тематическ', 'блок', 'заполня', 'пол', 'блок', 'вопрос', 'необходим', 'такж', 'пол', 'описан'], ['пример', 'блок'], [], ['есл', 'ваш', 'вопрос', 'должн', 'идт', 'подряд', 'разбивк', 'блок', 'эт', 'пол', 'заполня', 'сраз', 'переход', 'кнопк', 'добав', 'вопрос', 'пол', 'вопрос', 'вписыва', 'непосредствен', 'вопрос', 'пол', 'описан', 'добав', 'комментар', 'вопрос'], ['дал', 'нажима', 'кнопк', 'добав', 'ответ', 'вписыва', 'необходим', 'вариант'], ['есл', 'ответ', 'дан', 'вопрос', 'обязател', 'став', 'галочк', 'напрот', 'соответств', 'пункт'], ['есл', 'вопрос', 'допуска', 'ответ', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'есл', 'вопрос', 'допуска', 'нескольк', 'вариант', 'ответ', 'такж', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ'], [], ['ответ', 'сдела', 'выпада', 'списк', 'пол', 'формат', 'ответ', 'нужн', 'выбра', 'соответств', 'строк'], ['есл', 'ответ', 'зада', 'заполня', 'форм', 'долж', 'вписа', 'сво', 'вариант', 'ответ', 'пол', 'формат', 'ответ', 'выбира', 'значен', 'строк', 'нескольк', 'строк', 'может', 'добав', 'какой-т', 'комментар', 'свободн', 'ответ', 'пояснительн', 'текст', 'такж', 'огранич', 'ответ', 'количеств', 'символ'], ['есл', 'ответ', 'предполага', 'указан', 'дат', 'номер', 'телефон', 'e-mail', 'стран', 'проживан', 'загрузк', 'файл', 'выбра', 'строк', 'специальн', 'вопрос', 'пол', 'формат', 'ответ', 'дал', 'выпада', 'списк', 'выбра', 'нужн', 'вариант'], [], ['обрат', 'вниман', 'выберет', 'тип', 'специальн', 'вопрос', 'email', 'заполнен', 'форм', 'браузер', 'пользовател', 'постара', 'автозаполн', 'эт', 'пол', 'кеш', 'эт', 'облегча', 'пользовател', 'заполнен', 'форм', 'автозаполнен', 'кеш', 'браузер', 'возможн', 'такж', 'отношен', 'пол', 'фамил', 'нужн', 'выбра', 'код', 'вопрос', 'lastname', 'им', 'код', 'вопрос', 'firstname', 'автозаполнен', 'гарантир', 'однак', 'прав', 'работа'], ['посл', 'заполнен', 'необходим', 'сохран', 'форм', 'нажа', 'кнопк', 'созда'], []]]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['чтоб', 'откр', 'дополнительн', 'параметр', 'необходим', 'нажа', 'стрелк'], [], ['откр', 'окн', 'может'], ['добав', 'форм', 'пояснительн', 'текст', 'отобража', 'сраз', 'заголовк', 'добав', 'сообщен', 'страниц', 'отправк', 'форм', 'вывод', 'экран', 'напр.', 'спасиб', 'регистрац', 'ждем', 'адрес', '...', 'добав', 'сообщен', 'страниц', 'завершен', 'регистрац', 'заменя', 'стандартн', 'фраз', 'извин', 'регистрац', 'законч', 'измен', 'текст', 'соглас', 'обработк', 'персональн', 'дан', 'использ', 'необходим', 'замен', 'стандартн', 'текст'], [], ['раздел', 'дополнительн', 'параметр', 'такж', 'сможет'], ['постав', 'ссылк', 'переход', 'сохранен', 'имет', 'вид', 'заполн', 'эт', 'пол', 'сообщен', 'тип', 'спасиб', 'регистрац', 'регистрац', 'заверш', 'вывод', 'будут', 'измен', 'схем', 'показ', 'вопрос', 'умолчан', 'идут', 'друг', 'друг', 'схем', 'вопрос', 'вид', 'таблиц', 'позволя', 'выстраива', 'две', 'колонк', 'привяза', 'форм', 'определен', 'сайт', 'например', 'сдела', 'одн', 'сайт', 'нужн', 'форм', 'друг', 'либ', 'нужн', 'привяза', 'сайт', 'указа', 'корпоративн', 'e-mail', 'сотрудник', 'вшэ', 'котор', 'будут', 'приход', 'уведомлен', 'нов', 'ответ', 'кажд', 'адрес', 'долж', 'добавл', 'отдельн', 'кнопк', 'добав', 'связа', 'форм', 'друг', 'язык', 'работа', 'переключалк', 'язык', 'так', 'форм', 'например', 'английск'], [], ['есл', 'хот', 'почт', 'пользовател', 'приход', 'ответн', 'письм', 'постав', 'галочк', 'напрот', 'направ', 'ответн', 'письм', 'пользовател', 'дан', 'функц', 'работа', 'случа', 'форм', 'нужн', 'указыва', 'email', 'ответ', 'вопрос', 'обязател', 'пол', 'текст', 'письм', 'нужн', 'размест', 'текст', 'код', 'вопрос', 'электрон', 'почт', 'прописа', 'слов', 'email', 'больш', 'просьб', 'текст', 'письм', 'указыва', 'контактн', 'информац', 'пользовател', 'обрат', 'вопрос', 'т.к.', 'письм', 'приход', 'адрес', 'robot', 'hse.ru'], [], [], ['есл', 'хот', 'ответн', 'письм', 'пользовател', 'персонализирова', 'пол', 'текст', 'письм', 'начал', 'нужн', 'размест', 'фраз', 'здравств', 'ANSWER_TO_QUESTION_lastname', 'ANSWER_TO_QUESTION_firstname', 'при', 'необходим', 'кром', 'e-mail', 'ваш', 'форм', 'обязательн', 'вопрос', 'отдельн', 'фамил', 'им', 'имя-отчеств', 'код', 'вопрос', 'нужн', 'прописа', 'слов', 'lastname', 'firstname'], [], [], []]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд\xa0типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.']]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[['Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в\xa0меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».']]</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>[['На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть).\xa0']]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[['Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует\xa0выбрать нужную доску из списка.']]</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>[['']]</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>[['Что не следует делать:']]</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>[['\nСоздавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».\nИспользовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание\nПренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.\n']]</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[['Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.']]</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>[['Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs']]</t>
-        </is>
-      </c>
+          <t>[[['необходим', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'сможет'], [], ['редактирова', 'форм', 'сохран', 'изменен', 'нужн', 'нажа', 'кнопк', 'сохран'], ['клонирова', 'форм', 'необходим', 'созда', 'форм', 'тем', 'похож', 'вопрос'], ['найт', 'ссылк', 'форм', 'нажима', 'встраиван', 'откр', 'окн', 'выбира', 'ссылк', 'назван', 'ваш', 'подразделен', 'форм', 'открыва', 'внутр', 'ваш', 'сайт', 'клика', 'ссылк', 'адресн', 'строк', 'открыш', 'окн', 'копирует', 'ссылк', 'ваш', 'форм', 'пример'], [], ['выгруз', 'ответ', 'форм', 'возможн', 'посмотрет', 'результат', 'pdf', 'html', 'excel']]]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1786,29 +1810,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.']]</t>
+          <t>[[['для', 'получен', 'доступ', 'редактирован', 'сайт', 'необходим', 'направ', 'заявк', 'свободн', 'форм', 'электрон', 'адрес', 'portal', 'hse.ru', 'заявк', 'необходим', 'указа', 'фи', 'сотрудник', 'адрес', 'сайт', 'котор', 'нуж', 'доступ']]]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  ']]</t>
+          <t>[[['для', 'редактирован', 'сайт', 'необходим', 'имет', 'доступ', 'личн', 'кабинет', 'портал']]]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[['Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.'], ['Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.'], ['Для активации английской версии необходимо в личном кабинете:'], [' Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень '], [''], ['\xa0'], [' Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) '], ['\xa0'], [' и далее поставить статус\xa0 «Черновик».'], ['После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.'], ['Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).'], ['Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.'], ['В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».'], [''], ['\xa0']]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[['Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала\xa0Марии Никитиной.', 'Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.', 'Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], [' Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала\xa0Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! ', '', '\xa0', ' Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. ', ' Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." '], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], [' Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. ', ' Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием)\xa0главному редактору англоязычной версии портала\xa0Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. '], [' Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении»\xa0– «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). ', '  ', '\xa0', ' Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. ', '\xa0'], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[['Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.'], ['Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.'], ['Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала\xa0Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".'], ['Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.'], ['Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.', ' Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить\xa0нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах\xa0не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  ', ' Раздел ABOUT ', 'Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career \xa0', ' Раздел FOR PROSPECTIVE STUDENTS ', 'Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница) \xa0', ' Раздел FOR STUDENTS - рекомендованные ссылки и страницы ', 'Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs', ' Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной\xa0 программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events     \xa0  \xa0    Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply\xa0     Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы   \xa0     Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)\xa0   Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР) \xa0   Term Papers and Student Theses     Итоговая аттестация \xa0   Final Assessment     Рекомендованные онлайн-курсы \xa0   Recommended MOOCs     \xa0Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  '], [' Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. '], [' Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). ']]</t>
-        </is>
-      </c>
+          <t>[[['заявк', 'должн', 'отправл', 'корпоративн', 'адрес', 'электрон', 'почт']]]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1835,31 +1851,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['Сайты всех структурных подразделений должны\xa0соответствовать утвержденному стандарту.'], ['Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы\xa0фирменного стиля не могут противоречить\xa0брендбуку НИУ ВШЭ, а их использование\xa0должно\xa0быть согласовано\xa0с Отделом визуальных коммуникаций visual@hse.ru.'], ['Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).'], ['Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).'], ['Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.'], ['Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.'], ['Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.'], ['Заявку\xa0на создание\xa0сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый\xa0контент имеется для размещения. Подробности о дальнейших шагах будут содержаться\xa0в ответном письме.']]</t>
+          <t>[[['быстр', 'ссылк', 'заголовк', 'страниц', 'мета-описан', 'страниц', 'заголовк', 'текст', 'ссылк', 'изображен', 'общ', 'рекомендац']]]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[['  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  ']]</t>
+          <t>[[['заголовк', 'должн', 'соответствова', 'содержан', 'страниц']], [['заголовок', 'долж', 'уникальн', 'максимальн', 'соответствова', 'содержан', 'страниц']], [['чег', 'след', 'избега']], [['заголовк', 'имеющ', 'отношен', 'содержан', 'страниц', 'шаблон', 'бессмыслен', 'заголовк', 'так', 'поступа', 'студент']], [['использ', 'кратк', 'содержательн', 'заголовк']], [['максимальн', 'длин', 'заголовк', '150', 'символ', 'оптимальн', 'символ']], [['заголовок', 'долж', 'информативн', 'кратк', 'есл', 'связа', 'содержан', 'слишк', 'длин', 'поисков', 'систем', 'показа', 'част', 'заголовок', 'котор', 'созда', 'основ', 'содержим', 'страниц']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'заголовк', 'бесполезн', 'пользовател']]]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[['Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге']]</t>
+          <t>[[['описан', 'должн', 'точн', 'отража', 'содержан', 'страниц']], [['помн', 'описан', 'показа', 'результат', 'поиск', 'поэт', 'он', 'должн', 'информативн', 'интересн', 'пользовател', 'дела', 'мета-описан', '300', 'символ', 'коротк', 'будут', 'плох', 'выглядет', 'длин', 'уреза']], [['чег', 'след', 'избега']], [['создан', 'мет', 'тег', 'описан', 'имеющ', 'отношен', 'содержан', 'страниц', 'использован', 'описан', 'общ', 'характер', 'например', 'эт', 'веб-страниц', 'учебн', 'программ', 'использован', 'описан', 'ключев', 'слов', 'копирован', 'описан', 'содержан', 'документ']], [['использ', 'разн', 'описан', 'разн', 'страниц']], [['есл', 'будет', 'использова', 'уникальн', 'мет', 'тег', 'описан', 'кажд', 'страниц', 'эт', 'поможет', 'пользовател', 'сдела', 'правильн', 'выбор', 'особен', 'случа', 'результат', 'поиск', 'отобража', 'нескольк', 'страниц', 'сайт']], [['чег', 'след', 'избега']], [['использован', 'одн', 'мет', 'тег', 'описан', 'мног', 'страниц', 'сайт']], [['инструкц', 'заполнен', 'мета-тег', 'редактор', 'найт', 'https', '//portal.hse.ru/meta']]]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[['О JavaScript и iframe на сайтах подразделений\xa0']]</t>
+          <t>[[['предназначен', 'пример']], [['основн', 'предназначен', 'дан', 'тег', 'структурирован', 'оформлен', 'контент', 'страниц', 'сдела', 'чита', 'легк', 'воспринима', 'пользовател', 'сайт']], [['кром', 'применен', 'дан', 'тег', 'качеств', 'структуризац', 'контент', 'оформлен', 'использован', 'придан', 'дизайн', 'отдельн', 'фраз', 'предложен', 'допуска', 'заголовк', 'должн', 'использова', 'разбиен', 'текст', 'логическ', 'блок']], [['тег', 'заголовк', 'h2-h6', 'отлича', 'значим', 'кажд', 'низш', 'уровен', 'долж', 'мен', 'знач', 'при', 'использован', 'дан', 'тег', 'нужн', 'выдержива', 'структур', 'h2-h3-h4-h5-h6']], [['так', 'избега', 'использован', 'друг', 'тег', 'акцентирован', 'strong', 'ссылок', 'внутр', 'тег', 'h2-h6']], [['длин', 'заголовк', 'должн', 'превыша', 'символ', 'поисков', 'систем', 'обрабатыва', 'ограничен', 'количеств', 'знак', 'длин', 'заголовк', 'будут', 'воспринят', 'полност']], [['редактор', 'дан', 'заголовк', 'найт', 'пол', 'формат']], [[]], [['инструкц', 'добавлен', 'заголовк', 'редактор', 'https', '//portal.hse.ru/format/', 'headrs']], [['представьт', 'пишет', 'обзор']], [['как', 'написан', 'обзор', 'больш', 'текст', 'излож', 'основн', 'пункт', 'подпункт', 'документ', 'подума', 'использова', 'тег', 'заголовк']], [['чег', 'след', 'избега']], [['выделен', 'тег', 'заголовк', 'так', 'текст', 'котор', 'помога', 'определ', 'структур', 'страниц', 'использован', 'заголовк', 'подход', 'друг', 'тег', 'например', 'курс', 'strong', 'полужирн', 'бессистемн', 'использован', 'заголовк', 'разн', 'размер']], [['злоупотребля', 'заголовк']], [['использ', 'тег', 'заголовк', 'эт', 'имеет', 'смысл', 'чрезмерн', 'количеств', 'заголовк', 'страниц', 'затрудня', 'просмотр', 'контент', 'меша', 'определ', 'заканчива', 'одн', 'тем', 'начина', 'друг']], [['чег', 'след', 'избега']], [['злоупотреблен', 'заголовк', 'страниц', 'слишк', 'длин', 'заголовк', 'использован', 'заголовк', 'оформлен', 'текст', 'структурирован']]]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[['HSESans/HSESlab (ZIP, 228 Кб)', '\xa0']]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>[[['тщательн', 'продумыва', 'текст', 'ссылок']], [['видим', 'текст', 'ссылк', 'помога', 'пользовател', 'поисковик', 'поня', 'содержан', 'страниц', 'ссылк', 'страниц', 'могут', 'внутрен', 'указыва', 'друг', 'страниц', 'сайт', 'внешн', 'ведут', 'друг', 'сайт', 'люб', 'случа', 'понятн', 'текст', 'ссылк', 'прощ', 'пользовател', 'ориентирова', 'сайт', 'поисков', 'систем', 'легч', 'поня', 'страниц', 'котор', 'ведет', 'ссылк']], [['хорош', 'продума', 'текст', 'ссылк', 'помога', 'пользовател', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет']], [['использ', 'информативн', 'текст']], [['текст', 'ссылк', 'долж', 'хот', 'общ', 'описыва', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк']], [['чег', 'след', 'избега']], [['использован', 'текст', 'ссылк', 'общ', 'слов', 'например', 'страниц', 'стат', 'нажм', 'слов', 'имеющ', 'отношен', 'тем', 'контент', 'страниц', 'котор', 'ведет', 'ссылк', 'част', 'использован', 'URL', 'страниц', 'качеств', 'текст', 'ссылк', 'эт', 'допуска', 'например', 'продвижен', 'указан', 'нов', 'адрес', 'сайт']], [['текст', 'долж', 'лаконичн']], [['текст', 'долж', 'описательн', 'возможн', 'небольш', 'нескольк', 'слов', 'коротк', 'фраз']], [['чег', 'след', 'избега']], [['длин', 'текст', 'ссылк', 'например', 'сложн', 'предложен', 'цел', 'абзац']], [['подбер', 'текст', 'ссылок', 'внутрен', 'URL']], [['забыва', 'ссылк', 'быва', 'внешн', 'внутрен', 'тщательн', 'продума', 'текст', 'внутрен', 'ссылок', 'поможет', 'ориентирова', 'сайт', 'пользовател', 'поисков', 'систем']], [['чег', 'след', 'избега']], [['длин', 'текст', 'больш', 'количеств', 'ключев', 'слов', 'предназначен', 'поисков', 'сист', 'создан', 'ненужн', 'ссылок', 'котор', 'упроща', 'навигац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[[['использ', 'атрибут', 'alt']], [['для', 'изображен', 'использ', 'описательн', 'им', 'файл', 'атрибут', 'alt', 'атрибут', 'alt', 'содерж', 'текст', 'котор', 'вид', 'пользовател', 'изображен', 'показыва', 'то', 'ин', 'причин']], [['чтоб', 'заполн', 'атрибут', 'редактор', 'сайт', 'добавлен', 'картинк', 'нужн', 'заполн', 'пол', 'описан']], [[]], [['для', 'нуж', 'атрибут', 'есл', 'посетител', 'использ', 'просмотр', 'сайт', 'вспомогательн', 'технолог', 'например', 'программ', 'чтен', 'экра', 'сможет', 'поня', 'изображ', 'картинк']], [['кром', 'использует', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'служ', 'текст', 'обычн', 'ссылк', 'однак', 'рекоменду', 'злоупотребля', 'изображен', 'навигац', 'сайт', 'использова', 'текстов', 'ссылк', 'наконец', 'оптимизац', 'им', 'графическ', 'файл', 'текст', 'атрибут', 'alt', 'упроща', 'поиск', 'изображен', 'например', 'Google', 'картинк']], [['использ', 'кратк', 'описательн', 'им', 'файл', 'текст', 'атрибут', 'alt']], [['как', 'мног', 'друг', 'элемент', 'страниц', 'котор', 'оптимизирова', 'им', 'файл', 'текст', 'атрибут', 'alt', 'должн', 'кратк', 'содержательн']], [['чег', 'след', 'избега']], [['шаблон', 'бессмыслен', 'им', 'так', 'image1.jpg', 'pic.gif', '1.jpg', 'возможн', 'слишк', 'длин', 'им', 'файл', 'добавлен', 'ключев', 'слов', 'цел', 'предложен', 'текст', 'атрибут', 'alt']], [['добавля', 'текст', 'атрибут', 'alt', 'использует', 'изображен', 'ссылк']], [['есл', 'реш', 'использова', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'поможет', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'счита', 'пишет', 'текст', 'обычн', 'ссылк']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'текст', 'атрибут', 'alt', 'рассматрива', 'спам', 'чрезмерн', 'использован', 'изображен', 'качеств', 'ссылок', 'навигац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[[['пиш', 'легк', 'чита', 'текст']], [['текст', 'долж', 'понят', 'пользовател', 'стара', 'выдержива', 'стил', 'допуска', 'ошибок']], [['чег', 'след', 'избега']], [['грамматическ', 'орфографическ', 'ошибок', 'текст', 'запута', 'формулировок', 'некачествен', 'контент']]]</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1884,24 +1908,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['В настоящее время сведения из блока «Показ в списках и на картах» (Данные\xa0→ Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:']]</t>
+          <t>[[['осторожн', 'относ', 'просьб', 'коллег', 'размест', 'сайт', 'подразделен', 'произвольн', 'JavaScript', 'сторон', 'iframe', 'подобн', 'вставк', 'оказыва', 'очен', 'уязвим', 'элемент', 'сайт', 'точк', 'зрен', 'безопасн', 'через', 'связ', 'внеш', 'сайт', 'могут', 'стат', 'рассадник', 'огромн', 'числ', 'вирус', 'инфицирова', 'компьютер', 'подозрева', 'посетител', 'порта']]]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['\nЗдания\nНаука\nПоиск по подразделениям\nСведения об образовательной организации\r\nКроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).']]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[['Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.']]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[['Телефон и адрес'], ['Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.'], ['Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.'], ['Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.'], ['Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на\xa0portal@hse.ru.'], ['\nПочему важно указать телефон подразделения\n\nС вами будет удобнее связаться\nТолько при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.\n\n'], ['Электронная почта'], ['Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.\xa0\xa0'], ['Уровень подготовки'], ['Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы.\xa0'], ['Тип подразделения по Яндексу (актуально только для крупных подразделений)'], ['Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов'], ['Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.'], ['Категория подразделения'], ['Скорее всего, категория уже проставлена. Если нет, то проставьте ее.\xa0'], ['Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)'], ['Тематика исследований'], ['Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.']]</t>
-        </is>
-      </c>
+          <t>[[['гарантирова', 'защит', 'подобн', 'могут', 'обеспеч', 'крупн', 'интернет-корпорац', 'минимизирова', 'ущерб', 'возможн', 'существен', 'сократ', 'числ', 'подобн', 'кодов', 'вставок', 'ресурс', 'порта']]]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1929,15 +1945,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[["Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала."]]</t>
+          <t>[[['страниц', 'показыва', 'штатн', 'сотрудник', 'подразделен', 'проведен', 'зик', 'москв', 'ис-пр', 'кампус', 'подробн', 'ком', 'обраща', 'случа', 'отсутств', 'трудустроен', 'вшэ', 'сотрудник', 'написа']]]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.']]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>[[['страниц', 'имеет', 'автоматическ', 'формируем', 'техническ', 'им', 'persons', 'чтоб', 'добав', 'автоматическ', 'страниц', 'сотрудник', 'сайт', 'необходим', 'соответств', 'пункт', 'мен', 'прописа', 'адрес', 'сайта/персонс', 'например', 'управлен', 'развит', 'поддержк', 'порта', 'адрес', 'страниц', 'выгляд', 'https', '//portal.hse.ru/persons', 'завод', 'статическ', 'страниц', 'так', 'адрес', 'нужн']]]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[[['редактор', 'подразделен', 'имеет', 'возможн', 'измен', 'автоматическ', 'сортировк', 'сотрудник', 'установ', 'сортировк', 'должност', 'для', 'кажд', 'должност', 'внутр', 'сайт', 'подразделен', 'необходим', 'установ', 'сво', 'порядков', 'номер', 'например', 'руководител', 'имет', 'порядков', 'номер', 'заместител', 'люб', 'друг', 'числ', 'профессор']], [['случа', 'страниц', 'алфавитн', 'порядк', 'будут', 'показыва', 'снача', 'люд', 'должност', 'руководител', 'люд', 'должност', 'заместител', 'руководител', 'сотрудник', 'должност', 'профессор']], [['административн', 'интерфейс', 'раздел', 'найт', 'след', 'пут', 'дан', 'должност', 'для', 'выставлен', 'порядков', 'номер', 'необходим', 'кликнут', 'мышк', 'значок', 'редактирова', 'простав', 'соответств', 'номер']], [[]], [[], ['обрат', 'вниман', 'дан', 'страниц', 'имеет', 'автоматическ', 'кэш', 'час', 'есл', 'хот', 'сраз', 'увидет', 'изменен', 'пересохран', 'основн', 'страниц', 'подразделен']]]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1966,21 +1986,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО\xa0(для кампусов).\xa0Подробнее про\xa0то, к\xa0кому обращаться в\xa0случае отсутствия трудустроенного в\xa0ВШЭ сотрудника написано\xa0здесь.']]</t>
+          <t>[[['быстр', 'ссылк', 'доступ', 'редактирован', 'наполнен', 'сайт', 'размещен', 'текст', 'размещен', 'новост']]]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на\xa0сайте необходимо в\xa0соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и\xa0поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно.\xa0']]</t>
+          <t>[[['доступ', 'редактирован', 'сайт', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'как', 'получ', 'доступ', 'написа']], [['перейт', 'режим', 'редактирован', 'сайт', 'двум', 'способ']], [['прям', 'ссылк', 'https', '//www.hse.ru/adm/', 'высвечива', 'список', 'подразделен', 'котор', 'прав', 'пут', 'клик', 'ссылк', 'редактор', 'вниз', 'главн', 'страниц', 'сайт', 'редактирован', 'котор', 'прав', 'дал', 'нажа', 'ссылк', 'дан', 'есл', 'нажмет', 'ссылк', 'редактор', 'статическ', 'страниц', 'новост', 'анонс', 'внутр', 'сайт', 'сраз', 'попадет', 'реж', 'редактирован', 'конкретн', 'элемент']], [[]], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'нужн', 'подробн', 'работ', 'английск', 'верс', 'написа']]]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[['Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по\xa0должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер\xa01, его заместитель\xa0— 2\xa0(или любое другое число больше\xa01), профессор\xa0— 3.'], ['В\xa0этом случае на\xa0странице в\xa0алфавитном порядке будут показываться сначала люди с\xa0должностью Руководитель, потом люди с\xa0должностью Заместитель руководителя, потом\xa0— все сотрудники с\xa0должностью Профессор.'], ['В\xa0административном интерфейсе раздел можно найти по\xa0следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на\xa0значок «редактировать» и проставить соответствующий номер.\xa0'], [''], ['', 'Обратите внимание, что данная страница имеет автоматический кэш\xa0— 4\xa0часа. Если вы\xa0хотите сразу увидеть изменения, то\xa0пересохраните основную страницу подразделения.']]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>[[['для', 'работ', 'сайт', 'основн', 'будут', 'нужн', 'четыр', 'подраздел', 'сайт']], [['блок', 'подраздел', 'осуществля', 'управлен', 'главн', 'страниц', 'сайт', 'включ', 'добавлен', 'пункт', 'мен', 'страниц', 'инструкц', 'создан', 'страниц', 'новост', 'инструкц', 'создан', 'новост', 'анонс', 'инструкц', 'создан', 'анонс']], [['есл', 'редактирует', 'сайт', 'структурн', 'подразделен', 'такж', 'будут', 'нужн', 'раздел', 'функциона', 'сотрудник', 'подразделен', 'показ', 'списк', 'карт', 'адрес', 'мета-информац', 'подразделен']], [['очен', 'част', 'перв', 'желан', 'редактор', 'быва', 'завест', 'нов', 'пункт', 'мен', 'однак', 'случа', 'единствен', 'достигнет', 'эт', 'разочарует', 'посетител', 'сво', 'сайт', 'клик', 'пункт', 'мен', 'получ', 'ошибк', 'кром', 'так', 'ошибок', 'сайт', 'хуж', 'индексир', 'поисковик']], [['снача', 'созда', 'страниц', 'наполн', 'содержим', 'внимательн', 'прочита', 'размещен', 'текст', 'портал', 'работ', 'таблиц']], [['тольк', 'созда', 'страниц', 'завод', 'пункт', 'мен', 'чтоб', 'завест', 'нов', 'пункт', 'мен', 'необходим', 'перейт', 'раздел', 'блок', 'мен', 'пол', 'назван', 'пропиш', 'назван', 'пункт', 'мен', 'пол', 'URL', 'ссылк', 'страниц']], [['пункт', 'мен', 'созда', 'раньш', 'соответствующ', 'страниц', 'ссылк', 'прописа', 'правильн', 'страниц', 'открыва', 'проверьт', 'конц', 'ссылк', 'сто', 'пробел', 'удал', 'пробел', 'дан', 'ссылк', 'сайт', 'домен', 'hse.ru', 'сто', 'галочк', 'окол', 'пункт', 'открыва', 'нов', 'окн', 'этот', 'функциона', 'необходим', 'использова', 'каким-т', 'причин', 'хот', 'сосла', 'внешн', 'сайт']], [['рекоменду', 'вест', 'так', 'страниц', 'вручн', 'обязательн', 'забудет', 'скорректирова', 'список', 'изменен', 'кадров', 'состав', 'для', 'вывест', 'мен', 'автоматическ', 'страниц', 'сотрудник', 'необходим', 'прописа', 'пол', 'URL', 'пункт', 'мен', 'слов', 'persons', 'предварительн', 'убед', 'ваш', 'подразделен', 'хот', 'оформлен', 'сотрудник', 'ссылк', 'пуст', 'страниц', 'добавля', 'нужн'], ['есл', 'точн', 'знает', 'ваш', 'подразделен', 'оформлен', 'сотрудник', 'страниц', 'показыва', 'напиш', 'адрес', 'portal', 'hse.ru', 'указа', 'письм', 'ссылк', 'сайт', 'котор', 'идет', 'реч', 'ссылк', 'сотрудник', 'имеющ', 'трудоустройств', 'подразделен', 'трудоустройств', 'должн', 'показыва', 'страниц'], ['подробн', 'появля', 'персональн', 'страниц', 'портал', 'откуд', 'берет', 'информац', 'написа']]]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[[['есл', 'страниц', 'размещ', 'прост', 'текст', 'например', 'необходим', 'вывест', 'список', 'участник', 'мероприят', 'фотограф', 'рекоменду', 'воспользова', 'шаблон', 'составн', 'страницы/новости/анонс', 'инструкц', 'работ', 'страниц', 'наход', 'принцип', 'работ', 'составн', 'страницами/новостями/анонс', 'одинаков', 'посл', 'переключен', 'обычн', 'страниц', 'реж', 'составн', 'получа', 'набор', 'готов', 'элемент', 'оформлен', 'страниц', 'постара', 'разн', 'браузер', 'разн', 'устройств', 'элемент', 'отобража', 'корректн', 'однак', 'замет', 'ошибк', 'пожалуйст', 'напиш', 'нам', 'portal', 'hse.ru', 'есл', 'информац', 'треб', 'сложн', 'оформлен', 'выбира', 'реж', 'прост', 'страниц', 'выделя', 'текст', 'подзаголовк', 'разн', 'уровн', 'треб', 'текст.', 'помн', 'нужн', 'оформ', 'текст', 'заголовок', 'выдел', 'жирн', 'увелич', 'шрифт', 'заголовок', 'важн', 'элемент', 'структур', 'страниц', 'поможет', 'поисковик', 'поня', 'ваш', 'сайт', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац', 'подробн', 'поисков', 'оптимизац', 'прочита', 'есл', 'очен', 'важн', 'страниц', 'понима', 'как', 'блок', 'хотел', 'выдел', 'знает', 'эт', 'сдела', 'напиш', 'сво', 'вопрос', 'portal', 'hse.ru', 'постара', 'помоч'], ['категорическ', 'размеща', 'текст', 'скопирова', 'Word', 'послед', 'очистк', 'посторон', 'стил', 'эт', 'привод', 'непредсказуем', 'отображен', 'текст', 'разн', 'браузер', 'некотор', 'случа', 'мобильн', 'устройств', 'текст', 'выход', 'границ', 'экра', 'посетител', 'принцип', 'сможет', 'прочита', 'текст', 'прост', 'стат', 'невидим', 'подробн', 'размещен', 'текст', 'написа', 'меня', 'размер', 'стил', 'шрифт', 'крас', 'текст', 'разн', 'цвет', 'эт', 'такж', 'привод', 'некорректн', 'отображен', 'конц', 'конц', 'эт', 'прост', 'некрасив', 'сайт', 'выгляд', 'школьн', 'стенгазет', 'выравнива', 'текст', 'ширин', 'стационарн', 'компьютер', 'так', 'форматирован', 'выглядет', 'симпатичн', 'мобильн', 'верс', 'слов', 'могут', 'прилипнут', 'кра', 'экра', 'центр', 'страниц', 'образ', 'пустот', 'размеща', 'текст', 'вид', 'изображен', 'зна', 'мероприят', 'част', 'готов', 'рекламн', 'постер', 'он', 'предназнач', 'размещен', 'стенд', 'сайт', 'текст', 'вид', 'картинок', 'тяжел', 'чита', 'мобильн', 'устройств', 'индексир', 'поисков', 'систем', 'недоступн', 'прочтен', 'слабовидя', 'использ', 'ознакомлен', 'сайт', 'специальн', 'программ', 'писа', 'заголовк', 'использу', 'заглавн', 'букв', 'налич', 'текст', 'заглавн', 'букв', 'усложня', 'восприят', 'чем', 'длин', 'текст', 'набра', 'заглавн', 'букв', 'сложн', 'прочита', 'кром', 'интернет', 'традицион', 'счита', 'автор', 'пишет', 'заглавн', 'букв', 'эт', 'означа', 'крич', 'размеща', 'заголовк', 'нескольк', 'строк', 'мобильн', 'верс', 'будут', 'занима', 'ве', 'экра']]]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[[['кажд', 'новост', 'долж', 'коротк', 'заголовок', 'аннотац', 'рубрик', 'ключев', 'слов', 'текст', 'новост', 'про', 'эт', 'написа', 'инструкц', 'закрепл', 'стандарт', 'форматирован', 'текст', 'абзац', 'перенос', 'строк', 'эт', 'одн', 'ссылк', 'инструкц', 'точк', 'заголовк', 'став', 'иллюстрац', 'хорош', 'новост', 'иллюстрир', 'фотограф', 'сдела', 'вам', 'рамк', 'работ', 'такж', 'здоров', 'изображен', 'переда', 'автор', 'размещен', 'сайт', 'категорическ', 'использова', 'изображен', 'найден', 'сет', 'обязательн', 'проверя', 'копирайт', 'иногд', 'достаточн', 'указа', 'откуд', 'скопирова', 'изображен', 'треб', 'письмен', 'разрешен', 'автор', 'некотор', 'случа', 'размеща', 'изображен', 'принцип', 'при', 'необходим', 'может', 'взят', 'изображен', 'бесплатн', 'фотобанк', 'иллюстрац', 'явля', 'обязательн', 'элемент', 'новост', 'картинк', 'должн', 'горизонтальн', 'хорош', 'качеств', 'недопустим', 'размещен', 'качеств', 'иллюстрац', 'новост', 'скриншот', 'баннер', 'листовок', 'обложек', 'постер', 'логотип']]]</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2007,27 +2035,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:']]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'анонс', 'составн', 'редактор', 'анонс', 'английск', 'верс', 'копирован', 'сайт', 'подписк', 'анонс', 'подразделен']]]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[['']]</t>
+          <t>[[['раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'котор', 'состо', 'ближайш', 'будущ', 'анонс', 'эт', 'новост', 'новост', 'рассказыва', 'прошедш', 'событ', 'есл', 'будущ', 'программ', 'планир', 'никак', 'событ', 'блок', 'мероприят', 'вывод']], [['для', 'добавлен', 'анонс', 'необходим', 'откр', 'дан', 'выбра', 'соответств', 'пункт', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк']], [['заголовок', 'анонс', 'заполня', 'след', 'пол', 'заголовок', 'язык', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'семафор-онлайн', 'необходим', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'аннотац', 'текст', 'добав', 'ключев', 'слов', 'учет', 'результат', 'работ', 'ни', 'вшэ', 'остальн', 'пол', 'трога', 'заголовок', 'долж', 'кратк', 'отража', 'формат', 'мероприят', 'назван', 'например', 'всероссийск', 'научн', 'конференц', 'памят', 'юр', 'левад', 'современ', 'российск', 'обществ', 'социолог', 'лекц', 'ирин', 'новиков', 'образ', 'росс', 'русск', 'истор', 'латвийск', 'мед', 'международн', 'летн', 'школ', 'киберправ', 'ISSC', '2015', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт'], ['мероприят', 'имеет', 'ограничен', 'возраст', 'согласн', 'законодательств', 'мероприят', 'кром', 'научн', 'должн', 'имет', 'соответств', 'маркировк', 'возраст', '12+', 'т.д.', 'например', 'маркировк', 'должн', 'имет', 'анонс', 'дне', 'открыт', 'двер', 'подробн', 'написа', 'положен', 'защ', 'несовершеннолетн', 'обуча', 'ни', 'вшэ', 'информац', 'причиня', 'вред', 'здоров', 'развит', 'для', 'необходим', 'режим', 'редактирован', 'анонс', 'пол', 'мероприят', 'имеет', 'ограничен', 'возраст', 'выстав', 'нужн', 'возраст', 'как', 'поня', 'категор', 'относ', 'ваш', 'информац', 'основан', 'ст.', '5-10', 'федеральн', 'закон', '29.12.2010', '436-фз', 'защ', 'дет', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Описание документа Соцсети  ']]</t>
+          <t>[[['больш', 'част', 'информац', 'распространя', 'университет', 'относ', 'категор', 'т.е.', 'то', 'котор', 'свободн', 'распространя', 'сред', 'дет', 'люб', 'возраст', 'общ', 'правил', 'информац', 'достаточн', 'указа', 'ограничива', 'доступ', 'информац', 'треб']], [['основан', 'ст.', 'закон', 'защ', 'дет', 'мероприят', 'территор', 'университет', 'должн', 'содержа', 'информац', '18+', 'получ', 'специальн', 'разрешен', 'ректор', 'проректор']], [['подробн', 'защ', 'несовершеннолетн', 'обучающих', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов.\xa0Большая просьба также заполнить его для уже созданных сайтов и статических страниц.'], ['Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).'], [''], ['Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст.\xa0'], [' Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. '], [' Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. '], ['https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ', 'description:\xa0В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.', 'https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ', 'description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.', 'https://www.hse.ru/figures/ Цифры и факты', 'description:\xa0Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.', 'https://ma.hse.ru/ Абитуриентам магистратуры', 'description:\xa0Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.']]</t>
+          <t>[[['язык', 'мероприят', 'изменя', 'англ.', 'анонс']], [['пол', 'нов', 'порта', 'метк', 'комментар', 'указыва', 'информац', 'срок', 'окончан', 'подач', 'заявок', 'мероприят', 'отобража', 'флажк', 'заголовк'], []], [['пол', 'нов', 'порта', 'семафор', 'онлайн', 'включа', 'налич', 'онлайн-трансляц', 'мероприят'], []], [['при', 'добавлен', 'анонс', 'особ', 'вниман', 'обраща', 'пункт', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'при', 'игнорирован', 'эт', 'пункт', 'ваш', 'анонс', 'отправ', 'арх', 'отобраз', 'сайт', 'подразделен'], [], ['например', 'дат', 'пол', 'мероприят', 'начнет', 'мероприят', 'заверш', 'должн', 'совпада', 'реальн', 'дат', 'событ', 'дат', 'добавля', 'анонс', 'как', 'дат', 'нача', 'мероприят', 'совпадет', 'реальн', 'дат', 'времен', 'анонс', 'пропадет', 'блок', 'мероприят'], ['когд', 'убра', 'анонс', 'мероприят', 'сайт', 'прав', 'став', 'дат', 'последн', 'дня', 'мероприят', 'врем', '23.55'], ['обрат', 'вниман', 'указа', 'часов', 'пояс', 'умолчан', 'сто', 'московск', 'врем']], [['пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'использ', 'необходим', 'отображен', 'главн', 'страниц', 'подразделен', 'общ', 'лент', 'анонс', 'как', 'прав', 'использ', 'мероприят', 'срок', 'подач', 'заявок'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'нет', 'анонс', 'вывод', 'главн', 'страниц', 'блок', 'мероприят', 'доступ', 'общ', 'списк', 'анонс', 'адрес', '/announcements'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'анонс', 'вывод', 'главн', 'страниц'], [], [], ['есл', 'нескольк', 'анонс', 'хот', 'выстро', 'блок', 'мероприят', 'календарн', 'порядк', 'обрат', 'особ', 'вниман', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'желательн', 'анонс', 'дат', 'перв', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'одинаков', 'дал', 'регулирует', 'положен', 'анонс', 'блок', 'главн', 'времен', 'показ', 'чем', 'раньш', 'врем', 'выш', 'анонс', 'блок', 'главн', 'вне', 'зависим', 'дат', 'реальн', 'событ'], ['например'], [], ['набор', 'образовательн', 'программ', 'Bridge', '2015'], [], ['конкурс', 'Cоздан', 'международн', 'лаборатор', 'ни', 'вшэ', 'санкт-петербург'], [], ['HSE', 'Filmfest', '2015'], [], ['дат', 'нача', 'показ', 'анонс', 'одинаков', 'январ', '2015', 'времен', '21.45', '22.00', '22.10', 'скорректирова', 'последовательн', 'отображен']], [['текст', 'аннотац', 'вывод', 'общ', 'текст', 'анонс', 'пожалуйст', 'дублир', 'информац', 'след', 'пол']], [['пол', 'текст', 'указыва', 'подробн', 'предстоя', 'мероприят'], ['текст', 'долж', 'содержа', 'необходим', 'информац', 'котор', 'понадоб', 'посетител', 'мероприят', 'числ', 'сотрудник', 'вышк', 'посетител', 'сторон'], ['назван', 'мероприят', 'организатор', 'подразделен', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['обрат', 'вниман', 'копирован', 'текс', 'Word', 'окн', 'текст', 'текст', 'анонс', 'располага', 'ровн', 'страниц', 'необходим', 'чист', 'код', 'для', 'выдел', 'ве', 'текст', 'окн', 'нажм', 'значк', 'панел', 'управлен', 'ластик', 'метелк'], [], ['посл', 'понадоб', 'удал', 'лишн', 'абзац', 'пробел', 'начал', 'строк'], ['использ', 'курс', 'разн', 'цвет', 'Caps', 'Lock', 'злоупотребля', 'выделен', 'жирн', 'шрифт'], ['подробн', 'форматирован', 'текст', 'использован', 'основн', 'инструмент', 'редактирован', 'страниц', 'прочита'], ['расстав', 'текст', 'ссылк', 'упомянут', 'текст', 'персон', 'подразделен'], ['для', 'выдел', 'необходим', 'врагмент', 'текст', 'нажм', 'значок', 'цепочк'], [], ['откр', 'окн', 'необходим', 'встав', 'ссылк', 'адрес', 'электрон', 'почт', 'граф', 'адрес', 'нажа', 'сниз', 'кнопк', 'встав'], [], ['либ', 'персон', 'подразделен', 'принадлеж', 'ни', 'вшэ', 'желательн', 'выбра', 'баз', 'подразделен', 'персон', 'порта', 'тогд', 'автоматическ', 'подгруз', 'страниц', 'дан', 'персон', 'подразделен', 'эт', 'избав', 'необходим', 'иска', 'страниц', 'персон', 'подразделен', 'отдельн', 'поиск', 'портал', 'позвол', 'сэконом', 'врем'], ['для', 'вставл', 'граф', 'адрес', 'нужн', 'выбра', 'строк', 'сво', 'ссылк', 'пункт', 'персон', 'подразделен'], [], ['нажа', 'кнопк', 'выбра', 'ряд', 'граф', 'сво', 'ссылк', 'появ', 'окн', 'поиск', 'помощ', 'поисков', 'строк', 'Ctrl', 'найт', 'нужн', 'подразделен'], [], ['когд', 'персон', 'подразделен', 'выбра', 'баз', 'адрес', 'строк', 'адрес', 'имет', 'след', 'вид'], [], ['когд', 'ссылк', 'сформирова', 'забудьт', 'нажа', 'кнопк', 'встав']], [['для', 'добавлен', 'ключев', 'слов', 'анонс', 'нажм', 'кнопк', 'добав', 'ключев', 'слов', 'через', 'поиск', 'найд', 'нужн', 'слов', 'баз', 'ключев', 'слов', 'порта', 'добавьт'], [], ['завершен', 'заполнен', 'необходим', 'пол', 'статус', 'анонс', 'проставля', 'активн', 'нажима', 'кнопк', 'сохран', 'анонс', 'гот']], [['есл', 'анонс', 'треб', 'использова', 'верстк', 'различн', 'элемент', 'например', 'постав', 'кнопк', 'регистрац', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['важн', 'английск', 'верс', 'подразделен', 'такж', 'должн', 'публикова', 'анонс', 'мероприят', 'котор', 'провод', 'английск', 'язык', 'существ', 'вариант', 'размещен'], ['вариант', 'постав', 'анонс', 'перевод', 'для', 'необходим', 'встав', 'перевод', 'сохранен', 'ран', 'анонс', 'русск', 'верс', 'над', 'заголовк', 'нажа', 'британск', 'флаг', 'перевод', 'заполн', 'соответств', 'пол', 'заголовок', 'перевод', 'англ.', 'ключев', 'слов', 'постав', 'статус', 'показыва', 'нажа', 'сохран'], ['важн', 'посл', 'сохранен', 'перевод', 'окажет', 'русск', 'верс', 'анонс', 'след', 'нажа', 'сохран', 'русск', 'страниц'], ['вариант', 'полност', 'английск', 'анонс', 'созда', 'нов', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'заполня', 'принцип', 'русскоязычн', 'анонс', 'полност', 'английск', 'став', 'язык', 'английск', 'анонс', 'отобража', 'английск', 'верс', 'сайт']], [['чтоб', 'воспользова', 'функц', 'необходим', 'выполн', 'вход', 'личн', 'кабинет', 'адрес', 'https', '//www.hse.ru/user/', 'посл', 'открыва', 'нужн', 'анонс', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'анонс'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'анонс', 'двум', 'способ', 'ссылк', 'оригинальн', 'анонс', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'котор', 'увод', 'оригинальн', 'анонс', 'сможет', 'редактирова', 'втор', 'случа', 'анонс', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'анонс', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'анонс', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'анонс', 'размещен', 'ссылк', 'оригинальн', 'анонс', 'вам', 'необходим', 'зайт', 'раздел', 'анонс', 'импортирова', 'анонс', 'ссылк', 'справ', 'найт', 'нужн', 'анонс', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'анонс', 'подразделен'], ['есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн'], ['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'анонс', 'пиш', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.'], ['На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.'], ['Картинка 1: когда все заполнено'], [''], ['Картинка 2: когда ничего не заполнено'], [''], ['Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом\xa0ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со\xa0искомой страницы и\xa0учтет внесенные на\xa0нее изменения.']]</t>
+          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2056,27 +2084,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  ']]</t>
+          <t>[[['быстр', 'ссылк', 'как', 'опубликова', 'анонс', 'портал', 'как', 'созда', 'подписк', 'анонс', 'как', 'сдела', 'сайт', 'мероприят']]]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано\xa0здесь.'], ['Перейти к режиму редактирования сайта можно двумя способами:'], [' По прямой ссылке:\xa0https://www.hse.ru/adm/\xa0(там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку\xa0«Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. '], [''], ['Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.']]</t>
+          <t>[[['для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'изначальн', 'размест', 'анонс', 'сайт', 'сво', 'подразделен', 'обраща', 'редактор', 'сво', 'подразделен'], ['информац', 'об', 'анонс', 'размещен', 'сайт', 'подразделен', 'вшэ', 'приход', 'порта', 'след', 'ден', 'редактор', 'порта', 'просматрива', 'анонс', 'соответств', 'всем', 'требован', 'добавля', 'лент', 'событ', 'вшэ', 'раздел', 'мероприят'], ['есл', 'хот', 'сообщ', 'сво', 'анонс', 'раньш', 'придет', 'порта', 'пришл', 'нам', 'заявк', 'portalnews', 'hse.ru', 'заявк', 'представля', 'соб', 'ссылк', 'ваш', 'анонс', 'ссылк', 'сайт', 'мероприят', 'конференц', 'форум'], ['анонс', 'добавля', 'лент', 'порядк', 'общ', 'очеред', 'рабоч', 'дни', 'пн.-пт.'], ['обрат', 'вниман', 'лент', 'событ', 'главн', 'страниц', 'сайт', 'добавля', 'анонс', 'мероприят', 'участ', 'котор', 'приглаша', 'жела', 'сотрудники/', 'уча', 'вшэ', 'есл', 'ваш', 'мероприят', 'рассчита', 'гост', 'вшэ', 'достаточн', 'размест', 'анонс', 'страниц', 'ваш', 'подразделен'], ['пожалуйст', 'пута', 'анонс', 'новост', 'анонс', 'информир', 'предстоя', 'событ', 'приглаша', 'участ', 'новост', 'рассказыва', 'сверш', 'событ']]]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[['Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:'], [' Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) '], ['Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).'], ['Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.'], ['Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.'], ['Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.'], [' Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. '], ['Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.', 'Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес\xa0portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).', 'Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.']]</t>
+          <t>[[['назван', 'мероприятия/', 'заголовок', 'анонс', 'организатор', 'подразделен', 'ни', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.', 'степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак'], ['английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен'], ['недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт']], [['сайт', 'подразделен', 'анонс', 'размеща', 'непосредствен', 'редактор', 'дан', 'подразделен'], ['инструкц', 'размещен', 'анонс']]]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[[' Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится\xa0здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на\xa0portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок —\xa0важный элемент структуры страницы, он\xa0поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать\xa0здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на\xa0portal@hse.ru. Мы постараемся помочь. ', ' Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано\xa0здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  ']]</t>
+          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[[' У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в\xa0инструкции и закреплено в\xa0Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на\xa0инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из\xa0бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. ']]</t>
+          <t>[[['есл', 'ваш', 'подразделен', 'провод', 'крупн', 'мероприят', 'например', 'конференц', 'летн', 'школ', 'подразумева', 'размещен', 'разнопланов', 'информац', 'программ', 'организатор', 'спикер', 'др.', 'может', 'созда', 'сайт', 'мероприят'], ['сотрудник', 'порта', 'завод', 'сайт', 'выда', 'прав', 'ответствен', 'ваш', 'подразделен', 'котор', 'занима', 'наполнен', 'сайт', 'порта', 'оказыва', 'консультацион', 'поддержк', 'такж', 'помога', 'оформлен', 'част', 'нужн', 'сложн', 'верстк'], ['для', 'заказа', 'сайт', 'мероприят', 'необходим', 'присла', 'portal', 'hse.ru', 'заявк', 'котор', 'указыва'], ['жела', 'шаблон', 'сайт', 'стандартн', 'сайт', 'мероприят', 'лендинг', 'жела', 'адрес', 'сайт', 'ссылк', 'сайт', 'мероприят', 'предыдущ', 'год', 'мероприят', 'ежегодн', 'заголовок', 'сайт', 'назван', 'мероприят', 'фи', 'ответствен', 'редактирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2105,44 +2133,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[['На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.']]</t>
+          <t>[[['для', 'вход', 'реж', 'редактирован', 'перейд', 'ссылк', 'редактор', 'главн', 'страниц', 'сайт', 'нажм', 'наверх', 'ссылк', 'дан', 'перейд', 'раздел', 'блок', 'русск', 'верс', 'блоки_англ', 'английск', 'верс']], [[]]]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.']]</t>
+          <t>[[['быстр', 'ссылк', 'шапк', 'мен', 'основн', 'колонк', 'виджет']]]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[['В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.']]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[['\nОтветственные от факультетов и филиалов за редактирование страниц подразделений\nОтветственные за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[['Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.']]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>[['Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)']]</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>[['\nОтветственным от факультетов и филиалов за редактирование страниц подразделений\nОтветственным за персональные страницы сотрудников\n']]</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>[['Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.'], ['Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.', '', 'Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.']]</t>
-        </is>
-      </c>
+          <t>[[['дан', 'раздел', 'редактир', 'размеща', 'шапк', 'сайт', 'картинк', 'заголовок', 'подзаголовок', 'кнопк'], ['при', 'выбор', 'картинк', 'шапк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1600', 'пиксел', 'ширин', 'вес', '200-300', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'проект', 'сво', 'фирстил', 'котор', 'долж', 'отраж', 'шапк', 'необходим', 'учитыва', 'требован', 'картинк'], ['чтоб', 'шапк', 'отобража', 'главн', 'внутрен', 'страниц', 'сайт', 'нужн', 'зайт', 'раздел', 'шапк', 'втор', 'страниц', 'выбра', 'шапк', 'главн', 'страниц', 'сво', 'шапк', 'обычн', 'показ', 'внутрен', 'страниц', 'сайт', 'использ', 'шапк', 'главн', 'страниц']], [['отображен', 'мен', 'регулир', 'раздел', 'шапк', 'умолчан', 'мен', 'скрыт', 'есл', 'нужн', 'он', 'показыва', 'выбра', 'хот', 'вывест', 'сниз', 'сверх'], ['ест', 'такж', 'опц', 'сдела', 'мен', 'центр', 'сам', 'пункт', 'мен', 'редактир', 'данные-блоки-мен']], [['основн', 'колонк', 'главн', 'страниц', 'главн', 'раздел', 'котор', 'пользует', 'слев', 'располож', 'набор', 'виджет', 'справ', 'пол', 'виджет', 'нужн', 'перемест', 'располага', 'ваш', 'контент'], ['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк', 'нажима', 'сохран', 'конц', 'страниц', 'обязательн', 'проверя', 'получ'], [], ['текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'чтоб', 'текст', 'смотрел', 'браузер', 'удал', 'лишн', 'пробел', 'стоя', 'кавычк', 'елочк', 'лапк', 'слов', 'цифр', 'соединя', 'тир', 'дефис', 'использ', 'программ', 'типограф'], ['изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова'], ['виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок'], ['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor'], ['цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример'], ['новост', 'новост', 'размеща', 'раздел', 'новост', 'см.', 'инструкц', 'при', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'новост', 'выбра', 'оформлен', 'плитк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'новост', 'пол', 'заголовок', 'пример'], ['мероприят', 'анонс', 'анонс', 'размеща', 'раздел', 'анонс', 'см.', 'инструкц', 'при', 'анонс', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'мероприят', 'выбра', 'стил', 'карточк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'мероприят', 'пол', 'заголовок', 'пример'], ['связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример'], ['список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример'], ['хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример'], ['партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример'], ['колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['контент-блок', 'есл', 'необходим', 'разб', 'текст', 'смыслов', 'част', 'налож', 'текст', 'фон', 'цвет', 'картинк', 'воспользова', 'виджет', 'контент-блок', 'перенос', 'виджет', 'добавля', 'цвет', 'картинк', 'внутр', 'перенос', 'виджет', 'котор', 'непосредствен', 'будет', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример'], ['плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'мож', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример'], ['дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример'], ['цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример'], ['выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример'], ['кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример'], ['част', 'задава', 'вопрос', 'есл', 'нужн', 'созда', 'блок', 'част', 'задава', 'вопрос', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'част', 'задава', 'вопрос', 'заполня', 'пол', 'вопрос', 'ответ', 'дал', 'нажима', 'добав', 'откр', 'пол', 'заполня', 'назван', 'кнопк', 'ссылк', 'страниц', 'кнопк', 'должн', 'вест', 'кнопок', 'нескольк', 'кнопк', 'сдела', 'заливк', 'прозрачн', 'пример', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример'], ['вкладк', 'есл', 'хот', 'размест', 'информац', 'вид', 'переключа', 'соб', 'блок', 'нужн', 'выбра', 'виджет', 'вкладк', 'дал', 'нажима', 'добав', 'вкладк', 'пол', 'заголовок', 'пиш', 'назван', 'вкладк', 'пуст', 'пол', 'перемеща', 'виджет', 'фрагмент', 'текст', 'заголовк', 'размеща', 'информац', 'пример'], ['слайдер', 'инструкц', 'размещен', 'баннер', 'виджет', 'слайдер', 'может', 'прочита']]]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -2166,39 +2174,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[[' Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  ']]</t>
+          <t>[[['состо', 'текст', 'фонов', 'изображен', 'фон', 'долж', 'так', 'нем', 'чита', 'текст', 'бел', 'цвет', 'фон', 'должн', 'значим', 'элемент', 'котор', 'обреза', 'пересека', 'текст', 'ширин', 'фонов', 'изображен', '1600px', 'картинк', 'обязательн', 'должн', 'оптимизирова', 'https', '//portal.hse.ru/photo']]]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['Заголовки должны соответствовать содержанию страницы'], ['Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.'], ['\xa0Чего следует избегать:'], [' Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". '], ['Используйте краткие, но содержательные заголовки'], ['Максимальная длина заголовка — 150 символов, оптимально — 60 символов.'], ['Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.'], ['\xa0Чего следует избегать:'], [' Слишком длинных заголовков, бесполезных для пользователей. ']]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[['Описания должны точно отражать содержание страницы'], ['Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. '], ['\xa0Чего следует избегать:'], [' Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. '], ['Используйте разные описания для разных страниц'], ['Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.'], ['\xa0Чего следует избегать:'], [' Использования одного мета тега описания для всех или многих страниц сайта. '], ['Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta']]</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[['Предназначение и примеры'], ['Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.'], ['Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.'], ['Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.'], ['Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.'], ['Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.'], ['В редакторе, данные заголовки можно найти в поле «Формат»:'], [''], ['Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs'], [' Представьте, что вы пишете обзор'], ['Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.'], ['\xa0Чего следует избегать:'], [' Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив )\xa0или\xa0&lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. '], [' Не злоупотребляйте заголовками'], ['Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.'], ['\xa0Чего следует избегать:'], [' Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. ']]</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[['Тщательно продумывайте тексты ссылок'], ['Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.'], ['Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.'], ['Используйте информативный текст'], ['Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.'], ['\xa0Чего следует избегать:'], [' Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). '], ['Текст должен быть лаконичным'], ['Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.'], ['\xa0Чего следует избегать:'], [' Длинных текстов ссылки, например сложных предложений или целых абзацев. '], ['Подберите текст ссылок и для внутренних URL'], ['Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.'], ['\xa0Чего следует избегать'], [' Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. ']]</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[['Используйте атрибут alt '], ['Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.'], ['Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:'], [''], ['Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.'], ['Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.'], ['Используйте краткие описательные имена файлов и текст в атрибутах alt'], ['Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.'], ['\xa0Чего следует избегать:'], [' Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. '], ['Добавляйте текст в атрибуты alt, если используете изображения как ссылки'], ['Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.'], ['\xa0Чего следует избегать:'], [' Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. ']]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>[['Пишите легко читаемые тексты'], ['Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.'], [' Чего следует избегать:'], [' Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. ']]</t>
-        </is>
-      </c>
+          <t>[[['баннер/шапк', 'представля', 'композиц', 'меньш', 'основн', 'элемент']], [['фон', 'пример', 'заливк', 'цвет', 'паттерн']], [['значим', 'текст', 'пример', 'заголовк', 'назван', 'мероприят', 'опциональн', 'кнопк']], [['графическ', 'элемент', 'пример', 'логотип', 'иллюстрац', 'фот']], [['при', 'подготовк', 'макет', 'важн', 'предусмотрет', 'адаптац', 'размер', 'взаимн', 'расположен', 'основн', 'элемент', 'разн', 'ширин', 'экра', 'макет', 'направля', 'команд', 'порта', '3-х', 'вариант', 'ширин']], [['375px', 'мобильн', 'устройств']], [['800px', 'планшет']], [['1600px', 'ноутбук']], [['высот', 'баннер', 'главн', 'страниц', 'порта', '600px', '180px', 'сверх', '80px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['высот', 'шапк', 'лендинг', '490px', '45px', 'сверх', '50px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['для', 'верстк', 'сложн', 'вариант', 'баннера/шапк', 'след', 'присла', 'послойн', 'картинк', 'эт', 'означа', 'отдельн', 'элемент', 'лежат', 'разн', 'сло', 'изображен', 'верстальщик', 'использова', 'отдельн', 'друг', 'друг']]]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2223,22 +2211,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[['Для получения доступа\xa0к \xa0редактированию сайта необходимо направить заявку в свободной форме по электронному адресу\xa0portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ.\xa0']]</t>
+          <t>[[['вход', 'редакторск', 'реж', 'https', '//www.hse.ru/adm/', 'логин', 'парол', 'так', 'ваш', 'личн', 'кабинет', 'елк']]]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[['Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.']]</t>
+          <t>[[['основн', 'вкладк', 'котор', 'будет', 'работа', 'эт', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'сайт', 'опрос', 'создан', 'форм', 'регистрац', 'мероприят', 'блок']], [[]], [['основн', 'управлен', 'контент', 'происход', 'вкладк', 'блок', 'блок', 'англ.', 'английск', 'верс', 'сайт']], [['чтоб', 'вам', 'легч', 'сориентирова', 'редакторск', 'интерфейс', 'пояснен', 'разн', 'пол', 'внесен', 'информац', 'отмечен', 'звездочк', 'сер', 'шрифт']], [[]], [['пункт', 'заполня', 'блок', 'прав', 'колонк', 'дан', 'мероприят']], [['рекоменд', 'заполня', 'об', 'верхн', 'пол', 'текст', 'перв', 'строк', 'отобража', 'мелк', 'шрифт', 'тогд', 'текст', 'основн', 'назван', 'мероприят', 'отобража', 'крупн']], [['создан', 'форм', 'регистрац']], [['заполня', 'пол', 'пояснен', 'надп', 'важн', 'дат', 'варьирова', 'усмотрен']], [['вкладк', 'может', 'заполня', 'использова', 'друг', 'пол', 'врем', 'нача', 'мероприят', 'язык', 'мероприят', 'ссылк', 'карт', 'как', 'добра', 'важн', 'ссылк', 'файл', 'дан', 'будут', 'отобража', 'прав', 'част', 'сайт']], [['мен', 'горизонтальн', 'центральн', 'част', 'страниц']], [['необходим', 'созда', 'нов', 'групп', 'внутр', 'групп', 'добав', 'ссылк', 'перв', 'строк', 'назван', 'пункт', 'мен', 'втор', 'ссылк', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц'], [], ['для', 'пункт', 'мен', 'выстраива', 'горизонтальн', 'лин', 'необходим', 'кажд', 'пункт', 'мен', 'создава', 'нов', 'групп', 'при', 'добавлен', 'ссылк', 'то', 'групп', 'след', 'пункт', 'мен', 'располага', 'предыдущ'], [], ['возмож', 'вариант', 'расположен', 'мен', 'прав', 'част', 'сайт', 'дат', 'мероприят', 'см.', 'рисунок', 'ниж'], ['логик', 'заполнен', 'редактирован', 'прав', 'част', 'сайт', 'дан', 'пункт', 'внос']], [[], []]]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[['Заявка должна быть отправлена с корпоративного адреса электронной почты.']]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>[[['информац', 'котор', 'размеща', 'главн', 'страниц', 'сайт', 'явля', 'ключев', 'должн', 'отража', 'важност', 'проводим', 'мероприят']], [['для', 'заполнения/редактирован', 'аннотац', 'необходим', 'зайт', 'редакторск', 'интерфейс', 'главн', 'страниц', 'люб', 'https', '//www.hse.ru/adm/', 'дан', 'либ', 'помощ', 'значк', 'редактор', 'нижн', 'прав', 'угл', 'главн', 'страниц']], [['аннотац', 'наход', 'пол', 'подразделен', 'верста', 'аналог', 'верстк', 'текст', 'статическ', 'страниц', 'использован', 'так', 'инструментар']]]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[[['вниз', 'главн', 'страниц', 'может', 'размест', 'член', 'программн', 'организацион', 'комитет', 'ключев', 'спикер', 'докладчик', 'партнер', 'пр.', 'фот', 'регал', 'ссылк', 'персон']], [['внутр', 'завод', 'соответств', 'групп', 'ключев', 'спикер', 'например', 'поочередн', 'добавля', 'персон', 'ссылк', 'персональн', 'страниц', 'фотограф', 'сотрудник', 'вышк', 'подгружа', 'автоматическ', 'для', 'персон', 'вшэ', 'может', 'подгружа', 'фот', 'ссылк', 'откр', 'окн', 'вручн'], [], ['аналогичн', 'принцип', 'устро', 'пункт', 'оформлен', 'партнер', 'мероприят']], [['необходим', 'добавля', 'логотип', 'организации-партнер', 'ссылк'], [], ['однак', 'зачаст', 'быва', 'удобн', 'размеща', 'партнер', 'прав', 'част', 'сайт'], [], ['зде', 'снов', 'работа', 'логик', 'работ', 'прав', 'колонк']], [['необходим', 'завест', 'нов', 'текстов', 'блок', 'заполн', 'картинками-логотип', 'желан', 'ссылк', 'сайт', 'партнер'], []]]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[[['такж', 'вас', 'возможн', 'сверста', 'программ', 'ваш', 'мероприят', 'он', 'располага', 'главн', 'страниц', 'сайт', 'мероприят', 'аннотац']], [['структур', 'программ', 'выстраива', 'пут', 'добавлен', 'пункт', 'добав', 'ден', 'добав', 'мероприят', 'добав', 'событ', 'зависим', 'структур', 'продолжительн', 'ваш', 'мероприят'], [], []]]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[[['есл', 'реш', 'созда', 'отдельн', 'статическ', 'страниц', 'перечислен', 'член', 'организацион', 'программн', 'комитет', 'докладчик', 'др.', 'вам', 'необходим', 'использова', 'созда', 'составн', 'страниц', 'выбра', 'виджет', 'список', 'персон', 'как', 'эт', 'сдела', 'может', 'прочита', 'инструкц', 'https', '//portal.hse.ru/sostav']], [[]], [[]], [['главн', 'забыва', 'нажима', 'кнопк', 'сохран', 'вниз', 'кажд', 'карточк', 'котор', 'заполня']]]</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2264,17 +2264,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[['В 2021 году по\xa0заказу Операционного управления дополнительного профессионального образования на\xa0портале НИУ ВШЭ внедрена новая карточка образовательной программы дополнительного образования.'], ['Особенности карточки: более яркий визуальный ряд, более жесткие требования к\xa0формату. Вся информация размещается при помощи виджетов, что позволяет верстать сайт, не\xa0имея опыта работы с\xa0HTML и\xa0CSS.']]</t>
+          <t>[[['2021', 'год', 'заказ', 'операцион', 'управлен', 'дополнительн', 'профессиональн', 'образован', 'портал', 'ни', 'вшэ', 'внедр', 'нов', 'карточк', 'образовательн', 'программ', 'дополнительн', 'образован']], [['особен', 'карточк', 'ярк', 'визуальн', 'ряд', 'жестк', 'требован', 'формат', 'вся', 'информац', 'размеща', 'помощ', 'виджет', 'позволя', 'верста', 'сайт', 'име', 'опыт', 'работ', 'HTML', 'CSS']]]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[[' Видеозаписи семинаров: 26\xa0апреля 2021, 12 мая 2021 ']]</t>
+          <t>[[['видеозапис', 'семинар', 'апрел', '2021', 'ма', '2021']]]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[['Содержательные вопросы и работа с каталогом Операционного управления ДПО \xa0— Жгун Оксана Леонидовна, Фатьянова Екатерина Алексеевна', '  Получение доступа и вопросы по работе с\xa0редакторским интерфейсом • Получить доступ к\xa0редактированию • Получить консультацию   Цифровой маркетинг программ ДПО. Доступы и\xa0поддержка • Получить доступ к\xa0веб-аналитике • Получить доступ к\xa0Roistat • Получить доступ к\xa0Unisender • Запрос на\xa0поддержку   CRM. Техническая поддержка • Получить доступ в CRM • Запрос на\xa0доработку • Сообщить об\xa0ошибке • Запрос на\xa0поддержку  ', '\xa0'], [''], ['1. Не\xa0пытайтесь внедрить собственные шрифты и\xa0стили. Вам нужно просто разместить текст и\xa0очистить его от\xa0стороннего форматирования.', '2. Исходные изображения необходимо оптимизировать для веб. Зачем это нужно, подробно написано здесь.', '3. Уважайте авторское право. Нельзя просто взять и\xa0скачать любое изображение из\xa0интернета.', ' Быстрые ссылки  Как начать Как клонировать карточку Как дать ссылку на существующий лендинг программы Как посмотреть, что получилось \xa0 Собираем шапку сайта программы Изображение в\xa0шапке программы Кнопки «Подать заявку» и\xa0«Задать вопрос» \xa0 Собираем страницу программы Виджет «Якорь» Виджет «Важные объявления» Виджет «О\xa0программе» Виджет «Нумерованный блок» Виджет «Результаты» Виджет «Для кого» Виджет «Список изображений» Виджет «Документ об\xa0окончании» Виджет «Текст с\xa0заголовком» Виджет «Программа обучения» Виджет «FAQ» Виджет «Сообщество» Виджет «Отзывы выпускников» Виджет «Контакты» Виджет «Стоимость и\xa0условия» Виджет «Преподаватели» Виджет «О\xa0школе» Виджет «Формат обучения» Виджет «Загрузка\xa0файлов» Виджет «Показ\xa0учебного\xa0плана» Связанные программы Сведения об образовательной организации \xa0 Меню SEO  '], ['Добавление программ (создание новой карточки) осуществляется через каталог Операционного управления ДПО. Самостоятельное добавление программ на портале закрыто. В случае отсутствия карточки программы в каталоге обращайтесь в Операционное управление ДПО к Фатьяновой Екатерине Алексеевне.', 'Чтобы продолжить заполнение карточки, войдите в\xa0административный интерфейс https://www.hse.ru/adm/ и\xa0перейдите в\xa0раздел Образование → Дополнительное образование new', 'Вы\xa0увидите список всех карточек программ ДПО НИУ ВШЭ:', '  ', ' Для поиска уже внесенной программы воспользуйтесь полем «Фильтр». Поиск осуществляется по\xa0названию программы; Для редактирования программы нажмите на\xa0значок карандаша; Если уверены, что программа вам не\xa0нужна и\xa0ее\xa0нужно удалить, напишите на portal@hse.ru.\xa0 Для временного скрытия с\xa0сайта карточки\xa0— сделайте карточку неактивной в\xa0разделе «Данные» конкретной карточки. ', 'Если вы не можете войти в административный интерфейс, значит, у вас не хватает прав. Получите права «менеджера дополнительного образования», написав с\xa0корпоративной почты письмо в\xa0свободной форме на\xa0адрес portal@hse.ru (служба поддержки портала).', '**Клонирование карточек программ**\nЕсли у двух и более программ много общего, то можно клонировать карточку уже существующей программы. Чтобы клонировать карточку, напишите на portal@hse.ru, указав ссылку на карточку, которую необходимо клонировать, точное название программы для новой карточки, id программы в каталоге Операционного управления ДПО (id можно уточнить в Операционном управлении ДПО).\nПомните, что для того, чтобы страница хорошо искалась через поисковые системы, на ней должен быть уникальный контент. Одно дело, когда речь идет о преподавателях программы и совсем другое, когда у двух и более программ совпадают описания, преимущества и проч.\n', '**Что делать, если у программы уже есть полноценный лендинг, на который идет реклама?**\nВ этом случае Вам необходимо заполнить поля в разделе «Данные» и в поле «Сайт программы (для программ, имеющих лендинги)» вписать адрес лендинга программы.\n'], ['', 'После нажатия на\xa0знак «+» на\xa0первой странице вы попадете в редактор карточки ДПО, раздел «Данные».', 'Раздел поделен на 3 части.', '1. Данные, импортируемые из базы ДПО. Заполнение и редактирование полей «Название», «Тип программы» и проч. осуществляется в базе данных каталога ДПО. В самой карточке поля для внесения изменений закрыты. По вопросам работы с каталогом ДПО необходимо обращаться к Фатьяновой Екатерине Алексеевне.', 'Как выглядит административный интерфейс', '', '2. Дополнительные данные для карточки на портале. Поля «Менторство», «Изображение», «Ключевая выгода программы в одном предложении», «Состав занятий», «Итоговая работа» заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', '3. Данные для Сведений о ВШЭ. На их основе формируется информация в обязательном для каждого университета разделе. Заполняются и редактируются в карточке.', 'Как выглядит административный интерфейс', '', 'Если вам нужно посмотреть, какие данные у вас были в карточке до синхронизации с БД каталога ДПО, вы можете зайти в раздел «Старые данные».'], ['Подберите изображение в\xa0шапку. При выборе картинки имейте в\xa0виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по\xa0центру.', 'Размер изображения \xad— 1520\xa0на 800 пикселей, вес\xa0— 100-250\xa0кб.', 'Изображения, заливаемые на\xa0портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/ .', 'Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».'], ['В\xa0шапку можно добавить форму приема заявок и\xa0форму «Задать вопрос». При установке ползунка «Показ кнопки заявки» или «Показ кнопки формы» в\xa0позицию «включено» форма будет создана автоматически. Не\xa0забудьте потом перейти в\xa0режим редактирования, нажав на иконку рядом со словами «редактировать форму»,\xa0и\xa0изменить даты актуальности формы.\xa0При необходимости вы\xa0можете изменить поля формы. Подробнее про редактирование форм можно прочитать здесь: https://portal.hse.ru/poll (часть про создание формы нужно пропустить, в\xa0вашем случае форма уже создана в\xa0стандартном виде).', '', 'Если по\xa0каким-то причинам форма в\xa0карточке вам не\xa0подходит и\xa0вы\xa0хотите дать ссылку на\xa0форму, созданную на\xa0другом сайте, вы\xa0можете указать ссылку в\xa0поле «Ссылка на\xa0внешнюю форму заявки/вопроса».', 'Кнопки будут показываться не\xa0только в\xa0шапке, но\xa0также на\xa0плашках «Результаты», «Документ об\xa0образовании», «Стоимость и\xa0условия\xa0— с\xa0подложкой».'], ['В\xa0верхнем правом углу размещена кнопка «Открыть на\xa0сайте», нажмите на\xa0нее. Если вы\xa0видите ошибку 404, то\xa0проверьте, что карточка имеет статус «Активно» в\xa0разделе «Данные».'], ['Все программы унифицированы по\xa0формату подачи информации. Почти вся работа будет происходить во\xa0вкладке «Конструктор». В\xa0выпадающем списке выберите нужный вам виджет\xa0и\xa0нажмите на\xa0знак «+».', '', 'Порядок виджетов можно изменять. Для этого переместите курсор влево от названия виджета (см. скриншот) и, нажав левую кнопку мыши, переместите виджет в нужное место.', '', '**Виджет «Якорь»**\nЯкорем называется закладка на\xa0определенном месте страницы, предназначенная для создания перехода к\xa0ней по\xa0ссылке. В\xa0данном случае якорь нужен для того, чтобы из\xa0меню можно было переходить на\xa0определенные разделы сайта. Вам необходимо переместить виджет «Якорь» в\xa0нужное место и\xa0прописать в\xa0нем латинскими буквами «имя якоря» (напр: anchor). В\xa0ссылке, по\xa0которой пользователь будет переходить в\xa0определенное место страницы, в\xa0поле «URL» нужно прописать ссылку на\xa0страницу плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\nКак выглядит административный интерфейс\n\n', '**Виджет «Важные объявления»**\n\nДанный функционал необходим, если вы\xa0хотите донести до\xa0посетителей сайта что-то крайне важное. Не\xa0используйте важные объявления для размещения информации, которая уже есть на\xa0странице, старайтесь, чтобы на\xa0сайте было только одно важное объявление.\nЗаполните поля и\xa0выберите фоновый цвет объявления (для выбора цвета кликните на\xa0«пипетку» в\xa0соответствующем поле), дату указывать необязательно.\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0программе»**\n\nВ\xa0виджете две вкладки: «Текст» и\xa0«Видео».\nВкладка «Текст» является обязательной для заполнения. Не\xa0забудьте выделить текст и\xa0очистить постороннее форматирование, нажав на\xa0иконку .\nВо\xa0вкладке «Видео» можно разместить проморолик о\xa0программе или видео с\xa0приветственным словом руководителя. Видео сначала необходимо разместить на\xa0Youtube. В\xa0поле URL проставляете ссылку вида: https://www.youtube.com/embed/VYSTPqTdHqk. Чтобы получить такую ссылку, находясь непосредственно на\xa0Youtube, нажимаете на\xa0кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант\xa0— «Встроить». У\xa0вас откроется окно, где слева будет видео, а\xa0справа\xa0— встраиваемый код. Весь код копировать не нужно, нужно взять только ссылку c\xa0embed и\xa0вставить\xa0эту ссылку в\xa0виджет. Если необходимо, можно добавить подпись.\nЗагрузите превью видео\xa0— оптимизированное изображение 314×184 пикселей. Или нажмите\xa0«Загрузить превью» в административном интерфейсе\xa0 – в этом случае будет использоваться заставка с\xa0Youtube.\nКак выглядит административный интерфейс\n   \n', '**Виджет «Нумерованный блок»**\n\nВ\xa0заголовке размещается ключевой навык, который получат выпускники программы. Далее необходимо разместить тезисы, раскрывающие суть обучения на\xa0программе. Число пунктов не\xa0ограничено, но\xa0визуально лучше всего смотрятся 3\xa0тезиса.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Результаты»**\n\nВиджет позволяет разместить заголовок, подзаголовок и\xa0несколько карточек с\xa0текстом. Оптимально, если у\xa0вас будет три карточки (хотя количество карточек ограничено только здравым смыслом) и\xa0плашка.\nНа\xa0плашке автоматически добавятся формы «Подать заявку» и\xa0«Задать вопрос», если вы\xa0ранее включили их\xa0в\xa0разделе «Данные».\nНе\xa0забудьте изменить размеры загружаемых картинок и\xa0оптимизировать их\xa0для веб.\xa0Если у вас нет возможности оптимизировать изображение, воспользуйтесь встроенной в административный интерфейс функцией «Вырезать».\nКак выглядит административный интерфейс\n   \n', '**Виджет «Для кого»**\n\nПоле «Основной подзаголовок» обязательно для заполнения.\nЧисло пунктов не\xa0ограничено, но\xa0желательно, чтобы их\xa0было 3-5.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Список изображений»**\n\nВиджет позволяет залить изображения (размер изображения 100\xa0на 250 пикселей) с\xa0гиперссылкой или без. Например, можно использовать виджет для публикации логотипов партнеров (обратите внимание, что для этого логотипы необходимо вписать в\xa0прямоугольник 100\xa0на 250 пикселей.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Документ об\xa0окончании»**\n\nЗаполните поле «Текст». Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nЗагружать на страницу изображение документа необязательно. Изображение документа будет показано из справочника на основе той информации, которую вы внесли в поле «Тип документа об образовании» в разделе «Данные». Однако, если вас по какой-то причине не устраивает изображение по умолчанию, то вы можете загрузить свой вариант: ширина изображения — 430 пикселей, изображение будет спозиционировано по центру по вертикали.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Текст с\xa0заголовком»**\n\nМожно добавить текст с\xa0заголовком. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Программа обучения»**\n\nВ\xa0поле «Заголовок» можно указать название дисциплины или блока дисциплин, в\xa0поле «Бейдж»\xa0— число часов или кредитных единиц, в\xa0поле текст краткое описание или\xa0же список дисциплин, если ранее вы\xa0указали название блока. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «FAQ»**\n\nНажмите на кнопку «+Вопрос» и заполните соответствующие поля. В\xa0поле «Ответ» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку .\nКак выглядит административный интерфейс\n  \n', '**Виджет «Сообщество»**\n\nВиджет позволяет разместить несколько иконок с\xa0текстом. Изображение должно иметь размер 80×80 пикселей, рекомендуемый формат\xa0— gif, png.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Отзывы выпускников»**\n\nПозволяет разместить текст с\xa0отзывом. Рекомендуемое число знаков\xa0— 650 знаков с\xa0пробелами. Не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Размер фото\xa0— 48×48 пикселей. После заливки фото нажимаете «Вырезать», чтобы выбрать фрагмент изображения, который будет показываться на\xa0странице.\nКак выглядит административный интерфейс\n  \n', '**Виджет «Контакты»**\n\nЗаполните поля. В\xa0поле «Текст» не\xa0забудьте выделить текст и\xa0очистить стороннее форматирование, нажав на\xa0иконку . Обратите внимание, что телефонный номер вводится в формате +7(000)000-00-00 . Обязательно указывайте код города. Каждый новый телефон указывается в своем поле.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «Стоимость и\xa0условия»**\n\nВиджет имеет несколько вариантов разделов содержимого:\n1. Простой — позволяет добавить заголовок, подзаголовок и\xa0гиперссылку для перехода на\xa0страницу с\xa0подробностями (необязательно)\n2. С\xa0лейблом скидки\xa0— помимо текста, подзаголовка и\xa0гиперссылки можно добавить лейбл скидки.\n3. С\xa0подложкой — позволяет дополнительно разместить текст и\xa0кнопки на\xa0формы «Подать заявку» и\xa0«Задать вопрос».\nВсе данные по\xa0стоимости необходимо вносить в\xa0рамках одного виджета, в\xa0этом случае информация будет выстраиваться в\xa0два столбика, а\xa0не\xa0начинаться каждый раз с\xa0новой строки. Если у\xa0вас много вариантов скидок с\xa0разными условиями, то\xa0лучше дать информацию просто текстом, использовав виджет «Текст с\xa0заголовком».\nКак выглядит административный интерфейс\n    \n', '**Виджет «Преподаватели»**\n\nВиджет имеет несколько вариантов разделов содержимого: «Из\xa0ВШЭ» и\xa0«Не\xa0из\xa0ВШЭ».\nВиджет «Из ВШЭ» позволяет выбрать преподавателя из списка персон ВШЭ. Не забудьте после выбора воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту, а изображение будет нерезким.\xa0Если вы добавляете сотрудника «Из ВШЭ» и не заполняете поле «Всплывающий текст», то по клику будет осуществляться переход на персональную страницу на сайте ВШЭ. Если поле заполнено, то откроется всплывающий текст. В поле «Должность» вы можете вписать вручную ту должность, которая должна отображаться в карточке (если вас не устраивает автоматический вывод информации).\nВиджет «Не из ВШЭ» позволяет добавить персону со следующими атрибутами: ФИО, должность, фото (желательно горизонтально ориентированное), всплывающий текст. Не забудьте после выбора фото воспользоваться функцией «Вырезать», позволяющей определить фрагмент изображения, которое будет показываться на странице. Если этого не сделать, то все фотографии на странице скорее всего будут иметь разную высоту.\n«Из ВШЭ» \xa0и «Не из ВШЭ» – условное деление. Если Вы хотите оформить все фото в одном стиле, то можно всех преподавателей загрузить как «Не из ВШЭ».\xa0\nВиджет можно использовать для списка не\xa0только преподавателей, т.к. заголовок раздела редактируемый.\nОтветственно подходите к выбору фотографии. Если у вас есть только фото с паспорта, с конференции на фоне проводов или с фуршета с бокалом, то, вероятно, от использования фотографий в блоке стоит отказаться совсем.\xa0\nКак выглядит административный интерфейс\n  \n', '**Виджет «О\xa0школе»**\n\nПозволяет загрузить горизонтально ориентированную фотографию и\xa0текст.\nРекомендованная ширина фотографии\xa0— 1600 пикселей. Контейнер для изображения имеет фиксированную высоту, изображение заполняет его и\xa0спозиционировано по\xa0центру. Значимая часть изображения (если есть) должна находиться по\xa0центру, так как параметры изображения меняются в\xa0зависимости от\xa0разрешения экрана.\nТекст добавляется по\xa0строкам, а\xa0внутри строк по\xa0колонкам. Максимальное количество колонок\xa0— 12, однако мы\xa0не\xa0рекомендуем делать в\xa0одной строке больше 4\xa0колонок, оптимально\xa0— 1-3\xa0колонки. У\xa0каждой колонки нужно задать ширину. В\xa0сумме ширина всех колонок должна быть равна числу «12». Например, вы\xa0хотите, чтобы у\xa0вас было две одинаковые по\xa0ширине колонки, тогда для каждой колонки необходимо задать ширину «6».\nКак выглядит административный интерфейс\n  \n', '**Виджет «Формат обучения»**\n\nФормируется на\xa0основе сведений из\xa0раздела «Данные»\n', '**Загрузка файлов**\nНа страницу можно загрузить один или несколько файлов. Для загрузки файлов используйте виджет «Список файлов». При загрузке файла можно указать текст, по клику на который будет открываться файл.\nЕсли Вы хотите загрузить на сайт Учебный план, то используйте виджет «Учебный план». Не загружайте файлы просто потому, что они у вас есть, думайте, есть ли запрос от пользователей на них.\n\nКак выглядит административный интерфейс\n\n', '**Показ учебного плана**\nУчебный план загружается в разделе «Данные» — «Сведения об образовательной организации». После загрузки файла необходимо перейти в раздел «Конструктор» и с помощью виджета «Учебный план» указать место на странице, где необходимо использовать файл.\nПожалуйста, не используйте для загрузки учебного плана виджет «Список файлов».\n', '**Связанные программы**\nНа\xa0странице программы можно указать релевантные программы. Для этого перейдите в\xa0разделе «Данные»\xa0— «Связанные программы». Нажмите на «+», введите в\xa0поле поиска название программы. Если программа не\xa0находится, но\xa0она точно в\xa0новом каталоге программ, то\xa0попробуйте искать по\xa0части названия.\n', '**Сведения об образовательной организации**\nПосле внедрения нового каталога ДПО информация из раздела (Краткая характеристика программы, Аннотации к рабочим программам дисциплин, Учебный план, Календарный учебный график) будет показываться в разделе «Сведения об образовательной организации» (обязательный раздел на сайте вуза).\xa0 Файл с учебным планом можно показать на странице программы. Для загрузки файлов перейдите\xa0«Данные»\xa0— «Сведения об образовательной организации»\nКак выглядит административный интерфейс\n\n', '**Меню**\nДля упрощения навигации по\xa0странице можно добавить на\xa0страницу программы пункты меню.\nПредварительно в\xa0разделе «Конструктор» добавьте в\xa0нужные места «якоря». В\xa0меню в\xa0поле URL вам нужно будет прописать адрес страницы плюс имя якоря с\xa0символом решетки (#) впереди (например: https://www.hse.ru/edu/dpo/452691928#anchor).\n', '**SEO**\n Заполните поле «Описание документа» \nИз\xa0того, что вы\xa0напишете в\xa0этом поле, сформируется мета-тег description. Он\xa0описывает содержимое страницы для поисковых роботов (Яндекс и\xa0Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в\xa0поисковиках, окажутся выше в\xa0выдаче\xa0и, соответственно, увеличится поисковый трафик на\xa0ваш сайт. Кроме того, часто именно это описание Google подставляет в\xa0выдачу (на\xa0страницу результатов поиска).\nЧто собой представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. Оптимизаторы сайтов рекомендуют делать описание на\xa0160\xa0знаков, можно чуть больше, но\xa0имейте в\xa0виду, что большинство поисковых роботов игнорируют\xa0то, что написано за\xa0первыми 160-180\xa0знаками. Также нельзя делать из\xa0описания набор ключевых слов через запятую. Во-первых, это очень не\xa0нравится роботам, и\xa0результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а\xa0им\xa0нужен более связный текст.\nЕсли вы не знаете, что написать в этом поле, напишите название программы, далее текст длиной в 50-110 символов на тему: что дает программа или о чем она. В конце добавьте номер телефона (по желанию) «НИУ ВШЭ» (без кавычек).\nПоля «Использовать в\xa0качестве заголовка окна» и\xa0«Убрать автоматически формируемую часть окна» менять не\xa0нужно, с\xa0этими полями работают специалисты.\n Проверьте порядок расположения блоков на странице программы \nПорядок влияет на приоритет ключевых слов для поисковой системы.\xa0Рекомендуемый порядок блоков:\n О программе Для кого (в описании\xa0начинать со слов Очная/Онлайн программа НАЗВАНИЕ программы) Формат обучения Программа обучения (если это возможно, то\xa0помимо названия дисциплины\xa0указывайте тип дисциплины (лекция, семинар и т.д.), добавляйте краткую аннотацию дисциплины) Результаты Документ об окончании Преимущества программы Преподаватели Стоимость и условия Как поступить на программу Наши выпускники трудоустроились в ведущие компании / Партнеры программы\xa0 Отзывы выпускников Контакты (адрес) \n Повторите название программы\xa01-3 раза в тексте вне заголовка\xa0 Обратите особое внимание на раздел с описанием преподаваемых на программе дисциплин \nЧем более подробно и доходчиво вы распишете, что будет изучать слушатель программы, тем лучше.\n Если этого не достаточно? \nЕсли вы сделали все перечисленное выше, но не полностью удовлетворены результатом по трафику, отправьте заявку на подбор ключевых слов на portal@hse.ru со ссылкой на программу. Команда портала подберет для вас набор слов или словосочетаний, взяв за основу\xa0название вашей программы и список дисциплин. Список слов вы должны будете добавить в размещенный на странице программы контент.\nСрок подбора составляет от 1 до 20 дней в зависимости от текущего объема работ.\n']]</t>
+          <t>[[['содержательн', 'вопрос', 'работ', 'каталог', 'операцион', 'управлен', 'дпо', 'жгун', 'окса', 'леонидовн', 'фатьянов', 'екатерин', 'алексеевн'], ['получен', 'доступ', 'вопрос', 'работ', 'редакторск', 'интерфейс', 'получ', 'доступ', 'редактирован', 'получ', 'консультац', 'цифров', 'маркетинг', 'программ', 'дпо', 'доступ', 'поддержк', 'получ', 'доступ', 'веб-аналитик', 'получ', 'доступ', 'Roistat', 'получ', 'доступ', 'Unisender', 'запрос', 'поддержк', 'CRM', 'техническ', 'поддержк', 'получ', 'доступ', 'CRM', 'запрос', 'доработк', 'сообщ', 'ошибк', 'запрос', 'поддержк'], []], [[]], [['пыта', 'внедр', 'собствен', 'шрифт', 'стил', 'вам', 'нужн', 'прост', 'размест', 'текст', 'очист', 'сторон', 'форматирован'], ['исходн', 'изображен', 'необходим', 'оптимизирова', 'веб', 'зач', 'эт', 'нужн', 'подробн', 'написа'], ['уважа', 'авторск', 'прав', 'нельз', 'прост', 'взят', 'скача', 'люб', 'изображен', 'интернет'], ['быстр', 'ссылк', 'как', 'нача', 'как', 'клонирова', 'карточк', 'как', 'дат', 'ссылк', 'существ', 'лендинг', 'программ', 'как', 'посмотрет', 'получ', 'собира', 'шапк', 'сайт', 'программ', 'изображен', 'шапк', 'программ', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'собира', 'страниц', 'программ', 'виджет', 'якор', 'виджет', 'важн', 'объявлен', 'виджет', 'программ', 'виджет', 'нумерова', 'блок', 'виджет', 'результат', 'виджет', 'для', 'ког', 'виджет', 'список', 'изображен', 'виджет', 'документ', 'окончан', 'виджет', 'текст', 'заголовк', 'виджет', 'программ', 'обучен', 'виджет', 'FAQ', 'виджет', 'сообществ', 'виджет', 'отзыв', 'выпускник', 'виджет', 'контакт', 'виджет', 'стоимост', 'услов', 'виджет', 'преподавател', 'виджет', 'школ', 'виджет', 'формат', 'обучен', 'виджет', 'загрузк', 'файл', 'виджет', 'показ', 'учебн', 'план', 'связа', 'программ', 'сведен', 'образовательн', 'организац', 'мен', 'SEO']], [['добавлен', 'программ', 'создан', 'нов', 'карточк', 'осуществля', 'каталог', 'операцион', 'управлен', 'дпо', 'самостоятельн', 'добавлен', 'программ', 'портал', 'закрыт', 'случа', 'отсутств', 'карточк', 'программ', 'каталог', 'обраща', 'операцион', 'управлен', 'дпо', 'фатьянов', 'екатерин', 'алексеевн'], ['чтоб', 'продолж', 'заполнен', 'карточк', 'войд', 'административн', 'интерфейс', 'https', '//www.hse.ru/adm/', 'перейд', 'раздел', 'образован', 'дополнительн', 'образован', 'new'], ['увид', 'список', 'карточек', 'программ', 'дпо', 'ни', 'вшэ'], [], ['для', 'поиск', 'внесен', 'программ', 'воспольз', 'пол', 'фильтр', 'поиск', 'осуществля', 'назван', 'программ', 'для', 'редактирован', 'программ', 'нажм', 'значок', 'карандаш', 'есл', 'увер', 'программ', 'нужн', 'нужн', 'удал', 'напиш', 'portal', 'hse.ru', 'для', 'времен', 'скрыт', 'сайт', 'карточк', 'сдела', 'карточк', 'неактивн', 'раздел', 'дан', 'конкретн', 'карточк'], ['есл', 'может', 'войт', 'административн', 'интерфейс', 'знач', 'хвата', 'прав.', 'получ', 'прав', 'менеджер', 'дополнительн', 'образован', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта'], ['клонирован', 'карточек', 'программ', 'есл', 'двух', 'программ', 'общ', 'клонирова', 'карточк', 'существ', 'программ', 'чтоб', 'клонирова', 'карточк', 'напиш', 'portal', 'hse.ru', 'указа', 'ссылк', 'карточк', 'котор', 'необходим', 'клонирова', 'точн', 'назван', 'программ', 'нов', 'карточк', 'программ', 'каталог', 'операцион', 'управлен', 'дпо', 'уточн', 'операцион', 'управлен', 'дпо', 'помн', 'страниц', 'иска', 'поисков', 'систем', 'долж', 'уникальн', 'контент', 'одн', 'дел', 'реч', 'идет', 'преподавател', 'программ', 'друг', 'двух', 'программ', 'совпада', 'описан', 'преимуществ', 'проч'], ['что', 'дела', 'программ', 'полноцен', 'лендинг', 'котор', 'идет', 'реклам', 'случа', 'вам', 'необходим', 'заполн', 'пол', 'раздел', 'дан', 'пол', 'сайт', 'программ', 'программ', 'имеющ', 'лендинг', 'вписа', 'адрес', 'лендинг', 'программ']], [[], ['посл', 'нажат', 'знак', 'перв', 'страниц', 'попадет', 'редактор', 'карточк', 'дпо', 'раздел', 'дан'], ['раздел', 'подел', 'част'], ['дан', 'импортируем', 'баз', 'дпо', 'заполнен', 'редактирован', 'пол', 'назван', 'тип', 'программ', 'проч.', 'осуществля', 'баз', 'дан', 'каталог', 'дпо', 'сам', 'карточк', 'пол', 'внесен', 'изменен', 'закрыт', 'вопрос', 'работ', 'каталог', 'дпо', 'необходим', 'обраща', 'фатьянов', 'екатерин', 'алексеевн'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дополнительн', 'дан', 'карточк', 'портал', 'пол', 'менторств', 'изображен', 'ключев', 'выгод', 'программ', 'одн', 'предложен', 'соста', 'занят', 'итогов', 'работ', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дан', 'сведен', 'вшэ', 'основ', 'формир', 'информац', 'обязательн', 'кажд', 'университет', 'раздел', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['есл', 'нужн', 'посмотрет', 'как', 'дан', 'карточк', 'синхронизац', 'каталог', 'дпо', 'может', 'зайт', 'раздел', 'стар', 'дан']], [['подбер', 'изображен', 'шапк', 'при', 'выбор', 'картинк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр'], ['размер', 'изображен', '1520', '800', 'пиксел', 'вес', '100-250'], ['изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/'], ['есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза']], [['шапк', 'добав', 'форм', 'прием', 'заявок', 'форм', 'зада', 'вопрос', 'при', 'установк', 'ползунк', 'показ', 'кнопк', 'заявк', 'показ', 'кнопк', 'форм', 'позиц', 'включ', 'форм', 'созда', 'автоматическ', 'забудьт', 'перейт', 'реж', 'редактирован', 'нажа', 'иконк', 'ряд', 'слов', 'редактирова', 'форм', 'измен', 'дат', 'актуальн', 'форм', 'при', 'необходим', 'может', 'измен', 'пол', 'форм', 'подробн', 'редактирован', 'форм', 'прочита', 'https', '//portal.hse.ru/poll', 'част', 'создан', 'форм', 'нужн', 'пропуст', 'ваш', 'случа', 'форм', 'созда', 'стандартн', 'вид'], [], ['есл', 'каким-т', 'причин', 'форм', 'карточк', 'подход', 'хот', 'дат', 'ссылк', 'форм', 'созда', 'друг', 'сайт', 'может', 'указа', 'ссылк', 'пол', 'ссылк', 'внешн', 'форм', 'заявки/вопрос'], ['кнопк', 'будут', 'показыва', 'шапк', 'такж', 'плашк', 'результат', 'документ', 'образован', 'стоимост', 'услов', 'подложк']], [['верхн', 'прав', 'угл', 'размещ', 'кнопк', 'откр', 'сайт', 'нажм', 'есл', 'вид', 'ошибк', '404', 'проверьт', 'карточк', 'имеет', 'статус', 'активн', 'раздел', 'дан']], [['все', 'программ', 'унифицирова', 'формат', 'подач', 'информац', 'почт', 'вся', 'работ', 'происход', 'вкладк', 'конструктор', 'выпада', 'списк', 'выбер', 'нужн', 'виджет', 'нажм', 'знак'], [], ['порядок', 'виджет', 'изменя', 'для', 'перемест', 'курсор', 'влев', 'назван', 'виджет', 'см.', 'скриншот', 'нажа', 'лев', 'кнопк', 'мыш', 'перемест', 'виджет', 'нужн', 'мест'], [], ['виджет', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'дан', 'случа', 'якор', 'нуж', 'мен', 'переход', 'определен', 'раздел', 'сайт', 'вам', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'URL', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'важн', 'объявлен', 'дан', 'функциона', 'необход', 'хот', 'донест', 'посетител', 'сайт', 'что-т', 'крайн', 'важн', 'использ', 'важн', 'объявлен', 'размещен', 'информац', 'котор', 'страниц', 'стара', 'сайт', 'одн', 'важн', 'объявлен', 'заполн', 'пол', 'выбер', 'фонов', 'цвет', 'объявлен', 'выбор', 'цвет', 'кликн', 'пипетк', 'соответств', 'пол', 'дат', 'указыва', 'необязательн', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'виджет', 'две', 'вкладк', 'текст', 'виде', 'вкладк', 'текст', 'явля', 'обязательн', 'заполнен', 'забудьт', 'выдел', 'текст', 'очист', 'посторон', 'форматирован', 'нажа', 'иконк', 'вкладк', 'виде', 'размест', 'проморолик', 'программ', 'виде', 'приветствен', 'слов', 'руководител', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/VYSTPqTdHqk', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'ве', 'код', 'копирова', 'нужн', 'нужн', 'взят', 'ссылк', 'embed', 'встав', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'подп', 'загруз', 'прев', 'виде', 'оптимизирова', 'изображен', '314×184', 'пиксел', 'ил', 'нажм', 'загруз', 'прев', 'административн', 'интерфейс', 'случа', 'использова', 'заставк', 'Youtube', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'нумерова', 'блок', 'заголовк', 'размеща', 'ключев', 'навык', 'котор', 'получат', 'выпускник', 'программ', 'дал', 'необходим', 'размест', 'тезис', 'раскрыва', 'сут', 'обучен', 'программ', 'числ', 'пункт', 'огранич', 'визуальн', 'смотр', 'тезис', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'результат', 'виджет', 'позволя', 'размест', 'заголовок', 'подзаголовок', 'нескольк', 'карточек', 'текст', 'оптимальн', 'карточк', 'хот', 'количеств', 'карточек', 'огранич', 'здрав', 'смысл', 'плашк', 'плашк', 'автоматическ', 'добав', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'ран', 'включ', 'раздел', 'дан', 'забудьт', 'измен', 'размер', 'загружа', 'картинок', 'оптимизирова', 'веб', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'для', 'ког', 'пол', 'основн', 'подзаголовок', 'обязательн', 'заполнен', 'числ', 'пункт', 'огранич', 'желательн', '3-5', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'список', 'изображен', 'виджет', 'позволя', 'зал', 'изображен', 'размер', 'изображен', '100', '250', 'пиксел', 'гиперссылк', 'например', 'использова', 'виджет', 'публикац', 'логотип', 'партнер', 'обрат', 'вниман', 'логотип', 'необходим', 'вписа', 'прямоугольник', '100', '250', 'пиксел', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'документ', 'окончан', 'заполн', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'загружа', 'страниц', 'изображен', 'документ', 'необязательн', 'изображен', 'документ', 'показа', 'справочник', 'основ', 'то', 'информац', 'котор', 'внесл', 'пол', 'тип', 'документ', 'образован', 'раздел', 'дан', 'однак', 'какой-т', 'причин', 'устраива', 'изображен', 'умолчан', 'может', 'загруз', 'сво', 'вариант', 'ширин', 'изображен', '430', 'пиксел', 'изображен', 'спозиционирова', 'центр', 'вертика', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'текст', 'заголовк', 'можн', 'добав', 'текст', 'заголовк', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'обучен', 'пол', 'заголовок', 'указа', 'назван', 'дисциплин', 'блок', 'дисциплин', 'пол', 'бейдж', 'числ', 'час', 'кредитн', 'единиц', 'пол', 'текст', 'кратк', 'описан', 'список', 'дисциплин', 'ран', 'указа', 'назван', 'блок', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'FAQ', 'нажм', 'кнопк', '+вопрос', 'заполн', 'соответств', 'пол', 'пол', 'ответ', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'сообществ', 'виджет', 'позволя', 'размест', 'нескольк', 'иконок', 'текст', 'изображен', 'должн', 'имет', 'размер', '80×80', 'пиксел', 'рекомендуем', 'формат', 'gif', 'png', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'отзыв', 'выпускник', 'позволя', 'размест', 'текст', 'отзыв', 'рекомендуем', 'числ', 'знак', '650', 'знак', 'пробел', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'размер', 'фот', '48×48', 'пиксел', 'посл', 'заливк', 'фот', 'нажима', 'выреза', 'выбра', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'контакт', 'заполн', 'пол', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'обрат', 'вниман', 'телефон', 'номер', 'ввод', 'формат', '000', '000-00-00', 'обязательн', 'указыва', 'код', 'город', 'кажд', 'нов', 'телефон', 'указыва', 'сво', 'пол', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'стоимост', 'услов', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'прост', 'позволя', 'добав', 'заголовок', 'подзаголовок', 'гиперссылк', 'переход', 'страниц', 'подробн', 'необязательн', 'лейбл', 'скидк', 'помим', 'текст', 'подзаголовк', 'гиперссылк', 'добав', 'лейбл', 'скидк', 'подложк', 'позволя', 'дополнительн', 'размест', 'текст', 'кнопк', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'все', 'дан', 'стоимост', 'необходим', 'внос', 'рамк', 'одн', 'виджет', 'случа', 'информац', 'выстраива', 'столбик', 'начина', 'кажд', 'нов', 'строк', 'есл', 'вариант', 'скидок', 'разн', 'услов', 'дат', 'информац', 'прост', 'текст', 'использова', 'виджет', 'текст', 'заголовк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'преподавател', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'вшэ', 'вшэ', 'виджет', 'вшэ', 'позволя', 'выбра', 'преподавател', 'списк', 'персон', 'вшэ', 'забудьт', 'выбор', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'изображен', 'нерезк', 'есл', 'добавля', 'сотрудник', 'вшэ', 'заполня', 'пол', 'всплыва', 'текст', 'клик', 'осуществля', 'переход', 'персональн', 'страниц', 'сайт', 'вшэ', 'есл', 'пол', 'заполн', 'откроет', 'всплыва', 'текст.', 'пол', 'должност', 'может', 'вписа', 'вручн', 'должност', 'котор', 'должн', 'отобража', 'карточк', 'устраива', 'автоматическ', 'вывод', 'информац', 'виджет', 'вшэ', 'позволя', 'добав', 'персон', 'след', 'атрибут', 'фи', 'должност', 'фот', 'желательн', 'горизонтальн', 'ориентирова', 'всплыва', 'текст.', 'забудьт', 'выбор', 'фот', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'вшэ', 'вшэ', 'условн', 'делен', 'есл', 'хот', 'оформ', 'фот', 'одн', 'стил', 'преподавател', 'загруз', 'вшэ', 'виджет', 'использова', 'списк', 'преподавател', 'т.к.', 'заголовок', 'раздел', 'редактируем', 'ответствен', 'подход', 'выбор', 'фотограф', 'есл', 'фот', 'паспорт', 'конференц', 'фон', 'провод', 'фуршет', 'бокал', 'вероятн', 'использован', 'фотограф', 'блок', 'сто', 'отказа', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'школ', 'позволя', 'загруз', 'горизонтальн', 'ориентирова', 'фотограф', 'текст.', 'рекомендова', 'ширин', 'фотограф', '1600', 'пиксел', 'контейнер', 'изображен', 'имеет', 'фиксирова', 'высот', 'изображен', 'заполня', 'спозиционирова', 'центр', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'параметр', 'изображен', 'меня', 'зависим', 'разрешен', 'экра', 'текст', 'добавля', 'строк', 'внутр', 'строк', 'колонк', 'максимальн', 'количеств', 'колонок', 'однак', 'рекоменду', 'дела', 'одн', 'строк', 'колонок', 'оптимальн', '1-3', 'колонк', 'кажд', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'например', 'хот', 'две', 'одинаков', 'ширин', 'колонк', 'кажд', 'колонк', 'необходим', 'зада', 'ширин', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'формат', 'обучен', 'формир', 'основ', 'сведен', 'раздел', 'дан'], ['загрузк', 'файл', 'страниц', 'загруз', 'нескольк', 'файл', 'для', 'загрузк', 'файл', 'использ', 'виджет', 'список', 'файл', 'при', 'загрузк', 'файл', 'указа', 'текст', 'клик', 'котор', 'открыва', 'файл', 'есл', 'хот', 'загруз', 'сайт', 'учебн', 'план', 'использ', 'виджет', 'учебн', 'план', 'загружа', 'файл', 'прост', 'дума', 'запрос', 'пользовател', 'как', 'выгляд', 'административн', 'интерфейс'], ['показ', 'учебн', 'план', 'учебн', 'план', 'загружа', 'раздел', 'дан', 'сведен', 'образовательн', 'организац', 'посл', 'загрузк', 'файл', 'необходим', 'перейт', 'раздел', 'конструктор', 'помощ', 'виджет', 'учебн', 'план', 'указа', 'мест', 'страниц', 'необходим', 'использова', 'файл', 'пожалуйст', 'использ', 'загрузк', 'учебн', 'план', 'виджет', 'список', 'файл'], ['связа', 'программ', 'страниц', 'программ', 'указа', 'релевантн', 'программ', 'для', 'перейд', 'раздел', 'дан', 'связа', 'программ', 'нажм', 'введ', 'пол', 'поиск', 'назван', 'программ', 'есл', 'программ', 'наход', 'точн', 'нов', 'каталог', 'программ', 'попроб', 'иска', 'част', 'назван'], ['сведен', 'образовательн', 'организац', 'посл', 'внедрен', 'нов', 'каталог', 'дпо', 'информац', 'раздел', 'кратк', 'характеристик', 'программ', 'аннотац', 'рабоч', 'программ', 'дисциплин', 'учебн', 'план', 'календарн', 'учебн', 'график', 'показыва', 'раздел', 'сведен', 'образовательн', 'организац', 'обязательн', 'раздел', 'сайт', 'вуз', 'файл', 'учебн', 'план', 'показа', 'страниц', 'программ', 'для', 'загрузк', 'файл', 'перейд', 'дан', 'сведен', 'образовательн', 'организац', 'как', 'выгляд', 'административн', 'интерфейс'], ['мен', 'для', 'упрощен', 'навигац', 'страниц', 'добав', 'страниц', 'программ', 'пункт', 'мен', 'предварительн', 'раздел', 'конструктор', 'добавьт', 'нужн', 'мест', 'якор', 'мен', 'пол', 'URL', 'нужн', 'прописа', 'адрес', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor'], ['SEO', 'заполн', 'пол', 'описан', 'документ', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'соб', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'есл', 'знает', 'написа', 'пол', 'напиш', 'назван', 'программ', 'дал', 'текст', 'длин', '50-110', 'символ', 'тем', 'дает', 'программ', 'конц', 'добавьт', 'номер', 'телефон', 'желан', 'ни', 'вшэ', 'кавычек', 'пол', 'использова', 'качеств', 'заголовк', 'окн', 'убра', 'автоматическ', 'формируем', 'част', 'окн', 'меня', 'нужн', 'эт', 'пол', 'работа', 'специалист', 'проверьт', 'порядок', 'расположен', 'блок', 'страниц', 'программ', 'порядок', 'влия', 'приоритет', 'ключев', 'слов', 'поисков', 'систем', 'рекомендуем', 'порядок', 'блок', 'программ', 'для', 'ког', 'описан', 'начина', 'слов', 'очная/онлайн', 'программ', 'назван', 'программ', 'формат', 'обучен', 'программ', 'обучен', 'эт', 'возможн', 'помим', 'назван', 'дисциплин', 'указыва', 'тип', 'дисциплин', 'лекц', 'семинар', 'т.д.', 'добавля', 'кратк', 'аннотац', 'дисциплин', 'результат', 'документ', 'окончан', 'преимуществ', 'программ', 'преподавател', 'стоимост', 'услов', 'как', 'поступ', 'программ', 'наш', 'выпускник', 'трудоустро', 'ведущ', 'компан', 'партнер', 'программ', 'отзыв', 'выпускник', 'контакт', 'адрес', 'повтор', 'назван', 'программ', '1-3', 'раз', 'текст', 'вне', 'заголовк', 'обрат', 'особ', 'вниман', 'раздел', 'описан', 'преподава', 'программ', 'дисциплин', 'чем', 'подробн', 'доходчив', 'распишет', 'изуча', 'слушател', 'программ', 'есл', 'достаточн', 'есл', 'сдела', 'перечислен', 'выш', 'полност', 'удовлетвор', 'результат', 'трафик', 'отправьт', 'заявк', 'подбор', 'ключев', 'слов', 'portal', 'hse.ru', 'ссылк', 'программ', 'команд', 'порта', 'подберет', 'набор', 'слов', 'словосочетан', 'взяв', 'основ', 'назван', 'ваш', 'программ', 'список', 'дисциплин', 'список', 'слов', 'должн', 'будет', 'добав', 'размещен', 'страниц', 'программ', 'контент', 'срок', 'подбор', 'составля', 'дне', 'зависим', 'текущ', 'объем', 'работ']]]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[['На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес\xa0underground@hse.ru. Срок оказания услуги\xa0— 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.']]</t>
+          <t>[[['портал', 'организова', 'при', 'платеж', 'участ', 'проводим', 'подразделен', 'ни', 'вшэ', 'мероприят', 'заявк', 'создан', 'форм', 'прием', 'платеж', 'направля', 'руководител', 'подразделен', 'адрес', 'underground', 'hse.ru', 'срок', 'оказан', 'услуг', 'рабоч', 'дня', 'момент', 'получен', 'полн', 'пакет', 'необходим', 'сведен', 'заказчик', 'услов', 'создан', 'стандартн', 'форм']]]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:'], ['\nНомер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.\nНаименование подразделения, которое будет осуществлять прием платежей;\nШифр подразделения по ИС-ПРО;\nАдрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);\nСписок электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки\xa0отчета по произведенным оплатам;\nСроки приема платежей;\nВключен ли в сумму платежа НДС или нет;\nТребуется ли англоязычная версия формы;\nСписок категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы\xa0платежей в рублях;\nТекст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);\nПри необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;\n'], ['Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.'], ['Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.'], ['Важно!•\xa0Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора\xa0платежей\xa0суммы к оплате\xa0указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.•\xa0Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается.\xa0Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.']]</t>
+          <t>[[['обрат', 'вниман', 'требован', 'финансов', 'блок', 'создан', 'форм', 'прием', 'платеж', 'возможн', 'налич', 'подписа', 'приказ', 'проведен', 'мероприят', 'приказ', 'созда', 'подразделение-организатор', 'мероприят', 'документ', 'соглас', 'руководител', 'соответств', 'полномоч', 'есл', 'доход', 'расход', 'мероприят', 'треб', 'проставлен', 'финансов', 'аналитик', 'согласован', 'такж', 'участв', 'пфу', 'коп', 'договор', 'необходим', 'прилож', 'заявк', 'нужн', 'указа']], [['номер', 'учетн', 'договор', 'пфу', 'номер', 'бэст', 'котор', 'вест', 'при', 'средств', 'для', 'учет', 'поступа', 'средств', 'мероприят', 'ис-пр', 'созда', 'управленческ', 'договор', 'договор', 'созда', 'подразделен', 'самостоятельн', 'подразделен', 'имеет', 'доступ', 'ис-пр', 'соответств', 'прав', 'либ', 'ответствен', 'работник', 'пфу', 'наименован', 'подразделен', 'котор', 'осуществля', 'при', 'платеж', 'шифр', 'подразделен', 'ис-пр', 'адрес', 'сайт', 'зон', 'hse.ru', 'размещ', 'страниц', 'мероприят', 'желательн', 'указа', 'такж', 'адрес', 'страниц', 'описан', 'особен', 'оплат', 'список', 'электрон', 'почтов', 'адрес', 'ответствен', 'лиц', 'домен', 'hse.ru', 'ежедневн', 'выгрузк', 'отчет', 'произведен', 'оплат', 'срок', 'прием', 'платеж', 'включ', 'сумм', 'платеж', 'ндс', 'треб', 'англоязычн', 'верс', 'форм', 'список', 'категор', 'участник', 'перевод', 'английск', 'язык', 'необходим', 'создан', 'форм', 'английск', 'язык', 'соответств', 'сумм', 'платеж', 'рубл', 'текст', 'договора-оферт', 'котор', 'размещ', 'страниц', 'форм', 'прием', 'платеж', 'согласова', 'юрист', 'при', 'необходим', 'бланк', 'платежн', 'извещен', 'оплат', 'участник', 'валют', 'рубл', 'банк', 'размещен', 'страниц', 'мероприят']], [['есл', 'форм', 'платеж', 'нужн', 'разов', 'мероприят', 'пожалуйст', 'добавьт', 'заявк', 'информац', 'тип', 'платеж', 'оплат', 'обучен', 'оплат', 'проживан', 'оплат', 'проч', 'услуг', 'либ', 'нов', 'вид', 'оплат', 'договорен', 'пфу', 'уб']], [['взаимодейств', 'участник', 'мероприят', 'провод', 'основан', 'договора-оферт', 'котор', 'долж', 'размещ', 'страниц', 'мероприят', 'случа', 'необходим', 'предоставлен', 'участник', 'мероприят', 'каких-либ', 'подтвержда', 'документ', 'перечен', 'необходим', 'обязательн', 'порядк', 'предварительн', 'согласова', 'бухгалтер', 'ни', 'вшэ']], [['важн', 'планир', 'расценк', 'участ', 'мероприят', 'учет', 'страниц', 'сбор', 'платеж', 'сумм', 'оплат', 'указыва', 'рубл', 'указан', 'сумм', 'иностра', 'валют', 'допуска', 'числ', 'иностра', 'участников.•', 'банк', 'удержива', 'комисс', 'сумм', 'платеж', 'комисс', 'карт', 'сбербанк', 'взима', 'актуальн', 'размер', 'комисс', 'завис', 'услов', 'банка-эмитент', 'карт', 'платеж', 'требован', 'банк', 'выделя', 'комисс', 'сумм', 'платеж', 'страниц', 'оплат', 'мероприят']]]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[['Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:']]</t>
+          <t>[[['для', 'стандартн', 'форм', 'оплат', 'допуска', 'налич', 'нескольк', 'категор', 'участник', 'кажд', 'котор', 'присво', 'отдельн', 'сумм', 'оплат', 'например', 'сотрудник', 'ни', 'вшэ', 'руб.', 'иностра', 'гражда', 'руб.', 'автоматическ', 'проверк', 'статус', 'участник', 'момент', 'оплат', 'производ', 'стандартн', 'форм', 'оплат', 'выгляд']]]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2346,29 +2346,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[['На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.']]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>[['Вопросами, связанными с посещаемостью страниц\xa0портала, занимается Отдел веб-аналитики и моделирования.']]</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>[[' Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). '], ['Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.', 'Доступ предоставляется в течение одного рабочего дня.', 'Запрос на предоставление доступа']]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[['Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, —\xa0использовать сервис стандартных отчетов\xa0«Заголовки страниц».', '', 'В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу\xa0https://yandex.ru/support/metrika/'], ['В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение\xa0→ Контент сайта\xa0→ Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).', '', 'Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток.\xa0Подробная пользовательская инструкция Google Analytics находится по адресу\xa0https://support.google.com/analytics/']]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>[['Стандартный отчет формируется так:\xa0Отчеты →\xa0Стандартные отчеты →\xa0Содержание →\xa0Загрузки файлов.', '', 'Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.'], ['В меню сервиса выбирается вкладка Поведение\xa0→ События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).', '', 'Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.']]</t>
-        </is>
-      </c>
+          <t>[[['дан', 'обозначен', 'использова', 'оформлен', 'лендинг', 'цвет', 'подложк', 'шапк', 'основн', 'колонк', 'контент-блок', 'цвет', 'подложек', 'виджет', 'набор', 'выпадайк', 'таб', 'карточк', 'виджет', 'цифр', 'дня', 'плашк', 'цифр', 'хронолог', 'фон', 'виджет', 'программ', 'карусел', 'цифр', 'цифр', 'факт', 'ссылк', 'мероприят', 'публикац', 'такж', 'мобильн', 'тулбар']]]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2395,64 +2379,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по экономике**\n']]</t>
+          <t>[[['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'помощ', 'узна', 'количеств', 'посещен', 'сайт', 'проанализирова', 'действ', 'пользовател', 'поня', 'перешл', 'ин', 'страниц', 'доступн', 'такж', 'статистик', 'скачиван', 'файл']]]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[['**Аспирантская\xa0школа\xa0по менеджменту**\n']]</t>
+          <t>[[['вопрос', 'связа', 'посещаем', 'страниц', 'порта', 'занима', 'отдел', 'веб-аналитик', 'моделирован']]]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[['**Аспирантские школы: по государственному и муниципальному управлению;\xa0по философским наукам**\n']]</t>
+          <t>[[['доступ', 'предоставля', 'отдельн', 'представлен', 'Google', 'Analytics', 'выделен', 'представлен', 'присутств', 'дан', 'отдельн', 'поддом', 'настройк', 'представлен', 'производ', 'специалист', 'привлечен', 'трафик', 'посредств', 'GTM', 'Google', 'Tag', 'Manager']], [['доступ', 'предоставля', 'сотрудник', 'вшэ', 'Google', 'Analytics', 'я.метрик', 'ограничен'], ['доступ', 'предоставля', 'течен', 'одн', 'рабоч', 'дня'], ['запрос', 'предоставлен', 'доступ']]]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школа по праву**\n']]</t>
+          <t>[[['сам', 'прост', 'способ', 'узна', 'скольк', 'человек', 'посет', 'страниц', 'сайт', 'ваш', 'подразделен', 'мероприят', 'яндекс.метрик', 'использова', 'сервис', 'стандартн', 'отчет', 'заголовк', 'страниц'], [], ['пол', 'поиск', 'зада', 'назван', 'страниц', 'результир', 'таблиц', 'содержат', 'значен', 'указа', 'времен', 'диапазон', 'числ', 'просмотр', 'загрузок', 'страниц', 'числ', 'посетител', 'количеств', 'уникальн', 'люд', 'пришедш', 'ваш', 'страниц', 'подробн', 'пользовательск', 'инструкц', 'яндекс.метрик', 'доступн', 'адрес', 'https', '//yandex.ru/support/metrika/']], [['мен', 'сервис', 'расположен', 'лев', 'част', 'экра', 'выбира', 'вкладк', 'поведен', 'контент', 'сайт', 'все', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'нужн', 'страниц', 'указан', 'сетев', 'протокол', 'https'], [], ['для', 'увеличен', 'точност', 'анализ', 'нужн', 'передвинут', 'соответств', 'бегунок', 'вверх', 'экра', 'строк', 'выбор', 'дат', 'такж', 'выбра', 'узк', 'времен', 'промежуток', 'подробн', 'пользовательск', 'инструкц', 'Google', 'Analytics', 'наход', 'адрес', 'https', '//support.google.com/analytics/']]]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[['**Аспирантская школы:\xa0по социологическим наукам;\xa0по политическим наукам;\xa0по искусству и дизайну;\xa0по международным отношениям и зарубежным региональным исследованиям**\n']]</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по историческим наукам;\xa0по филологическим наукам;\xa0по философским наукам;\xa0по культурологии**\n']]</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по техническим наукам**\n']]</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантские\xa0школы:\xa0по компьютерным наукам;\xa0по физике**\n']]</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа\xa0по образованию**\n']]</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по психологии**\n']]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>[['**Аспирантская\xa0школа по математике**\n']]</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>[['**Академическая аспирантура**\n']]</t>
-        </is>
-      </c>
+          <t>[[['стандартн', 'отчет', 'формир', 'отчет', 'стандартн', 'отчет', 'содержан', 'загрузк', 'файл'], [], ['зада', 'необходим', 'времен', 'промежуток', 'график', 'выбира', 'URL', 'загрузк', 'файл', 'котор', 'интерес']], [['мен', 'сервис', 'выбира', 'вкладк', 'поведен', 'событ', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'страниц', 'котор', 'наход', 'ссылк', 'файл', 'указан', 'сетев', 'протокол', 'https'], [], ['выбира', 'категор', 'событ', 'Download', 'результирующ', 'таблиц', 'показыва', 'числ', 'скача', 'страниц', 'файл', 'выбра', 'промежуток', 'времен']]]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -2472,57 +2428,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[['С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ.\xa0Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.']]</t>
+          <t>[[['2017', 'год', 'ваш', 'распоряжен', 'полн', 'набор', 'инструмент', 'предоставля', 'нэб/ринц', 'помощ', 'уточн', 'улучш', 'ваш', 'показател', 'ринц', 'большинств', 'операц', 'может', 'выполн', 'самостоятельн', 'никт', 'кром', 'сможет', 'эт', 'сдела', 'должн', 'образ', 'некотор', 'случа', 'необходим', 'обрат', 'представител', 'подразделен']]]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.']]</t>
+          <t>[[['что', 'сдела', 'перв', 'очеред', 'зарегистрирова', 'ринц', 'Science', 'Index', 'уточн', 'регистрацион', 'дан', 'улучшен', 'привязк', 'публикац', 'провер', 'скорректирова', 'сво', 'список', 'публикац', 'провер', 'скорректирова', 'список', 'ссылок', 'сво', 'публикац']]]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[['Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.']]</t>
+          <t>[[['ниж', 'привед', 'кратк', 'инструкц', 'учет', 'опыт', 'работ', 'ринц', 'ни', 'вшэ', 'полн', 'инструкц', 'автор', 'найт', 'сайт', 'ринц']]]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['ВНИМАНИЕ!\xa0Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.']]</t>
+          <t>[[['вниман', 'для', 'корректн', 'работ', 'сайт', 'ринц', 'необходим', 'отключ', 'блокировк', 'всплыва', 'окон', 'elibrary.ru']]]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['Инструкции\nРегистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора\n']]</t>
+          <t>[[['инструкц', 'регистрац', 'Science', 'Iндеxвнесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикацийработ', 'списк', 'публикацийработ', 'ссылк', 'публикациипорядок', 'обращен', 'ответствен', 'подразделенийанализ', 'публикацион', 'активн', 'автор']]]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[['Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.'], ['Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».'], ['']]</t>
+          <t>[[['есл', 'зарегистрирова', 'Science', 'Index', 'пройд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isnew=1', 'inreestr=on', 'либ', 'выбер', 'кнопк', 'регистрац', 'панел', 'вход', 'сайт', 'elibrary.ru']], [['убед', 'регистрацион', 'анкет', 'проставл', 'галочк', 'зарегистрирова', 'автор', 'систем', 'Science', 'Index']], [[]]]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[['При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет\xa0→ Профиль автора\xa0→ Регистрационная карточка автора.'], ['1. Проверьте, указана ли аффилиация с НИУ ВШЭ'], [''], ['2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций'], [''], ['В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.'], ['3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.'], [''], ['Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.'], ['После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.']]</t>
+          <t>[[['при', 'регистрац', 'необходим', 'внест', 'дан', 'пол', 'обязательн', 'заполнен', 'однак', 'рекоменду', 'обрат', 'вниман', 'друг', 'пол', 'эт', 'поможет', 'автоматическ', 'привяза', 'максимальн', 'числ', 'ваш', 'публикац', 'аккаунт', 'есл', 'зарегистрирова', 'Science', 'Index', 'может', 'внест', 'дан', 'перейд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isold=1', 'пройд', 'личн', 'кабинет', 'профил', 'автор', 'регистрацион', 'карточк', 'автор']], [['проверьт', 'указа', 'аффилиац', 'ни', 'вшэ']], [[]], [['нижн', 'част', 'форм', 'наход', 'пол', 'котор', 'могут', 'улучш', 'качеств', 'автоматическ', 'привязк', 'публикац']], [[]], [['пол', 'журнал', 'внес', 'журнал', 'котор', 'публикова', 'пол', 'организац', 'укаж', 'друг', 'организац', 'котор', 'могл', 'работа', 'ран', 'есл', 'раньш', 'друг', 'фамил', 'укаж', 'пол', 'предыдущ', 'фамил', 'девич', 'есл', 'публикова', 'собира', 'публикова', 'зарубежн', 'издан', 'укаж', 'вариант', 'написан', 'фамил', 'латиниц', 'запят', 'пол', 'идентификацион', 'код', 'автор', 'укаж', 'люб', 'друг', 'сво', 'идентификацион', 'код']], [['посл', 'сохранен', 'карточк', 'течен', '2-10', 'дне', 'получ', 'уникальн', 'идентификатор', 'SPIN-код', 'автор']], [[]], [['указа', 'панел', 'сесс', 'слев', 'такж', 'начал', 'регистрацион', 'карточк', 'необходим', 'указа', 'SPIN-код', 'сво', 'личн', 'кабинет', 'портал', 'ни', 'вшэ']], [['посл', 'получен', 'SPIN-код', 'систем', 'выполн', 'привязк', 'публикац', 'ваш', 'профил', 'получ', 'возможн', 'внос', 'исправлен', 'список', 'публикац', 'список', 'ссылок', 'публикац']]]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[['После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.'], ['1. Начните с просмотра списка ваших публикаций (Профиль автора\xa0→ Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.'], [''], ['Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».'], ['2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору».\xa0В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».'], [''], ['3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.'], ['4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.']]</t>
+          <t>[[['посл', 'регистрац', 'заполнен', 'карточк', 'систем', 'попыта', 'идентифицирова', 'ваш', 'работ', 'автоматическ', 'привяза', 'ваш', 'профил', 'однак', 'возможн', 'ошибк', 'идентификац']], [['начн', 'просмотр', 'списк', 'ваш', 'публикац', 'профил', 'автор', 'мо', 'публикац', 'проверьт', 'публикац', 'присутств', 'списк', 'нет', 'публикац', 'друг', 'автор', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'публикации…', 'проверьт', 'правильн', 'указа', 'аффилиац', 'эт', 'публикац', 'например', 'аффилиац', 'ни', 'вшэ', 'должн', 'выглядет', 'рисунк', 'ниж', 'оформл', 'вид', 'гиперссылк', 'всплыва', 'полн', 'назван']], [[]], [['есл', 'эт', 'нажм', 'идентифицирова', 'организац', 'указа', 'публикац', 'качеств', 'мест', 'мо', 'работ', 'панел', 'инструмент']], [['есл', 'списк', 'обнаруж', 'некотор', 'публикац', 'выбер', 'выпада', 'списк', 'показыва', 'непривяза', 'публикац', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'публикац', 'список', 'работ', 'автор']], [[]], [['есл', 'некотор', 'публикац', 'одн', 'указа', 'двух', 'списк', 'эт', 'означа', 'систем', 'смогл', 'идентифицирова', 'публикац', 'автоматическ', 'так', 'случа', 'попыта', 'найт', 'привяза', 'публикац', 'вручн', 'воспольз', 'расширен', 'поиск', 'лев', 'верхн', 'част', 'страниц', 'вначал', 'поиска', 'неполн', 'имен', 'отчеств', 'автор', 'зат', 'например', 'известн', 'точн', 'назван', 'публикац', 'назван', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'найден', 'публикац', 'звездочк', 'помеч', 'котор', 'привяза', 'ваш', 'профил', 'есл', 'списк', 'найден', 'публикац', 'вид', 'котор', 'необходим', 'привяза', 'щелкн', 'назван', 'откроет', 'страниц', 'описан', 'панел', 'инструмент', 'выбер', 'пункт', 'добав', 'публикац', 'список', 'мо', 'работ', 'явля', 'автор', 'посл', 'проверк', 'публикац', 'привяза', 'ваш', 'профил']], [['есл', 'уда', 'найт', 'публикац', 'одн', 'эт', 'случа', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'нужн', 'публикац']]]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[['Работа со ссылками во многом напоминает работу с публикациями'], ['1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».'], ['2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».'], [''], ['В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».'], ['3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».'], ['4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).']]</t>
+          <t>[[['работ', 'ссылк', 'мног', 'напомина', 'работ', 'публикац']], [['начн', 'просмотр', 'списк', 'ссылок', 'профил', 'автор', 'мо', 'цитирован', 'либ', 'списк', 'публикац', 'панел', 'инструмент', 'выбер', 'вывест', 'список', 'ссылок', 'работ', 'автор', 'проверьт', 'списк', 'лишн', 'ссылок', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'ссылк', 'списк', 'цитирован', 'автор']], [['выпада', 'списк', 'показыва', 'выбер', 'непривяза', 'ссылк', 'котор', 'могут', 'принадлежа', 'дан', 'автор']], [[]], [['откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'цитирован', 'автор']], [['есл', 'какие-т', 'ссылк', 'эт', 'списк', 'отсутств', 'попыта', 'привяза', 'вручн', 'для', 'профил', 'автор', 'перейд', 'раздел', 'поиск', 'цитирован', 'ринц', 'довольн', 'част', 'ссылк', 'могут', 'привяза', 'цитир', 'работ', 'неверн', 'указа', 'фи', 'автор', 'поэт', 'нача', 'поиск', 'ввод', 'пол', 'автор', 'цитируем', 'публикац', 'фамил', 'автор', 'инициал', 'част', 'фамил', 'есл', 'хотел', 'уточн', 'список', 'ссылок', 'конкретн', 'работ', 'пол', 'люб', 'слов', 'текст', 'ссылк', 'ввест', 'част', 'назван', 'работ', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'работ', 'соответств', 'ссылк', 'звездочк', 'означа', 'дан', 'ссылк', 'привяза', 'ваш', 'публикац', 'выбер', 'списк', 'ссылк', 'котор', 'необходим', 'привяза', 'панел', 'инструмент', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'мо', 'цитирован']], [['есл', 'ссылк', 'по-прежн', 'отсутств', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'цитир', 'публикац', 'ринц', 'см.', 'ниж']]]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[['Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.'], ['Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.'], ['Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.'], ['Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.'], ['В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).'], ['Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:']]</t>
+          <t>[[['как', 'видн', 'сказа', 'выш', 'автор', 'имеет', 'достаточн', 'богат', 'набор', 'инструмент', 'уточнен', 'дан', 'сво', 'публикац', 'следовательн', 'уточнен', 'индекс', 'цитирован', 'единствен', 'существен', 'ограничен', 'отсутств', 'возможн', 'добавля', 'публикац', 'прич', 'эт', 'каса', 'добавлен', 'ссылок', 'ваш', 'публикац', 'добавлен', 'ссылк', 'равносильн', 'добавлен', 'публикац']], [['пожалуйст', 'прим', 'вниман', 'ответствен', 'подразделен', 'сможет', 'добав', 'публикац', 'полн', 'описан', 'оператор', 'сторон', 'ринц', 'отказа', 'добавлен', 'ссылк', 'опубликова', 'стат', 'электрон', 'коп']], [['поэт', 'обращен', 'ответствен', 'необходим', 'предостав', 'след', 'дан', 'есл', 'эт', 'стат', 'назван', 'стат', 'назван', 'журна', 'год', 'номер', 'страниц', 'тематик', 'желательн', 'классификатор', 'грнти', 'список', 'литератур', 'прям', 'ссылк', 'опубликова', 'стат', 'желательн', 'электрон', 'коп', 'стат']], [['есл', 'эт', 'книга/сборник', 'назван', 'издательств', 'год', 'мест', 'издан', 'город', 'тематик', 'желательн', 'классификатор', 'грнти', 'прям', 'ссылк', 'описан', 'книг', 'сайт', 'издательств', 'желательн', 'электрон', 'коп', 'книг']], [['случа', 'добавлен', 'публикац', 'треб', 'привязк', 'качеств', 'ссылк', 'одн', 'ваш', 'публикац', 'привед', 'назван', 'сво', 'публикац', 'дал', 'список', 'ссыла', 'публикац', 'всем', 'необходим', 'дан', 'см.', 'выш']], [['ответствен', 'сво', 'подразделен', 'может', 'найт', 'списк', 'ниж', 'есл', 'ответствен', 'списк', 'написа', 'ощепков', 'иван', 'владимирович']]]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[['Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.'], ['Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».'], ['Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.']]</t>
+          <t>[[['чтоб', 'оцен', 'влиян', 'вносим', 'изменен', 'показател', 'публикацион', 'активн', 'индекс', 'хирш', 'т.п.', 'пожалуйст', 'перейд', 'страниц', 'анализ', 'публикацион', 'активн', 'автор', 'попаст', 'страниц', 'раздел', 'персональн', 'профил', 'автор', 'такж', 'авторск', 'указател', 'щелкнув', 'мыш', 'цветн', 'иконк', 'гистограмм']], [['есл', 'внесл', 'изменен', 'эт', 'отобраз', 'статистик', 'нажм', 'обнов', 'показател', 'автор', 'панел', 'инструмент']], [['как', 'прав', 'внесен', 'изменен', 'будут', 'отраж', 'ваш', 'показател', 'ден', 'однак', 'отдельн', 'напр.', 'спорн', 'случа', 'изменен', 'могут', 'учт', 'лиш', 'некотор', 'врем', 'недел', 'двух', 'месяц', 'есл', 'счита', 'нек', 'изменен', 'учт', 'течен', 'долг', 'времен', 'обрат', 'ответствен', 'ваш', 'подразделен']]]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2545,20 +2501,64 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[['Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор\xa0с\xa0выпадайками»\xa0и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.']]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>[[['аспирантск', 'школ', 'экономик']]]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'менеджмент']]]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'государствен', 'муниципальн', 'управлен', 'философск', 'наук']]]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'прав']]]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'социологическ', 'наук', 'политическ', 'наук', 'искусств', 'дизайн', 'международн', 'отношен', 'зарубежн', 'региональн', 'исследован']]]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'историческ', 'наук', 'филологическ', 'наук', 'философск', 'наук', 'культуролог']]]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'техническ', 'наук']]]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'компьютерн', 'наук', 'физик']]]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'образован']]]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'психолог']]]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'математик']]]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[[['академическ', 'аспирантур']]]</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>

--- a/data_files/levels_tokenize_4.xlsx
+++ b/data_files/levels_tokenize_4.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[['сотрудник', 'все', 'подразделен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'учен', 'зван', 'член', 'члены-корреспондент', 'ран', 'ра', 'имеющ', 'степен', 'PhD', 'наград', 'награжден', 'государствен', 'наград', 'почетн', 'зван', 'отмечен', 'наград', 'почетн', 'зван', 'правительств', 'федеральн', 'собран', 'федеральн', 'орган', 'исполнительн', 'власт', 'отмечен', 'наград', 'почетн', 'зван', 'регион', 'муниципальн', 'образован', 'награжден', 'наград', 'иностра', 'государств', 'награжден', 'почетн', 'знак', 'вшэ', 'лауреат', 'прем', 'золот', 'вышк', 'награжден', 'медал', 'вшэ', 'отмечен', 'почетн', 'грамот', 'университет', 'функциона', 'ответствен', 'персональн', 'страниц', 'сотрудник', 'ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'сотрудник', 'учебн', 'офис', 'аболин', 'натал', 'александровн', 'начальник', 'управлен', 'научн', 'интерес', 'wеб-технолог', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'рейтинг', 'высш', 'учебн', 'заведен', 'юзабилит', 'смирнов', 'людм', 'викторовн', 'администратор', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'никитин', 'мар', 'константиновн', 'главн', 'редактор', 'грибб', 'кристофер', 'майкл', 'редактор', 'соловов', 'екатерин', 'сергеевн', 'редактор', 'черняховск', 'ан', 'мировн', 'редактор', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'фомичев', 'татья', 'александровн', 'начальник', 'отдел', 'научн', 'интерес', 'социолог', 'наук', 'образован', 'инклюзивн', 'образован', 'интернет-исследован', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'социолог', 'сем', 'детств', 'университетск', 'сайт', 'бережн', 'ларис', 'георгиевн', 'дизайнер', 'воробьев', 'татья', 'олеговн', 'редактор', 'золотусск', 'мар', 'игоревн', 'редактор', 'клименк', 'евген', 'ивановн', 'редактор', 'новиков', 'ел', 'геннадьевн', 'редактор', 'научн', 'интерес', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'чудаев', 'ольг', 'владимировн', 'редактор', 'шушак', 'макс', 'сергеевич', 'дизайнер']]]</t>
+          <t>[[['дан', 'обозначен', 'использова', 'оформлен', 'лендинг', 'цвет', 'подложк', 'шапк', 'основн', 'колонк', 'контент-блок', 'цвет', 'подложек', 'виджет', 'набор', 'выпадайк', 'таб', 'карточк', 'виджет', 'цифр', 'дня', 'плашк', 'цифр', 'хронолог', 'фон', 'виджет', 'программ', 'карусел', 'цифр', 'цифр', 'факт', 'ссылк', 'мероприят', 'публикац', 'такж', 'мобильн', 'тулбар']]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,59 +639,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[['наш', 'подразделен', 'осуществля', 'концептуальн', 'структурн', 'разработк', 'сопровожден', 'корпоративн', 'порта', 'ни', 'вшэ', 'прощ', 'говор', 'развива', 'корпоративн', 'порта', 'университет', 'поддержива', 'созда', 'нов', 'тематическ', 'раздел', 'открыва', 'сайт', 'подразделен', 'образовательн', 'программ', 'конференц', 'учебн', 'курс', 'спецпроект', 'публику', 'главн', 'страниц', 'анонс', 'обуча', 'сотрудник', 'редактирован', 'сайт', 'вед', 'нескольк', 'баз', 'дан']]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[['над', 'портал', 'работа', 'нам', 'очен', 'тяжел', 'обойт', 'наш', 'коллег', 'друг', 'подразделен']]]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[[['управлен', 'связ', 'обществен', 'основн', 'поставщик', 'новост', 'главн', 'страниц', 'корпоративн', 'порта', 'университет', 'без', 'порта', 'так', 'интересн', 'есл', 'ваш', 'подразделен', 'новостн', 'повод', 'забудьт', 'проинформирова', 'наш', 'коллег', 'мож', 'помоч', 'проанонсирова', 'ваш', 'мероприят']], [['чтоб', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'необходим', 'размест', 'анонс', 'сайт', 'подразделен', 'присла', 'ссылк', 'адрес', 'portalnews', 'hse.ru', 'подробн', 'анонсирован', 'мероприят', 'прочита']]]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[[['кажд', 'сотрудник', 'буд', 'именит', 'профессор', 'менеджер', 'бухгалтер', 'программист', 'портал', 'сво', 'страниц', 'заглянув', 'персональн', 'страниц', 'узна', 'занима', 'учен', 'как', 'предмет', 'препода', 'профессор', 'как', 'вопрос', 'помога', 'реш', 'административн', 'сотрудник', 'созда', 'автоматическ', 'внесен', 'приказ', 'прием', 'сотрудник', 'баз', 'управлен', 'персона', 'ис-пр']], [['да', 'сотрудник', 'необходим', 'прав', 'редактирован', 'персональн', 'страниц', 'для', 'получ', 'доступ', 'редактирован', 'необходим', 'написа', 'заявк', 'адрес', 'portal', 'hse.ru', 'есл', 'вопрос', 'том', 'появля', 'ин', 'информац', 'страниц', 'имен', 'публикует', 'появля', 'автоматическ', 'баз', 'дан', 'университет', 'ответ', 'найт', 'страниц', 'есл', 'вопрос', 'все-так', 'оста', 'обрат', 'ответствен', 'сво', 'подразделен', 'английск', 'верс', 'личн', 'страниц', 'активир', 'английск', 'редакц', 'порта', 'заполня', 'открыт', 'редактирован', 'пол', 'необходим', 'самостоятельн']]]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[[['осуществля', 'техническ', 'поддержк', 'баз', 'учебн', 'курс', 'портал', 'ни', 'вшэ', 'однак', 'описан', 'курс', 'ответствен', 'нес', 'вся', 'информац', 'загружа', 'нам', 'автоматическ', 'учебн', 'план', 'модул', 'нагрузк', 'систем', 'абитуриент-студент-выпускник-аспирант', 'аса', 'аса', 'получа', 'такж', 'английск', 'назван', 'курс', 'отображен', 'расписан']], [['есл', 'явля', 'ответствен', 'кафедры/департамент', 'необходим', 'получ', 'прав', 'написа', 'адрес', 'portal', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[[['вмест', 'сотрудник', 'подразделен', 'работа', 'сайт', 'подразделен', 'образовательн', 'программ', 'мероприят', 'проект']], [['сайт', 'подразделен', 'созда', 'автоматическ', 'сведен', 'внес', 'ис-пр', 'подробн', 'сайт', 'подразделен', 'прочита']], [['сайт', 'образовательн', 'программ', 'открыва', 'внесен', 'программ', 'аса', 'инач', 'сайт', 'будут', 'отобража', 'рабоч', 'учебн', 'план', 'расписан', 'при', 'дальн', 'работ', 'сайт', 'поможет', 'инструкц']], [['сайт', 'мероприят', 'семинар', 'школ', 'школьник', 'мож', 'созда', 'налич', 'материал', 'наполнен', 'сайт', 'пуст', 'сайт', 'надпис', 'разработк', 'открыва']], [['осуществля', 'первичн', 'наполнен', 'сайт', 'оказыва', 'техническ', 'поддержк', 'поддержан', 'актуальн', 'сайт', 'ответствен', 'сотрудник', 'подразделен', 'котор', 'сайт', 'созда']], [['вопрос', 'создан', 'сайт', 'обраща', 'пожалуйст', 'portal', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[[['англоязычн', 'сайт', 'высш', 'школ', 'экономик', 'заня', '2015', 'год', 'перв', 'мест', 'рейтинг', 'сайт', 'университет', 'составлен', 'российск', 'совет', 'международн', 'дел']], [['осуществля', 'перевод', 'новост', 'главн', 'лент', 'порта', 'такж', 'мож', 'помоч', 'перевест', 'основн', 'информац', 'сайт', 'подразделен', 'текст', 'подразделен', 'научн', 'деятельн', 'друг', 'текст', 'котор', 'меня', 'редк', 'перевод', 'новост', 'анонс', 'проч', 'текст', 'подразделен', 'занима', 'самостоятельн', 'такж', 'размеща', 'главн', 'лент', 'порта', 'анонс', 'англоязычн', 'мероприят', 'активиру', 'английск', 'верс', 'личн', 'страниц']], [['англоязычн', 'верс', 'сайт', 'обязательн', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'такж', 'образовательн', 'программ', 'котор', 'преподаван', 'ведет', 'английск', 'язык', 'друг', 'случа', 'сайт', 'созда', 'услов', 'готовн', 'подразделен', 'оперативн', 'поддержива', 'регулярн', 'обновля', 'сво', 'сил']], [['английск', 'верс', 'созда', 'заявк', 'подразделен', 'адрес', 'portal', 'hse.ru', 'непосредствен', 'обращен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'мар', 'бесов', 'при', 'создан', 'текст', 'необходим', 'руководствова', 'глоссар', 'термин', 'вшэ', 'стилистическ', 'справочник']]]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[[['ни', 'вшэ', 'постоя', 'что-т', 'меня', 'открыва', 'нов', 'программ', 'провод', 'исследован', 'появля', 'нов', 'подразделен', 'подготов', 'статистическ', 'информац', 'жизн', 'университет', 'нам', 'помога', 'аналитическ', 'центр']], [['когд', 'использует', 'какие-т', 'цифр', 'стат', 'интерв', 'проч.', 'пожалуйст', 'уточн', 'аналитическ', 'центр', 'будут', 'сведен', 'обновл', 'ближайш', 'врем']]]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[[['предоставля', 'прав', 'преподавател', 'ни', 'вшэ', 'проверк', 'студенческ', 'работ', 'систем', 'антиплагиат']], [['чтоб', 'получ', 'доступ', 'достаточн', 'написа', 'заявк', 'люб', 'адрес', 'корпоративн', 'почт', 'адрес', 'antiplagiat', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[[['мож', 'дат', 'доступ', 'заполнен', 'след', 'электрон', 'форм', 'отчет']], [['отчет', 'деятельн', 'научно-учебн', 'проектно-учебн', 'лаборатор', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'отчет', 'участник', 'групп', 'высок', 'профессиональн', 'потенциа', 'ни', 'вшэ', 'отчет', 'кадров', 'резерв', 'отчет', 'принима', 'управлен', 'академическ', 'развит']], [['мож', 'рассказа', 'внос', 'информац', 'мож', 'рассказа', 'имен', 'должн', 'внес', 'отчет', 'вопрос', 'смогут', 'ответ', 'сотрудник', 'соответств', 'подразделен']], [['чтоб', 'получ', 'доступ', 'отчет', 'достаточн', 'написа', 'письм', 'адрес', 'portal', 'hse.ru', 'пожалуйст', 'указыва', 'письм', 'заполнен', 'как', 'отчет', 'отвеча', 'некотор', 'отчет', 'сдают', 'одн', 'врем', 'нам', 'сложн', 'поня', 'имен', 'интерес']]]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[[['разработк', 'порта', 'занима', 'управлен', 'разработк', 'информацион', 'сист', 'порта', 'есл', 'объективн', 'необходим', 'появлен', 'чего-т', 'нов', 'готов', 'обсуд', 'эт', 'вмест', 'пожалуйст', 'обсужден', 'постара', 'кратк', 'сформулирова', 'основн', 'пожелан', 'прикинут', 'как', 'систем', 'внутр', 'университет', 'эт', 'затронут', 'пожалуйст', 'нужн', 'пыта', 'заказа', 'разработк', 'одновремен', 'дирекц', 'информацион', 'технолог', 'дирекц', 'портал', 'мобильн', 'приложен', 'желан', 'подстрахова', 'естествен', 'поверьт', 'ник', 'хочет', 'дела', 'работ', 'стол']], [['есл', 'прочита', 'эт', 'нашл', 'ответ', 'сво', 'вопрос', 'напиш', 'директор', 'портал', 'дмитр', 'коптюбенк']]]</t>
-        </is>
-      </c>
+          <t>[[['сотрудник', 'все', 'подразделен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'учен', 'зван', 'член', 'члены-корреспондент', 'ран', 'ра', 'имеющ', 'степен', 'PhD', 'наград', 'награжден', 'государствен', 'наград', 'почетн', 'зван', 'отмечен', 'наград', 'почетн', 'зван', 'правительств', 'федеральн', 'собран', 'федеральн', 'орган', 'исполнительн', 'власт', 'отмечен', 'наград', 'почетн', 'зван', 'регион', 'муниципальн', 'образован', 'награжден', 'наград', 'иностра', 'государств', 'награжден', 'почетн', 'знак', 'вшэ', 'лауреат', 'прем', 'золот', 'вышк', 'награжден', 'медал', 'вшэ', 'отмечен', 'почетн', 'грамот', 'университет', 'функциона', 'ответствен', 'персональн', 'страниц', 'сотрудник', 'ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'сотрудник', 'учебн', 'офис', 'аболин', 'натал', 'александровн', 'начальник', 'управлен', 'научн', 'интерес', 'wеб-технолог', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'рейтинг', 'высш', 'учебн', 'заведен', 'юзабилит', 'смирнов', 'людм', 'викторовн', 'администратор', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'никитин', 'мар', 'константиновн', 'главн', 'редактор', 'грибб', 'кристофер', 'майкл', 'редактор', 'соловов', 'екатерин', 'сергеевн', 'редактор', 'черняховск', 'ан', 'мировн', 'редактор', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'фомичев', 'татья', 'александровн', 'начальник', 'отдел', 'научн', 'интерес', 'социолог', 'наук', 'образован', 'инклюзивн', 'образован', 'интернет-исследован', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'социолог', 'сем', 'детств', 'университетск', 'сайт', 'бережн', 'ларис', 'георгиевн', 'дизайнер', 'воробьев', 'татья', 'олеговн', 'редактор', 'золотусск', 'мар', 'игоревн', 'редактор', 'клименк', 'евген', 'ивановн', 'редактор', 'новиков', 'ел', 'геннадьевн', 'редактор', 'научн', 'интерес', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'чудаев', 'ольг', 'владимировн', 'редактор', 'шушак', 'макс', 'сергеевич', 'дизайнер']]]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -712,94 +672,66 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[['шаблон', 'сайт', 'образовательн', 'программ', 'сам', 'сложн', 'портал', 'при', 'формирован', 'страниц', 'использ', 'информац', 'различн', 'баз', 'дан', 'университет', 'аса', 'руз', 'внутрен', 'баз', 'порта', 'поэт', 'случа', 'необходим', 'добавления/корректировк', 'информац', 'необходим', 'правк', 'имен', 'эт', 'баз', 'дан']], [['шаблон', 'позволя', 'постав', 'главн', 'страниц', 'сайт', 'люб', 'блок', 'люб', 'последовательн', 'зависим', 'этап', 'приемн', 'кампан', 'при', 'меня', 'информац', 'страниц', 'редактор', 'сайт', 'программ', 'самостоятельн', 'обра', 'помощ', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'исключен', 'аннотац', 'шапк', 'образовательн', 'программ', 'текст', 'вывод', 'баз', 'дан', 'каталог', 'образовательн', 'программ', 'ест', 'возможн', 'созда', 'турбо-верс', 'сайт', 'эт', 'помога', 'существен', 'увелич', 'трафик', 'мобильн', 'устройств', 'размещен', 'SEO-оптимизирова', 'текст', 'SEO', 'search', 'engine', 'optimization', 'главн', 'страниц', 'служ', 'поднят', 'позиц', 'сайт', 'результат', 'выдач', 'поисков', 'сист', 'определен', 'запрос', 'пользовател', 'обрат', 'вниман', 'SEO-оптимизац', 'эт', 'комплекс', 'мероприят', 'продвижен', 'сайт', 'однак', 'наибольш', 'рол', 'игра', 'качествен', 'контент']]]</t>
+          <t>[[['наш', 'подразделен', 'осуществля', 'концептуальн', 'структурн', 'разработк', 'сопровожден', 'корпоративн', 'порта', 'ни', 'вшэ', 'прощ', 'говор', 'развива', 'корпоративн', 'порта', 'университет', 'поддержива', 'созда', 'нов', 'тематическ', 'раздел', 'открыва', 'сайт', 'подразделен', 'образовательн', 'программ', 'конференц', 'учебн', 'курс', 'спецпроект', 'публику', 'главн', 'страниц', 'анонс', 'обуча', 'сотрудник', 'редактирован', 'сайт', 'вед', 'нескольк', 'баз', 'дан']]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[['служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'получен', 'редакторск', 'прав', 'размещен', 'виде', 'главн', 'страниц', 'налич', 'виде', 'Youtube', 'включен', 'раздел', 'студент', 'выпускник', 'налич', 'наполнен', 'страниц', 'раздел', 'добавлен', 'ссылок', 'пункт', 'мен', 'помечен', 'замочк', 'ссылк', 'общ', 'мен', 'страниц', 'рейтинг', 'общ', 'техническ', 'вопрос', 'редактирован', 'сайт', 'вынесен', 'пункт', 'ниж', 'никитин', 'мар', 'константиновн', 'управлен', 'развит', 'поддержк', 'порта', 'английск', 'верс', 'сайт', 'райа', 'сюзан', 'халилевн', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'раздел', 'руководств', 'руководител', 'менеджер', 'игнатов', 'натал', 'генадиевн', 'центр', 'сервис', 'департамент', 'страниц', 'рейтинг', 'курс', 'преподавател', 'раздел', 'документ', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'управлен', 'развит', 'образовательн', 'программ', 'раздел', 'паспорт', 'образовательн', 'программ', 'аббасов', 'ел', 'сергеевн', 'центр', 'сервис', 'студент', 'страниц', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'редактор', 'подразделен', 'реализ', 'программ', 'размещен', 'анонс', 'шапк', 'программ', 'шишк', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'дирекц', 'маркетингов', 'коммуникац', 'съемк', 'проморолик', 'участ', 'акад', 'руководител', 'размещен', 'проморолик', 'Yоутубе-канал', 'ни', 'вшэ']]]</t>
+          <t>[[['над', 'портал', 'работа', 'нам', 'очен', 'тяжел', 'обойт', 'наш', 'коллег', 'друг', 'подразделен']]]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[['стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'бакалавриат', 'магистратур', 'специалитет', 'корпоративн', 'сайт', 'портал', 'национальн', 'исследовательск', 'университет', 'высш', 'школ', 'экономик']], [['положен', 'основн', 'образовательн', 'программ', 'высш', 'образован']], [['быстр', 'ссылк', 'как', 'нача', 'что', 'дела', 'программ', 'нов', 'сайт', 'как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'структур', 'сайт', 'образовательн', 'программ', 'шапк', 'сайт', 'образовательн', 'программ', 'размещен', 'анонс', 'шапк', 'сайт', 'главн', 'страниц', 'программ', 'верхн', 'мен', 'раздел', 'программ', 'общ', 'мен', 'создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'адрес', 'текстов', 'блок', 'учебн', 'офис', 'социальн', 'кнопк', 'буклет', 'программ', 'турбо-верс', 'английск', 'верс', 'таблиц', 'регистрацион', 'форм']]]</t>
+          <t>[[['управлен', 'связ', 'обществен', 'основн', 'поставщик', 'новост', 'главн', 'страниц', 'корпоративн', 'порта', 'университет', 'без', 'порта', 'так', 'интересн', 'есл', 'ваш', 'подразделен', 'новостн', 'повод', 'забудьт', 'проинформирова', 'наш', 'коллег', 'мож', 'помоч', 'проанонсирова', 'ваш', 'мероприят']], [['чтоб', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'необходим', 'размест', 'анонс', 'сайт', 'подразделен', 'присла', 'ссылк', 'адрес', 'portalnews', 'hse.ru', 'подробн', 'анонсирован', 'мероприят', 'прочита']]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[[['есл', 'ран', 'работа', 'сайт', 'образовательн', 'программ', 'т.ч.', 'предыдущ', 'верс', 'получ', 'прав', 'редактор', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'указа', 'ссылк', 'сайт', 'программ', 'котор', 'необходим', 'доступ', 'для', 'получен', 'редакторск', 'доступ', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'порта', 'заявк', 'присыла', 'одн', 'письм']]]</t>
+          <t>[[['кажд', 'сотрудник', 'буд', 'именит', 'профессор', 'менеджер', 'бухгалтер', 'программист', 'портал', 'сво', 'страниц', 'заглянув', 'персональн', 'страниц', 'узна', 'занима', 'учен', 'как', 'предмет', 'препода', 'профессор', 'как', 'вопрос', 'помога', 'реш', 'административн', 'сотрудник', 'созда', 'автоматическ', 'внесен', 'приказ', 'прием', 'сотрудник', 'баз', 'управлен', 'персона', 'ис-пр']], [['да', 'сотрудник', 'необходим', 'прав', 'редактирован', 'персональн', 'страниц', 'для', 'получ', 'доступ', 'редактирован', 'необходим', 'написа', 'заявк', 'адрес', 'portal', 'hse.ru', 'есл', 'вопрос', 'том', 'появля', 'ин', 'информац', 'страниц', 'имен', 'публикует', 'появля', 'автоматическ', 'баз', 'дан', 'университет', 'ответ', 'найт', 'страниц', 'есл', 'вопрос', 'все-так', 'оста', 'обрат', 'ответствен', 'сво', 'подразделен', 'английск', 'верс', 'личн', 'страниц', 'активир', 'английск', 'редакц', 'порта', 'заполня', 'открыт', 'редактирован', 'пол', 'необходим', 'самостоятельн']]]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[['сайт', 'открыва', 'программ', 'утвержден', 'учен', 'совет', 'вшэ', 'контент', 'сайт', 'нача', 'готов', 'заран']], [['точн', 'назван', 'программ', 'русск', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'аннотац', 'шапк', 'программ', '500', 'знак', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'контакт', 'адрес', 'указан', 'город', 'телефон', 'e-mail', 'ком', 'предостав', 'редакторск', 'прав', 'сотрудник', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'портал']]]</t>
+          <t>[[['осуществля', 'техническ', 'поддержк', 'баз', 'учебн', 'курс', 'портал', 'ни', 'вшэ', 'однак', 'описан', 'курс', 'ответствен', 'нес', 'вся', 'информац', 'загружа', 'нам', 'автоматическ', 'учебн', 'план', 'модул', 'нагрузк', 'систем', 'абитуриент-студент-выпускник-аспирант', 'аса', 'аса', 'получа', 'такж', 'английск', 'назван', 'курс', 'отображен', 'расписан']], [['есл', 'явля', 'ответствен', 'кафедры/департамент', 'необходим', 'получ', 'прав', 'написа', 'адрес', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[[['необходим', 'определ', 'готов', 'самостоятельн', 'подготов', 'текст', 'техническ', 'задан', 'получен', 'управлен', 'развит', 'поддержк', 'порта', 'нужн', 'услуг', 'копирайтер', 'порта', 'втор', 'случа', 'срок', 'подготовк', 'текст', 'будут', 'зависет', 'общ', 'загружен', 'внешн', 'копирайтер', 'порта']], [['работ', 'подготовк', 'текст', 'начина', 'получен', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'заявк', 'подготовк', 'техническ', 'задан', 'копирайтер', 'эт', 'необходим', 'текст', 'сайт', 'заявк', 'необходим', 'указа', 'адрес', 'сайт', 'нов', 'программ', 'прилож', 'письм', 'концепц', 'программ', 'описан', 'курс', 'проч.', 'документ', 'основ', 'котор', 'состав', 'представлен', 'содержан', 'программ']], [['обрат', 'вниман', 'налич', 'SEO-оптимизирова', 'текст', 'сайт', 'программ', 'учитыва', 'KPI', 'декан', 'ежегодн', 'проверк', 'сайт', 'котор', 'обычн', 'проход', 'ноябре-декабр', 'есл', 'программ', 'англоязычн', 'SEO-оптимизац', 'обязательн', 'порядк', 'подлежат', 'такж', 'текст', 'английск', 'верс', 'сайт']]]</t>
+          <t>[[['вмест', 'сотрудник', 'подразделен', 'работа', 'сайт', 'подразделен', 'образовательн', 'программ', 'мероприят', 'проект']], [['сайт', 'подразделен', 'созда', 'автоматическ', 'сведен', 'внес', 'ис-пр', 'подробн', 'сайт', 'подразделен', 'прочита']], [['сайт', 'образовательн', 'программ', 'открыва', 'внесен', 'программ', 'аса', 'инач', 'сайт', 'будут', 'отобража', 'рабоч', 'учебн', 'план', 'расписан', 'при', 'дальн', 'работ', 'сайт', 'поможет', 'инструкц']], [['сайт', 'мероприят', 'семинар', 'школ', 'школьник', 'мож', 'созда', 'налич', 'материал', 'наполнен', 'сайт', 'пуст', 'сайт', 'надпис', 'разработк', 'открыва']], [['осуществля', 'первичн', 'наполнен', 'сайт', 'оказыва', 'техническ', 'поддержк', 'поддержан', 'актуальн', 'сайт', 'ответствен', 'сотрудник', 'подразделен', 'котор', 'сайт', 'созда']], [['вопрос', 'создан', 'сайт', 'обраща', 'пожалуйст', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[[['сайт', 'имеет', 'жестк', 'структур', 'мен', 'назван', 'раздел', 'измен']], [['главн', 'страниц', 'абитуриент', 'программ', 'ведущ', 'набор', 'текущ', 'год', 'студент', 'программ', 'имеющ', 'студент', 'выпускник', 'программ', 'имеющ', 'выпускник', 'открыва', 'желан', 'программ']], [['обязательн', 'подраздел', 'мен', 'определя', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ']], [['есл', 'программ', 'необходим', 'завест', 'страниц', 'пункт', 'мен', 'определен', 'стандарт', 'сдела', 'эт', 'самостоятельн', 'все', 'страниц', 'созда', 'редактор', 'сайт', 'самостоятельн', 'никак', 'запрет', 'эт']], [['требован', 'содержан', 'сайт', 'определ', 'закон', 'образован', 'локальн', 'акт', 'университет']]]</t>
+          <t>[[['англоязычн', 'сайт', 'высш', 'школ', 'экономик', 'заня', '2015', 'год', 'перв', 'мест', 'рейтинг', 'сайт', 'университет', 'составлен', 'российск', 'совет', 'международн', 'дел']], [['осуществля', 'перевод', 'новост', 'главн', 'лент', 'порта', 'такж', 'мож', 'помоч', 'перевест', 'основн', 'информац', 'сайт', 'подразделен', 'текст', 'подразделен', 'научн', 'деятельн', 'друг', 'текст', 'котор', 'меня', 'редк', 'перевод', 'новост', 'анонс', 'проч', 'текст', 'подразделен', 'занима', 'самостоятельн', 'такж', 'размеща', 'главн', 'лент', 'порта', 'анонс', 'англоязычн', 'мероприят', 'активиру', 'английск', 'верс', 'личн', 'страниц']], [['англоязычн', 'верс', 'сайт', 'обязательн', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'такж', 'образовательн', 'программ', 'котор', 'преподаван', 'ведет', 'английск', 'язык', 'друг', 'случа', 'сайт', 'созда', 'услов', 'готовн', 'подразделен', 'оперативн', 'поддержива', 'регулярн', 'обновля', 'сво', 'сил']], [['английск', 'верс', 'созда', 'заявк', 'подразделен', 'адрес', 'portal', 'hse.ru', 'непосредствен', 'обращен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'мар', 'бесов', 'при', 'создан', 'текст', 'необходим', 'руководствова', 'глоссар', 'термин', 'вшэ', 'стилистическ', 'справочник']]]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[['шапк', 'образовательн', 'программ', 'размеща']], [[]], [['аннотац', 'программ', 'объем', '500', 'знак', 'текст', 'аннотац', 'присыла', 'представител', 'программ', 'размеща', 'внос', 'правк', 'текст', 'просьб', 'служб', 'поддержк', 'порта', 'кнопк', 'обратн', 'связ', 'например', 'зада', 'вопрос', 'программ', 'опросн', 'форм', 'созда', 'размеща', 'кнопк', 'шапк', 'служб', 'поддержк', 'порта', 'чтоб', 'ознаком', 'инструкц', 'создан', 'опросн', 'форм', 'перейд', 'ссылк', 'https', '//portal.hse.ru/poll', 'тизер', 'очен', 'важн', 'анонс', 'обычн', 'анонс', 'дня', 'открыт', 'двер']], [['размещен', 'тизер', 'шапк', 'сайт']], [['перед', 'размест', 'тизер', 'шапк', 'образовательн', 'программ', 'необходим', 'размест', 'непосредствен', 'анонс', 'подробн', 'размещен', 'анонс', 'сам', 'тизер', 'шапк', 'добавля', 'сайт', 'программ', 'сайт', 'подразделен', 'котор', 'реализ', 'программ', 'для', 'необходим', 'войт', 'редактор', 'дан', 'блоки→', 'образовательн', 'программ', 'проставля', 'дат', 'событ', 'заголовок', 'заголовк', 'прописыва', 'назван', 'например', 'ден', 'открыт', 'двер', 'дополнительн', 'прописыва', 'дат', 'назван', 'программ', 'нужн', 'ссылк', 'анонс', 'обязательн', 'став', 'галочк', 'активн', 'проставля', 'дат', 'котор', 'тизер', 'отобража', 'программ', 'посл', 'клика', 'выбра', 'образовательн', 'программ', 'откроет', 'список', 'всем', 'программ', 'бакалаврск', 'магистерск', 'котор', 'реализ', 'подразделен', 'проставля', 'галк', 'напрот', 'нужн', 'сохраня']]]</t>
+          <t>[[['ни', 'вшэ', 'постоя', 'что-т', 'меня', 'открыва', 'нов', 'программ', 'провод', 'исследован', 'появля', 'нов', 'подразделен', 'подготов', 'статистическ', 'информац', 'жизн', 'университет', 'нам', 'помога', 'аналитическ', 'центр']], [['когд', 'использует', 'какие-т', 'цифр', 'стат', 'интерв', 'проч.', 'пожалуйст', 'уточн', 'аналитическ', 'центр', 'будут', 'сведен', 'обновл', 'ближайш', 'врем']]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[['главн', 'страниц', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'при', 'открыт', 'сайт', 'служб', 'поддержк', 'порта', 'созда', 'базов', 'структур', 'страниц', 'поэт', 'нул', 'работа', 'не', 'придет']], [['как', 'элемент', 'страниц', 'открыт', 'сайт']], [['метаинформац']], [['основн', 'дан', 'программ', 'соста', 'элемент', 'блок', 'неизмен', 'для', 'русск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'количеств', 'мест', 'язык', 'обучен', 'информац', 'аккредитац', 'английск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'стоимост', 'обучен', 'язык', 'обучен', 'информац', 'аккредитац', 'все', 'дан', 'вывод', 'баз', 'дан', 'порта', 'котор', 'внос', 'утвержден', 'учен', 'совет', 'университет', 'случа', 'обнаружен', 'ошибк', 'напиш', 'portal', 'hse.ru', 'предварительн', 'провер', 'дан', 'сайт', 'программ', 'действительн', 'отлича', 'официальн', 'дан', 'сайт', 'приемн', 'комисс', 'бакалавриат', 'магистратур', 'есл', 'согласн', 'информац', 'эт', 'сайт', 'обраща', 'коллег', 'приемн', 'комисс', 'исключен', 'составля', 'информац', 'международн', 'аккредитац', 'профессионально-обществен', 'аккредитац', 'независим', 'оценк', 'качеств', 'образован', 'налич', 'дан', 'информац', 'размеща', 'прав', 'редактор', 'сайт', 'раздел', 'дан', 'блок', 'аккредитац', 'дан', 'стоимост', 'показыва', 'английск', 'верс', 'вид', 'диапазон', 'цен', 'случа', 'точн', 'дан', 'стипенд', 'иностранц', 'зависим', 'получен', 'балл', 'есл', 'программ', 'особ', 'услов', 'предоставлен', 'скидок', 'умолчан', 'сто', 'полн', 'стоимост', 'программ', 'письм', 'адрес', 'служб', 'поддержк', 'portal', 'hse.ru', 'добавл', 'примечан', 'особ', 'услов', 'предоставлен', 'скидок', 'формулировк', 'HSE', 'Scholarships', 'for', 'International', 'Applicants']], [['университеты-партнер', 'образовательн', 'программ']], [['дан', 'вывод', 'баз', 'порта', 'есл', 'хот', 'поменя', 'добав', 'партнер', 'portal', 'hse.ru', 'нужн', 'присла', 'назван', 'университет', 'ссылк', 'сайт', 'логотип', 'максимальн', 'числ', 'партнер', 'главн', 'есл', 'необходим', 'показа', 'возможн', 'партнерск', 'отношен', 'эт', 'необходим', 'сдела', 'отдельн', 'страниц', 'партнер', 'Partners', 'раздел', 'главн', 'подробн', 'см.', 'стандарт']], [['информац', 'раскрыва', 'блок']], [['редактирован', 'блок', 'осуществля', 'раздел', 'дан', 'блок', 'главн', 'страниц', 'информац', 'аккордеон', 'блок', 'использ', 'формирован', 'турбо-верс', 'поэт', 'подразумева', 'добавлен', 'графическ', 'информац', 'затрудня', 'загрузк', 'страниц', 'мобильн', 'устройств', 'обычн', 'раздел', 'сто', 'SEO-оптимизирова', 'текст']], [['виде', 'опциональн']], [['главн', 'страниц', 'программ', 'размест', 'проморолик', 'выступлен', 'академическ', 'руководител', 'статистик', 'просмотр', 'видеоролик', 'посмотрет', 'обычн', 'работ', 'съемк', 'видеоролик', 'организ', 'реализ', 'подразделен', 'самостоятельн', 'случа', 'невозможн', 'снят', 'виде', 'сил', 'подразделен', 'обрат', 'дирекц', 'маркетингов', 'коммуникац', 'продвижен', 'шишков', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'есл', 'программ', 'готов', 'ролик', 'необходим', 'зал', 'YоуTубе-кана', 'подразделен', 'YоуTубе-кана', 'университет', 'последн', 'случа', 'обрат', 'семенов', 'алин', 'викторовн', 'для', 'размещен', 'проморолик', 'сайт', 'программ', 'пришл', 'ссылк', 'YouTube', 'адрес', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru']], [['важн', 'объявлен']], [['использ', 'акцентирован', 'важн', 'событий/нов', 'программ', 'помн', 'важн', 'объявлен', 'должн', 'содержа', 'символ', 'он', 'занима', 'одн', 'строк', 'экран', 'все', 'подробн', 'перечисля', 'ссылк', 'важн', 'объявлен', 'одн', 'максимум', 'нужн', 'размеща', 'важн', 'объявлен', 'ссылк', 'мероприят', 'использ', 'функциона', 'анонс', 'важн', 'объявлен', 'оформля', 'ссылк', 'отдельн', 'страниц', 'сам', 'программ', 'люб', 'страниц', 'порта', 'внешн', 'ресурс', 'дан', 'редактир', 'раздел', 'дан', 'блок', 'важн', 'объявлен', 'нажм', 'важн', 'объявлен', 'добав', 'объявлен', 'заполня', 'пол', 'текст', 'пол', 'ссылк', 'добавьт', 'адрес', 'страниц', 'котор', 'перенаправл', 'пользовател', 'нажат', 'текст', 'объявлен', 'информац', 'пол', 'дат', 'отобража', 'лев', 'ссылк', 'объявлен', 'подход', 'уточнен', 'времен', 'событ', 'размещен', 'объявлен', 'пол', 'заполня', 'посл', 'обязательн', 'поставьт', 'галк', 'объявлен', 'активн', 'пол', 'укаж', 'дат', 'котор', 'дан', 'объявлен', 'вывод', 'главн', 'страниц', 'программ', 'нажима', 'сохран', 'объявлен', 'добавл']], [['мероприят']], [['раздел', 'анонсы/мероприят', 'эт', 'раздел', 'котор', 'предусмотр', 'кажд', 'образовательн', 'программ', 'располага', 'адрес', '/announcements', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'значим', 'все', 'программ', 'цел', 'например', 'предстоя', 'лекция/мастер-класс', 'учен', 'цикл', 'лекций/семинар', 'конференц', 'конкурс', 'студент', 'зимние/летн', 'школ', 'встреч', 'работодател', 'дни', 'открыт', 'двер', 'защит', 'предзащит', 'все', 'значим', 'студент', 'абитуриент', 'программ', 'зде', 'могут', 'размещ', 'объявлен', 'конкурс', 'грант', 'приглашен', 'летние/зимн', 'школ', 'мероприят', 'определен', 'срок', 'подач', 'заявок', 'при', 'добавлен', 'анонс', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'можн', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'сообщен', 'инструкц', 'размещен', 'анонс', 'наход', 'адрес', 'https', '//portal.hse.ru/instann', 'анонсирован', 'дне', 'открыт', 'двер', 'как', 'необходим', 'размеща', 'информац', 'сайт', 'факультет', 'образовательн', 'программ', 'случа', 'ден', 'открыт', 'двер', 'провод', 'сраз', 'нескольк', 'образовательн', 'программ', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'посл', 'сайт', 'факультет', 'необходим', 'размест', 'ссылк', 'анонс', 'котор', 'вывод', 'шапк', 'образовательн', 'программ', 'вид', 'тизер', 'обрат', 'вниман', 'назван', 'анонс', 'должн', 'представля', 'соб', 'развернут', 'предложен', 'достаточн', 'прост', 'написа', 'ден', 'открыт', 'двер', 'дополнительн', 'анонс', 'дня', 'открыт', 'двер', 'размест', 'анонс', 'раздел', 'главн', 'абитуриент', 'сайт', 'образовательн', 'программ', 'полност', 'копирова', 'анонс', 'мероприят', 'сайт', 'программ', 'такж', 'нужн', 'достаточн', 'воспользова', 'функционал', 'размест', 'подразделен', 'выбер', 'вариант', 'ссылк', 'оригинальн', 'анонс', 'есл', 'ден', 'открыт', 'двер', 'провод', 'одн', 'программ', 'анонс', 'размеща', 'непосредствен', 'сайт', 'соответств', 'программ', 'раздел', 'главн', 'абитуриент', 'такж', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'для', 'использ', 'функциона', 'размест', 'подразделен', 'случа', 'мероприят', 'обширн', 'программ', 'например', 'https', '//www.hse.ru/dod2021', 'мероприят', 'созда', 'отдельн', 'ресурс', 'случа', 'размещен', 'анонс', 'сайт', 'факультет', 'программ', 'такж', 'тизер', 'став', 'гиперссылк', 'сайт', 'мероприят', 'обычн', 'случа', 'реч', 'идет', 'факультетск', 'дне', 'открыт', 'двер', 'котор', 'инач', 'присутств', 'программ', 'для', 'создан', 'страниц', 'нужн', 'отправ', 'запрос', 'адрес', 'portal', 'hse.ru', 'прилож', 'письм', 'наполнен', 'сайт']], [['новост']], [['раздел', 'новост', 'предусматрива', 'размещен', 'развернут', 'материал', 'прошедш', 'состоя', 'событ', 'зде', 'например', 'могут', 'размещ', 'новост', 'имен', 'прошл', 'событ', 'анонсируем', 'мероприят', 'информац', 'студент', 'выигра', 'какие-либ', 'олимпиады/грант', 'заключен', 'договор', 'иностра', 'университет', 'программ', 'обм', 'исследован', 'каса', 'тематик', 'программ', 'поздравлен', 'значим', 'событиями/достижениями…', 'при', 'добавлен', 'новост', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'так', 'раздел', 'четыр', 'главн', 'абитуриент', 'студент', 'выпускник', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'новост', 'случа', 'выбра', 'раздел', 'программ', 'добавлен', 'информац', 'отобража', 'сайт', 'программ', 'инструкц', 'размещен', 'новост']], [['похож', 'программ']], [['вниз', 'главн', 'страниц', 'программ', 'вывод', 'список', 'программ', 'реализуем', 'вшэ', 'так', 'направлен', 'обучен', 'однак', 'список', 'отобража', 'программ', 'измен', 'редактирован', 'дан', 'блок', 'бакалаврск', 'программ', 'друг', 'образовательн', 'программ', 'для', 'изменен', 'списк', 'программ', 'заход', 'друг', 'образовательн', 'программ', 'нажима', 'добав', 'откр', 'окн', 'ввод', 'назван', 'программ', 'нажима', 'найт', 'результат', 'поиск', 'выбира', 'нужн', 'программ', 'клика', 'ок.', 'посл', 'добавл', 'хот', 'одн', 'программ', 'дан', 'блок', 'главн', 'страниц', 'пропадут', 'программ', 'котор', 'вывод', 'автоматическ', 'будут', 'вывод', 'котор', 'зада', 'вручн', 'блок', 'друг', 'образовательн', 'программ']], [['вокруг', 'социальн', 'блок']], [['есл', 'страниц', 'ваш', 'профил', 'социальн', 'сет', 'идет', 'активн', 'жизн', 'социальн', 'сет', 'материал', 'интересн', 'абитуриент', 'студент', 'программ', 'ссылк', 'актуальн', 'пост', 'запис', 'вывод', 'непосредствен', 'главн', 'страниц', 'программ', 'для', 'предусмотр', 'блок', 'вокруг', 'обрат', 'вниман', 'добавля', 'ссылк', 'кажд', 'нов', 'интересн', 'пост', 'убира', 'неактуальн', 'пост', 'необходим', 'вручн', 'раздел', 'блок', 'выбира', 'вокруг', 'социальн', 'блок', 'добавля', 'заголовок', 'блок', 'добавля', 'запис', 'заполн', 'необходим', 'пол', 'посл', 'проставля', 'галк', 'включ', 'нажима', 'сохран', 'обновля', 'главн', 'страниц', 'кнопк', 'клавиатур', 'проверя', 'отобраз', 'блок', 'социальн', 'сет']], [['мен', 'прав', 'колонк']], [['редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'мен', 'главн', 'страниц', 'может', 'дублирова', 'пункт', 'мен', 'раздел', 'главн', 'содержа', 'какие-т', 'друг', 'важн', 'пункт', 'усмотрен', 'программ', 'заполня', 'менеджер', 'программ', 'отобража', 'главн', 'страниц', 'сайт', 'программ', 'одн', 'сам', 'кликабельн', 'мест', 'справ', 'верхн', 'част', 'главн', 'страниц']], [['руководств', 'программ', 'руководител', 'менеджер']], [['раздел', 'редактир', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'вопрос', 'внесен', 'изменен', 'необходим', 'обраща', 'сюзан', 'райа']]]</t>
+          <t>[[['предоставля', 'прав', 'преподавател', 'ни', 'вшэ', 'проверк', 'студенческ', 'работ', 'систем', 'антиплагиат']], [['чтоб', 'получ', 'доступ', 'достаточн', 'написа', 'заявк', 'люб', 'адрес', 'корпоративн', 'почт', 'адрес', 'antiplagiat', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[[['верхн', 'мен', 'наход', 'раздел', 'программ', 'абитуриент', 'студент', 'выпускник', 'чтоб', 'попаст', 'главн', 'страниц', 'кажд', 'раздел', 'необходим', 'щелкнут', 'назван', 'вкладк']], [['раздел', 'программ', 'абитуриент', 'появля', 'мен', 'мер', 'наполнен', 'раздел', 'блок', 'главн', 'административн', 'интерфейс', 'раздел', 'студент', 'выпускник', 'программ', 'включаеют', 'отключа', 'служб', 'поддержк', 'порта', 'есл', 'программ', 'необходим', 'включ', 'отключ', 'раздел', 'студент', 'и/', 'выпускник', 'пиш', 'portal', 'hse.ru']], [['раздел', 'программ']], [['дан', 'раздел', 'размеща', 'общ', 'информац', 'программ', 'раздел', 'программ', 'должн', 'вход', 'след', 'пункт', 'программ', 'статстраниц', 'техническ', 'имен', 'about', 'специализац', 'налич', 'специализац', 'добавля', 'подпункт', 'мен', 'партнер', 'статстраниц', 'техническ', 'имен', 'partners', 'рассказ', 'партнер', 'программ', 'зарубежн', 'российск', 'внутрен', 'подразделен', 'вшэ', 'относя', 'факультет', 'пункт', 'явля', 'обязательн', 'достижен', 'студент', 'статстраниц', 'техническ', 'имен', 'success', 'пункт', 'созда', 'случа', 'программ', 'готов', 'дела', 'сводн', 'текст', 'достижен', 'студент', 'вест', 'статистик', 'пункт', 'явля', 'обязательн', 'выпускник', 'статстраниц', 'техническ', 'имен', 'alumni', 'страниц', 'рассказыва', 'выпускник', 'программ', 'привод', 'статистик', 'пункт', 'явля', 'обязательн', 'научно-исследовательск', 'семинар', 'статстраниц', 'техническ', 'имен', 'seminar', 'пункт', 'явля', 'обязательн', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'главн', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'абитуриент', 'набор']], [['раздел', 'абитуриент', 'доступ', 'ссылк', '/admission', 'центральн', 'част', 'дан', 'раздел', 'составля', 'паспорт', 'программ', 'такж', 'страниц', 'вывод', 'виде', 'программ', 'новост', 'мероприят', 'важн', 'объявлен', 'налич', 'вся', 'информац', 'представлен', 'паспорт', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'размещен', 'некорректн', 'информац', 'необходим', 'отправ', 'запрос', 'внесен', 'изменен', 'portal', 'hse.ru', 'раздел', 'абитуриент', 'вход', 'след', 'обязательн', 'пункт', 'траектор', 'поступлен', 'статстраниц', 'техническ', 'имен', 'tracks', 'будущ', 'професс', 'статстраниц', 'техническ', 'имен', 'career', 'подготовк', 'статстраниц', 'техническ', 'имен', 'requirements', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'абитурент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'студент', 'студент']], [['раздел', 'студент', 'программ', 'доступ', 'ссылк', '/students', 'нем', 'обязательн', 'представл', 'мен', 'предусмотрен', 'программ', 'верхн', 'сер', 'блок', 'доск', 'объявлен', 'при', 'налич', 'программ', 'новост', 'мероприят', 'ориентирова', 'студент', 'такж', 'вывод', 'главн', 'страниц', 'раздел', 'студент', 'сер', 'блок', 'сер', 'блок', 'вынос', 'тематическ', 'ссылк', 'сред', 'котор', 'обязательн', 'котор', 'программ', 'добав', 'сам', 'существ', 'ограничен', 'скольк', 'добав', 'ссылок', 'блок', 'блок', 'ссылок', 'для', 'кажд', 'филиа', 'набор', 'ссылок', 'сво', 'ссылк', 'умолчан', 'программ', 'блок', 'студенческ', 'жизн', 'студенческ', 'организац', 'вшэ', 'https', '//studlife.hse.ru/studentlife', 'спорт', 'http', '//sport.hse.ru/', 'студенческ', 'совет', 'вшэ', 'http', '//studsovet.hse.ru/', 'центр', 'развит', 'карьер', 'http', '//career.hse.ru/', 'блок', 'социальн', 'сфер', 'стипенд', 'http', '//www.hse.ru/scholarships/', 'социальн', 'поддержк', 'http', '//www.hse.ru/org/hse/aup/social/', 'служб', 'психологическ', 'помощ', 'http', '//www.hse.ru/cpc/studenti', 'общежит', 'http', '//www.hse.ru/dormitory/', 'блок', 'информацион', 'сред', 'LMS', 'http', '//lms.hse.ru/', 'антиплагиат', 'http', '//www.hse.ru/org/hse/antiplagiat_info/', 'справочник', 'учебн', 'процесс', 'http', '//www.hse.ru/studyspravka/', 'библиотек', 'http', '//library.hse.ru/', 'кажд', 'колонок', 'редактир', 'соответств', 'раздел', 'блок', 'пункт', 'колонок', 'котор', 'явля', 'обязательн', 'программ', 'отобража', 'редакторск', 'интерфейс', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'назван', 'пункт', 'меня', 'программ', 'сраз', 'редакторск', 'интерфейс', 'программ', 'отобража', 'пункт', 'колонок', 'котор', 'менеджер', 'программ', 'добавляют/редактир', 'самостоятельн', 'раздел', 'студент', 'вход', 'след', 'обязательн', 'пункт', 'рейтинг', 'автоматическ', 'страниц', 'техническ', 'имен', 'ratings', 'курс', 'выбор', 'проектн', 'работ', 'http', '//electives.hse.ru/', 'рекомендова', 'онлайн-курс', 'MOOCs', 'статстраниц', 'техническ', 'имен', 'moocs', 'студенческ', 'мобильн', 'cтажировк', 'программ', 'обмен', 'проч.', 'статстраниц', 'техническ', 'имен', 'mobility', 'практическ', 'подготовк', 'статстраниц', 'техническ', 'имен', 'internships', 'каталог', 'вкр', 'автоматическ', 'страниц', 'техническ', 'имен', 'diplomas', 'итогов', 'аттестац', 'актуальн', 'статстраниц', 'техническ', 'имен', 'assessment', 'страниц', 'рейтинг', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/ратингс', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'страниц', 'каталог', 'вкр', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/дипломас', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'студент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'доск', 'объявлен', 'доск', 'объявлен', 'доступн', 'адрес', '/blackboard', 'использ', 'коротк', 'объявлен', 'текущ', 'учебн', 'процесс', 'изменен', 'расписан', 'отм', 'перенос', 'занят', 'вопрос', 'подготовк', 'письмен', 'работ', 'консультац', 'экзамен', 'разнообразн', 'оповещен', 'справк', 'пр.', 'подробн', 'инструкц', 'настройк', 'работ', 'доск', 'объявлен', 'представл']], [['раздел', 'выпускник', 'информац', 'выпускник']], [['раздел', 'отобража', 'верхн', 'мен', 'программ', 'случа', 'заполн', 'страниц', 'относя', 'раздел', 'мен', 'выпускник', 'проставл', 'ссылк', 'дан', 'страниц', 'непосредствен', 'главн', 'страниц', 'раздел', 'могут', 'располага', 'новост', 'анонс', 'раздел', 'могут', 'вход', 'след', 'пункт', 'ваканс', 'клуб', 'выпускников/встреч', 'выпускник', 'пожертвован', 'фонд', 'целев', 'капита', 'мен', 'раздел', 'редактир', 'редактор', 'блок', 'нов', 'мен', 'выпускник']]]</t>
+          <t>[[['мож', 'дат', 'доступ', 'заполнен', 'след', 'электрон', 'форм', 'отчет']], [['отчет', 'деятельн', 'научно-учебн', 'проектно-учебн', 'лаборатор', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'отчет', 'участник', 'групп', 'высок', 'профессиональн', 'потенциа', 'ни', 'вшэ', 'отчет', 'кадров', 'резерв', 'отчет', 'принима', 'управлен', 'академическ', 'развит']], [['мож', 'рассказа', 'внос', 'информац', 'мож', 'рассказа', 'имен', 'должн', 'внес', 'отчет', 'вопрос', 'смогут', 'ответ', 'сотрудник', 'соответств', 'подразделен']], [['чтоб', 'получ', 'доступ', 'отчет', 'достаточн', 'написа', 'письм', 'адрес', 'portal', 'hse.ru', 'пожалуйст', 'указыва', 'письм', 'заполнен', 'как', 'отчет', 'отвеча', 'некотор', 'отчет', 'сдают', 'одн', 'врем', 'нам', 'сложн', 'поня', 'имен', 'интерес']]]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[[['показыва', 'прав', 'колонк', 'страниц', 'сайт', 'программ', 'чтоб', 'вывест', 'пункт', 'сайт', 'нужн', 'написа', 'portal', 'hse.ru', 'предварительн', 'необходим', 'провер', 'показыва', 'информац', 'соответств', 'страниц']], [['учебн', 'курс']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/courses', 'основ', 'дан', 'LMS', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['преподавател']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/tutors', 'основ', 'дан', 'нагрузк', 'преподавател', 'аса', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['числ', 'студент', 'вакантн', 'бюджетн', 'мест']], [['автоматическ', 'страниц', 'доступн', 'адрес', '/vacant', 'дан', 'внос', 'редакторск', 'интерфейс', 'для', 'главн', 'страниц', 'сайт', 'программ', 'необходим', 'зайт', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'дан', 'бюджетн', 'вакантн', 'мест', 'есл', 'дан', 'обновл', 'показыва', 'некорректн', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'аббасов', 'елен', 'сергеевн', 'информац', 'обновля', 'мен', 'четырех', 'год']], [['документ']], [['раздел', 'располага', 'адрес', '/documents', 'част', 'документ', 'вывод', 'страниц', 'автоматическ', 'аса', 'част', 'внос', 'менеджер', 'структур', 'документ', 'образовательн', 'программ', 'выгляд', 'след', 'образ', 'включа', 'паспорт', 'образовательн', 'программ', 'изменя', 'част', 'документ', 'образовательн', 'программ', 'учебн', 'план', 'образовательн', 'программ', 'календарн', 'учебн', 'график', 'документ', 'автоматическ', 'загружа', 'аса', 'оценочн', 'материал', 'методическ', 'материал', 'ин', 'компонент', 'образовательн', 'программ', 'заполня', 'ответствен', 'программ', 'редактирован', 'страниц', 'образовательн', 'программ', 'инструкц', 'заполнен', 'раздел', 'документ', 'для', 'внесен', 'информац', 'раздел', 'документ', 'зайт', 'сайт', 'сво', 'образовательн', 'программ', 'дал', 'редактор', 'блок', 'раздел', 'документ', 'образовательн', 'программ', 'при', 'нажат', 'раздел', 'документ', 'откроет', 'так', 'окн', 'программ', 'практик', 'ссылк', 'страниц', 'описан', 'практик', 'добавля', 'самостоятельн', 'оценочн', 'материал', 'образовательн', 'программ', 'нажима', 'кнопк', 'добав', 'размеща', 'ссылк', 'имеющ', 'документ', 'необходим', 'например', 'программ', 'госэкзам', 'методическ', 'рекомендац', 'подготовк', 'вкр', 'ссылк', 'файл', 'добавля', 'обязательн', 'методическ', 'материал', 'образовательн', 'программ', 'могут', 'добавля', 'требован', 'организац', 'результат', 'проектн', 'научно-исследовательск', 'деятельн', 'студент', 'ссылк', 'файл', 'методическ', 'рекомендац', 'подготовк', 'курсов', 'работ', 'ссылк', 'файл', 'перечен', 'вкр', 'ссылк', 'баз', 'вкр', 'прошл', 'лет', 'выпуск', 'прикреп', 'файл', 'примерн', 'тем', 'вкр', 'обязательн', 'тем', 'вкр', 'котор', 'ин', 'компонент', 'образовательн', 'программ', 'добавля', 'ссылк', 'имеющ', 'документ', 'перечен', 'курсов', 'работ', 'предусмотр', 'прикрепля', 'файл', 'пример', 'курсов', 'перечен', 'тематик', 'проект', 'студент', 'предусмотр', 'прикрепля', 'файл', 'пример', 'проект', 'инструкц', 'заполнен', 'паспорт', 'образовательн', 'программ', 'необходим', 'зайт', 'порта', 'страниц', 'сво', 'образовательн', 'программ', 'качеств', 'редактор', 'дал', 'блок', 'паспорт', 'программ', 'приступа', 'заполнен', 'раздел', 'паспорт', 'пол', 'утвержден', 'программ', 'должн', 'пол', 'реквизит', 'документ', 'утверд', 'программ', 'например', 'приказ', '15.07.2014', '6.18.1-01/1507-07', 'тех', 'новеньк', 'протокол', 'заседан', 'учен', 'совет', '28.09.2018', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'обраща', 'вниман', 'реквизит', 'утвержден', 'программ', 'паспорт', 'дат', 'документ', 'котор', 'утвержда', 'программ', 'пол', 'дат', 'обновлен', 'паспорт', 'должн', 'дат', 'обновлен', 'документ', 'реквизит', 'соответств', 'документ', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'например', '26.08.2019', 'протокол', 'пол', 'количеств', 'зачетн', 'единиц', 'внос', 'значен', 'объем', 'ваш', 'образовательн', 'программ', 'з.е.', 'пол', 'конкурентн', 'преимуществ', 'программ', 'бер', 'соответств', 'текст', 'сво', 'программ', 'пол', 'характеристик', 'профессиональн', 'деятельн', 'перечен', 'профессиональн', 'компетенц', 'выпускник', 'бер', 'текст', 'сво', 'программ', 'соответств', 'стандарт', 'пол', 'характеристик', 'образовательн', 'модул', 'программ', 'берет', 'текст', 'сво', 'программ', 'соответств', 'учебн', 'план', 'посл', 'заполнен', 'пол', 'нажима', 'кнопк', 'сохран', 'информац', 'отраз', 'паспорт', 'вопрос', 'раздел', 'паспорт', 'образовательн', 'программ', 'необходим', 'направля', 'управлен', 'развит', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн']], [['расписан']], [['страниц', 'генерир', 'автоматическ', 'основ', 'дан', 'руз', 'доступн', 'адрес', '/timetable', 'есл', 'расписан', 'загруж', 'руз', 'формирован', 'автоматическ', 'страниц', 'адрес', 'timetable', 'необходим', 'редакторск', 'интерфейс', 'раздел', 'расписан', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'настройк', 'расписан', 'простав', 'галк', 'отобража', 'страниц', 'расписан']], [['академическ', 'совет']], [['страниц', 'академическ', 'совет', 'созда', 'редактир', 'раздел', 'академическ', 'совет', 'блок', 'зде', 'сможет', 'добав', 'сотрудник', 'вшэ', 'внешн', 'люд', 'есл', 'сотрудник', 'вшэ', 'вписыва', 'фамил', 'нажима', 'найт', 'откр', 'окн', 'выбира', 'нужн', 'персон', 'должност', 'может', 'добав', 'котор', 'предлага', 'систем', 'либ', 'вписа', 'должност', 'самостоятельн', 'меня', 'порядок', 'расположен', 'член', 'академическ', 'совет', 'прост', 'перетаскив', 'мышк', 'ин', 'зап', 'нужн', 'мест', 'обрат', 'вниман', 'дан', 'блок', 'прописыва', 'назван', 'групп', 'персон', 'академическ', 'совет', 'нужн', 'посл', 'заполн', 'блок', 'проверьт', 'страниц', 'совет', 'выгляд', 'нужн', 'адресн', 'строк', 'прописа', 'адрес', 'ваш', 'программы/аcадем_cоунc', 'когд', 'убед', 'порядк', 'напиш', 'portal', 'hse.ru', 'просьб', 'откр', 'пункт', 'мен']]]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[[['прежд', 'создава', 'страниц', 'прочита', 'информац', 'каса', 'страниц', 'раздел', 'верхн', 'мен', 'раздел', 'программ']], [['прежд', 'добав', 'нов', 'пункт', 'мен', 'необходим', 'созда', 'статическ', 'страниц', 'наполнен', 'поможет', 'инструкц', 'создан', 'нов', 'статическ', 'страниц', 'при', 'добавлен', 'страниц', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'случа', 'например', 'клик', 'раздел', 'подготовк', 'пользовател', 'остава', 'раздел', 'абитуриент', 'страниц', 'быва', 'прост', 'составн', 'есл', 'необходим', 'прост', 'аккуратн', 'размест', 'текст', 'текст', 'таблиц', 'достаточн', 'прост', 'страниц', 'есл', 'хот', 'добав', 'фот', 'преподавателей/студент', 'кнопк', 'проч.', 'воспользова', 'составн', 'страниц']], [['зат', 'выбира', 'мен', 'главн', 'абитуриент', 'студент', 'котор', 'располага', 'ссылк', 'статическ', 'страниц', 'нажима', 'добав', 'групп', 'прописыва', 'назван', 'групп', 'пункт', 'мен', 'ссылк', 'статстраниц', 'сохраня']], [[]], [['есл', 'какого-т', 'пункт', 'предусмотр', 'подмен', 'внутр', 'групп', 'клика', 'добав', 'ссылк', 'прописыва', 'назван', 'страниц', 'ссылк', 'не', 'сохраня']], [['обрат', 'вниман', 'групп', 'сто', 'символ', 'замок', 'менеджер', 'программ', 'редактирова', 'дан', 'пункт', 'мен', 'однак', 'созда', 'редактирова', 'непосредствен', 'страниц', 'для', 'внесен', 'изменен', 'мен', 'добавлен', 'ссылк', 'страниц', 'заблокирова', 'пункт', 'мен', 'необходим', 'отправ', 'письм', 'portal', 'hse.ru']], [['пункт', 'мен', 'раздел', 'общ', 'такж', 'открыва', 'служб', 'поддержк', 'порта', 'запрос', 'программ']], [['важн', 'создава', 'нов', 'пункт', 'мен', 'аналогичн', 'наход', 'замочк']]]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[[['отредактирова', 'добав', 'адрес', 'подразделен', 'реализ', 'программ', 'зайд', 'раздел', 'текстов', 'блок', 'главн', 'страниц', 'заход', 'редактор', 'дан', 'блок', 'заголовк', 'указыва', 'назван', 'блок', 'опциональн', 'пол', 'текст', 'непосредствен', 'фактическ', 'адрес']], [[]], [['кром', 'текстов', 'блок', 'позволя', 'добавля', 'люб', 'дополнительн', 'информац', 'прав', 'колонк', 'сайт', 'контактн', 'информац', 'дополнительн', 'ссылк', 'руководств', 'т.п']], [['текстов', 'блок', 'использ', 'след', 'визуальн', 'редактор']], [[]], [['иллюстрац', 'указа', 'основн', 'инструмент', 'обрат', 'вниман', 'назначен', 'кажд', 'инструмент', 'узна', 'навед', 'курсор', 'соответств', 'иконк', 'панел']], [[]]]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[[['нов', 'буклет', 'образовательн', 'программ', 'ежегодн', 'верста', 'сотрудник', 'отдел', 'визуальн', 'коммуникац', 'обновля', 'буклет', 'сайт', 'служб', 'поддержк', 'порта', 'получен', 'файл', 'отдел', 'визуальн', 'коммуникац', 'обрат', 'вниман', 'созда', 'буклет', 'самостоятельн', 'отправ', 'служб', 'поддержк', 'порта', 'просьб', 'замен', 'буклет', 'сайт', 'снача', 'соглас', 'готов', 'макет', 'руководител', 'отдел', 'визуальн', 'коммуникац', 'кутьков', 'ю.']]]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[[['главн', 'страниц', 'необходим', 'добав', 'ссылк', 'учебн', 'офис', 'программ', 'редакторск', 'интерфейс', 'сайт', 'образовательн', 'программ', 'предусмотр', 'возможн', 'создан', 'страниц', 'учебн', 'офис', 'специальн', 'функциона', 'чтоб', 'добра', 'блок', 'учебн', 'офис', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'учебн', 'офис']], [[]], [['вам', 'необходим', 'зайт', 'блок', 'учебн', 'офис', 'добав', 'персон', 'обрат', 'вниман', 'такж', 'предусмотр', 'возможн', 'добавлен', 'контактн', 'дан', 'кажд', 'персон', 'нажа', 'кнопк', 'сохран', 'посмотрет', 'получ', 'может', 'страниц', 'адрес', 'http', '//адрес_вашей_программы/студы_оффиc', 'например', 'http', '//www.hse.ru/ba/cultural/study_office/', 'посл', 'нов', 'ссылк', 'необходим', 'добав', 'раздел', 'ссылк', 'учебн', 'офис']], [[]]]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[[['блок', 'социальн', 'кнопк', 'использ', 'программ', 'проф', 'популярн', 'социальн', 'сет', 'редакторск', 'интерфейс', 'необходим', 'лиш', 'выбра', 'сет', 'дат', 'ссылк', 'профил']], [[]], [['порядок', 'расположен', 'ссылок', 'социальн', 'сет', 'легк', 'меня', 'прост', 'перетащ', 'ссылк', 'нужн', 'строк']]]</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>[[['турбо-страниц', 'ускоря', 'загрузк', 'контент', 'поиск', 'яндекс', 'новост', 'дзен', '3G-сет', 'турбо-страниц', 'формир', 'един', 'шаблон', 'быстр', 'загружа', 'смартфон', 'медлен', 'нестабильн', 'интернет']], [['при', 'открыт', 'сайт', 'нов', 'программ', 'турбо-верс', 'созда', 'служб', 'поддержк', 'порта', 'дальн', 'корректировк', 'содержан', 'турбо-верс', 'дела', 'самостоятельн', 'изменен', 'турбо-верс', 'привод', 'автоматическ', 'изменен', 'главн', 'страниц', 'сайт']], [['турбо-верс', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'турбо-верс']], [[]], [['шапк', 'турбо-верс']], [['навигацион', 'мен', 'содержа', 'максимальн', 'вкладк', 'кажд', 'дает', 'ссылк', 'главн', 'страниц', 'сайт']], [['программ', 'абитуриент', 'студент', 'выпускник']], [['есл', 'программ', 'появ', 'вкладк', 'котор', 'ран', 'например', 'студент', 'выпускник', 'добавьт', 'навигацион', 'мен', 'турбо-верс', 'заголовок', 'ссылк', 'забудьт', 'сохран', 'изменен']], [['важн', 'заголовк', 'уровн', 'такж', 'изображен', 'внос', 'сотрудник', 'служб', 'поддержк', 'порта']], [[]], [['главн', 'страниц', 'турбо-верс']], [['виджет', 'текст', 'текстов', 'пол', 'внос', 'скопирова', 'главн', 'страниц', 'описан', 'программ', 'при', 'изменен', 'описан', 'зам', 'текст', 'главн', 'страниц', 'производ', 'сотрудник', 'служб', 'порта', 'меня', 'текст', 'турбо-верс']], [['виджет', 'информац', 'аккордеон', 'зам', 'текст', 'внутр', 'происход', 'автоматическ', 'измен', 'текст', 'раскрыва', 'блок', 'главн', 'страниц', 'сайт']], [['виджет', 'кнопк', 'заголовок', 'вынос', 'назван', 'кнопк', 'пол', 'ссылк', 'став', 'ссылк', 'есл', 'главн', 'страниц', 'поменя', 'назван', 'кнопк', 'ссылк', 'забудьт', 'внест', 'обновлен', 'турбо-верс', 'добавля', 'турбо-верс', 'одн', 'кнопк']], [['виджет', 'ссылк', 'виде', 'став', 'налич', 'виде', 'главн', 'страниц', 'оп.', 'есл', 'виде', 'измен', 'главн', 'страниц', 'он', 'появ', 'автоматическ', 'турбо-верс', 'должн', 'поменя', 'ссылк', 'самостоятельн']], [[]]]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[[['есл', 'программ', 'английск', 'верс', 'редактирован', 'происход', 'русск', 'верс', 'английск', 'блок', 'редактор', 'дан', 'блок', 'англ.']], [['единствен', 'отлич', 'создан', 'статическ', 'страниц', 'пол', 'язык', 'необходим', 'установ', 'английск', 'есл', 'программ', 'существ', 'страниц', 'одинаков', 'содержан', 'русск', 'английск', 'язык', 'например', 'программ', 'техническ', 'им', 'должн', 'совпада', 'нужн', 'имен', 'английск', 'страниц', 'задава', 'различ', 'дан', 'случа', 'служ', 'пол', 'язык']], [['тольк', 'случа', 'им', 'стат.', 'страниц', 'разн', 'язык', 'совпада', 'пользовател', 'переход', 'страниц', 'одн', 'язык', 'страниц', 'друг', 'язык', 'попада', 'идентичн', 'страниц', 'главн', 'страниц', 'программ', 'есл', 'программ', 'английск', 'верс', 'необходим', 'программ', 'провод', 'английск', 'язык', 'больш', 'числ', 'англоязычн', 'курс', 'след', 'присла', 'заявк', 'активац', 'английск', 'верс', 'главн', 'редактор', 'мар', 'никитин', 'mpustovoyt', 'hse.ru', 'письм', 'необходим', 'прилож', 'имеющ', 'английск', 'текст', 'программ', 'есл', 'готов', 'текст', 'нужн', 'указа', 'список', 'страниц', 'перевод']], [['есл', 'программ', 'существ', 'английск', 'верс', 'необходим', 'поддержива', 'обновля', 'добавля', 'новост', 'анонс', 'мероприят', 'интересн', 'иностра', 'аудитор']], [['подробн', 'инструкц', 'guidelines', 'работ', 'английск', 'верс', 'сайт', 'образовательн', 'программ']]]</t>
-        </is>
-      </c>
+          <t>[[['разработк', 'порта', 'занима', 'управлен', 'разработк', 'информацион', 'сист', 'порта', 'есл', 'объективн', 'необходим', 'появлен', 'чего-т', 'нов', 'готов', 'обсуд', 'эт', 'вмест', 'пожалуйст', 'обсужден', 'постара', 'кратк', 'сформулирова', 'основн', 'пожелан', 'прикинут', 'как', 'систем', 'внутр', 'университет', 'эт', 'затронут', 'пожалуйст', 'нужн', 'пыта', 'заказа', 'разработк', 'одновремен', 'дирекц', 'информацион', 'технолог', 'дирекц', 'портал', 'мобильн', 'приложен', 'желан', 'подстрахова', 'естествен', 'поверьт', 'ник', 'хочет', 'дела', 'работ', 'стол']], [['есл', 'прочита', 'эт', 'нашл', 'ответ', 'сво', 'вопрос', 'напиш', 'директор', 'портал', 'дмитр', 'коптюбенк']]]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -813,69 +745,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[[['чтоб', 'включ', 'доск', 'объявлен', 'сайт', 'образовательн', 'программ', 'необходим', 'откр', 'блок', 'доск', 'объявлен', 'дан', 'блок', 'постав', 'соответств', 'галочк']]]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[[['блок', 'добав', 'нов', 'рубрик', 'фильтр', 'обрат', 'вниман', 'умолчан', 'доск', 'объявлен', 'содержат', 'ряд', 'типов', 'част', 'встреча', 'рубрик', 'кажд', 'объявлен', 'обязательн', 'порядк', 'должн', 'привяза', 'хот', 'одн', 'фильтр', 'умолчан', 'эт', 'курс', 'хот', 'одн', 'рубрик']]]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[[['программ', 'котор', 'имеют', 'нескольк', 'специализац', 'рекоменду', 'добав', 'дополнительн', 'фильтр', 'рубрик', 'специализац', 'имет', 'возможн', 'публикова', 'объявлен', 'студент', 'обуча', 'разн', 'трекам.чтоб', 'добав', 'нов', 'объявлен', 'мен', 'личн', 'кабинет', 'hse.ru/user', 'раздел', 'мо', 'задач', 'редактор', 'сайт', 'образовательн', 'программ', 'долж', 'выбра', 'пункт', 'объявлен', 'доск', 'объявлен']]]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[[['откр', 'страниц', 'будут', 'доступн', 'ссылк', 'добавлен', 'нов', 'объявлен', 'ниж', 'наход', 'список', 'размещен', 'ран', 'объявлен', 'таков']]]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[[['обрат', 'вниман', 'явля', 'редактор', 'сайт', 'нескольк', 'программ', 'создан', 'нов', 'объявлен', 'след', 'выбра', 'нужн', 'доск', 'списк']]]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[[['что', 'след', 'дела']]]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[[['создава', 'фильтр', 'тем', 'несущ', 'смыслов', 'нагрузк', 'так', 'например', 'относ', 'важн', 'информац', 'важн', 'пропуст', 'всем', 'использова', 'написан', 'заголовк', 'прописн', 'заглавн', 'букв', 'неправильн', 'обновл', 'расписан', 'правильн', 'обновл', 'расписан', 'пренебрега', 'форматирован', 'текст', 'текст', 'больш', 'количеств', 'пробел', 'интервал', 'т.п.', 'неудобн', 'чита']]]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[[['все', 'материал', 'связа', 'образовательн', 'программ', 'необходим', 'размеща', 'сайт', 'программ', 'например', 'расписан', 'должн', 'наход', 'сайт', 'образовательн', 'программ', 'сайт', 'факультет']]]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[[['инструкц', 'редактирован', 'сайт', 'образовательн', 'программ', 'размещ', 'http', '//portal.hse.ru/progs']]]</t>
-        </is>
-      </c>
+          <t>[[['шаг', 'необходим', 'удостовер', 'ваш', 'персональн', 'страниц', 'появ', 'сайт', 'персональн', 'страниц', 'появля', 'портал', 'автоматическ', 'внесен', 'дан', 'баз', 'сотрудник', 'управлен', 'персона', 'шаг', 'след', 'авторизова', 'един', 'личн', 'кабинет', 'елк', 'для', 'необходим', 'качеств', 'логин', 'ввест', 'адрес', 'корпоративн', 'почт', 'сотрудник', 'качеств', 'парол', 'парол', 'почт', 'есл', 'помн', 'парол', 'сво', 'почт', 'возника', 'ошибк', 'авторизац', 'обраща', 'digital', 'hse.ru', 'шаг', 'елк', 'нужн', 'перейт', 'раздел', 'корпоративн', 'порта', 'нажа', 'персональн', 'страниц', 'порта', 'есл', 'сможет', 'войт', 'редактирован', 'персональн', 'страниц', 'знач', 'ваш', 'корпоративн', 'e-mail', 'прописа', 'необходим', 'пол', 'напиш', 'пожалуйст', 'portal', 'hse.ru', 'письм', 'укаж', 'фи', 'сотрудник', 'адрес', 'корпоративн', 'почт', 'служб', 'порта', 'пропишет', 'e-mail', 'сможет', 'войт', 'письм', 'должн', 'отправл', 'строг', 'корпоративн', 'почт', 'сотрудник', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -894,12 +778,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[['шаг', 'необходим', 'удостовер', 'ваш', 'персональн', 'страниц', 'появ', 'сайт', 'персональн', 'страниц', 'появля', 'портал', 'автоматическ', 'внесен', 'дан', 'баз', 'сотрудник', 'управлен', 'персона', 'шаг', 'след', 'авторизова', 'един', 'личн', 'кабинет', 'елк', 'для', 'необходим', 'качеств', 'логин', 'ввест', 'адрес', 'корпоративн', 'почт', 'сотрудник', 'качеств', 'парол', 'парол', 'почт', 'есл', 'помн', 'парол', 'сво', 'почт', 'возника', 'ошибк', 'авторизац', 'обраща', 'digital', 'hse.ru', 'шаг', 'елк', 'нужн', 'перейт', 'раздел', 'корпоративн', 'порта', 'нажа', 'персональн', 'страниц', 'порта', 'есл', 'сможет', 'войт', 'редактирован', 'персональн', 'страниц', 'знач', 'ваш', 'корпоративн', 'e-mail', 'прописа', 'необходим', 'пол', 'напиш', 'пожалуйст', 'portal', 'hse.ru', 'письм', 'укаж', 'фи', 'сотрудник', 'адрес', 'корпоративн', 'почт', 'служб', 'порта', 'пропишет', 'e-mail', 'сможет', 'войт', 'письм', 'должн', 'отправл', 'строг', 'корпоративн', 'почт', 'сотрудник', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>[[['сотрудник', 'ни', 'вшэ', 'исключен', 'сотрудник', 'категор', 'административно-хозяйствен', 'персона', 'занима', 'руководя', 'должност', 'обяза', 'имет', 'заполнен', 'соответств', 'стандарт', 'персональн', 'страниц']], [['персональн', 'страниц', 'появля', 'автоматическ', 'внесен', 'приказ', 'трудоустройств', 'сотрудник', 'баз', 'управлен', 'персона', 'зик', 'ис-пр', 'показыва', 'общ', 'списк', 'преподавател', 'сотрудник', 'такж', 'списк', 'сотрудник', 'страниц', 'подразделен']], [['автоматическ', 'появля', 'страниц', 'штатн', 'сотрудник', 'преподавател', 'имеющ', 'договор', 'гпх', 'ппс', 'так', 'сотрудник', 'показыва', 'портал', 'должност', 'приглашен', 'преподавател']], [['есл', 'необходим', 'персональн', 'страниц', 'появ', 'сотрудник', 'работа', 'обычн', 'договор', 'гпх', 'оформлен', 'договор', 'сэд', 'необходим', 'постав', 'соответств', 'галочк', 'для', 'оформлен', 'договор', 'галочк', 'нужн', 'постав', 'кадров', 'систем', 'зик']], [['посмотрет', 'наход', 'галочк', 'интерфейс', 'сэд']], [[]], [['сотрудник', 'несут', 'ответствен', 'актуальн', 'информац', 'размещен', 'персональн', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[[['страниц', 'должн', 'сведен', 'определен', 'стандарт', 'такж', 'сотрудник', 'размест', 'люб', 'информац', 'наруша', 'закон', 'противореча', 'декларац', 'ценност', 'университет']], [['информац', 'персональн', 'страниц', 'сотрудник', 'внос', 'самостоятельн', 'исключен', 'сведен', 'котор', 'отобража', 'страниц', 'баз', 'дан', 'университет', 'при', 'возникновен', 'вопрос', 'сотрудник', 'обраща', 'ответствен', 'персональн', 'страниц', 'руководител', 'подразделен', 'случа', 'отсутств', 'ответствен', 'подразделен']], [['доступ', 'редактирован', 'персональн', 'страниц', 'осуществля', 'логин', 'парол', 'елк', 'налич', 'доступ', 'корпоративн', 'почт', 'консультац', 'вопрос', 'наполнен', 'персональн', 'страниц', 'осуществля', 'ответствен', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[[['част', 'информац', 'попада', 'персональн', 'страниц', 'баз', 'дан', 'университет', 'поэт', 'важн', 'подразделен', 'отвеча', 'внесен', 'информац', 'баз', 'воврем', 'получа', 'необходим', 'дан', 'сведен', 'поступа', 'баз', 'дан', 'университет', 'сотрудник', 'исправ', 'самостоятельн']], [['пример', 'есл', 'сотрудник', 'предостав', 'управлен', 'персона', 'сведен', 'наград', 'учен', 'степен', 'сведен', 'появ', 'персональн', 'страниц']], [['сведен', 'поступа', 'сист', 'зик', 'москв', 'ис-пр', 'кампус', 'аса', 'руз', 'LMS', 'баз', 'дан', 'порта', 'могут', 'измен', 'сотрудник', 'подразделен', 'отвеча', 'информац', 'эт', 'сист']], [['фамил', 'им', 'отчеств', 'зик', 'ис-пр', 'пол', 'зик', 'ис-пр', 'подразделен', 'зик', 'ис-пр', 'должност', 'возложен', 'обязан', 'зик', 'ис-пр', 'нача', 'работ', 'ни', 'вшэ', 'зик', 'ис-пр', 'научно-педагогическ', 'стаж', 'зик', 'ис-пр', 'образован', 'зик', 'ис-пр', 'учен', 'степен', 'зик', 'ис-пр', 'учен', 'зван', 'зик', 'ис-пр', 'достижен', 'поощрен', 'зик', 'ис-пр', 'академическ', 'надбавк', 'баз', 'дан', 'порта', 'учебн', 'курс', 'аса', 'руководств', 'аспирант', 'аса', 'руководств', 'вкр', 'LMS', 'расписан', 'руз', 'участ', 'административн', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'участ', 'академическ', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'баз', 'дан', 'порта', 'публикац', 'издательск', 'дом', 'вшэ', 'баз', 'дан', 'порта']], [['сведен', 'прав', 'управлен', 'персона', 'изменен', 'будут', 'видн', 'портал', 'течен', 'суток', 'внесен', 'ис-пр'], ['сведен', 'ис-пр', 'фамил', 'им', 'отчествопол', 'подразделен', 'должност', 'нача', 'работ', 'ни', 'вшэ', 'научно-педагогическ', 'стаж', 'образован', 'учен', 'степен', 'учен', 'званиедостижен', 'поощрен'], ['сотрудник', 'отвеча', 'внесен', 'правок', 'москв', 'щегольск', 'татья', 'натал', 'малыхин', 'штатн', 'сотрудник', 'российск', 'гражданств', 'запрос', 'консультац', 'ялугин', 'анастас', 'натал', 'нижаловск', 'сотрудник', 'работа', 'договор', 'гпх', 'ппс', 'запрос', 'консультац', 'старокадомск', 'вероник', 'сотрудник', 'иностра', 'гражданств', 'запрос', 'консультац', 'натал', 'малыхин', 'информац', 'наград', 'вне', 'зависим', 'гражданств', 'запрос', 'консультац', 'кампус', 'правк', 'внос', 'кадров', 'служб', 'кампус'], ['что', 'сотрудник', 'дополн', 'самостоятельн', 'образован', 'уточн', 'уровен', 'образован', 'например', 'указа', 'BSc', 'бакалавриат', 'получен', 'зарубеж', 'факультет', 'специальн', 'английск', 'язык', 'умолчан', 'перевод', 'специальн', 'английск', 'язык', 'учен', 'степен', 'уточн', 'тем', 'диссертац', 'мест', 'защит']], [['изменен', 'будут', 'видн', 'портал', 'синхронизац', 'баз', 'дан', 'синхронизац', 'происход', 'приблизительн', 'месяц', 'либ', 'запрос', 'подразделен', 'отвеча', 'информац'], ['учебн', 'курс', 'сведен', 'формир', 'основ', 'информац', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'преподавател', 'правк', 'внос', 'ответствен', 'подразделений.курир', 'сист', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'синхронизац', 'портал', 'учебн', 'курс', 'запрос', 'приблизительн', 'месяц', 'программ', 'дисциплин', 'кажд', 'час', 'нагрузк', 'преподавател', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'ответствен', 'планирован', 'нагрузк', 'преподавател', 'ответствен', 'прикреплен', 'программ', 'дисциплин', 'аса'], ['научн', 'руководств', 'аспирант', 'сведен', 'прав', 'управлен', 'аспирантур', 'докторантур', 'синхронизац', 'портал', 'запрос', 'месяц']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'руз', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['ком', 'обраща', 'внесен', 'правок'], ['ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'LMS', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['вкр', 'выпускн', 'квалификацион', 'работ', 'синхронизац', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['изменен', 'видн', 'сраз', 'внесен'], ['участ', 'административн', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'руководител', 'программ', 'юл', 'гринкевич', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'юл', 'гринкевич'], ['участ', 'академическ', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'управлен', 'академическ', 'развит', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'управлен', 'академическ', 'развит'], ['патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'сведен', 'внос', 'дирекц', 'правов', 'вопрос', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'дирекц', 'правов', 'вопрос'], ['академическ', 'надбавк', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'научн', 'фонд', 'ольг', 'чуриков', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'начальник', 'управлен', 'академическ', 'исследован', 'ольг', 'чуриков'], ['публикац', 'автоматическ', 'портал', 'появля', 'публикац', 'издательск', 'дом', 'вшэ', 'остальн', 'публикац', 'внос', 'представител', 'подразделен', 'либ', 'сотрудник', 'самостоятельн', 'внос', 'изменен', 'публикац', 'могут', 'автор', 'публикац', 'сотрудник', 'созда', 'публикац', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'адрес', 'publications', 'hse.ru', 'подробн', 'см.', 'справочник', 'публикац']]]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[[['доступ', 'редактирован', 'страниц']], [['как', 'эт', 'работа']], [['добавлен', 'нов', 'вкладок']], [['работ', 'вкладк']], [['форматирован']], [['научн', 'интерес']], [['фотограф']], [['Scopus', 'SPIN', 'ринц', 'ORCID', '...']], [['английск', 'верс', 'персональн', 'страниц']], [['персональн', 'страниц', 'редактирова'], ['сам', 'сотрудник', 'представител', 'персон', 'директор', 'дека', 'проректор', 'ответствен', 'персональн', 'страниц', 'редактирован', 'персональн', 'страниц', 'сотрудник', 'определен', 'подразделен'], ['для', 'получен', 'прав', 'редактирован', 'необходим', 'отправ', 'запрос', 'ваш', 'корпоративн', 'почт', 'адрес', 'portal', 'hse.ru', 'обязательн', 'укаж', 'как', 'прав', 'необходим', 'предостав'], ['представител', 'персон', 'указыва', 'чью', 'страниц', 'будет', 'редактирова', 'ответствен', 'персональн', 'страниц', 'указыва', 'подразделен', 'страниц', 'сотрудник', 'котор', 'будет', 'редактирова']], [['непосредствен', 'личн', 'кабинет', 'инструкц', 'редактирован', 'страниц', 'больш', 'син', 'кнопк', 'как', 'эт', 'работа', 'английск', 'верс', 'How', 'works'], []], [['есл', 'собира', 'добав', 'информац', 'котор', 'подход', 'предложен', 'вкладок', 'может', 'созда', 'собствен', 'вкладк', 'для', 'нажм', 'добав', 'вкладк', 'введ', 'заголовок', 'нажм'], [], ['посл', 'созда', 'вкладк', 'добав', 'необходим', 'информац', 'нажима', 'добав', 'текст', 'заполня', 'необходим', 'пол']], [['раздел', 'ряд', 'котор', 'сто', 'замок', 'формир', 'автоматическ', 'различн', 'баз', 'вышк', 'может', 'внос', 'изменен', 'удаля', 'перемеща', 'раздел', 'отмечен', 'эт', 'символ', 'легк', 'перетаскива', 'мышк', 'мен', 'порядок', 'добав', 'нов', 'раздел', 'нажа', 'добав', 'текст', 'созда', 'раздел', 'такж', 'перетащ', 'люб', 'вкладк'], ['есл', 'удал', 'раздел', 'котор', 'умолчан', 'предусмотр', 'одн', 'вкладок', 'информац', 'представлен', 'нем', 'формир', 'автоматическ', 'легк', 'может', 'восстанов', 'раздел', 'нажа', 'символ', 'вниз', 'вкладк', 'при', 'показа', 'список', 'раздел', 'подлежа', 'восстановлен'], [], ['есл', 'удал', 'раздел', 'котор', 'созда', 'вручн', 'восстанов', 'автоматическ', 'невозможн', 'вам', 'придет', 'занов', 'внос', 'информац'], ['помн', 'все', 'изменен', 'сохраня', 'нажа', 'кнопк', 'сохран', 'есл', 'случайн', 'что-т', 'удал', 'добав', 'что-т', 'прост', 'закройт', 'страниц', 'сохранен', 'изменен'], [], []], [['чтоб', 'текст', 'вкладк', 'одинаков', 'необходим', 'добавля', 'информац', 'одн', 'след', 'алгоритм'], ['заполня', 'вкладк', 'пол', 'непосредствен', 'личн', 'кабинет', 'копиру', 'информац', 'текстов', 'редактор', 'браузер', 'т.п.'], ['ве', 'текст', 'котор', 'собира', 'добав', 'текстов', 'пол', 'необходим', 'добав', 'снача', 'блокнот', 'скопирова', 'блокнот', 'встав', 'непосредствен', 'текстов', 'пол', 'личн', 'кабинет'], ['вставк', 'текст', 'использова', 'кнопк', 'вставк', 'Word', 'случа', 'текст', 'все', 'равн', 'выгляд', 'текст', 'автоматическ', 'вкладк', 'использова', 'кнопк', 'убра', 'форматирован'], ['вставк', 'текст', 'использова', 'кнопк', 'встав', 'текст', 'случа', 'все', 'форматирован', 'пропадет'], ['вставк', 'текст', 'текстов', 'пол', 'выдел', 'ве', 'текст', 'нажа', 'кнопк', 'убра', 'форматирован'], [], []], [['при', 'добавлен', 'интерес', 'нажима', 'добав', 'рус.', 'пиш', 'ключев', 'слов', 'нажима', 'найт', 'отобраз', 'список', 'упоминан', 'иском', 'слов', 'выбира', 'нужн', 'слов', 'словосочетан', 'нажима', 'кнопк', 'выбра'], []], [['фотограф', 'загружа', 'баз', 'служб', 'безопасн', 'систем', 'таков', 'недел', 'дирекц', 'безопасн', 'присыла', 'фот', 'управлен', 'персона', 'котор', 'занос', 'ис-пр', 'однак', 'сотрудник', 'зал', 'отредактирова', 'фот', 'самостоятельн', 'SmartPoint', 'елк']], [['инструкц'], ['SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Google', 'Scholar'], ['всем', 'вопрос', 'связа', 'дан', 'баз', 'необходим', 'обраща', 'ответствен', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет'], ['заполн', 'пол', 'фи', 'английск', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок'], ['подробн', 'см.', 'работ', 'английск', 'верс', 'персональн', 'страниц']]]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -927,25 +823,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[['сотрудник', 'ни', 'вшэ', 'исключен', 'сотрудник', 'категор', 'административно-хозяйствен', 'персона', 'занима', 'руководя', 'должност', 'обяза', 'имет', 'заполнен', 'соответств', 'стандарт', 'персональн', 'страниц']], [['персональн', 'страниц', 'появля', 'автоматическ', 'внесен', 'приказ', 'трудоустройств', 'сотрудник', 'баз', 'управлен', 'персона', 'зик', 'ис-пр', 'показыва', 'общ', 'списк', 'преподавател', 'сотрудник', 'такж', 'списк', 'сотрудник', 'страниц', 'подразделен']], [['автоматическ', 'появля', 'страниц', 'штатн', 'сотрудник', 'преподавател', 'имеющ', 'договор', 'гпх', 'ппс', 'так', 'сотрудник', 'показыва', 'портал', 'должност', 'приглашен', 'преподавател']], [['есл', 'необходим', 'персональн', 'страниц', 'появ', 'сотрудник', 'работа', 'обычн', 'договор', 'гпх', 'оформлен', 'договор', 'сэд', 'необходим', 'постав', 'соответств', 'галочк', 'для', 'оформлен', 'договор', 'галочк', 'нужн', 'постав', 'кадров', 'систем', 'зик']], [['посмотрет', 'наход', 'галочк', 'интерфейс', 'сэд']], [[]], [['сотрудник', 'несут', 'ответствен', 'актуальн', 'информац', 'размещен', 'персональн', 'страниц']]]</t>
+          <t>[[['отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'управлен', 'развит', 'поддержк', 'порта', 'консультир', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ']]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[['страниц', 'должн', 'сведен', 'определен', 'стандарт', 'такж', 'сотрудник', 'размест', 'люб', 'информац', 'наруша', 'закон', 'противореча', 'декларац', 'ценност', 'университет']], [['информац', 'персональн', 'страниц', 'сотрудник', 'внос', 'самостоятельн', 'исключен', 'сведен', 'котор', 'отобража', 'страниц', 'баз', 'дан', 'университет', 'при', 'возникновен', 'вопрос', 'сотрудник', 'обраща', 'ответствен', 'персональн', 'страниц', 'руководител', 'подразделен', 'случа', 'отсутств', 'ответствен', 'подразделен']], [['доступ', 'редактирован', 'персональн', 'страниц', 'осуществля', 'логин', 'парол', 'елк', 'налич', 'доступ', 'корпоративн', 'почт', 'консультац', 'вопрос', 'наполнен', 'персональн', 'страниц', 'осуществля', 'ответствен', 'подразделен']]]</t>
+          <t>[[['быстр', 'ссылк', 'персональн', 'страниц', 'подразделен', 'образовательн', 'программ']]]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[['част', 'информац', 'попада', 'персональн', 'страниц', 'баз', 'дан', 'университет', 'поэт', 'важн', 'подразделен', 'отвеча', 'внесен', 'информац', 'баз', 'воврем', 'получа', 'необходим', 'дан', 'сведен', 'поступа', 'баз', 'дан', 'университет', 'сотрудник', 'исправ', 'самостоятельн']], [['пример', 'есл', 'сотрудник', 'предостав', 'управлен', 'персона', 'сведен', 'наград', 'учен', 'степен', 'сведен', 'появ', 'персональн', 'страниц']], [['сведен', 'поступа', 'сист', 'зик', 'москв', 'ис-пр', 'кампус', 'аса', 'руз', 'LMS', 'баз', 'дан', 'порта', 'могут', 'измен', 'сотрудник', 'подразделен', 'отвеча', 'информац', 'эт', 'сист']], [['фамил', 'им', 'отчеств', 'зик', 'ис-пр', 'пол', 'зик', 'ис-пр', 'подразделен', 'зик', 'ис-пр', 'должност', 'возложен', 'обязан', 'зик', 'ис-пр', 'нача', 'работ', 'ни', 'вшэ', 'зик', 'ис-пр', 'научно-педагогическ', 'стаж', 'зик', 'ис-пр', 'образован', 'зик', 'ис-пр', 'учен', 'степен', 'зик', 'ис-пр', 'учен', 'зван', 'зик', 'ис-пр', 'достижен', 'поощрен', 'зик', 'ис-пр', 'академическ', 'надбавк', 'баз', 'дан', 'порта', 'учебн', 'курс', 'аса', 'руководств', 'аспирант', 'аса', 'руководств', 'вкр', 'LMS', 'расписан', 'руз', 'участ', 'административн', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'участ', 'академическ', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'баз', 'дан', 'порта', 'публикац', 'издательск', 'дом', 'вшэ', 'баз', 'дан', 'порта']], [['сведен', 'прав', 'управлен', 'персона', 'изменен', 'будут', 'видн', 'портал', 'течен', 'суток', 'внесен', 'ис-пр'], ['сведен', 'ис-пр', 'фамил', 'им', 'отчествопол', 'подразделен', 'должност', 'нача', 'работ', 'ни', 'вшэ', 'научно-педагогическ', 'стаж', 'образован', 'учен', 'степен', 'учен', 'званиедостижен', 'поощрен'], ['сотрудник', 'отвеча', 'внесен', 'правок', 'москв', 'щегольск', 'татья', 'натал', 'малыхин', 'штатн', 'сотрудник', 'российск', 'гражданств', 'запрос', 'консультац', 'ялугин', 'анастас', 'натал', 'нижаловск', 'сотрудник', 'работа', 'договор', 'гпх', 'ппс', 'запрос', 'консультац', 'старокадомск', 'вероник', 'сотрудник', 'иностра', 'гражданств', 'запрос', 'консультац', 'натал', 'малыхин', 'информац', 'наград', 'вне', 'зависим', 'гражданств', 'запрос', 'консультац', 'кампус', 'правк', 'внос', 'кадров', 'служб', 'кампус'], ['что', 'сотрудник', 'дополн', 'самостоятельн', 'образован', 'уточн', 'уровен', 'образован', 'например', 'указа', 'BSc', 'бакалавриат', 'получен', 'зарубеж', 'факультет', 'специальн', 'английск', 'язык', 'умолчан', 'перевод', 'специальн', 'английск', 'язык', 'учен', 'степен', 'уточн', 'тем', 'диссертац', 'мест', 'защит']], [['изменен', 'будут', 'видн', 'портал', 'синхронизац', 'баз', 'дан', 'синхронизац', 'происход', 'приблизительн', 'месяц', 'либ', 'запрос', 'подразделен', 'отвеча', 'информац'], ['учебн', 'курс', 'сведен', 'формир', 'основ', 'информац', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'преподавател', 'правк', 'внос', 'ответствен', 'подразделений.курир', 'сист', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'синхронизац', 'портал', 'учебн', 'курс', 'запрос', 'приблизительн', 'месяц', 'программ', 'дисциплин', 'кажд', 'час', 'нагрузк', 'преподавател', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'ответствен', 'планирован', 'нагрузк', 'преподавател', 'ответствен', 'прикреплен', 'программ', 'дисциплин', 'аса'], ['научн', 'руководств', 'аспирант', 'сведен', 'прав', 'управлен', 'аспирантур', 'докторантур', 'синхронизац', 'портал', 'запрос', 'месяц']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'руз', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['ком', 'обраща', 'внесен', 'правок'], ['ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'LMS', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн'], ['вкр', 'выпускн', 'квалификацион', 'работ', 'синхронизац', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис']], [['изменен', 'видн', 'сраз', 'внесен'], ['участ', 'административн', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'руководител', 'программ', 'юл', 'гринкевич', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'юл', 'гринкевич'], ['участ', 'академическ', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'управлен', 'академическ', 'развит', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'управлен', 'академическ', 'развит'], ['патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'сведен', 'внос', 'дирекц', 'правов', 'вопрос', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'дирекц', 'правов', 'вопрос'], ['академическ', 'надбавк', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'научн', 'фонд', 'ольг', 'чуриков', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'начальник', 'управлен', 'академическ', 'исследован', 'ольг', 'чуриков'], ['публикац', 'автоматическ', 'портал', 'появля', 'публикац', 'издательск', 'дом', 'вшэ', 'остальн', 'публикац', 'внос', 'представител', 'подразделен', 'либ', 'сотрудник', 'самостоятельн', 'внос', 'изменен', 'публикац', 'могут', 'автор', 'публикац', 'сотрудник', 'созда', 'публикац', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'адрес', 'publications', 'hse.ru', 'подробн', 'см.', 'справочник', 'публикац']]]</t>
+          <t>[[['английск', 'верс', 'персональн', 'страниц', 'активир', 'желан', 'сотрудник', 'род', 'деятельн', 'необходим', 'взаимодействова', 'иностранц']], [['кром', 'английск', 'верс', 'активир', 'возника', 'необходим', 'дат', 'ссылк', 'страниц', 'сотрудник', 'английск', 'новости/анонса/страниц', 'мероприят', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет']], [['заполн', 'пол', 'фамил', 'им', 'английск', 'отчеств', 'полност', 'добавля', 'постав', 'перв', 'букв', 'отчеств', 'например', 'Ivan', 'Ivanov', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен']], [[]], [[]], [['сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок']], [[]], [['дал', 'постав', 'статус', 'черновик']], [['посл', 'выставлен', 'статус', 'черновик', 'страниц', 'поступа', 'редактор', 'порта', 'котор', 'проверя', 'информац', 'страниц', 'отобража', 'корректн', 'меня', 'статус', 'провер', 'английск', 'страниц', 'появля', 'портал']], [['информац', 'пол', 'закрыт', 'редактирован', 'выгружа', 'автоматическ', 'основ', 'дан', 'зик/ис-пр', 'поступа', 'управлен', 'персонал']], [['информац', 'автоматическ', 'загружа', 'баз', 'дан', 'подразделен', 'должност', 'образован', 'учен', 'степен', 'учен', 'зван', 'отобража', 'един', 'формат', 'сотрудник']], [['английск', 'верс', 'предусмотр', 'вывод', 'информац', 'зик/ис-пр', 'раздел', 'достижен', 'поощрен', 'есл', 'нужн', 'добав', 'раздел', 'английск', 'верс', 'эт', 'сдела', 'функц', 'добав', 'текст', 'сдела', 'текстов', 'вставк', 'чтоб', 'вставк', 'появля', 'английск', 'верс', 'остав', 'пуст', 'пол', 'заголовок', 'русск', 'текст', 'комментар', 'русск', 'заполн', 'пол', 'заголовок', 'английск', 'текст', 'комментар', 'английск']], [[]], [[]]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[[['доступ', 'редактирован', 'страниц']], [['как', 'эт', 'работа']], [['добавлен', 'нов', 'вкладок']], [['работ', 'вкладк']], [['форматирован']], [['научн', 'интерес']], [['фотограф']], [['Scopus', 'SPIN', 'ринц', 'ORCID', '...']], [['английск', 'верс', 'персональн', 'страниц']], [['персональн', 'страниц', 'редактирова'], ['сам', 'сотрудник', 'представител', 'персон', 'директор', 'дека', 'проректор', 'ответствен', 'персональн', 'страниц', 'редактирован', 'персональн', 'страниц', 'сотрудник', 'определен', 'подразделен'], ['для', 'получен', 'прав', 'редактирован', 'необходим', 'отправ', 'запрос', 'ваш', 'корпоративн', 'почт', 'адрес', 'portal', 'hse.ru', 'обязательн', 'укаж', 'как', 'прав', 'необходим', 'предостав'], ['представител', 'персон', 'указыва', 'чью', 'страниц', 'будет', 'редактирова', 'ответствен', 'персональн', 'страниц', 'указыва', 'подразделен', 'страниц', 'сотрудник', 'котор', 'будет', 'редактирова']], [['непосредствен', 'личн', 'кабинет', 'инструкц', 'редактирован', 'страниц', 'больш', 'син', 'кнопк', 'как', 'эт', 'работа', 'английск', 'верс', 'How', 'works'], []], [['есл', 'собира', 'добав', 'информац', 'котор', 'подход', 'предложен', 'вкладок', 'может', 'созда', 'собствен', 'вкладк', 'для', 'нажм', 'добав', 'вкладк', 'введ', 'заголовок', 'нажм'], [], ['посл', 'созда', 'вкладк', 'добав', 'необходим', 'информац', 'нажима', 'добав', 'текст', 'заполня', 'необходим', 'пол']], [['раздел', 'ряд', 'котор', 'сто', 'замок', 'формир', 'автоматическ', 'различн', 'баз', 'вышк', 'может', 'внос', 'изменен', 'удаля', 'перемеща', 'раздел', 'отмечен', 'эт', 'символ', 'легк', 'перетаскива', 'мышк', 'мен', 'порядок', 'добав', 'нов', 'раздел', 'нажа', 'добав', 'текст', 'созда', 'раздел', 'такж', 'перетащ', 'люб', 'вкладк'], ['есл', 'удал', 'раздел', 'котор', 'умолчан', 'предусмотр', 'одн', 'вкладок', 'информац', 'представлен', 'нем', 'формир', 'автоматическ', 'легк', 'может', 'восстанов', 'раздел', 'нажа', 'символ', 'вниз', 'вкладк', 'при', 'показа', 'список', 'раздел', 'подлежа', 'восстановлен'], [], ['есл', 'удал', 'раздел', 'котор', 'созда', 'вручн', 'восстанов', 'автоматическ', 'невозможн', 'вам', 'придет', 'занов', 'внос', 'информац'], ['помн', 'все', 'изменен', 'сохраня', 'нажа', 'кнопк', 'сохран', 'есл', 'случайн', 'что-т', 'удал', 'добав', 'что-т', 'прост', 'закройт', 'страниц', 'сохранен', 'изменен'], [], []], [['чтоб', 'текст', 'вкладк', 'одинаков', 'необходим', 'добавля', 'информац', 'одн', 'след', 'алгоритм'], ['заполня', 'вкладк', 'пол', 'непосредствен', 'личн', 'кабинет', 'копиру', 'информац', 'текстов', 'редактор', 'браузер', 'т.п.'], ['ве', 'текст', 'котор', 'собира', 'добав', 'текстов', 'пол', 'необходим', 'добав', 'снача', 'блокнот', 'скопирова', 'блокнот', 'встав', 'непосредствен', 'текстов', 'пол', 'личн', 'кабинет'], ['вставк', 'текст', 'использова', 'кнопк', 'вставк', 'Word', 'случа', 'текст', 'все', 'равн', 'выгляд', 'текст', 'автоматическ', 'вкладк', 'использова', 'кнопк', 'убра', 'форматирован'], ['вставк', 'текст', 'использова', 'кнопк', 'встав', 'текст', 'случа', 'все', 'форматирован', 'пропадет'], ['вставк', 'текст', 'текстов', 'пол', 'выдел', 'ве', 'текст', 'нажа', 'кнопк', 'убра', 'форматирован'], [], []], [['при', 'добавлен', 'интерес', 'нажима', 'добав', 'рус.', 'пиш', 'ключев', 'слов', 'нажима', 'найт', 'отобраз', 'список', 'упоминан', 'иском', 'слов', 'выбира', 'нужн', 'слов', 'словосочетан', 'нажима', 'кнопк', 'выбра'], []], [['фотограф', 'загружа', 'баз', 'служб', 'безопасн', 'систем', 'таков', 'недел', 'дирекц', 'безопасн', 'присыла', 'фот', 'управлен', 'персона', 'котор', 'занос', 'ис-пр', 'однак', 'сотрудник', 'зал', 'отредактирова', 'фот', 'самостоятельн', 'SmartPoint', 'елк']], [['инструкц'], ['SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Google', 'Scholar'], ['всем', 'вопрос', 'связа', 'дан', 'баз', 'необходим', 'обраща', 'ответствен', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет'], ['заполн', 'пол', 'фи', 'английск', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок'], ['подробн', 'см.', 'работ', 'английск', 'верс', 'персональн', 'страниц']]]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>[[['англоязычн', 'верс', 'сайт', 'созда', 'структурн', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'заявк', 'структурн', 'подразделен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин'], ['для', 'структурн', 'подразделен', 'ведущ', 'международн', 'деятельн', 'взаимодейств', 'англоязычн', 'студент', 'преподавател', 'партнер', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'структурн', 'подразделен', 'обновлен', 'информац', 'англоязычн', 'сайт', 'осуществля', 'сил', 'ответствен', 'подразделен', 'веден', 'сайт'], ['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['есл', 'английск', 'верс', 'нужн', 'ресурс', 'поддержан', 'необходим', 'присла', 'заявк', 'активац', 'английск', 'верс', 'вмест', 'текст', 'первоначальн', 'наполнен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'нельз', 'выставля', 'статус', 'английск', 'верс', 'черновик', 'подготов', 'текст', 'сайт', 'присла', 'предварительн', 'заявк', 'открыт', 'английск', 'верс'], [], [], ['открыва', 'пуст', 'сайт', 'английск', 'статическ', 'страниц', 'поэт', 'нужн', 'снача', 'присла', 'текст', 'английск', 'верс', 'сайт', 'активирова'], ['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'подразделения_раздел', 'например', 'департамент', 'математик', 'фэн_абоут.доc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'подробн', 'форматирован', 'редактирован', 'страниц', 'сайт', 'почита'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'подразделен', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'подразделен', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'есл', 'вариант', 'перевод', 'назван', 'подразделен', 'портал', 'устраива', 'необходим', 'присла', 'заявк', 'смен', 'назван', 'обоснован', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'факультет', 'поменя', 'руководств', 'нов', 'люд', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'значим', 'англоязычн', 'публикац', 'международн', 'проект', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал'], [], [], ['есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова'], []], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'подразделен', 'появля', 'информац', 'актуальн', 'иностра', 'сотрудник', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[[['англоязычн', 'верс', 'сайт', 'обязательн', 'порядк', 'созда', 'образовательн', 'программ', 'осуществля', 'полност', 'частичн', 'английск', 'язык', 'для', 'образовательн', 'программ', 'реализуем', 'русск', 'язык', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'менеджер', 'образовательн', 'программ']], [['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присыла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'программы_кампус_раздел', 'например', 'big', 'data_stpete_about.doc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'программ', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'программ', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'корректн', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'поменя', 'описан', 'программ', 'нов', 'информац', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'обязательн', 'рекомендова', 'страниц', 'порядок', 'ссылок', 'мен', 'английск', 'верс', 'сайт', 'образовательн', 'программ'], ['раздел', 'ABOUT'], ['Programme', 'Overview', 'техническ', 'им', 'страниц', 'about', 'Curriculum', 'описан', 'содержания/структур', 'программ', 'прост', 'список', 'курс', 'Partnerships', 'налич', 'рассказ', 'характер', 'партнерств', 'польз', 'студент', 'Faculty', 'Members', 'рассказ', 'ключев', 'преподавател', 'прост', 'список', 'Student', 'Profiles', 'мини-интерв', 'фотограф', 'минимум', 'студент', 'Alumni', 'минимум', 'выпускник', 'налич', 'рассказ', 'карьер', 'выпуск', 'необходим', 'фотограф', 'техническ', 'им', 'страниц', 'alumni', 'Career', 'Opportunities', 'карьерн', 'траектор', 'пример', 'компан', 'ожида', 'зарплат', 'выпуск', 'техническ', 'им', 'страниц', 'career'], ['раздел', 'FOR', 'PROSPECTIVE', 'STUDENTS'], ['Requirements', 'требован', 'портфол', 'предыдущ', 'уровн', 'образования/опыт', 'техническ', 'им', 'страниц', 'requirements', 'How', 'Apply', 'процесс', 'подач', 'документ', 'техническ', 'им', 'страниц', 'tracks', 'Class', 'Profile', 'рекомендова', 'страниц', 'пример', 'https', '//www.hse.ru/en/ma/sti/classprofile', 'FAQ', 'рекомендова', 'страниц'], ['раздел', 'FOR', 'STUDENTS', 'рекомендова', 'ссылк', 'страниц'], ['Notice', 'Board', 'доск', 'объявлен', 'Student', 'Ratings', 'Student', 'Theses', 'Final', 'Assessment', 'техническ', 'им', 'assessment', 'Academic', 'Mobility', 'техническ', 'им', 'страниц', 'mobility', 'Practical', 'Training', 'техническ', 'им', 'страниц', 'internships', 'Recommended', 'MOOCs', 'техническ', 'им', 'страниц', 'moocs'], ['список', 'перевод', 'рубрик', 'сайт', 'образовательн', 'программ', 'назван', 'раздела/подраздел', 'English', 'titles', 'учебн', 'курс', 'Courses', 'преподавател', 'Faculty', 'документ', 'Documents', 'расписан', 'Timetable', 'тизер', 'дня', 'открыт', 'двер', 'Open', 'House', 'академическ', 'совет', 'Academic', 'Council', 'академическ', 'руководител', 'Academic', 'Supervisor', 'отдел', 'сопровожден', 'учебн', 'процесс', 'образовательн', 'программы/менеджер', 'образовательн', 'программ', 'Study', 'Office', 'Programme', 'Coordinator', 'важн', 'объявлен', 'Important', 'Announcements', 'новост', 'News', 'анонс', 'Events', 'кратк', 'паспорт', 'программ', 'Programme', 'Facts', 'программ', 'Programme', 'Overview', 'партнер', 'Partnerships', 'Double', 'degree', 'Programme', 'налич', 'проф', 'студент', 'русск', 'верс', 'достижен', 'студент', 'Student', 'Profiles', 'выпускник', 'Alumni', 'научно-исследовательск', 'семинар', 'нис', 'англ', 'верс', 'необязательн', 'раздел', 'Research', 'Seminar', 'проектн', 'исследовательск', 'работ', 'англ', 'верс', 'обязательн', 'раздел', 'Project', 'and', 'Research', 'Work', 'Research', 'Opportunities', 'представл', 'список', 'возможн', 'мест', 'описан', 'осуществлен', 'проект', 'паспорт', 'образовательн', 'программ', 'Programme', 'Facts', 'будущ', 'професс', 'Career', 'Opportunitiies', 'траектор', 'поступлен', 'How', 'Apply', 'подготовк', 'Requirements', 'информацион', 'блок', 'полезн', 'ссылк', 'студент', 'программ', 'рейтинг', 'Student', 'Rating', 'студенческ', 'мобильн', 'Academic', 'Mobility', 'практическ', 'подготовк', 'практик', 'Practical', 'Training', 'Internship', 'курсов', 'выпускн', 'квалификацион', 'работ', 'вкр', 'Term', 'Papers', 'and', 'Student', 'Theses', 'итогов', 'аттестац', 'Final', 'Assessment', 'рекомендова', 'онлайн-курс', 'Recommended', 'MOOCs', 'скача', 'одн', 'файл', 'английск', 'назван', 'рубрик', 'DOCX']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'международн', 'проект', 'стажировк', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'скриншот', 'выш', 'раздел', 'сайт', 'подразделен', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова']], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'появля', 'информац', 'актуальн', 'иностра', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -972,27 +872,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[['отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'управлен', 'развит', 'поддержк', 'порта', 'консультир', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ']]]</t>
+          <t>[[['сайт', 'структурн', 'подразделен', 'должн', 'соответствова', 'утвержден', 'стандарт']], [['дизайн', 'сайт', 'долж', 'выполн', 'общ', 'стилистик', 'корпоративн', 'порта', 'элемент', 'фирмен', 'стил', 'могут', 'противореч', 'брендбук', 'ни', 'вшэ', 'использован', 'должн', 'согласова', 'отдел', 'визуальн', 'коммуникац', 'visual', 'hse.ru']], [['рекомендац', 'цветов', 'палитр', 'см.', 'брендбук', 'ни', 'вшэ', 'цифров', 'носител']], [['сайт', 'размеща', 'домен', 'hse.ru', 'имеют', 'адрес', 'вид', 'http', '//www.hсе.ру/им', 'http', '//имя.hсе.р', 'см.', 'регламент']], [['англоязычн', 'верс', 'сайт', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'для', 'остальн', 'подразделен', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'подразделен']], [['ответствен', 'своевремен', 'размещен', 'актуализац', 'информац', 'несет', 'руководител', 'подразделен']], [['обновлен', 'информац', 'осуществля', 'ответствен', 'структурн', 'подразделен', 'веден', 'сайт']], [['заявк', 'создан', 'сайт', 'нужн', 'присла', 'portal', 'hse.ru', 'указа', 'назван', 'подразделен', 'готов', 'контент', 'имеет', 'размещен', 'подробн', 'дальн', 'шаг', 'будут', 'содержа', 'ответн', 'письм']]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'персональн', 'страниц', 'подразделен', 'образовательн', 'программ']]]</t>
+          <t>[[['основн', 'принцип', 'работ', 'сайт', 'как', 'получ', 'доступ', 'редактирован', 'редактирован', 'блок', 'функциона', 'сотрудник', 'подразделен', 'редактирован', 'блок', 'показ', 'списк', 'карт', 'раздел', 'сотрудник', 'размещен', 'новост', 'размещен', 'анонс', 'создан', 'статическ', 'страниц', 'прост', 'статическ', 'страниц', 'составн', 'статическ', 'страниц', 'создан', 'таблиц', 'оптимизац', 'фотограф', 'размещен', 'баннер', 'создан', 'опроса/регистрацион', 'форм', 'как', 'переда', 'дан', 'CRM', 'размещен', 'мета-тег', 'рекомендац', 'поисков', 'оптимизац', 'помощ', 'редактор', 'фотобанк', 'инструмент', 'шрифт', 'HSE', 'Sans', 'редактирован', 'английск', 'верс', 'русско-английск', 'глоссар', 'термин', 'вшэ']]]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[['английск', 'верс', 'персональн', 'страниц', 'активир', 'желан', 'сотрудник', 'род', 'деятельн', 'необходим', 'взаимодействова', 'иностранц']], [['кром', 'английск', 'верс', 'активир', 'возника', 'необходим', 'дат', 'ссылк', 'страниц', 'сотрудник', 'английск', 'новости/анонса/страниц', 'мероприят', 'подразделен']], [['для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет']], [['заполн', 'пол', 'фамил', 'им', 'английск', 'отчеств', 'полност', 'добавля', 'постав', 'перв', 'букв', 'отчеств', 'например', 'Ivan', 'Ivanov', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен']], [[]], [[]], [['сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок']], [[]], [['дал', 'постав', 'статус', 'черновик']], [['посл', 'выставлен', 'статус', 'черновик', 'страниц', 'поступа', 'редактор', 'порта', 'котор', 'проверя', 'информац', 'страниц', 'отобража', 'корректн', 'меня', 'статус', 'провер', 'английск', 'страниц', 'появля', 'портал']], [['информац', 'пол', 'закрыт', 'редактирован', 'выгружа', 'автоматическ', 'основ', 'дан', 'зик/ис-пр', 'поступа', 'управлен', 'персонал']], [['информац', 'автоматическ', 'загружа', 'баз', 'дан', 'подразделен', 'должност', 'образован', 'учен', 'степен', 'учен', 'зван', 'отобража', 'един', 'формат', 'сотрудник']], [['английск', 'верс', 'предусмотр', 'вывод', 'информац', 'зик/ис-пр', 'раздел', 'достижен', 'поощрен', 'есл', 'нужн', 'добав', 'раздел', 'английск', 'верс', 'эт', 'сдела', 'функц', 'добав', 'текст', 'сдела', 'текстов', 'вставк', 'чтоб', 'вставк', 'появля', 'английск', 'верс', 'остав', 'пуст', 'пол', 'заголовок', 'русск', 'текст', 'комментар', 'русск', 'заполн', 'пол', 'заголовок', 'английск', 'текст', 'комментар', 'английск']], [[]], [[]]]</t>
+          <t>[[['список', 'редактор', 'вшэ-москв', 'кампус', 'вшэ', 'нижн', 'новгород', 'перм', 'санкт-петербург']]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[[['англоязычн', 'верс', 'сайт', 'созда', 'структурн', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'заявк', 'структурн', 'подразделен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин'], ['для', 'структурн', 'подразделен', 'ведущ', 'международн', 'деятельн', 'взаимодейств', 'англоязычн', 'студент', 'преподавател', 'партнер', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'структурн', 'подразделен', 'обновлен', 'информац', 'англоязычн', 'сайт', 'осуществля', 'сил', 'ответствен', 'подразделен', 'веден', 'сайт'], ['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['есл', 'английск', 'верс', 'нужн', 'ресурс', 'поддержан', 'необходим', 'присла', 'заявк', 'активац', 'английск', 'верс', 'вмест', 'текст', 'первоначальн', 'наполнен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'нельз', 'выставля', 'статус', 'английск', 'верс', 'черновик', 'подготов', 'текст', 'сайт', 'присла', 'предварительн', 'заявк', 'открыт', 'английск', 'верс'], [], [], ['открыва', 'пуст', 'сайт', 'английск', 'статическ', 'страниц', 'поэт', 'нужн', 'снача', 'присла', 'текст', 'английск', 'верс', 'сайт', 'активирова'], ['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'подразделения_раздел', 'например', 'департамент', 'математик', 'фэн_абоут.доc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'подробн', 'форматирован', 'редактирован', 'страниц', 'сайт', 'почита'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'подразделен', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'подразделен', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'есл', 'вариант', 'перевод', 'назван', 'подразделен', 'портал', 'устраива', 'необходим', 'присла', 'заявк', 'смен', 'назван', 'обоснован', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'факультет', 'поменя', 'руководств', 'нов', 'люд', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'значим', 'англоязычн', 'публикац', 'международн', 'проект', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал'], [], [], ['есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова'], []], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'подразделен', 'появля', 'информац', 'актуальн', 'иностра', 'сотрудник', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+          <t>[[['JavaScript', 'iframe', 'сайт', 'подразделен']]]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[['англоязычн', 'верс', 'сайт', 'обязательн', 'порядк', 'созда', 'образовательн', 'программ', 'осуществля', 'полност', 'частичн', 'английск', 'язык', 'для', 'образовательн', 'программ', 'реализуем', 'русск', 'язык', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'менеджер', 'образовательн', 'программ']], [['оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц']], [['английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присыла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'программы_кампус_раздел', 'например', 'big', 'data_stpete_about.doc']], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим']], [['принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен'], ['для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'программ', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'программ', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'корректн', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'поменя', 'описан', 'программ', 'нов', 'информац', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'обязательн', 'рекомендова', 'страниц', 'порядок', 'ссылок', 'мен', 'английск', 'верс', 'сайт', 'образовательн', 'программ'], ['раздел', 'ABOUT'], ['Programme', 'Overview', 'техническ', 'им', 'страниц', 'about', 'Curriculum', 'описан', 'содержания/структур', 'программ', 'прост', 'список', 'курс', 'Partnerships', 'налич', 'рассказ', 'характер', 'партнерств', 'польз', 'студент', 'Faculty', 'Members', 'рассказ', 'ключев', 'преподавател', 'прост', 'список', 'Student', 'Profiles', 'мини-интерв', 'фотограф', 'минимум', 'студент', 'Alumni', 'минимум', 'выпускник', 'налич', 'рассказ', 'карьер', 'выпуск', 'необходим', 'фотограф', 'техническ', 'им', 'страниц', 'alumni', 'Career', 'Opportunities', 'карьерн', 'траектор', 'пример', 'компан', 'ожида', 'зарплат', 'выпуск', 'техническ', 'им', 'страниц', 'career'], ['раздел', 'FOR', 'PROSPECTIVE', 'STUDENTS'], ['Requirements', 'требован', 'портфол', 'предыдущ', 'уровн', 'образования/опыт', 'техническ', 'им', 'страниц', 'requirements', 'How', 'Apply', 'процесс', 'подач', 'документ', 'техническ', 'им', 'страниц', 'tracks', 'Class', 'Profile', 'рекомендова', 'страниц', 'пример', 'https', '//www.hse.ru/en/ma/sti/classprofile', 'FAQ', 'рекомендова', 'страниц'], ['раздел', 'FOR', 'STUDENTS', 'рекомендова', 'ссылк', 'страниц'], ['Notice', 'Board', 'доск', 'объявлен', 'Student', 'Ratings', 'Student', 'Theses', 'Final', 'Assessment', 'техническ', 'им', 'assessment', 'Academic', 'Mobility', 'техническ', 'им', 'страниц', 'mobility', 'Practical', 'Training', 'техническ', 'им', 'страниц', 'internships', 'Recommended', 'MOOCs', 'техническ', 'им', 'страниц', 'moocs'], ['список', 'перевод', 'рубрик', 'сайт', 'образовательн', 'программ', 'назван', 'раздела/подраздел', 'English', 'titles', 'учебн', 'курс', 'Courses', 'преподавател', 'Faculty', 'документ', 'Documents', 'расписан', 'Timetable', 'тизер', 'дня', 'открыт', 'двер', 'Open', 'House', 'академическ', 'совет', 'Academic', 'Council', 'академическ', 'руководител', 'Academic', 'Supervisor', 'отдел', 'сопровожден', 'учебн', 'процесс', 'образовательн', 'программы/менеджер', 'образовательн', 'программ', 'Study', 'Office', 'Programme', 'Coordinator', 'важн', 'объявлен', 'Important', 'Announcements', 'новост', 'News', 'анонс', 'Events', 'кратк', 'паспорт', 'программ', 'Programme', 'Facts', 'программ', 'Programme', 'Overview', 'партнер', 'Partnerships', 'Double', 'degree', 'Programme', 'налич', 'проф', 'студент', 'русск', 'верс', 'достижен', 'студент', 'Student', 'Profiles', 'выпускник', 'Alumni', 'научно-исследовательск', 'семинар', 'нис', 'англ', 'верс', 'необязательн', 'раздел', 'Research', 'Seminar', 'проектн', 'исследовательск', 'работ', 'англ', 'верс', 'обязательн', 'раздел', 'Project', 'and', 'Research', 'Work', 'Research', 'Opportunities', 'представл', 'список', 'возможн', 'мест', 'описан', 'осуществлен', 'проект', 'паспорт', 'образовательн', 'программ', 'Programme', 'Facts', 'будущ', 'професс', 'Career', 'Opportunitiies', 'траектор', 'поступлен', 'How', 'Apply', 'подготовк', 'Requirements', 'информацион', 'блок', 'полезн', 'ссылк', 'студент', 'программ', 'рейтинг', 'Student', 'Rating', 'студенческ', 'мобильн', 'Academic', 'Mobility', 'практическ', 'подготовк', 'практик', 'Practical', 'Training', 'Internship', 'курсов', 'выпускн', 'квалификацион', 'работ', 'вкр', 'Term', 'Papers', 'and', 'Student', 'Theses', 'итогов', 'аттестац', 'Final', 'Assessment', 'рекомендова', 'онлайн-курс', 'Recommended', 'MOOCs', 'скача', 'одн', 'файл', 'английск', 'назван', 'рубрик', 'DOCX']], [['новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'международн', 'проект', 'стажировк', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'скриншот', 'выш', 'раздел', 'сайт', 'подразделен', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова']], [['есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'появля', 'информац', 'актуальн', 'иностра', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']]]</t>
+          <t>[[['HSESans/HSESlab', 'ZIP', '228'], []]]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1021,29 +921,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[['сайт', 'структурн', 'подразделен', 'должн', 'соответствова', 'утвержден', 'стандарт']], [['дизайн', 'сайт', 'долж', 'выполн', 'общ', 'стилистик', 'корпоративн', 'порта', 'элемент', 'фирмен', 'стил', 'могут', 'противореч', 'брендбук', 'ни', 'вшэ', 'использован', 'должн', 'согласова', 'отдел', 'визуальн', 'коммуникац', 'visual', 'hse.ru']], [['рекомендац', 'цветов', 'палитр', 'см.', 'брендбук', 'ни', 'вшэ', 'цифров', 'носител']], [['сайт', 'размеща', 'домен', 'hse.ru', 'имеют', 'адрес', 'вид', 'http', '//www.hсе.ру/им', 'http', '//имя.hсе.р', 'см.', 'регламент']], [['англоязычн', 'верс', 'сайт', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'для', 'остальн', 'подразделен', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'подразделен']], [['ответствен', 'своевремен', 'размещен', 'актуализац', 'информац', 'несет', 'руководител', 'подразделен']], [['обновлен', 'информац', 'осуществля', 'ответствен', 'структурн', 'подразделен', 'веден', 'сайт']], [['заявк', 'создан', 'сайт', 'нужн', 'присла', 'portal', 'hse.ru', 'указа', 'назван', 'подразделен', 'готов', 'контент', 'имеет', 'размещен', 'подробн', 'дальн', 'шаг', 'будут', 'содержа', 'ответн', 'письм']]]</t>
+          <t>[[['баннер', 'размеща', 'главн', 'страниц', 'сайт', 'эт', 'прост', 'элемент', 'оформлен', 'повесел', 'баннер', 'призва', 'обрат', 'вниман', 'посетител', 'какой-т', 'контент', 'например', 'ссылк', 'баннер', 'вест', 'анонс', 'конференц', 'новост', 'крупн', 'проект']]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[['основн', 'принцип', 'работ', 'сайт', 'как', 'получ', 'доступ', 'редактирован', 'редактирован', 'блок', 'функциона', 'сотрудник', 'подразделен', 'редактирован', 'блок', 'показ', 'списк', 'карт', 'раздел', 'сотрудник', 'размещен', 'новост', 'размещен', 'анонс', 'создан', 'статическ', 'страниц', 'прост', 'статическ', 'страниц', 'составн', 'статическ', 'страниц', 'создан', 'таблиц', 'оптимизац', 'фотограф', 'размещен', 'баннер', 'создан', 'опроса/регистрацион', 'форм', 'как', 'переда', 'дан', 'CRM', 'размещен', 'мета-тег', 'рекомендац', 'поисков', 'оптимизац', 'помощ', 'редактор', 'фотобанк', 'инструмент', 'шрифт', 'HSE', 'Sans', 'редактирован', 'английск', 'верс', 'русско-английск', 'глоссар', 'термин', 'вшэ']]]</t>
+          <t>[[[]], [['заголовок', 'нескольк', 'слов', 'кратк', 'емк', 'описыва', 'тем', 'есл', 'заголовок', 'слишк', 'длин', 'вмест', 'текст', 'анонс', 'помест', 'мобильн', 'верс']], [['анонс', 'бол', 'детальн', 'раскрыва', 'тем', 'баннер', 'зада', 'обычн', 'шрифт', 'поэт', 'длин', 'заголовк']], [['как', 'мобильн', 'верс', 'скрыт', 'част', 'анонс', 'есл', 'вид', 'экран', 'мобильн', 'текст', 'анонс', 'помеща', 'полност', 'оберн', 'тэг', 'span', 'class=', 'is-desktop', 'текст', 'скрыт', 'мобильн', '/span', 'есл', 'нужн', 'наоборот', 'отобража', 'какой-т', 'фрагмент', 'текст', 'мобильн', 'скрыва', 'больш', 'экран', 'использ', 'span', 'class=', 'is-mobile', '…текст…', '/span']]]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[['список', 'редактор', 'вшэ-москв', 'кампус', 'вшэ', 'нижн', 'новгород', 'перм', 'санкт-петербург']]]</t>
+          <t>[[['существ', 'вариант', 'оформлен', 'баннер', 'заливк', 'цвет', 'фонов', 'картинк'], ['умолчан', 'редактор', 'предлага', 'стил', 'Amethyst', 'друг', 'градиентн', 'фон', 'может', 'выбра', 'котор', 'наибол', 'подход', 'цвет', 'ваш', 'сайт', 'стара', 'избега', 'крича', 'цвет'], ['есл', 'хот', 'использова', 'качеств', 'фон', 'картинк', 'пол', 'стил', 'выбира', 'сво', 'баннер'], [], ['фон', 'сплешк', 'эт', 'фонов', 'фотограф', 'баннер', 'выбир', 'изображен', 'ориентир', 'фотостил', 'вышк', 'размер', 'обычн', 'пропорц', 'горизонтальн', 'ориентирова', 'фот', '1600', 'ширин', 'перед', 'загрузк', 'картинк', 'необходим', 'оптимизирова', 'подробн', 'поч', 'важн', 'оптимизирова', 'фот', 'прочита', 'страниц', 'найдет', 'ссылк', 'бесплатн', 'фотобанк', 'фотограф', 'наш', 'университет', 'использу', 'может', 'увер', 'наруша', 'авторск', 'прав', 'баннер', 'размеща', 'изображен', 'готов', 'текст', 'больш', 'вероятн', 'обреза', 'различн', 'устройств', 'похож', 'рекомендац', 'относ', 'композиц', 'след', 'след', 'экран', 'мобильн', 'отобража', 'значим', 'част', 'фотограф', 'иллюстрац', 'есл', 'фонов', 'фот', 'достаточн', 'светл', 'текст', 'нем', 'теря', 'затемн'], ['как', 'затемн', 'фонов', 'изображен', 'можн', 'воспользова', 'программ', 'Photoshop', 'бесплатн', 'онлайн-фотошоп', 'открыва', 'изображен', 'программ', 'выбира', 'верхн', 'мен', 'изображен', 'коррекц', 'крив', 'использу', 'горяч', 'клавиш', 'Ctrl', 'дал', 'помощ', 'изменен', 'точек', 'крив', 'затемня', 'изображен', 'нужн', 'уровн'], ['стил', 'CSS', 'пол', 'установ', 'позиционирован', 'фонов', 'баннер', 'страниц', 'чем', 'меньш', 'значен', 'ниж', 'изображен', 'значен', 'перв', 'класс', 'пример', 'выш', 'эт', '.vp', 'должн', 'уникальн', 'кажд', 'баннер', 'написа', 'латиниц', 'так', '.vp', 'cокращен', 'высш', 'пилотаж', 'использ', 'след', 'код', 'замен', 'перв', 'значен'], ['.vp.splash.pseudo', 'background-position'], ['CSS', 'класс', 'чтоб', 'стил', 'работа', 'скопир', 'значен', 'перв', 'класс', 'стил', 'CSS', 'точк', 'пример', 'эт'], ['темн', 'текст.', 'устанавлива', 'фон', 'сплешк', 'светл']]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[[['JavaScript', 'iframe', 'сайт', 'подразделен']]]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[[['HSESans/HSESlab', 'ZIP', '228'], []]]</t>
-        </is>
-      </c>
+          <t>[[['есл', 'нужн', 'скрыт', 'баннер', 'дела', 'неактивн', 'убра', 'галочк', 'слайд', 'актив', 'чтоб', 'удал', 'неактуальн', 'баннер', 'необходим', 'нажа', 'крестик', 'прав', 'угл', 'сохран', 'изменен'], []]]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1070,50 +966,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[['сайт', 'подразделен', 'существ', 'функциона', 'позволя', 'подразделен', 'самостоятельн', 'формирова', 'списк', 'сотрудник', 'котор', 'обраща', 'ин', 'вопрос']]]</t>
+          <t>[[['поч', 'эт', 'важн', 'мног', 'трафик', 'ваш', 'сайт', 'следств', 'степен', 'интерес', 'ваш', 'продукт', 'результат', 'деятельн', 'завис', 'скорост', 'загрузк', 'страниц', 'вот', 'некотор', 'страниц', 'порта', 'дума', 'искусствен', 'интеллект']]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[['списк', 'показыва', 'справочник', 'сотрудник', 'такж', 'личн', 'кабинет', 'сотрудник']]]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[['настоя', 'врем', 'сайт', 'подразделен', 'завед', 'след', 'категор', 'функциональн', 'ответствен']]]</t>
+          <t>[[['может', 'сам', 'провер', 'сво', 'сайт', 'помощ', 'инструмент']]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
+          <t>[[['как', 'эт', 'борот', 'прежд', 'тщательн', 'след', 'загружа', 'вам', 'порта', 'фотограф', 'чрезмерн', 'тяжел', 'помн', 'размер', 'фотограф', 'вес', 'фотограф', 'отчаст', 'завис', 'размер', 'пиксел', 'сам', 'маленьк', 'изображен', 'вес', 'достаточн', 'он', 'хорош', 'качеств']]]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[[['добавлен', 'список', 'ответствен', 'автоматическ', 'дает', 'доступ', 'редактирован', 'сайт', 'персональн', 'страниц', 'для', 'необходим', 'получ', 'соответств', 'прав', 'подразделен', 'отвеча', 'соответств', 'ресурс']]]</t>
+          <t>[[['для', 'нача', 'уменьш', 'изображен', 'нужн', 'размер', 'эт', 'сдела', 'люб', 'графическ', 'редактор', 'есл', 'компьютер', 'установлен', 'программ', 'может', 'воспользова', 'например', 'онлайн-сервис', 'Photoshop', 'Express', 'Pixlr', 'сам', 'широк', 'картинк', 'портал', 'превыша', '1600', 'пиксел', 'ширин', 'ориентир', 'ширин', 'максимальн', 'оптимизир', 'изображен', 'помощ', 'сервис', 'Tinypng', 'эт', 'очен', 'прост', 'заход', 'сайт', 'перетаскива', 'изображен', 'специальн', 'контейнер', 'прям', 'сайт', 'посл', 'останет', 'скача', 'обратн', 'сво', 'компьютер', 'сжат', 'картинк', 'тепер', 'использова', 'портал']]]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[[['управлен', 'информацион', 'ресурс', 'выда', 'прав', 'заявк', 'адрес', 'portal', 'hse.ru']]]</t>
+          <t>[[['можн', 'продолжа', 'работа', 'сайт', 'оптимизиру', 'изображен', 'так', 'случа', 'нужн', 'помн', 'эт', 'повлечет', 'соб', 'потер', 'част', 'посетител', 'ваш', 'сайт', 'прежд', 'сам', 'продвинут', 'заходя', 'интернет', 'мобильн', 'телефон', 'такж', 'потенциальн', 'клиент', 'ряд', 'зарубежн', 'стран', 'скорост', 'интернет', 'оставля', 'жела', 'лучш', 'команд', 'порта', 'сво', 'сторон', 'прикладыва', 'усил', 'оптимизирова', 'друг', 'элемент', 'страниц', 'технологическ', 'средств']]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
+          <t>[[['чтоб', 'узна', 'как', 'изображен', 'числ', 'тех', 'размещ', 'ваш', 'сайт', 'нужда', 'оптимизац', 'воспольз', 'сервис', 'Google', 'PageSpeed', 'Insights', 'зайд', 'страниц', 'сервис', 'введ', 'адрес', 'страниц', 'котор', 'нужн', 'провер', 'дожд', 'результат', 'найд', 'вкладк', 'оптимизир', 'изображен', 'например', 'главн', 'страниц', 'порта', 'выгляд']]]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[[['необходим', 'перейт', 'реж', 'редактирован', 'сайт', 'конкретн', 'подразделен', 'раздел', 'дан', 'блок', 'функциона', 'сотрудник', 'подразделен', 'нажа', 'кнопк', 'добав', 'сотрудник', 'вбит', 'пол', 'поиск', 'фи', 'выбра', 'сотрудник', 'галочк', 'выбра', 'возможн', 'категор', 'ответствен']], [['для', 'удален', 'сотрудник', 'необходим', 'убра', 'галк', 'списк', 'функциональн', 'ответствен', 'сотрудник'], [], ['обрат', 'вниман', 'ниж', 'блок', 'функциона', 'список', 'активн', 'рол', 'подразделен', 'нем', 'указа', 'люд', 'котор', 'имеют', 'доступ', 'просмотр', 'редактирован', 'дан', 'портал', 'относя', 'ваш', 'подразделен', 'есл', 'сред', 'люд', 'котор', 'работа', 'вшэ', 'имеют', 'отношен', 'конкретн', 'подразделен', 'необходим', 'сообщ', 'portal', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[['главн', 'страниц', 'типичн', 'образовательн', 'программ']]]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[[['разниц', 'объем', 'потенциальн', 'оптимизируем']]]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[[['может', 'оптимизирова', 'размещен', 'сайт', 'изображен', 'помощ', 'встроен', 'инструмент', 'Google', 'PageSpeed', 'Insights', 'для', 'вниз', 'страниц', 'результат', 'обследован', 'ваш', 'страниц', 'найд', 'ссылк', 'скача', 'оптимизирова', 'изображен', 'ресурс', 'JavaScript', 'CSS', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[[['компьютер', 'скача', 'арх', 'одн', 'папк', 'котор', 'будут', 'содержа', 'ужат', 'изображен', 'необходим', 'опубликова', 'ваш', 'сайт', 'взам', 'тех', 'котор', 'ран']]]</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1131,24 +1051,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'создан', 'новост', 'предосмотр', 'новост', 'составн', 'редактор', 'иллюстрац', 'новост', 'копирован', 'сайт']]]</t>
+          <t>[[['мног', 'использ', 'сво', 'работ', 'фот', 'виде', 'изображен', 'университет', 'дирекц', 'связ', 'обществен', 'подготов', 'собра', 'фото-', 'видеоконтент', 'котор', 'показыва', 'наш', 'корпус', 'учебн', 'процесс', 'переда', 'атмосфер', 'вышк']]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[['раздел', 'новост', 'предусматрива', 'размещен', 'репортаж', 'прошедш', 'мероприят', 'сообщен', 'получен', 'наград', 'профессиональн', 'обществен', 'признан', 'образовательн', 'программ', 'мегафакультет', 'преподавател', 'т.п']], [['новост', 'обязательн', 'должн', 'содержа', 'заголовок', 'кратк', 'аннотац', 'текст', 'новост', 'рубрик', 'ключев', 'слов', 'желан', 'текст', 'новост', 'сопровожда', 'иллюстрац']], [['недопустим', 'размещен', 'английск', 'текст', 'русск', 'верс', 'сайт', 'русск', 'текст', 'английск', 'верс', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент']], [['размеща', 'лент', 'новост', 'анонс', 'мероприят', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн']], [['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'новост', 'пиш', 'portal', 'hse.ru']], [['для', 'добавлен', 'новост', 'необходим', 'зайт', 'редактор', 'дан', 'новост', 'нов', 'зап', 'добавля', 'клик', 'иконк'], ['заголовок', 'кратк', 'указыва', 'сам', 'сут', 'событ', 'заголовок', 'долж', 'назывн', 'кратк', 'заголовок', 'став', 'нескольк', 'предложен', 'одн', 'длин', 'предложен', 'больш', 'количеств', 'подробн', 'пример', 'длин', 'заголовк', 'посмотрет', 'главн', 'лент', 'порта', 'заголовк', 'употребля', 'слов', 'вниман', 'важн', 'информац', 'дорог', 'друз', 'т.д.', 'точк', 'конц', 'заголовк', 'став', 'CapsLock', 'заглавн', 'букв', 'использу'], ['аннотац', 'должн', 'обязательн', 'кратк', 'изложен', 'чем', 'читател', 'узна', 'стат', '2-3', 'предложен'], ['текст', 'долж', 'обязательн', 'непосредствен', 'тел', 'новост', 'подробн', 'раскрыва', 'сут', 'событ', 'новост', 'состоя', 'одн', 'предложен', 'фотограф', 'подробн', 'сопроводительн', 'текст'], ['дублирова', 'аннотац', 'пол', 'текст', 'нужн', 'есл', 'ваш', 'аннотац', 'повторя', 'перв', 'абзац', 'текст', 'новост', 'став', 'напрот', 'пол', 'отобража', 'аннотац', 'нет'], ['при', 'копирован', 'текст', 'Word', 'вставк', 'сайт', 'необходим', 'обязательн', 'порядк', 'чист', 'формат'], ['обязательн', 'выбира', 'рубрик', 'ключев', 'слов'], ['есл', 'имеющ', 'рубрик', 'соответств', 'тематик', 'ваш', 'сайт', 'напиш', 'portal', 'hse.ru', 'пришл', 'список', 'необходим', 'рубрик', 'завед', 'специальн', 'ваш', 'сайт'], [], ['есл', 'необходим', 'может', 'выбра', 'тип', 'материала/статус', 'новости/сфер', 'деятельн', 'выбира', 'действительн', 'соответств', 'содержан', 'новост', 'эт', 'раздел', 'разработа', 'главн', 'лент', 'hse.ru', 'есл', 'подход', 'новост', 'ваш', 'подразделен', 'пропуска'], [], ['ключев', 'слов', 'выбира', 'соответств', 'содержан', 'ваш', 'новост', 'он', 'дальн', 'позволя', 'дела', 'выборк', 'новост', 'ин', 'тем', 'внутр', 'ваш', 'сайт'], ['ключев', 'слов', 'рубрик', 'нужн', 'читател', 'могл', 'найт', 'нужн', 'интересн', 'новост', 'поэт', 'выбира', 'рубрик', 'ключев', 'слов', 'котор', 'соответств', 'тематик', 'новост', 'инач', 'эт', 'прост', 'набор', 'рубрик', 'ключев', 'слов', 'котор', 'ваш', 'новост', 'найдут'], [], ['необходим', 'нажа', 'добав', 'ключев', 'слов', 'вписа', 'необходим', 'слов', 'нажа', 'поиск', 'зат', 'выбра', 'слов', 'словосочетан', 'есл', 'нашл', 'нужн', 'ключев', 'слов', 'может', 'ввест', 'самостоятельн', 'он', 'попадет', 'баз', 'ключев', 'слов', 'настоятельн', 'просьб', 'прежд', 'эт', 'сдела', 'убед', 'нужн', 'ключев', 'слов', 'действительн', 'отсутств']], [['прежд', 'вывод', 'новост', 'лент', 'ваш', 'сайт', 'посмотр', 'пожалуйст', 'получ', 'для', 'нужн', 'воспользова', 'функц', 'предосмотр', 'ссылк', 'располож', 'редакторск', 'интерфейс', 'ряд', 'заголовк', 'новост'], []], [['есл', 'новост', 'треб', 'использова', 'сложн', 'верстк', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['обрат', 'вниман', 'картинк', 'используем', 'новост', 'сайт', 'цел', 'должн', 'размеща', 'соблюден', 'закон', 'авторск', 'прав', 'т.е.', 'эт', 'должн', 'фот', 'либ', 'сдела', 'непосредствен', 'сотрудниками/студент', 'либ', 'приобретен', 'фотоагентств', 'фото/картинк', 'найден', 'случайн', 'образ', 'простор', 'интернет', 'недопустим', 'размещен'], ['фот', 'явля', 'обязательн', 'элемент', 'новост', 'фотограф', 'должн', 'горизонтальн', 'хорош', 'качеств', 'есл', 'картинк', 'плох', 'качеств', 'несет', 'никак', 'смыслов', 'нагрузк', 'нужн', 'загружа', 'новост', 'нужн', 'загружа', 'качеств', 'иллюстрац', 'новост', 'главн', 'страниц', 'сайт', 'скан', 'скриншот', 'баннер', 'постер', 'обложк', 'логотип', 'портретн', 'фот', 'крупн', 'одн', 'лиц'], ['чтоб', 'картинк', 'появ', 'лент', 'новост', 'ваш', 'сайт', 'нужн', 'загруз', 'сплеш-картинк', 'новост', 'размер', 'фот', '1083', '722'], [], ['есл', 'собира', 'размест', 'нескольк', 'изображен', 'воспользова', 'опц', 'фотоальб', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'новост', 'либ', 'может', 'воспользова', 'функционал', 'составн', 'редактор'], ['обрат', 'ваш', 'вниман', 'фот', 'размеща', 'портал', 'необходим', 'оптимизирова']], [['чтоб', 'воспользова', 'функц', 'необходим', 'залогин', 'портал', 'посл', 'открыва', 'нужн', 'новост', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'новост'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'новост', 'двум', 'способ', 'ссылк', 'оригинальн', 'новост', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'аннотац', 'котор', 'будут', 'увод', 'оригинальн', 'новост', 'сможет', 'редактирова', 'втор', 'случа', 'новост', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'новост', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'новост', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'новост', 'размещен', 'ссылк', 'оригинальн', 'новост', 'вам', 'необходим', 'зайт', 'раздел', 'новост', 'импортирова', 'новост', 'ссылк', 'справ', 'найт', 'нужн', 'новост', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'новост', 'подразделен']]]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>[[['YоуTубе-канал', 'может', 'найт', 'плейлист', 'имиджев', 'ролик', 'экскурс', 'здан', 'лета', 'видеогид', 'покровк', 'ролик', 'университетск', 'лаборатор', 'вопрос', 'учен', 'мног', 'друг']]]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[[['такж', 'воспользова', 'фотограф', 'университет', 'страниц', 'love.hse', 'размещ', 'вариант', 'обоев/фон', 'зум', 'стикерпак']]]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[[['страниц', 'собра', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта', 'больш', 'част', 'эт', 'сервис', 'использ', 'сотрудник', 'дирекц', 'портал', 'мобильн', 'приложен', 'повседневн', 'работ', 'однак', 'необходим', 'имет', 'вид', 'сотрудник', 'дирекц', 'осуществля', 'поддержк', 'числ', 'имеют', 'возможн', 'консультирова', 'использован', 'есл', 'пользует', 'удобн', 'ресурс', 'котор', 'зна', 'присыла', 'информац', 'адрес', 'dkoptubenko', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[[['Colordot', 'инструмент', 'определен', 'HTML-код', 'требуем', 'цвет', 'отлич', 'аналог', 'имеет', 'визуальн', 'удобн', 'палитр', 'Pixlr', 'обработк', 'фот', 'тех', 'ког', 'рук', 'фотошоп', 'аналог', 'зде', 'удобн', 'дела', 'коллаж', 'нескольк', 'изображен', 'TinyPNG', 'проверен', 'инструмент', 'сжат', 'изображен', 'публикац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[[['Unsplash', 'изумительн', 'красот', 'фотограф', 'основн', 'видов', 'Gratisography', 'бесплатн', 'жанров', 'фотограф', 'StockSnap.io', 'кажд', 'недел', 'сервис', 'пополня', 'сотн', 'нов', 'разрешен', 'свободн', 'использован', 'изображен', 'Picjumbo', 'платн', 'ресурс', 'част', 'фотограф', 'брат', 'оттуд', 'прост', 'Picography', 'небольш', 'обь', 'коллекц', 'бесплатн', 'фотограф', 'Library', 'Congress', 'историческ', 'фотограф', 'коллекц', 'библиотек', 'конгресс', 'сша', 'перед', 'использован', 'кажд', 'фотограф', 'прочита', 'распространя', 'прав', 'использован', 'разрешен', 'Morguefile', 'основн', 'пользовательск', 'фотограф', 'невысок', 'качеств', 'встреча', 'превосходн', 'снимк', 'Textures', 'подборк', 'паттерн', 'фонов', 'изображен', 'L+T', 'альтернативн', 'сервис', 'подборк', 'фонов', 'изображен', 'FreeStockTextures', '800', 'паттерн', 'TextureZoom', 'тематическ', 'текстур']]]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[[['draw.io', 'интерактивн', 'блок-схем', 'созда', 'помощ', 'инструмент', 'easelly', 'прост', 'употреблен', 'сервис', 'инфографик', 'след', 'обрат', 'вниман', 'русскоязычн', 'шрифт', 'отобража', 'задумыва', 'MyBalsamiq', 'сервис', 'создан', 'прототип', 'можн', 'использова', 'взаимодейств', 'иллюстратор']]]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[[['StoryMap', 'помощ', 'создава', 'интерактивн', 'карт', 'Juxtapose', 'элегантн', 'инструмент', 'демонстрац', 'изменен', 'однотипн', 'объект', 'помощ', 'слайдер', 'пользовател', 'сравн', 'стал', 'подобн', 'инструмент', 'активн', 'применя', 'сми', 'демонстрац', 'изменен', 'например', 'реконструкц', 'дом', 'улиц', 'снят', 'одн', 'ракурс', 'Timeline', 'помощ', 'создава', 'таймлайн', 'интерактивн', 'истор', 'растянут', 'времен', 'портал', 'использова', 'например', 'создан', 'страниц', '20-лет', 'нижегородск', 'кампус', 'Soundcite', 'инструмент', 'создан', 'аудиопрезентац', 'Prezi', 'мощн', 'альтернатив', 'Powerpoint', 'создан', 'презентац', 'Fliphtml5', 'инструмент', 'размещен', 'пдф-файл', 'вид', 'раскрыт', 'книг', 'возможн', 'листан', 'страниц', 'мышк', 'единствен', 'известн', 'нам', 'стабильн', 'бесплатн', 'инструмент', 'подобн', 'род', 'формул', 'инструмент', 'отображен', 'формул', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[['Google', 'форм', 'бесплатн', 'генератор', 'опрос', 'может', 'пригод', 'нужн', 'провест', 'опрос', 'периметр', 'порта', 'для', 'формирован', 'опросн', 'регистрацион', 'форм', 'портал', 'штатн', 'инструмент']]]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[['вконтакт', 'pages.clearCache', 'инструмент', 'вконтакт', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен', 'vk.com/cc', 'инструмент', 'генерац', 'коротк', 'ссылок', 'вконтакт', 'SMMPlanner', 'отложен', 'постинг', 'социальн', 'сет', 'Ezgif', 'создан', 'гиф-изображен', 'видеозапис', 'такж', 'редактур', 'изменен', 'размер', 'обрезк', 'дал', 'Make', 'Beliefs', 'Comix', 'создан', 'комикс']]]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[[['онлайн-инструмент', 'любител', 'PDF', 'полност', 'бесплатн', 'онлайн-инструмент', 'объединен', 'разделен', 'сжат', 'PDF-файл', 'преобразован', 'документ', 'Office', 'PDF-файл', 'преобразован', 'PDF-файл', 'JPG', 'JPG', 'PDF', 'без', 'необходим', 'установк']]]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[[['Tutorialspoint', 'обширн', 'набор', 'учебник', 'инструкц', 'пользова', 'Word', 'Powepoint', 'Excel', 'сотн', 'друг', 'программ', 'приложен', 'html', 'academy', 'сайт', 'отличн', 'бесплатн', 'базов', 'курс', 'html', 'css', 'настольн', 'книг', 'кажд', 'имеет', 'доступ', 'редактирован', 'страниц', 'портал', 'Codecademy', 'интерактивн', 'курс', 'программирован']], [['https', '//smmplanner.com/']]]</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1168,74 +1128,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[['поч', 'эт', 'важн', 'мног', 'трафик', 'ваш', 'сайт', 'следств', 'степен', 'интерес', 'ваш', 'продукт', 'результат', 'деятельн', 'завис', 'скорост', 'загрузк', 'страниц', 'вот', 'некотор', 'страниц', 'порта', 'дума', 'искусствен', 'интеллект']]]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'форм', 'уведомлен', 'почт', 'ответн', 'письм', 'пользовател', 'ссылк', 'форму/клонирование/выгрузк', 'результат', 'CRM-систем']]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[[]]]</t>
+          <t>[[['для', 'создан', 'регистрацион', 'форм', 'форм', 'подписк', 'новост', 'опрос', 'др.', 'необходим', 'сайт', 'ваш', 'подразделен', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм'], [], ['нажима', 'созда', 'форм'], [], ['дал', 'нужн', 'указа'], ['назван', 'назван', 'использ', 'длин', 'слов', 'может', 'постав', 'галочк', 'расстав', 'мягк', 'перенос', 'врем', 'проведен', 'период', 'времен', 'течен', 'котор', 'ответ', 'вопрос', 'статус', 'меня', 'активн', 'форм', 'готов', 'язык', 'форм', 'английск', 'язык', 'необходим', 'выстав', 'язык', 'английск'], ['есл', 'регистрац', 'мероприят', 'ограничен', 'количеств', 'участник', 'существ', 'возможн', 'закр', 'регистрац', 'определен', 'количеств', 'заявок', 'ин', 'случа', 'оставля', 'эт', 'пол', 'незаполнен'], ['галочк', 'пройт', 'нужн', 'случа', 'созда', 'опрос'], ['галочк', 'автоматическ', 'нумерова', 'вопрос', 'сто', 'умолчан', 'однак', 'быва', 'случа', 'автоматическ', 'нумерац', 'нужн', 'галочк', 'нужн', 'убра'], [], ['дал', 'необходим', 'нажа', 'кнопк', 'добав', 'блок', 'вопрос'], ['есл', 'нужн', 'разб', 'вопрос', 'нескольк', 'тематическ', 'блок', 'заполня', 'пол', 'блок', 'вопрос', 'необходим', 'такж', 'пол', 'описан'], ['пример', 'блок'], [], ['есл', 'ваш', 'вопрос', 'должн', 'идт', 'подряд', 'разбивк', 'блок', 'эт', 'пол', 'заполня', 'сраз', 'переход', 'кнопк', 'добав', 'вопрос', 'пол', 'вопрос', 'вписыва', 'непосредствен', 'вопрос', 'пол', 'описан', 'добав', 'комментар', 'вопрос'], ['дал', 'нажима', 'кнопк', 'добав', 'ответ', 'вписыва', 'необходим', 'вариант'], ['есл', 'ответ', 'дан', 'вопрос', 'обязател', 'став', 'галочк', 'напрот', 'соответств', 'пункт'], ['есл', 'вопрос', 'допуска', 'ответ', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'есл', 'вопрос', 'допуска', 'нескольк', 'вариант', 'ответ', 'такж', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ'], [], ['ответ', 'сдела', 'выпада', 'списк', 'пол', 'формат', 'ответ', 'нужн', 'выбра', 'соответств', 'строк'], ['есл', 'ответ', 'зада', 'заполня', 'форм', 'долж', 'вписа', 'сво', 'вариант', 'ответ', 'пол', 'формат', 'ответ', 'выбира', 'значен', 'строк', 'нескольк', 'строк', 'может', 'добав', 'какой-т', 'комментар', 'свободн', 'ответ', 'пояснительн', 'текст', 'такж', 'огранич', 'ответ', 'количеств', 'символ'], ['есл', 'ответ', 'предполага', 'указан', 'дат', 'номер', 'телефон', 'e-mail', 'стран', 'проживан', 'загрузк', 'файл', 'выбра', 'строк', 'специальн', 'вопрос', 'пол', 'формат', 'ответ', 'дал', 'выпада', 'списк', 'выбра', 'нужн', 'вариант'], [], ['обрат', 'вниман', 'выберет', 'тип', 'специальн', 'вопрос', 'email', 'заполнен', 'форм', 'браузер', 'пользовател', 'постара', 'автозаполн', 'эт', 'пол', 'кеш', 'эт', 'облегча', 'пользовател', 'заполнен', 'форм', 'автозаполнен', 'кеш', 'браузер', 'возможн', 'такж', 'отношен', 'пол', 'фамил', 'нужн', 'выбра', 'код', 'вопрос', 'lastname', 'им', 'код', 'вопрос', 'firstname', 'автозаполнен', 'гарантир', 'однак', 'прав', 'работа'], ['посл', 'заполнен', 'необходим', 'сохран', 'форм', 'нажа', 'кнопк', 'созда'], []]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[['может', 'сам', 'провер', 'сво', 'сайт', 'помощ', 'инструмент']]]</t>
+          <t>[[['чтоб', 'откр', 'дополнительн', 'параметр', 'необходим', 'нажа', 'стрелк'], [], ['откр', 'окн', 'может'], ['добав', 'форм', 'пояснительн', 'текст', 'отобража', 'сраз', 'заголовк', 'добав', 'сообщен', 'страниц', 'отправк', 'форм', 'вывод', 'экран', 'напр.', 'спасиб', 'регистрац', 'ждем', 'адрес', '...', 'добав', 'сообщен', 'страниц', 'завершен', 'регистрац', 'заменя', 'стандартн', 'фраз', 'извин', 'регистрац', 'законч', 'измен', 'текст', 'соглас', 'обработк', 'персональн', 'дан', 'использ', 'необходим', 'замен', 'стандартн', 'текст'], [], ['раздел', 'дополнительн', 'параметр', 'такж', 'сможет'], ['постав', 'ссылк', 'переход', 'сохранен', 'имет', 'вид', 'заполн', 'эт', 'пол', 'сообщен', 'тип', 'спасиб', 'регистрац', 'регистрац', 'заверш', 'вывод', 'будут', 'измен', 'схем', 'показ', 'вопрос', 'умолчан', 'идут', 'друг', 'друг', 'схем', 'вопрос', 'вид', 'таблиц', 'позволя', 'выстраива', 'две', 'колонк', 'привяза', 'форм', 'определен', 'сайт', 'например', 'сдела', 'одн', 'сайт', 'нужн', 'форм', 'друг', 'либ', 'нужн', 'привяза', 'сайт', 'указа', 'корпоративн', 'e-mail', 'сотрудник', 'вшэ', 'котор', 'будут', 'приход', 'уведомлен', 'нов', 'ответ', 'кажд', 'адрес', 'долж', 'добавл', 'отдельн', 'кнопк', 'добав', 'связа', 'форм', 'друг', 'язык', 'работа', 'переключалк', 'язык', 'так', 'форм', 'например', 'английск'], [], ['есл', 'хот', 'почт', 'пользовател', 'приход', 'ответн', 'письм', 'постав', 'галочк', 'напрот', 'направ', 'ответн', 'письм', 'пользовател', 'дан', 'функц', 'работа', 'случа', 'форм', 'нужн', 'указыва', 'email', 'ответ', 'вопрос', 'обязател', 'пол', 'текст', 'письм', 'нужн', 'размест', 'текст', 'код', 'вопрос', 'электрон', 'почт', 'прописа', 'слов', 'email', 'больш', 'просьб', 'текст', 'письм', 'указыва', 'контактн', 'информац', 'пользовател', 'обрат', 'вопрос', 'т.к.', 'письм', 'приход', 'адрес', 'robot', 'hse.ru'], [], [], ['есл', 'хот', 'ответн', 'письм', 'пользовател', 'персонализирова', 'пол', 'текст', 'письм', 'начал', 'нужн', 'размест', 'фраз', 'здравств', 'ANSWER_TO_QUESTION_lastname', 'ANSWER_TO_QUESTION_firstname', 'при', 'необходим', 'кром', 'e-mail', 'ваш', 'форм', 'обязательн', 'вопрос', 'отдельн', 'фамил', 'им', 'имя-отчеств', 'код', 'вопрос', 'нужн', 'прописа', 'слов', 'lastname', 'firstname'], [], [], []]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[['как', 'эт', 'борот', 'прежд', 'тщательн', 'след', 'загружа', 'вам', 'порта', 'фотограф', 'чрезмерн', 'тяжел', 'помн', 'размер', 'фотограф', 'вес', 'фотограф', 'отчаст', 'завис', 'размер', 'пиксел', 'сам', 'маленьк', 'изображен', 'вес', 'достаточн', 'он', 'хорош', 'качеств']]]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[[['для', 'нача', 'уменьш', 'изображен', 'нужн', 'размер', 'эт', 'сдела', 'люб', 'графическ', 'редактор', 'есл', 'компьютер', 'установлен', 'программ', 'может', 'воспользова', 'например', 'онлайн-сервис', 'Photoshop', 'Express', 'Pixlr', 'сам', 'широк', 'картинк', 'портал', 'превыша', '1600', 'пиксел', 'ширин', 'ориентир', 'ширин', 'максимальн', 'оптимизир', 'изображен', 'помощ', 'сервис', 'Tinypng', 'эт', 'очен', 'прост', 'заход', 'сайт', 'перетаскива', 'изображен', 'специальн', 'контейнер', 'прям', 'сайт', 'посл', 'останет', 'скача', 'обратн', 'сво', 'компьютер', 'сжат', 'картинк', 'тепер', 'использова', 'портал']]]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[[['можн', 'продолжа', 'работа', 'сайт', 'оптимизиру', 'изображен', 'так', 'случа', 'нужн', 'помн', 'эт', 'повлечет', 'соб', 'потер', 'част', 'посетител', 'ваш', 'сайт', 'прежд', 'сам', 'продвинут', 'заходя', 'интернет', 'мобильн', 'телефон', 'такж', 'потенциальн', 'клиент', 'ряд', 'зарубежн', 'стран', 'скорост', 'интернет', 'оставля', 'жела', 'лучш', 'команд', 'порта', 'сво', 'сторон', 'прикладыва', 'усил', 'оптимизирова', 'друг', 'элемент', 'страниц', 'технологическ', 'средств']]]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[[['чтоб', 'узна', 'как', 'изображен', 'числ', 'тех', 'размещ', 'ваш', 'сайт', 'нужда', 'оптимизац', 'воспольз', 'сервис', 'Google', 'PageSpeed', 'Insights', 'зайд', 'страниц', 'сервис', 'введ', 'адрес', 'страниц', 'котор', 'нужн', 'провер', 'дожд', 'результат', 'найд', 'вкладк', 'оптимизир', 'изображен', 'например', 'главн', 'страниц', 'порта', 'выгляд']]]</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[[['главн', 'страниц', 'типичн', 'образовательн', 'программ']]]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[[['разниц', 'объем', 'потенциальн', 'оптимизируем']]]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[[['может', 'оптимизирова', 'размещен', 'сайт', 'изображен', 'помощ', 'встроен', 'инструмент', 'Google', 'PageSpeed', 'Insights', 'для', 'вниз', 'страниц', 'результат', 'обследован', 'ваш', 'страниц', 'найд', 'ссылк', 'скача', 'оптимизирова', 'изображен', 'ресурс', 'JavaScript', 'CSS', 'страниц']]]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[[[]]]</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[[['компьютер', 'скача', 'арх', 'одн', 'папк', 'котор', 'будут', 'содержа', 'ужат', 'изображен', 'необходим', 'опубликова', 'ваш', 'сайт', 'взам', 'тех', 'котор', 'ран']]]</t>
-        </is>
-      </c>
+          <t>[[['необходим', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'сможет'], [], ['редактирова', 'форм', 'сохран', 'изменен', 'нужн', 'нажа', 'кнопк', 'сохран'], ['клонирова', 'форм', 'необходим', 'созда', 'форм', 'тем', 'похож', 'вопрос'], ['найт', 'ссылк', 'форм', 'нажима', 'встраиван', 'откр', 'окн', 'выбира', 'ссылк', 'назван', 'ваш', 'подразделен', 'форм', 'открыва', 'внутр', 'ваш', 'сайт', 'клика', 'ссылк', 'адресн', 'строк', 'открыш', 'окн', 'копирует', 'ссылк', 'ваш', 'форм', 'пример'], [], ['выгруз', 'ответ', 'форм', 'возможн', 'посмотрет', 'результат', 'pdf', 'html', 'excel']]]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1253,124 +1173,60 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[['для', 'создан', 'составн', 'статическ', 'страниц', 'необходим', 'продела', 'шаг', 'создан', 'прост', 'статическ', 'страниц', 'посл', 'заполнен', 'основн', 'пол', 'переход', 'пол', 'вид', 'страниц', 'располож', 'пол', 'текст', 'умолчан', 'флажок', 'установл', 'положен', 'прост', 'клика', 'выбира', 'составн']]]</t>
+          <t>[[['сайт', 'подразделен', 'существ', 'функциона', 'позволя', 'подразделен', 'самостоятельн', 'формирова', 'списк', 'сотрудник', 'котор', 'обраща', 'ин', 'вопрос']]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[[]]]</t>
+          <t>[[['списк', 'показыва', 'справочник', 'сотрудник', 'такж', 'личн', 'кабинет', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[[['слев', 'располож', 'виджет', 'отвеча', 'формат', 'размещен', 'информац', 'ин', 'блок', 'текст', 'фот', 'виде', '...', 'справ', 'непосредствен', 'пол', 'размещен', 'виджет', 'соответствен', 'информац']]]</t>
+          <t>[[['настоя', 'врем', 'сайт', 'подразделен', 'завед', 'след', 'категор', 'функциональн', 'ответствен']]]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[[['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк']]]</t>
+          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[['внутр', 'центральн', 'част', 'страниц', 'редакторск', 'интерфейс', 'виджет', 'легк', 'меня', 'мест', 'прост', 'перетягив', 'мыш', 'удаля', 'ненужн', 'добавля', 'нов']]]</t>
+          <t>[[['добавлен', 'список', 'ответствен', 'автоматическ', 'дает', 'доступ', 'редактирован', 'сайт', 'персональн', 'страниц', 'для', 'необходим', 'получ', 'соответств', 'прав', 'подразделен', 'отвеча', 'соответств', 'ресурс']]]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[[['посл', 'размещен', 'необходим', 'информац', 'нажима', 'сохран', 'обязательн', 'проверя', 'получ']]]</t>
+          <t>[[['управлен', 'информацион', 'ресурс', 'выда', 'прав', 'заявк', 'адрес', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[[['виджет']]]</t>
+          <t>[[['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']]]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[[['для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'остальн', 'принцип', 'оформлен', 'текст', 'прост', 'статическ', 'страниц']]]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[[['может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова']]]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[[['виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок']]]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[[['якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'опеределен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor']]]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[[['для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[[['информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[[['помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>[[['чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>[[['для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'можн', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>[[['когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>[[['есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример']]]</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>[[['чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример']]]</t>
-        </is>
-      </c>
+          <t>[[['необходим', 'перейт', 'реж', 'редактирован', 'сайт', 'конкретн', 'подразделен', 'раздел', 'дан', 'блок', 'функциона', 'сотрудник', 'подразделен', 'нажа', 'кнопк', 'добав', 'сотрудник', 'вбит', 'пол', 'поиск', 'фи', 'выбра', 'сотрудник', 'галочк', 'выбра', 'возможн', 'категор', 'ответствен']], [['для', 'удален', 'сотрудник', 'необходим', 'убра', 'галк', 'списк', 'функциональн', 'ответствен', 'сотрудник'], [], ['обрат', 'вниман', 'ниж', 'блок', 'функциона', 'список', 'активн', 'рол', 'подразделен', 'нем', 'указа', 'люд', 'котор', 'имеют', 'доступ', 'просмотр', 'редактирован', 'дан', 'портал', 'относя', 'ваш', 'подразделен', 'есл', 'сред', 'люд', 'котор', 'работа', 'вшэ', 'имеют', 'отношен', 'конкретн', 'подразделен', 'необходим', 'сообщ', 'portal', 'hse.ru']]]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1378,7 +1234,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[['перейд', 'раздел', 'страниц', 'верхн', 'мен', 'режим', 'редактирован', 'сайт']]]</t>
+          <t>[[['для', 'создан', 'составн', 'статическ', 'страниц', 'необходим', 'продела', 'шаг', 'создан', 'прост', 'статическ', 'страниц', 'посл', 'заполнен', 'основн', 'пол', 'переход', 'пол', 'вид', 'страниц', 'располож', 'пол', 'текст', 'умолчан', 'флажок', 'установл', 'положен', 'прост', 'клика', 'выбира', 'составн']]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1388,78 +1244,114 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[[['созда', 'страниц', 'кликнув', 'иконк']]]</t>
+          <t>[[['слев', 'располож', 'виджет', 'отвеча', 'формат', 'размещен', 'информац', 'ин', 'блок', 'текст', 'фот', 'виде', '...', 'справ', 'непосредствен', 'пол', 'размещен', 'виджет', 'соответствен', 'информац']]]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[[[]]]</t>
+          <t>[[['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк']]]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[['при', 'заполнен', 'пол', 'заголовок', 'использ', 'форматирован', 'текст', 'разбива', 'текст', 'строк', 'вставля', 'пол', 'картинк', 'есл', 'копирует', 'эт', 'пол', 'текст', 'Word', 'обязательн', 'очист', 'форматирован', 'эт', 'пол', 'предназнач', 'исключительн', 'текст', 'форматирован', 'люб', 'случа', 'отраж', 'готов', 'страниц']]]</t>
+          <t>[[['внутр', 'центральн', 'част', 'страниц', 'редакторск', 'интерфейс', 'виджет', 'легк', 'меня', 'мест', 'прост', 'перетягив', 'мыш', 'удаля', 'ненужн', 'добавля', 'нов']]]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[[['техническ', 'им', 'страниц', 'пол', 'пут', 'указыва', 'латинск', 'строчн', 'букв', 'желательн', 'техническ', 'им', 'состоя', 'одн', 'слов', 'есл', 'необходим', 'использова', 'слов', 'назван', 'страниц', 'ко', 'случа', 'дела', 'пробел', 'слов', 'help', 'managers', 'должн', 'либ', 'help_managers', 'либ', 'help/managers']]]</t>
+          <t>[[['посл', 'размещен', 'необходим', 'информац', 'нажима', 'сохран', 'обязательн', 'проверя', 'получ']]]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[[[]]]</t>
+          <t>[[['виджет']]]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[[['нельз', 'создава', 'пуст', 'страниц', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одного-единствен', 'файл']]]</t>
+          <t>[[['для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'остальн', 'принцип', 'оформлен', 'текст', 'прост', 'статическ', 'страниц']]]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[[['английск', 'верс', 'русск', 'страниц', 'должн', 'имет', 'так', 'техническ', 'им', 'русскоязычн', 'страниц', 'единствен', 'отлич', 'создан', 'английск', 'страниц', 'пол', 'язык', 'необходим', 'простав', 'значен', 'английск']]]</t>
+          <t>[[['может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова']]]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[[['рамк', 'одн', 'сайт', 'должн', 'статическ', 'страниц', 'одинаков', 'адрес', 'пол', 'пут', 'одн', 'язык']]]</t>
+          <t>[[['виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок']]]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[[['посл', 'наполн', 'страниц', 'прописа', 'техническ', 'им', 'необходим', 'сохран', 'страниц']]]</t>
+          <t>[[['якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'опеределен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor']]]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[[['посл', 'сохранен', 'страниц', 'доступн', 'адрес', 'адрес-главной-страницы-сайта/пут', 'например', 'дан', 'страниц', 'адрес', 'https', '//portal.hse.ru/pages/', 'https', '//portal.hse.ru/', 'адрес', 'главн', 'страниц', 'сайт', 'pages', 'пут', 'страниц']]]</t>
+          <t>[[['для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример']]]</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>[[['чтоб', 'страниц', 'могл', 'заход', 'пользовател', 'ссылк', 'не', 'необходим', 'добав', 'мен']]]</t>
+          <t>[[['есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример']]]</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[[['ссылк', 'мен', 'добавля', 'страниц', 'полност', 'готов', 'наполн', 'содержим']]]</t>
+          <t>[[['информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример']]]</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[[['инструкц', 'дальн', 'работ', 'страниц', 'может', 'найт']]]</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+          <t>[[['помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[[['есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[[['для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'можн', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>[[['когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[[['есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>[[['есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример']]]</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример']]]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1549,7 +1441,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[[['редакторск', 'режим', 'сайт', 'статическ', 'страниц', 'новост', 'анонс', 'вид', 'след', 'пол', 'заполнен']]]</t>
+          <t>[[['перейд', 'раздел', 'страниц', 'верхн', 'мен', 'режим', 'редактирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1559,29 +1451,69 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'описан', 'документ', 'соцсет']]]</t>
+          <t>[[['созда', 'страниц', 'кликнув', 'иконк']]]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[[['сам', 'важн', 'пол', 'описан', 'документ', 'мер', 'наполнен', 'сайт', 'забыва', 'заполня', 'эт', 'пол', 'нов', 'страниц', 'новост', 'анонс', 'больш', 'просьб', 'такж', 'заполн', 'созда', 'сайт', 'статическ', 'страниц']], [['напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск']], [[]], [['что', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'описан', 'документ', 'эт', 'фактическ', 'кратк', 'описан', 'написа', 'главн', 'страниц', 'сайт', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст']], [['мета-описан', 'должн', 'содержа', 'нескольк', 'слов', 'должн', 'описыва', 'конкретн', 'страниц', 'сайт', 'сайт', 'цел', 'мета-описан', 'должн', 'написа', 'люд', 'нормальн', 'человеческ', 'язык', 'развернут', 'правильн', 'выстроен', 'предложен', 'злоупотреблен', 'ключев', 'слов', 'фраз', 'заглавн', 'букв', 'рекламн', 'лозунг', 'пр.', 'мета-описан', 'должн', 'емк', 'содержательн', 'стара', 'выраз', 'основн', 'сут', 'документ', 'нескольк', 'предложен', 'содержим', 'тег', 'meta', 'должн', 'актуальн', 'отража', 'текущ', 'состоян', 'страниц', 'мета-описан', 'должн', 'соответствова', 'язык', 'документ']], [['наполнен', 'мета-описан', 'времен', 'служебн', 'информац', 'например', 'заб', 'добав', 'текст', 'устаревш', 'описан', 'например', 'цен', 'сайт', 'измен', 'описыва', 'документ', 'располож', 'друг', 'адрес', 'описан', 'прежн', 'размещен', 'важн', 'информац', 'конц', 'текст', 'стара', 'располага', 'наибол', 'важн', 'информац', 'фраз', 'начал', 'мета-описан']], [['https', '//elearning.hse.ru/mooc', 'массов', 'открыт', 'онлайн', 'курс', 'ни', 'вшэ'], ['description', 'открыт', 'доступ', 'международн', 'платформ', 'Coursera', 'российск', 'национальн', 'платформ', 'открыт', 'образован', 'нпо', 'может', 'бесплатн', 'изуча', 'курс', 'лучш', 'преподавател', 'высш', 'школ', 'экономик'], ['https', '//www.hse.ru/abiturient', 'поступа', 'ни', 'вшэ'], ['description', 'высш', 'школ', 'экономик', 'эт', 'отличн', 'старт', 'карьер', 'бизнес', 'государствен', 'служб', 'наук', 'зде', 'готов', 'высококлассн', 'специалист', 'нужн', 'стран', 'все', 'нужн', 'знат', 'поступа', 'ни', 'вшэ', 'дни', 'открыт', 'двер', 'проходн', 'балл', 'друг', 'информац'], ['https', '//www.hse.ru/figures/', 'цифр', 'факт'], ['description', 'что', 'так', 'вшэ', 'цифр', 'факт', 'статистик', 'рейтинг', 'инфографик', 'мног', 'друг', 'хотел', 'знат', 'вышк'], ['https', '//ma.hse.ru/', 'абитуриент', 'магистратур'], ['description', 'при', 'информац', 'поступа', 'магистратур', 'ни', 'вшэ', 'список', 'направлен', 'подготовк', 'программ', 'вопрос', 'ответ', 'вступительн', 'испытан', 'дни', 'открыт', 'двер', 'официальн', 'сайт']]]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[[['есл', 'хот', 'ваш', 'сайт', 'отдельн', 'страниц', 'красив', 'выглядел', 'соцсет', 'пользовател', 'дел', 'ссылк', 'нужн', 'пол', 'заполн']], [['картинк', 'ниж', 'увидет', 'отлича', 'ссылк', 'соцсет', 'случа', 'соответств', 'пол', 'заполн']], [['картинк', 'заполн']], [[]], [['картинк', 'заполн']], [[]], [['чтоб', 'посмотрет', 'отобража', 'ин', 'страниц', 'копирован', 'ссылк', 'вконтакт', 'воспользова', 'инструмент', 'вконтакт', 'pages.clearCache', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен']]]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+          <t>[[['при', 'заполнен', 'пол', 'заголовок', 'использ', 'форматирован', 'текст', 'разбива', 'текст', 'строк', 'вставля', 'пол', 'картинк', 'есл', 'копирует', 'эт', 'пол', 'текст', 'Word', 'обязательн', 'очист', 'форматирован', 'эт', 'пол', 'предназнач', 'исключительн', 'текст', 'форматирован', 'люб', 'случа', 'отраж', 'готов', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[[['техническ', 'им', 'страниц', 'пол', 'пут', 'указыва', 'латинск', 'строчн', 'букв', 'желательн', 'техническ', 'им', 'состоя', 'одн', 'слов', 'есл', 'необходим', 'использова', 'слов', 'назван', 'страниц', 'ко', 'случа', 'дела', 'пробел', 'слов', 'help', 'managers', 'должн', 'либ', 'help_managers', 'либ', 'help/managers']]]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[[['нельз', 'создава', 'пуст', 'страниц', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одного-единствен', 'файл']]]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[[['английск', 'верс', 'русск', 'страниц', 'должн', 'имет', 'так', 'техническ', 'им', 'русскоязычн', 'страниц', 'единствен', 'отлич', 'создан', 'английск', 'страниц', 'пол', 'язык', 'необходим', 'простав', 'значен', 'английск']]]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[[['рамк', 'одн', 'сайт', 'должн', 'статическ', 'страниц', 'одинаков', 'адрес', 'пол', 'пут', 'одн', 'язык']]]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[[['посл', 'наполн', 'страниц', 'прописа', 'техническ', 'им', 'необходим', 'сохран', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[[['посл', 'сохранен', 'страниц', 'доступн', 'адрес', 'адрес-главной-страницы-сайта/пут', 'например', 'дан', 'страниц', 'адрес', 'https', '//portal.hse.ru/pages/', 'https', '//portal.hse.ru/', 'адрес', 'главн', 'страниц', 'сайт', 'pages', 'пут', 'страниц']]]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'страниц', 'могл', 'заход', 'пользовател', 'ссылк', 'не', 'необходим', 'добав', 'мен']]]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[[['ссылк', 'мен', 'добавля', 'страниц', 'полност', 'готов', 'наполн', 'содержим']]]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[[['инструкц', 'дальн', 'работ', 'страниц', 'может', 'найт']]]</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1598,27 +1530,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[['настоя', 'врем', 'сведен', 'блок', 'показ', 'списк', 'карт', 'дан', 'показ', 'списк', 'карт', 'показыва', 'сайт', 'подразделен', 'однак', 'использ', 'отображен', 'информац', 'подразделен', 'раздел', 'порта']]]</t>
+          <t>[[['быстр', 'ссылк', 'заголовк', 'страниц', 'мета-описан', 'страниц', 'заголовк', 'текст', 'ссылк', 'изображен', 'общ', 'рекомендац']]]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[[['здан', 'наук', 'поиск', 'подразделен', 'сведен', 'образовательн', 'организац', 'кром', 'информац', 'раздел', 'переда', 'яндекс.карт', 'эт', 'каса', 'прежд', 'крупн', 'подразделен']]]</t>
+          <t>[[['заголовк', 'должн', 'соответствова', 'содержан', 'страниц']], [['заголовок', 'долж', 'уникальн', 'максимальн', 'соответствова', 'содержан', 'страниц']], [['чег', 'след', 'избега']], [['заголовк', 'имеющ', 'отношен', 'содержан', 'страниц', 'шаблон', 'бессмыслен', 'заголовк', 'так', 'поступа', 'студент']], [['использ', 'кратк', 'содержательн', 'заголовк']], [['максимальн', 'длин', 'заголовк', '150', 'символ', 'оптимальн', 'символ']], [['заголовок', 'долж', 'информативн', 'кратк', 'есл', 'связа', 'содержан', 'слишк', 'длин', 'поисков', 'систем', 'показа', 'част', 'заголовок', 'котор', 'созда', 'основ', 'содержим', 'страниц']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'заголовк', 'бесполезн', 'пользовател']]]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[[['чтоб', 'перейт', 'редактирован', 'блок', 'зайд', 'административн', 'интерфейс', 'порта', 'перейд', 'дан', 'показ', 'списк', 'карт']]]</t>
+          <t>[[['описан', 'должн', 'точн', 'отража', 'содержан', 'страниц']], [['помн', 'описан', 'показа', 'результат', 'поиск', 'поэт', 'он', 'должн', 'информативн', 'интересн', 'пользовател', 'дела', 'мета-описан', '300', 'символ', 'коротк', 'будут', 'плох', 'выглядет', 'длин', 'уреза']], [['чег', 'след', 'избега']], [['создан', 'мет', 'тег', 'описан', 'имеющ', 'отношен', 'содержан', 'страниц', 'использован', 'описан', 'общ', 'характер', 'например', 'эт', 'веб-страниц', 'учебн', 'программ', 'использован', 'описан', 'ключев', 'слов', 'копирован', 'описан', 'содержан', 'документ']], [['использ', 'разн', 'описан', 'разн', 'страниц']], [['есл', 'будет', 'использова', 'уникальн', 'мет', 'тег', 'описан', 'кажд', 'страниц', 'эт', 'поможет', 'пользовател', 'сдела', 'правильн', 'выбор', 'особен', 'случа', 'результат', 'поиск', 'отобража', 'нескольк', 'страниц', 'сайт']], [['чег', 'след', 'избега']], [['использован', 'одн', 'мет', 'тег', 'описан', 'мног', 'страниц', 'сайт']], [['инструкц', 'заполнен', 'мета-тег', 'редактор', 'найт', 'https', '//portal.hse.ru/meta']]]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[[['телефон', 'адрес']], [['основн', 'телефон', 'укаж', 'телефон', 'формат', '4957787704', 'внутрен', 'телефон', 'необход', 'при', 'необходим', 'укаж', 'ком', 'принадлеж', 'номер']], [['есл', 'подразделен', 'располага', 'разн', 'здан', 'кажд', 'адрес', 'указа', 'сво', 'номер', 'телефон']], [['есл', 'укажет', 'телефон', 'кажд', 'адрес', 'указыва', 'основн', 'телефон', 'необязательн', 'отображен', 'яндекс.карт', 'будут', 'использова', 'телефон', 'указа', 'адрес', 'есл', 'указа', 'основн', 'телефон', 'показыва', 'обо', 'адрес']], [['есл', 'нашл', 'адрес', 'ни', 'вшэ', 'справочник', 'напиш', 'portal', 'hse.ru']], [['поч', 'важн', 'указа', 'телефон', 'подразделен', 'вам', 'удобн', 'связа', 'тольк', 'налич', 'адрес', 'телефон', 'подразделен', 'показа', 'яндекс.карт', 'обрат', 'вниман', 'яндекс.карт', 'показыва', 'факультет', 'крупн', 'институт', 'международн', 'лаборатор', 'редакц', 'журнал']], [['электрон', 'почт']], [['укаж', 'корпоративн', 'почт', 'подразделен', 'корпоративн', 'почт', 'сотрудник', 'выполня', 'обязан', 'секретаря/менеджер']], [['уровен', 'подготовк']], [['указан', 'уровн', 'образован', 'актуальн', 'подразделен', 'реализ', 'образовательн', 'программ', 'имеющ', 'аспирантск', 'школ']], [['тип', 'подразделен', 'яндекс', 'актуальн', 'крупн', 'подразделен']], [['тип', 'факультет', 'указыва', 'подразделен', 'реализ', 'основн', 'образовательн', 'программ', 'крупн', 'институт']], [['тип', 'дополнительн', 'образован', 'курс', 'иностра', 'язык', 'маркетингов', 'услуг', 'учебн', 'центр', 'центр', 'повышен', 'квалификац', 'указыва', 'тех', 'подразделен', 'котор', 'эт']], [['категор', 'подразделен']], [['скор', 'категор', 'проставл', 'есл', 'проставьт']], [['обрат', 'вниман', 'научно-учебн', 'лаборатор', 'явля', 'международн', 'долж', 'стоя', 'тип', 'международн', 'лаборатор', 'возникновен', 'вопрос', 'обраща', 'мар', 'юдкевич']], [['тематик', 'исследован']], [['дан', 'справочник', 'основа', 'расширен', 'классификатор', 'OECD', 'использ', 'отображен', 'подразделен', 'раздел', 'наук', 'такж', 'общ', 'каталог', 'подразделен', 'ни', 'вшэ']]]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>[[['предназначен', 'пример']], [['основн', 'предназначен', 'дан', 'тег', 'структурирован', 'оформлен', 'контент', 'страниц', 'сдела', 'чита', 'легк', 'воспринима', 'пользовател', 'сайт']], [['кром', 'применен', 'дан', 'тег', 'качеств', 'структуризац', 'контент', 'оформлен', 'использован', 'придан', 'дизайн', 'отдельн', 'фраз', 'предложен', 'допуска', 'заголовк', 'должн', 'использова', 'разбиен', 'текст', 'логическ', 'блок']], [['тег', 'заголовк', 'h2-h6', 'отлича', 'значим', 'кажд', 'низш', 'уровен', 'долж', 'мен', 'знач', 'при', 'использован', 'дан', 'тег', 'нужн', 'выдержива', 'структур', 'h2-h3-h4-h5-h6']], [['так', 'избега', 'использован', 'друг', 'тег', 'акцентирован', 'strong', 'ссылок', 'внутр', 'тег', 'h2-h6']], [['длин', 'заголовк', 'должн', 'превыша', 'символ', 'поисков', 'систем', 'обрабатыва', 'ограничен', 'количеств', 'знак', 'длин', 'заголовк', 'будут', 'воспринят', 'полност']], [['редактор', 'дан', 'заголовк', 'найт', 'пол', 'формат']], [[]], [['инструкц', 'добавлен', 'заголовк', 'редактор', 'https', '//portal.hse.ru/format/', 'headrs']], [['представьт', 'пишет', 'обзор']], [['как', 'написан', 'обзор', 'больш', 'текст', 'излож', 'основн', 'пункт', 'подпункт', 'документ', 'подума', 'использова', 'тег', 'заголовк']], [['чег', 'след', 'избега']], [['выделен', 'тег', 'заголовк', 'так', 'текст', 'котор', 'помога', 'определ', 'структур', 'страниц', 'использован', 'заголовк', 'подход', 'друг', 'тег', 'например', 'курс', 'strong', 'полужирн', 'бессистемн', 'использован', 'заголовк', 'разн', 'размер']], [['злоупотребля', 'заголовк']], [['использ', 'тег', 'заголовк', 'эт', 'имеет', 'смысл', 'чрезмерн', 'количеств', 'заголовк', 'страниц', 'затрудня', 'просмотр', 'контент', 'меша', 'определ', 'заканчива', 'одн', 'тем', 'начина', 'друг']], [['чег', 'след', 'избега']], [['злоупотреблен', 'заголовк', 'страниц', 'слишк', 'длин', 'заголовк', 'использован', 'заголовк', 'оформлен', 'текст', 'структурирован']]]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[[['тщательн', 'продумыва', 'текст', 'ссылок']], [['видим', 'текст', 'ссылк', 'помога', 'пользовател', 'поисковик', 'поня', 'содержан', 'страниц', 'ссылк', 'страниц', 'могут', 'внутрен', 'указыва', 'друг', 'страниц', 'сайт', 'внешн', 'ведут', 'друг', 'сайт', 'люб', 'случа', 'понятн', 'текст', 'ссылк', 'прощ', 'пользовател', 'ориентирова', 'сайт', 'поисков', 'систем', 'легч', 'поня', 'страниц', 'котор', 'ведет', 'ссылк']], [['хорош', 'продума', 'текст', 'ссылк', 'помога', 'пользовател', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет']], [['использ', 'информативн', 'текст']], [['текст', 'ссылк', 'долж', 'хот', 'общ', 'описыва', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк']], [['чег', 'след', 'избега']], [['использован', 'текст', 'ссылк', 'общ', 'слов', 'например', 'страниц', 'стат', 'нажм', 'слов', 'имеющ', 'отношен', 'тем', 'контент', 'страниц', 'котор', 'ведет', 'ссылк', 'част', 'использован', 'URL', 'страниц', 'качеств', 'текст', 'ссылк', 'эт', 'допуска', 'например', 'продвижен', 'указан', 'нов', 'адрес', 'сайт']], [['текст', 'долж', 'лаконичн']], [['текст', 'долж', 'описательн', 'возможн', 'небольш', 'нескольк', 'слов', 'коротк', 'фраз']], [['чег', 'след', 'избега']], [['длин', 'текст', 'ссылк', 'например', 'сложн', 'предложен', 'цел', 'абзац']], [['подбер', 'текст', 'ссылок', 'внутрен', 'URL']], [['забыва', 'ссылк', 'быва', 'внешн', 'внутрен', 'тщательн', 'продума', 'текст', 'внутрен', 'ссылок', 'поможет', 'ориентирова', 'сайт', 'пользовател', 'поисков', 'систем']], [['чег', 'след', 'избега']], [['длин', 'текст', 'больш', 'количеств', 'ключев', 'слов', 'предназначен', 'поисков', 'сист', 'создан', 'ненужн', 'ссылок', 'котор', 'упроща', 'навигац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[[['использ', 'атрибут', 'alt']], [['для', 'изображен', 'использ', 'описательн', 'им', 'файл', 'атрибут', 'alt', 'атрибут', 'alt', 'содерж', 'текст', 'котор', 'вид', 'пользовател', 'изображен', 'показыва', 'то', 'ин', 'причин']], [['чтоб', 'заполн', 'атрибут', 'редактор', 'сайт', 'добавлен', 'картинк', 'нужн', 'заполн', 'пол', 'описан']], [[]], [['для', 'нуж', 'атрибут', 'есл', 'посетител', 'использ', 'просмотр', 'сайт', 'вспомогательн', 'технолог', 'например', 'программ', 'чтен', 'экра', 'сможет', 'поня', 'изображ', 'картинк']], [['кром', 'использует', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'служ', 'текст', 'обычн', 'ссылк', 'однак', 'рекоменду', 'злоупотребля', 'изображен', 'навигац', 'сайт', 'использова', 'текстов', 'ссылк', 'наконец', 'оптимизац', 'им', 'графическ', 'файл', 'текст', 'атрибут', 'alt', 'упроща', 'поиск', 'изображен', 'например', 'Google', 'картинк']], [['использ', 'кратк', 'описательн', 'им', 'файл', 'текст', 'атрибут', 'alt']], [['как', 'мног', 'друг', 'элемент', 'страниц', 'котор', 'оптимизирова', 'им', 'файл', 'текст', 'атрибут', 'alt', 'должн', 'кратк', 'содержательн']], [['чег', 'след', 'избега']], [['шаблон', 'бессмыслен', 'им', 'так', 'image1.jpg', 'pic.gif', '1.jpg', 'возможн', 'слишк', 'длин', 'им', 'файл', 'добавлен', 'ключев', 'слов', 'цел', 'предложен', 'текст', 'атрибут', 'alt']], [['добавля', 'текст', 'атрибут', 'alt', 'использует', 'изображен', 'ссылк']], [['есл', 'реш', 'использова', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'поможет', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'счита', 'пишет', 'текст', 'обычн', 'ссылк']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'текст', 'атрибут', 'alt', 'рассматрива', 'спам', 'чрезмерн', 'использован', 'изображен', 'качеств', 'ссылок', 'навигац', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[[['пиш', 'легк', 'чита', 'текст']], [['текст', 'долж', 'понят', 'пользовател', 'стара', 'выдержива', 'стил', 'допуска', 'ошибок']], [['чег', 'след', 'избега']], [['грамматическ', 'орфографическ', 'ошибок', 'текст', 'запута', 'формулировок', 'некачествен', 'контент']]]</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1643,25 +1587,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[[['баннер', 'размеща', 'главн', 'страниц', 'сайт', 'эт', 'прост', 'элемент', 'оформлен', 'повесел', 'баннер', 'призва', 'обрат', 'вниман', 'посетител', 'какой-т', 'контент', 'например', 'ссылк', 'баннер', 'вест', 'анонс', 'конференц', 'новост', 'крупн', 'проект']]]</t>
+          <t>[[['редакторск', 'режим', 'сайт', 'статическ', 'страниц', 'новост', 'анонс', 'вид', 'след', 'пол', 'заполнен']]]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[[[]], [['заголовок', 'нескольк', 'слов', 'кратк', 'емк', 'описыва', 'тем', 'есл', 'заголовок', 'слишк', 'длин', 'вмест', 'текст', 'анонс', 'помест', 'мобильн', 'верс']], [['анонс', 'бол', 'детальн', 'раскрыва', 'тем', 'баннер', 'зада', 'обычн', 'шрифт', 'поэт', 'длин', 'заголовк']], [['как', 'мобильн', 'верс', 'скрыт', 'част', 'анонс', 'есл', 'вид', 'экран', 'мобильн', 'текст', 'анонс', 'помеща', 'полност', 'оберн', 'тэг', 'span', 'class=', 'is-desktop', 'текст', 'скрыт', 'мобильн', '/span', 'есл', 'нужн', 'наоборот', 'отобража', 'какой-т', 'фрагмент', 'текст', 'мобильн', 'скрыва', 'больш', 'экран', 'использ', 'span', 'class=', 'is-mobile', '…текст…', '/span']]]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[[['существ', 'вариант', 'оформлен', 'баннер', 'заливк', 'цвет', 'фонов', 'картинк'], ['умолчан', 'редактор', 'предлага', 'стил', 'Amethyst', 'друг', 'градиентн', 'фон', 'может', 'выбра', 'котор', 'наибол', 'подход', 'цвет', 'ваш', 'сайт', 'стара', 'избега', 'крича', 'цвет'], ['есл', 'хот', 'использова', 'качеств', 'фон', 'картинк', 'пол', 'стил', 'выбира', 'сво', 'баннер'], [], ['фон', 'сплешк', 'эт', 'фонов', 'фотограф', 'баннер', 'выбир', 'изображен', 'ориентир', 'фотостил', 'вышк', 'размер', 'обычн', 'пропорц', 'горизонтальн', 'ориентирова', 'фот', '1600', 'ширин', 'перед', 'загрузк', 'картинк', 'необходим', 'оптимизирова', 'подробн', 'поч', 'важн', 'оптимизирова', 'фот', 'прочита', 'страниц', 'найдет', 'ссылк', 'бесплатн', 'фотобанк', 'фотограф', 'наш', 'университет', 'использу', 'может', 'увер', 'наруша', 'авторск', 'прав', 'баннер', 'размеща', 'изображен', 'готов', 'текст', 'больш', 'вероятн', 'обреза', 'различн', 'устройств', 'похож', 'рекомендац', 'относ', 'композиц', 'след', 'след', 'экран', 'мобильн', 'отобража', 'значим', 'част', 'фотограф', 'иллюстрац', 'есл', 'фонов', 'фот', 'достаточн', 'светл', 'текст', 'нем', 'теря', 'затемн'], ['как', 'затемн', 'фонов', 'изображен', 'можн', 'воспользова', 'программ', 'Photoshop', 'бесплатн', 'онлайн-фотошоп', 'открыва', 'изображен', 'программ', 'выбира', 'верхн', 'мен', 'изображен', 'коррекц', 'крив', 'использу', 'горяч', 'клавиш', 'Ctrl', 'дал', 'помощ', 'изменен', 'точек', 'крив', 'затемня', 'изображен', 'нужн', 'уровн'], ['стил', 'CSS', 'пол', 'установ', 'позиционирован', 'фонов', 'баннер', 'страниц', 'чем', 'меньш', 'значен', 'ниж', 'изображен', 'значен', 'перв', 'класс', 'пример', 'выш', 'эт', '.vp', 'должн', 'уникальн', 'кажд', 'баннер', 'написа', 'латиниц', 'так', '.vp', 'cокращен', 'высш', 'пилотаж', 'использ', 'след', 'код', 'замен', 'перв', 'значен'], ['.vp.splash.pseudo', 'background-position'], ['CSS', 'класс', 'чтоб', 'стил', 'работа', 'скопир', 'значен', 'перв', 'класс', 'стил', 'CSS', 'точк', 'пример', 'эт'], ['темн', 'текст.', 'устанавлива', 'фон', 'сплешк', 'светл']]]</t>
+          <t>[[['быстр', 'ссылк', 'описан', 'документ', 'соцсет']]]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[[['есл', 'нужн', 'скрыт', 'баннер', 'дела', 'неактивн', 'убра', 'галочк', 'слайд', 'актив', 'чтоб', 'удал', 'неактуальн', 'баннер', 'необходим', 'нажа', 'крестик', 'прав', 'угл', 'сохран', 'изменен'], []]]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>[[['сам', 'важн', 'пол', 'описан', 'документ', 'мер', 'наполнен', 'сайт', 'забыва', 'заполня', 'эт', 'пол', 'нов', 'страниц', 'новост', 'анонс', 'больш', 'просьб', 'такж', 'заполн', 'созда', 'сайт', 'статическ', 'страниц']], [['напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск']], [[]], [['что', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'описан', 'документ', 'эт', 'фактическ', 'кратк', 'описан', 'написа', 'главн', 'страниц', 'сайт', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст']], [['мета-описан', 'должн', 'содержа', 'нескольк', 'слов', 'должн', 'описыва', 'конкретн', 'страниц', 'сайт', 'сайт', 'цел', 'мета-описан', 'должн', 'написа', 'люд', 'нормальн', 'человеческ', 'язык', 'развернут', 'правильн', 'выстроен', 'предложен', 'злоупотреблен', 'ключев', 'слов', 'фраз', 'заглавн', 'букв', 'рекламн', 'лозунг', 'пр.', 'мета-описан', 'должн', 'емк', 'содержательн', 'стара', 'выраз', 'основн', 'сут', 'документ', 'нескольк', 'предложен', 'содержим', 'тег', 'meta', 'должн', 'актуальн', 'отража', 'текущ', 'состоян', 'страниц', 'мета-описан', 'должн', 'соответствова', 'язык', 'документ']], [['наполнен', 'мета-описан', 'времен', 'служебн', 'информац', 'например', 'заб', 'добав', 'текст', 'устаревш', 'описан', 'например', 'цен', 'сайт', 'измен', 'описыва', 'документ', 'располож', 'друг', 'адрес', 'описан', 'прежн', 'размещен', 'важн', 'информац', 'конц', 'текст', 'стара', 'располага', 'наибол', 'важн', 'информац', 'фраз', 'начал', 'мета-описан']], [['https', '//elearning.hse.ru/mooc', 'массов', 'открыт', 'онлайн', 'курс', 'ни', 'вшэ'], ['description', 'открыт', 'доступ', 'международн', 'платформ', 'Coursera', 'российск', 'национальн', 'платформ', 'открыт', 'образован', 'нпо', 'может', 'бесплатн', 'изуча', 'курс', 'лучш', 'преподавател', 'высш', 'школ', 'экономик'], ['https', '//www.hse.ru/abiturient', 'поступа', 'ни', 'вшэ'], ['description', 'высш', 'школ', 'экономик', 'эт', 'отличн', 'старт', 'карьер', 'бизнес', 'государствен', 'служб', 'наук', 'зде', 'готов', 'высококлассн', 'специалист', 'нужн', 'стран', 'все', 'нужн', 'знат', 'поступа', 'ни', 'вшэ', 'дни', 'открыт', 'двер', 'проходн', 'балл', 'друг', 'информац'], ['https', '//www.hse.ru/figures/', 'цифр', 'факт'], ['description', 'что', 'так', 'вшэ', 'цифр', 'факт', 'статистик', 'рейтинг', 'инфографик', 'мног', 'друг', 'хотел', 'знат', 'вышк'], ['https', '//ma.hse.ru/', 'абитуриент', 'магистратур'], ['description', 'при', 'информац', 'поступа', 'магистратур', 'ни', 'вшэ', 'список', 'направлен', 'подготовк', 'программ', 'вопрос', 'ответ', 'вступительн', 'испытан', 'дни', 'открыт', 'двер', 'официальн', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[[['есл', 'хот', 'ваш', 'сайт', 'отдельн', 'страниц', 'красив', 'выглядел', 'соцсет', 'пользовател', 'дел', 'ссылк', 'нужн', 'пол', 'заполн']], [['картинк', 'ниж', 'увидет', 'отлича', 'ссылк', 'соцсет', 'случа', 'соответств', 'пол', 'заполн']], [['картинк', 'заполн']], [[]], [['картинк', 'заполн']], [[]], [['чтоб', 'посмотрет', 'отобража', 'ин', 'страниц', 'копирован', 'ссылк', 'вконтакт', 'воспользова', 'инструмент', 'вконтакт', 'pages.clearCache', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен']]]</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1688,64 +1636,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[['мног', 'использ', 'сво', 'работ', 'фот', 'виде', 'изображен', 'университет', 'дирекц', 'связ', 'обществен', 'подготов', 'собра', 'фото-', 'видеоконтент', 'котор', 'показыва', 'наш', 'корпус', 'учебн', 'процесс', 'переда', 'атмосфер', 'вышк']]]</t>
+          <t>[[['осторожн', 'относ', 'просьб', 'коллег', 'размест', 'сайт', 'подразделен', 'произвольн', 'JavaScript', 'сторон', 'iframe', 'подобн', 'вставк', 'оказыва', 'очен', 'уязвим', 'элемент', 'сайт', 'точк', 'зрен', 'безопасн', 'через', 'связ', 'внеш', 'сайт', 'могут', 'стат', 'рассадник', 'огромн', 'числ', 'вирус', 'инфицирова', 'компьютер', 'подозрева', 'посетител', 'порта']]]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[[['YоуTубе-канал', 'может', 'найт', 'плейлист', 'имиджев', 'ролик', 'экскурс', 'здан', 'лета', 'видеогид', 'покровк', 'ролик', 'университетск', 'лаборатор', 'вопрос', 'учен', 'мног', 'друг']]]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[[['такж', 'воспользова', 'фотограф', 'университет', 'страниц', 'love.hse', 'размещ', 'вариант', 'обоев/фон', 'зум', 'стикерпак']]]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[[['страниц', 'собра', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта', 'больш', 'част', 'эт', 'сервис', 'использ', 'сотрудник', 'дирекц', 'портал', 'мобильн', 'приложен', 'повседневн', 'работ', 'однак', 'необходим', 'имет', 'вид', 'сотрудник', 'дирекц', 'осуществля', 'поддержк', 'числ', 'имеют', 'возможн', 'консультирова', 'использован', 'есл', 'пользует', 'удобн', 'ресурс', 'котор', 'зна', 'присыла', 'информац', 'адрес', 'dkoptubenko', 'hse.ru']]]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[[['Colordot', 'инструмент', 'определен', 'HTML-код', 'требуем', 'цвет', 'отлич', 'аналог', 'имеет', 'визуальн', 'удобн', 'палитр', 'Pixlr', 'обработк', 'фот', 'тех', 'ког', 'рук', 'фотошоп', 'аналог', 'зде', 'удобн', 'дела', 'коллаж', 'нескольк', 'изображен', 'TinyPNG', 'проверен', 'инструмент', 'сжат', 'изображен', 'публикац', 'сайт']]]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[[['Unsplash', 'изумительн', 'красот', 'фотограф', 'основн', 'видов', 'Gratisography', 'бесплатн', 'жанров', 'фотограф', 'StockSnap.io', 'кажд', 'недел', 'сервис', 'пополня', 'сотн', 'нов', 'разрешен', 'свободн', 'использован', 'изображен', 'Picjumbo', 'платн', 'ресурс', 'част', 'фотограф', 'брат', 'оттуд', 'прост', 'Picography', 'небольш', 'обь', 'коллекц', 'бесплатн', 'фотограф', 'Library', 'Congress', 'историческ', 'фотограф', 'коллекц', 'библиотек', 'конгресс', 'сша', 'перед', 'использован', 'кажд', 'фотограф', 'прочита', 'распространя', 'прав', 'использован', 'разрешен', 'Morguefile', 'основн', 'пользовательск', 'фотограф', 'невысок', 'качеств', 'встреча', 'превосходн', 'снимк', 'Textures', 'подборк', 'паттерн', 'фонов', 'изображен', 'L+T', 'альтернативн', 'сервис', 'подборк', 'фонов', 'изображен', 'FreeStockTextures', '800', 'паттерн', 'TextureZoom', 'тематическ', 'текстур']]]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[[['draw.io', 'интерактивн', 'блок-схем', 'созда', 'помощ', 'инструмент', 'easelly', 'прост', 'употреблен', 'сервис', 'инфографик', 'след', 'обрат', 'вниман', 'русскоязычн', 'шрифт', 'отобража', 'задумыва', 'MyBalsamiq', 'сервис', 'создан', 'прототип', 'можн', 'использова', 'взаимодейств', 'иллюстратор']]]</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[[['StoryMap', 'помощ', 'создава', 'интерактивн', 'карт', 'Juxtapose', 'элегантн', 'инструмент', 'демонстрац', 'изменен', 'однотипн', 'объект', 'помощ', 'слайдер', 'пользовател', 'сравн', 'стал', 'подобн', 'инструмент', 'активн', 'применя', 'сми', 'демонстрац', 'изменен', 'например', 'реконструкц', 'дом', 'улиц', 'снят', 'одн', 'ракурс', 'Timeline', 'помощ', 'создава', 'таймлайн', 'интерактивн', 'истор', 'растянут', 'времен', 'портал', 'использова', 'например', 'создан', 'страниц', '20-лет', 'нижегородск', 'кампус', 'Soundcite', 'инструмент', 'создан', 'аудиопрезентац', 'Prezi', 'мощн', 'альтернатив', 'Powerpoint', 'создан', 'презентац', 'Fliphtml5', 'инструмент', 'размещен', 'пдф-файл', 'вид', 'раскрыт', 'книг', 'возможн', 'листан', 'страниц', 'мышк', 'единствен', 'известн', 'нам', 'стабильн', 'бесплатн', 'инструмент', 'подобн', 'род', 'формул', 'инструмент', 'отображен', 'формул', 'сайт']]]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[[['Google', 'форм', 'бесплатн', 'генератор', 'опрос', 'может', 'пригод', 'нужн', 'провест', 'опрос', 'периметр', 'порта', 'для', 'формирован', 'опросн', 'регистрацион', 'форм', 'портал', 'штатн', 'инструмент']]]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[[['вконтакт', 'pages.clearCache', 'инструмент', 'вконтакт', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен', 'vk.com/cc', 'инструмент', 'генерац', 'коротк', 'ссылок', 'вконтакт', 'SMMPlanner', 'отложен', 'постинг', 'социальн', 'сет', 'Ezgif', 'создан', 'гиф-изображен', 'видеозапис', 'такж', 'редактур', 'изменен', 'размер', 'обрезк', 'дал', 'Make', 'Beliefs', 'Comix', 'создан', 'комикс']]]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[[['онлайн-инструмент', 'любител', 'PDF', 'полност', 'бесплатн', 'онлайн-инструмент', 'объединен', 'разделен', 'сжат', 'PDF-файл', 'преобразован', 'документ', 'Office', 'PDF-файл', 'преобразован', 'PDF-файл', 'JPG', 'JPG', 'PDF', 'без', 'необходим', 'установк']]]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[[['Tutorialspoint', 'обширн', 'набор', 'учебник', 'инструкц', 'пользова', 'Word', 'Powepoint', 'Excel', 'сотн', 'друг', 'программ', 'приложен', 'html', 'academy', 'сайт', 'отличн', 'бесплатн', 'базов', 'курс', 'html', 'css', 'настольн', 'книг', 'кажд', 'имеет', 'доступ', 'редактирован', 'страниц', 'портал', 'Codecademy', 'интерактивн', 'курс', 'программирован']], [['https', '//smmplanner.com/']]]</t>
-        </is>
-      </c>
+          <t>[[['гарантирова', 'защит', 'подобн', 'могут', 'обеспеч', 'крупн', 'интернет-корпорац', 'минимизирова', 'ущерб', 'возможн', 'существен', 'сократ', 'числ', 'подобн', 'кодов', 'вставок', 'ресурс', 'порта']]]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1765,22 +1673,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'создан', 'форм', 'уведомлен', 'почт', 'ответн', 'письм', 'пользовател', 'ссылк', 'форму/клонирование/выгрузк', 'результат', 'CRM-систем']]]</t>
+          <t>[[['настоя', 'врем', 'сведен', 'блок', 'показ', 'списк', 'карт', 'дан', 'показ', 'списк', 'карт', 'показыва', 'сайт', 'подразделен', 'однак', 'использ', 'отображен', 'информац', 'подразделен', 'раздел', 'порта']]]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[[['для', 'создан', 'регистрацион', 'форм', 'форм', 'подписк', 'новост', 'опрос', 'др.', 'необходим', 'сайт', 'ваш', 'подразделен', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм'], [], ['нажима', 'созда', 'форм'], [], ['дал', 'нужн', 'указа'], ['назван', 'назван', 'использ', 'длин', 'слов', 'может', 'постав', 'галочк', 'расстав', 'мягк', 'перенос', 'врем', 'проведен', 'период', 'времен', 'течен', 'котор', 'ответ', 'вопрос', 'статус', 'меня', 'активн', 'форм', 'готов', 'язык', 'форм', 'английск', 'язык', 'необходим', 'выстав', 'язык', 'английск'], ['есл', 'регистрац', 'мероприят', 'ограничен', 'количеств', 'участник', 'существ', 'возможн', 'закр', 'регистрац', 'определен', 'количеств', 'заявок', 'ин', 'случа', 'оставля', 'эт', 'пол', 'незаполнен'], ['галочк', 'пройт', 'нужн', 'случа', 'созда', 'опрос'], ['галочк', 'автоматическ', 'нумерова', 'вопрос', 'сто', 'умолчан', 'однак', 'быва', 'случа', 'автоматическ', 'нумерац', 'нужн', 'галочк', 'нужн', 'убра'], [], ['дал', 'необходим', 'нажа', 'кнопк', 'добав', 'блок', 'вопрос'], ['есл', 'нужн', 'разб', 'вопрос', 'нескольк', 'тематическ', 'блок', 'заполня', 'пол', 'блок', 'вопрос', 'необходим', 'такж', 'пол', 'описан'], ['пример', 'блок'], [], ['есл', 'ваш', 'вопрос', 'должн', 'идт', 'подряд', 'разбивк', 'блок', 'эт', 'пол', 'заполня', 'сраз', 'переход', 'кнопк', 'добав', 'вопрос', 'пол', 'вопрос', 'вписыва', 'непосредствен', 'вопрос', 'пол', 'описан', 'добав', 'комментар', 'вопрос'], ['дал', 'нажима', 'кнопк', 'добав', 'ответ', 'вписыва', 'необходим', 'вариант'], ['есл', 'ответ', 'дан', 'вопрос', 'обязател', 'став', 'галочк', 'напрот', 'соответств', 'пункт'], ['есл', 'вопрос', 'допуска', 'ответ', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'есл', 'вопрос', 'допуска', 'нескольк', 'вариант', 'ответ', 'такж', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ'], [], ['ответ', 'сдела', 'выпада', 'списк', 'пол', 'формат', 'ответ', 'нужн', 'выбра', 'соответств', 'строк'], ['есл', 'ответ', 'зада', 'заполня', 'форм', 'долж', 'вписа', 'сво', 'вариант', 'ответ', 'пол', 'формат', 'ответ', 'выбира', 'значен', 'строк', 'нескольк', 'строк', 'может', 'добав', 'какой-т', 'комментар', 'свободн', 'ответ', 'пояснительн', 'текст', 'такж', 'огранич', 'ответ', 'количеств', 'символ'], ['есл', 'ответ', 'предполага', 'указан', 'дат', 'номер', 'телефон', 'e-mail', 'стран', 'проживан', 'загрузк', 'файл', 'выбра', 'строк', 'специальн', 'вопрос', 'пол', 'формат', 'ответ', 'дал', 'выпада', 'списк', 'выбра', 'нужн', 'вариант'], [], ['обрат', 'вниман', 'выберет', 'тип', 'специальн', 'вопрос', 'email', 'заполнен', 'форм', 'браузер', 'пользовател', 'постара', 'автозаполн', 'эт', 'пол', 'кеш', 'эт', 'облегча', 'пользовател', 'заполнен', 'форм', 'автозаполнен', 'кеш', 'браузер', 'возможн', 'такж', 'отношен', 'пол', 'фамил', 'нужн', 'выбра', 'код', 'вопрос', 'lastname', 'им', 'код', 'вопрос', 'firstname', 'автозаполнен', 'гарантир', 'однак', 'прав', 'работа'], ['посл', 'заполнен', 'необходим', 'сохран', 'форм', 'нажа', 'кнопк', 'созда'], []]]</t>
+          <t>[[['здан', 'наук', 'поиск', 'подразделен', 'сведен', 'образовательн', 'организац', 'кром', 'информац', 'раздел', 'переда', 'яндекс.карт', 'эт', 'каса', 'прежд', 'крупн', 'подразделен']]]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[['чтоб', 'откр', 'дополнительн', 'параметр', 'необходим', 'нажа', 'стрелк'], [], ['откр', 'окн', 'может'], ['добав', 'форм', 'пояснительн', 'текст', 'отобража', 'сраз', 'заголовк', 'добав', 'сообщен', 'страниц', 'отправк', 'форм', 'вывод', 'экран', 'напр.', 'спасиб', 'регистрац', 'ждем', 'адрес', '...', 'добав', 'сообщен', 'страниц', 'завершен', 'регистрац', 'заменя', 'стандартн', 'фраз', 'извин', 'регистрац', 'законч', 'измен', 'текст', 'соглас', 'обработк', 'персональн', 'дан', 'использ', 'необходим', 'замен', 'стандартн', 'текст'], [], ['раздел', 'дополнительн', 'параметр', 'такж', 'сможет'], ['постав', 'ссылк', 'переход', 'сохранен', 'имет', 'вид', 'заполн', 'эт', 'пол', 'сообщен', 'тип', 'спасиб', 'регистрац', 'регистрац', 'заверш', 'вывод', 'будут', 'измен', 'схем', 'показ', 'вопрос', 'умолчан', 'идут', 'друг', 'друг', 'схем', 'вопрос', 'вид', 'таблиц', 'позволя', 'выстраива', 'две', 'колонк', 'привяза', 'форм', 'определен', 'сайт', 'например', 'сдела', 'одн', 'сайт', 'нужн', 'форм', 'друг', 'либ', 'нужн', 'привяза', 'сайт', 'указа', 'корпоративн', 'e-mail', 'сотрудник', 'вшэ', 'котор', 'будут', 'приход', 'уведомлен', 'нов', 'ответ', 'кажд', 'адрес', 'долж', 'добавл', 'отдельн', 'кнопк', 'добав', 'связа', 'форм', 'друг', 'язык', 'работа', 'переключалк', 'язык', 'так', 'форм', 'например', 'английск'], [], ['есл', 'хот', 'почт', 'пользовател', 'приход', 'ответн', 'письм', 'постав', 'галочк', 'напрот', 'направ', 'ответн', 'письм', 'пользовател', 'дан', 'функц', 'работа', 'случа', 'форм', 'нужн', 'указыва', 'email', 'ответ', 'вопрос', 'обязател', 'пол', 'текст', 'письм', 'нужн', 'размест', 'текст', 'код', 'вопрос', 'электрон', 'почт', 'прописа', 'слов', 'email', 'больш', 'просьб', 'текст', 'письм', 'указыва', 'контактн', 'информац', 'пользовател', 'обрат', 'вопрос', 'т.к.', 'письм', 'приход', 'адрес', 'robot', 'hse.ru'], [], [], ['есл', 'хот', 'ответн', 'письм', 'пользовател', 'персонализирова', 'пол', 'текст', 'письм', 'начал', 'нужн', 'размест', 'фраз', 'здравств', 'ANSWER_TO_QUESTION_lastname', 'ANSWER_TO_QUESTION_firstname', 'при', 'необходим', 'кром', 'e-mail', 'ваш', 'форм', 'обязательн', 'вопрос', 'отдельн', 'фамил', 'им', 'имя-отчеств', 'код', 'вопрос', 'нужн', 'прописа', 'слов', 'lastname', 'firstname'], [], [], []]]</t>
+          <t>[[['чтоб', 'перейт', 'редактирован', 'блок', 'зайд', 'административн', 'интерфейс', 'порта', 'перейд', 'дан', 'показ', 'списк', 'карт']]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[[['необходим', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'сможет'], [], ['редактирова', 'форм', 'сохран', 'изменен', 'нужн', 'нажа', 'кнопк', 'сохран'], ['клонирова', 'форм', 'необходим', 'созда', 'форм', 'тем', 'похож', 'вопрос'], ['найт', 'ссылк', 'форм', 'нажима', 'встраиван', 'откр', 'окн', 'выбира', 'ссылк', 'назван', 'ваш', 'подразделен', 'форм', 'открыва', 'внутр', 'ваш', 'сайт', 'клика', 'ссылк', 'адресн', 'строк', 'открыш', 'окн', 'копирует', 'ссылк', 'ваш', 'форм', 'пример'], [], ['выгруз', 'ответ', 'форм', 'возможн', 'посмотрет', 'результат', 'pdf', 'html', 'excel']]]</t>
+          <t>[[['телефон', 'адрес']], [['основн', 'телефон', 'укаж', 'телефон', 'формат', '4957787704', 'внутрен', 'телефон', 'необход', 'при', 'необходим', 'укаж', 'ком', 'принадлеж', 'номер']], [['есл', 'подразделен', 'располага', 'разн', 'здан', 'кажд', 'адрес', 'указа', 'сво', 'номер', 'телефон']], [['есл', 'укажет', 'телефон', 'кажд', 'адрес', 'указыва', 'основн', 'телефон', 'необязательн', 'отображен', 'яндекс.карт', 'будут', 'использова', 'телефон', 'указа', 'адрес', 'есл', 'указа', 'основн', 'телефон', 'показыва', 'обо', 'адрес']], [['есл', 'нашл', 'адрес', 'ни', 'вшэ', 'справочник', 'напиш', 'portal', 'hse.ru']], [['поч', 'важн', 'указа', 'телефон', 'подразделен', 'вам', 'удобн', 'связа', 'тольк', 'налич', 'адрес', 'телефон', 'подразделен', 'показа', 'яндекс.карт', 'обрат', 'вниман', 'яндекс.карт', 'показыва', 'факультет', 'крупн', 'институт', 'международн', 'лаборатор', 'редакц', 'журнал']], [['электрон', 'почт']], [['укаж', 'корпоративн', 'почт', 'подразделен', 'корпоративн', 'почт', 'сотрудник', 'выполня', 'обязан', 'секретаря/менеджер']], [['уровен', 'подготовк']], [['указан', 'уровн', 'образован', 'актуальн', 'подразделен', 'реализ', 'образовательн', 'программ', 'имеющ', 'аспирантск', 'школ']], [['тип', 'подразделен', 'яндекс', 'актуальн', 'крупн', 'подразделен']], [['тип', 'факультет', 'указыва', 'подразделен', 'реализ', 'основн', 'образовательн', 'программ', 'крупн', 'институт']], [['тип', 'дополнительн', 'образован', 'курс', 'иностра', 'язык', 'маркетингов', 'услуг', 'учебн', 'центр', 'центр', 'повышен', 'квалификац', 'указыва', 'тех', 'подразделен', 'котор', 'эт']], [['категор', 'подразделен']], [['скор', 'категор', 'проставл', 'есл', 'проставьт']], [['обрат', 'вниман', 'научно-учебн', 'лаборатор', 'явля', 'международн', 'долж', 'стоя', 'тип', 'международн', 'лаборатор', 'возникновен', 'вопрос', 'обраща', 'мар', 'юдкевич']], [['тематик', 'исследован']], [['дан', 'справочник', 'основа', 'расширен', 'классификатор', 'OECD', 'использ', 'отображен', 'подразделен', 'раздел', 'наук', 'такж', 'общ', 'каталог', 'подразделен', 'ни', 'вшэ']]]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1851,39 +1759,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'заголовк', 'страниц', 'мета-описан', 'страниц', 'заголовк', 'текст', 'ссылк', 'изображен', 'общ', 'рекомендац']]]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'анонс', 'составн', 'редактор', 'анонс', 'английск', 'верс', 'копирован', 'сайт', 'подписк', 'анонс', 'подразделен']]]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[[['заголовк', 'должн', 'соответствова', 'содержан', 'страниц']], [['заголовок', 'долж', 'уникальн', 'максимальн', 'соответствова', 'содержан', 'страниц']], [['чег', 'след', 'избега']], [['заголовк', 'имеющ', 'отношен', 'содержан', 'страниц', 'шаблон', 'бессмыслен', 'заголовк', 'так', 'поступа', 'студент']], [['использ', 'кратк', 'содержательн', 'заголовк']], [['максимальн', 'длин', 'заголовк', '150', 'символ', 'оптимальн', 'символ']], [['заголовок', 'долж', 'информативн', 'кратк', 'есл', 'связа', 'содержан', 'слишк', 'длин', 'поисков', 'систем', 'показа', 'част', 'заголовок', 'котор', 'созда', 'основ', 'содержим', 'страниц']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'заголовк', 'бесполезн', 'пользовател']]]</t>
+          <t>[[['раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'котор', 'состо', 'ближайш', 'будущ', 'анонс', 'эт', 'новост', 'новост', 'рассказыва', 'прошедш', 'событ', 'есл', 'будущ', 'программ', 'планир', 'никак', 'событ', 'блок', 'мероприят', 'вывод']], [['для', 'добавлен', 'анонс', 'необходим', 'откр', 'дан', 'выбра', 'соответств', 'пункт', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк']], [['заголовок', 'анонс', 'заполня', 'след', 'пол', 'заголовок', 'язык', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'семафор-онлайн', 'необходим', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'аннотац', 'текст', 'добав', 'ключев', 'слов', 'учет', 'результат', 'работ', 'ни', 'вшэ', 'остальн', 'пол', 'трога', 'заголовок', 'долж', 'кратк', 'отража', 'формат', 'мероприят', 'назван', 'например', 'всероссийск', 'научн', 'конференц', 'памят', 'юр', 'левад', 'современ', 'российск', 'обществ', 'социолог', 'лекц', 'ирин', 'новиков', 'образ', 'росс', 'русск', 'истор', 'латвийск', 'мед', 'международн', 'летн', 'школ', 'киберправ', 'ISSC', '2015', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт'], ['мероприят', 'имеет', 'ограничен', 'возраст', 'согласн', 'законодательств', 'мероприят', 'кром', 'научн', 'должн', 'имет', 'соответств', 'маркировк', 'возраст', '12+', 'т.д.', 'например', 'маркировк', 'должн', 'имет', 'анонс', 'дне', 'открыт', 'двер', 'подробн', 'написа', 'положен', 'защ', 'несовершеннолетн', 'обуча', 'ни', 'вшэ', 'информац', 'причиня', 'вред', 'здоров', 'развит', 'для', 'необходим', 'режим', 'редактирован', 'анонс', 'пол', 'мероприят', 'имеет', 'ограничен', 'возраст', 'выстав', 'нужн', 'возраст', 'как', 'поня', 'категор', 'относ', 'ваш', 'информац', 'основан', 'ст.', '5-10', 'федеральн', 'закон', '29.12.2010', '436-фз', 'защ', 'дет', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[[['описан', 'должн', 'точн', 'отража', 'содержан', 'страниц']], [['помн', 'описан', 'показа', 'результат', 'поиск', 'поэт', 'он', 'должн', 'информативн', 'интересн', 'пользовател', 'дела', 'мета-описан', '300', 'символ', 'коротк', 'будут', 'плох', 'выглядет', 'длин', 'уреза']], [['чег', 'след', 'избега']], [['создан', 'мет', 'тег', 'описан', 'имеющ', 'отношен', 'содержан', 'страниц', 'использован', 'описан', 'общ', 'характер', 'например', 'эт', 'веб-страниц', 'учебн', 'программ', 'использован', 'описан', 'ключев', 'слов', 'копирован', 'описан', 'содержан', 'документ']], [['использ', 'разн', 'описан', 'разн', 'страниц']], [['есл', 'будет', 'использова', 'уникальн', 'мет', 'тег', 'описан', 'кажд', 'страниц', 'эт', 'поможет', 'пользовател', 'сдела', 'правильн', 'выбор', 'особен', 'случа', 'результат', 'поиск', 'отобража', 'нескольк', 'страниц', 'сайт']], [['чег', 'след', 'избега']], [['использован', 'одн', 'мет', 'тег', 'описан', 'мног', 'страниц', 'сайт']], [['инструкц', 'заполнен', 'мета-тег', 'редактор', 'найт', 'https', '//portal.hse.ru/meta']]]</t>
+          <t>[[['больш', 'част', 'информац', 'распространя', 'университет', 'относ', 'категор', 'т.е.', 'то', 'котор', 'свободн', 'распространя', 'сред', 'дет', 'люб', 'возраст', 'общ', 'правил', 'информац', 'достаточн', 'указа', 'ограничива', 'доступ', 'информац', 'треб']], [['основан', 'ст.', 'закон', 'защ', 'дет', 'мероприят', 'территор', 'университет', 'должн', 'содержа', 'информац', '18+', 'получ', 'специальн', 'разрешен', 'ректор', 'проректор']], [['подробн', 'защ', 'несовершеннолетн', 'обучающих', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[[['предназначен', 'пример']], [['основн', 'предназначен', 'дан', 'тег', 'структурирован', 'оформлен', 'контент', 'страниц', 'сдела', 'чита', 'легк', 'воспринима', 'пользовател', 'сайт']], [['кром', 'применен', 'дан', 'тег', 'качеств', 'структуризац', 'контент', 'оформлен', 'использован', 'придан', 'дизайн', 'отдельн', 'фраз', 'предложен', 'допуска', 'заголовк', 'должн', 'использова', 'разбиен', 'текст', 'логическ', 'блок']], [['тег', 'заголовк', 'h2-h6', 'отлича', 'значим', 'кажд', 'низш', 'уровен', 'долж', 'мен', 'знач', 'при', 'использован', 'дан', 'тег', 'нужн', 'выдержива', 'структур', 'h2-h3-h4-h5-h6']], [['так', 'избега', 'использован', 'друг', 'тег', 'акцентирован', 'strong', 'ссылок', 'внутр', 'тег', 'h2-h6']], [['длин', 'заголовк', 'должн', 'превыша', 'символ', 'поисков', 'систем', 'обрабатыва', 'ограничен', 'количеств', 'знак', 'длин', 'заголовк', 'будут', 'воспринят', 'полност']], [['редактор', 'дан', 'заголовк', 'найт', 'пол', 'формат']], [[]], [['инструкц', 'добавлен', 'заголовк', 'редактор', 'https', '//portal.hse.ru/format/', 'headrs']], [['представьт', 'пишет', 'обзор']], [['как', 'написан', 'обзор', 'больш', 'текст', 'излож', 'основн', 'пункт', 'подпункт', 'документ', 'подума', 'использова', 'тег', 'заголовк']], [['чег', 'след', 'избега']], [['выделен', 'тег', 'заголовк', 'так', 'текст', 'котор', 'помога', 'определ', 'структур', 'страниц', 'использован', 'заголовк', 'подход', 'друг', 'тег', 'например', 'курс', 'strong', 'полужирн', 'бессистемн', 'использован', 'заголовк', 'разн', 'размер']], [['злоупотребля', 'заголовк']], [['использ', 'тег', 'заголовк', 'эт', 'имеет', 'смысл', 'чрезмерн', 'количеств', 'заголовк', 'страниц', 'затрудня', 'просмотр', 'контент', 'меша', 'определ', 'заканчива', 'одн', 'тем', 'начина', 'друг']], [['чег', 'след', 'избега']], [['злоупотреблен', 'заголовк', 'страниц', 'слишк', 'длин', 'заголовк', 'использован', 'заголовк', 'оформлен', 'текст', 'структурирован']]]</t>
+          <t>[[['язык', 'мероприят', 'изменя', 'англ.', 'анонс']], [['пол', 'нов', 'порта', 'метк', 'комментар', 'указыва', 'информац', 'срок', 'окончан', 'подач', 'заявок', 'мероприят', 'отобража', 'флажк', 'заголовк'], []], [['пол', 'нов', 'порта', 'семафор', 'онлайн', 'включа', 'налич', 'онлайн-трансляц', 'мероприят'], []], [['при', 'добавлен', 'анонс', 'особ', 'вниман', 'обраща', 'пункт', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'при', 'игнорирован', 'эт', 'пункт', 'ваш', 'анонс', 'отправ', 'арх', 'отобраз', 'сайт', 'подразделен'], [], ['например', 'дат', 'пол', 'мероприят', 'начнет', 'мероприят', 'заверш', 'должн', 'совпада', 'реальн', 'дат', 'событ', 'дат', 'добавля', 'анонс', 'как', 'дат', 'нача', 'мероприят', 'совпадет', 'реальн', 'дат', 'времен', 'анонс', 'пропадет', 'блок', 'мероприят'], ['когд', 'убра', 'анонс', 'мероприят', 'сайт', 'прав', 'став', 'дат', 'последн', 'дня', 'мероприят', 'врем', '23.55'], ['обрат', 'вниман', 'указа', 'часов', 'пояс', 'умолчан', 'сто', 'московск', 'врем']], [['пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'использ', 'необходим', 'отображен', 'главн', 'страниц', 'подразделен', 'общ', 'лент', 'анонс', 'как', 'прав', 'использ', 'мероприят', 'срок', 'подач', 'заявок'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'нет', 'анонс', 'вывод', 'главн', 'страниц', 'блок', 'мероприят', 'доступ', 'общ', 'списк', 'анонс', 'адрес', '/announcements'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'анонс', 'вывод', 'главн', 'страниц'], [], [], ['есл', 'нескольк', 'анонс', 'хот', 'выстро', 'блок', 'мероприят', 'календарн', 'порядк', 'обрат', 'особ', 'вниман', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'желательн', 'анонс', 'дат', 'перв', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'одинаков', 'дал', 'регулирует', 'положен', 'анонс', 'блок', 'главн', 'времен', 'показ', 'чем', 'раньш', 'врем', 'выш', 'анонс', 'блок', 'главн', 'вне', 'зависим', 'дат', 'реальн', 'событ'], ['например'], [], ['набор', 'образовательн', 'программ', 'Bridge', '2015'], [], ['конкурс', 'Cоздан', 'международн', 'лаборатор', 'ни', 'вшэ', 'санкт-петербург'], [], ['HSE', 'Filmfest', '2015'], [], ['дат', 'нача', 'показ', 'анонс', 'одинаков', 'январ', '2015', 'времен', '21.45', '22.00', '22.10', 'скорректирова', 'последовательн', 'отображен']], [['текст', 'аннотац', 'вывод', 'общ', 'текст', 'анонс', 'пожалуйст', 'дублир', 'информац', 'след', 'пол']], [['пол', 'текст', 'указыва', 'подробн', 'предстоя', 'мероприят'], ['текст', 'долж', 'содержа', 'необходим', 'информац', 'котор', 'понадоб', 'посетител', 'мероприят', 'числ', 'сотрудник', 'вышк', 'посетител', 'сторон'], ['назван', 'мероприят', 'организатор', 'подразделен', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['обрат', 'вниман', 'копирован', 'текс', 'Word', 'окн', 'текст', 'текст', 'анонс', 'располага', 'ровн', 'страниц', 'необходим', 'чист', 'код', 'для', 'выдел', 'ве', 'текст', 'окн', 'нажм', 'значк', 'панел', 'управлен', 'ластик', 'метелк'], [], ['посл', 'понадоб', 'удал', 'лишн', 'абзац', 'пробел', 'начал', 'строк'], ['использ', 'курс', 'разн', 'цвет', 'Caps', 'Lock', 'злоупотребля', 'выделен', 'жирн', 'шрифт'], ['подробн', 'форматирован', 'текст', 'использован', 'основн', 'инструмент', 'редактирован', 'страниц', 'прочита'], ['расстав', 'текст', 'ссылк', 'упомянут', 'текст', 'персон', 'подразделен'], ['для', 'выдел', 'необходим', 'врагмент', 'текст', 'нажм', 'значок', 'цепочк'], [], ['откр', 'окн', 'необходим', 'встав', 'ссылк', 'адрес', 'электрон', 'почт', 'граф', 'адрес', 'нажа', 'сниз', 'кнопк', 'встав'], [], ['либ', 'персон', 'подразделен', 'принадлеж', 'ни', 'вшэ', 'желательн', 'выбра', 'баз', 'подразделен', 'персон', 'порта', 'тогд', 'автоматическ', 'подгруз', 'страниц', 'дан', 'персон', 'подразделен', 'эт', 'избав', 'необходим', 'иска', 'страниц', 'персон', 'подразделен', 'отдельн', 'поиск', 'портал', 'позвол', 'сэконом', 'врем'], ['для', 'вставл', 'граф', 'адрес', 'нужн', 'выбра', 'строк', 'сво', 'ссылк', 'пункт', 'персон', 'подразделен'], [], ['нажа', 'кнопк', 'выбра', 'ряд', 'граф', 'сво', 'ссылк', 'появ', 'окн', 'поиск', 'помощ', 'поисков', 'строк', 'Ctrl', 'найт', 'нужн', 'подразделен'], [], ['когд', 'персон', 'подразделен', 'выбра', 'баз', 'адрес', 'строк', 'адрес', 'имет', 'след', 'вид'], [], ['когд', 'ссылк', 'сформирова', 'забудьт', 'нажа', 'кнопк', 'встав']], [['для', 'добавлен', 'ключев', 'слов', 'анонс', 'нажм', 'кнопк', 'добав', 'ключев', 'слов', 'через', 'поиск', 'найд', 'нужн', 'слов', 'баз', 'ключев', 'слов', 'порта', 'добавьт'], [], ['завершен', 'заполнен', 'необходим', 'пол', 'статус', 'анонс', 'проставля', 'активн', 'нажима', 'кнопк', 'сохран', 'анонс', 'гот']], [['есл', 'анонс', 'треб', 'использова', 'верстк', 'различн', 'элемент', 'например', 'постав', 'кнопк', 'регистрац', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['важн', 'английск', 'верс', 'подразделен', 'такж', 'должн', 'публикова', 'анонс', 'мероприят', 'котор', 'провод', 'английск', 'язык', 'существ', 'вариант', 'размещен'], ['вариант', 'постав', 'анонс', 'перевод', 'для', 'необходим', 'встав', 'перевод', 'сохранен', 'ран', 'анонс', 'русск', 'верс', 'над', 'заголовк', 'нажа', 'британск', 'флаг', 'перевод', 'заполн', 'соответств', 'пол', 'заголовок', 'перевод', 'англ.', 'ключев', 'слов', 'постав', 'статус', 'показыва', 'нажа', 'сохран'], ['важн', 'посл', 'сохранен', 'перевод', 'окажет', 'русск', 'верс', 'анонс', 'след', 'нажа', 'сохран', 'русск', 'страниц'], ['вариант', 'полност', 'английск', 'анонс', 'созда', 'нов', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'заполня', 'принцип', 'русскоязычн', 'анонс', 'полност', 'английск', 'став', 'язык', 'английск', 'анонс', 'отобража', 'английск', 'верс', 'сайт']], [['чтоб', 'воспользова', 'функц', 'необходим', 'выполн', 'вход', 'личн', 'кабинет', 'адрес', 'https', '//www.hse.ru/user/', 'посл', 'открыва', 'нужн', 'анонс', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'анонс'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'анонс', 'двум', 'способ', 'ссылк', 'оригинальн', 'анонс', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'котор', 'увод', 'оригинальн', 'анонс', 'сможет', 'редактирова', 'втор', 'случа', 'анонс', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'анонс', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'анонс', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'анонс', 'размещен', 'ссылк', 'оригинальн', 'анонс', 'вам', 'необходим', 'зайт', 'раздел', 'анонс', 'импортирова', 'анонс', 'ссылк', 'справ', 'найт', 'нужн', 'анонс', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'анонс', 'подразделен'], ['есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн'], ['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'анонс', 'пиш', 'portal', 'hse.ru']]]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[['тщательн', 'продумыва', 'текст', 'ссылок']], [['видим', 'текст', 'ссылк', 'помога', 'пользовател', 'поисковик', 'поня', 'содержан', 'страниц', 'ссылк', 'страниц', 'могут', 'внутрен', 'указыва', 'друг', 'страниц', 'сайт', 'внешн', 'ведут', 'друг', 'сайт', 'люб', 'случа', 'понятн', 'текст', 'ссылк', 'прощ', 'пользовател', 'ориентирова', 'сайт', 'поисков', 'систем', 'легч', 'поня', 'страниц', 'котор', 'ведет', 'ссылк']], [['хорош', 'продума', 'текст', 'ссылк', 'помога', 'пользовател', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет']], [['использ', 'информативн', 'текст']], [['текст', 'ссылк', 'долж', 'хот', 'общ', 'описыва', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк']], [['чег', 'след', 'избега']], [['использован', 'текст', 'ссылк', 'общ', 'слов', 'например', 'страниц', 'стат', 'нажм', 'слов', 'имеющ', 'отношен', 'тем', 'контент', 'страниц', 'котор', 'ведет', 'ссылк', 'част', 'использован', 'URL', 'страниц', 'качеств', 'текст', 'ссылк', 'эт', 'допуска', 'например', 'продвижен', 'указан', 'нов', 'адрес', 'сайт']], [['текст', 'долж', 'лаконичн']], [['текст', 'долж', 'описательн', 'возможн', 'небольш', 'нескольк', 'слов', 'коротк', 'фраз']], [['чег', 'след', 'избега']], [['длин', 'текст', 'ссылк', 'например', 'сложн', 'предложен', 'цел', 'абзац']], [['подбер', 'текст', 'ссылок', 'внутрен', 'URL']], [['забыва', 'ссылк', 'быва', 'внешн', 'внутрен', 'тщательн', 'продума', 'текст', 'внутрен', 'ссылок', 'поможет', 'ориентирова', 'сайт', 'пользовател', 'поисков', 'систем']], [['чег', 'след', 'избега']], [['длин', 'текст', 'больш', 'количеств', 'ключев', 'слов', 'предназначен', 'поисков', 'сист', 'создан', 'ненужн', 'ссылок', 'котор', 'упроща', 'навигац', 'сайт']]]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>[[['использ', 'атрибут', 'alt']], [['для', 'изображен', 'использ', 'описательн', 'им', 'файл', 'атрибут', 'alt', 'атрибут', 'alt', 'содерж', 'текст', 'котор', 'вид', 'пользовател', 'изображен', 'показыва', 'то', 'ин', 'причин']], [['чтоб', 'заполн', 'атрибут', 'редактор', 'сайт', 'добавлен', 'картинк', 'нужн', 'заполн', 'пол', 'описан']], [[]], [['для', 'нуж', 'атрибут', 'есл', 'посетител', 'использ', 'просмотр', 'сайт', 'вспомогательн', 'технолог', 'например', 'программ', 'чтен', 'экра', 'сможет', 'поня', 'изображ', 'картинк']], [['кром', 'использует', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'служ', 'текст', 'обычн', 'ссылк', 'однак', 'рекоменду', 'злоупотребля', 'изображен', 'навигац', 'сайт', 'использова', 'текстов', 'ссылк', 'наконец', 'оптимизац', 'им', 'графическ', 'файл', 'текст', 'атрибут', 'alt', 'упроща', 'поиск', 'изображен', 'например', 'Google', 'картинк']], [['использ', 'кратк', 'описательн', 'им', 'файл', 'текст', 'атрибут', 'alt']], [['как', 'мног', 'друг', 'элемент', 'страниц', 'котор', 'оптимизирова', 'им', 'файл', 'текст', 'атрибут', 'alt', 'должн', 'кратк', 'содержательн']], [['чег', 'след', 'избега']], [['шаблон', 'бессмыслен', 'им', 'так', 'image1.jpg', 'pic.gif', '1.jpg', 'возможн', 'слишк', 'длин', 'им', 'файл', 'добавлен', 'ключев', 'слов', 'цел', 'предложен', 'текст', 'атрибут', 'alt']], [['добавля', 'текст', 'атрибут', 'alt', 'использует', 'изображен', 'ссылк']], [['есл', 'реш', 'использова', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'поможет', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'счита', 'пишет', 'текст', 'обычн', 'ссылк']], [['чег', 'след', 'избега']], [['слишк', 'длин', 'текст', 'атрибут', 'alt', 'рассматрива', 'спам', 'чрезмерн', 'использован', 'изображен', 'качеств', 'ссылок', 'навигац', 'сайт']]]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>[[['пиш', 'легк', 'чита', 'текст']], [['текст', 'долж', 'понят', 'пользовател', 'стара', 'выдержива', 'стил', 'допуска', 'ошибок']], [['чег', 'след', 'избега']], [['грамматическ', 'орфографическ', 'ошибок', 'текст', 'запута', 'формулировок', 'некачествен', 'контент']]]</t>
-        </is>
-      </c>
+          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1908,17 +1808,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[[['осторожн', 'относ', 'просьб', 'коллег', 'размест', 'сайт', 'подразделен', 'произвольн', 'JavaScript', 'сторон', 'iframe', 'подобн', 'вставк', 'оказыва', 'очен', 'уязвим', 'элемент', 'сайт', 'точк', 'зрен', 'безопасн', 'через', 'связ', 'внеш', 'сайт', 'могут', 'стат', 'рассадник', 'огромн', 'числ', 'вирус', 'инфицирова', 'компьютер', 'подозрева', 'посетител', 'порта']]]</t>
+          <t>[[['быстр', 'ссылк', 'доступ', 'редактирован', 'наполнен', 'сайт', 'размещен', 'текст', 'размещен', 'новост']]]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[[['гарантирова', 'защит', 'подобн', 'могут', 'обеспеч', 'крупн', 'интернет-корпорац', 'минимизирова', 'ущерб', 'возможн', 'существен', 'сократ', 'числ', 'подобн', 'кодов', 'вставок', 'ресурс', 'порта']]]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>[[['доступ', 'редактирован', 'сайт', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'как', 'получ', 'доступ', 'написа']], [['перейт', 'режим', 'редактирован', 'сайт', 'двум', 'способ']], [['прям', 'ссылк', 'https', '//www.hse.ru/adm/', 'высвечива', 'список', 'подразделен', 'котор', 'прав', 'пут', 'клик', 'ссылк', 'редактор', 'вниз', 'главн', 'страниц', 'сайт', 'редактирован', 'котор', 'прав', 'дал', 'нажа', 'ссылк', 'дан', 'есл', 'нажмет', 'ссылк', 'редактор', 'статическ', 'страниц', 'новост', 'анонс', 'внутр', 'сайт', 'сраз', 'попадет', 'реж', 'редактирован', 'конкретн', 'элемент']], [[]], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'нужн', 'подробн', 'работ', 'английск', 'верс', 'написа']]]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[[['для', 'работ', 'сайт', 'основн', 'будут', 'нужн', 'четыр', 'подраздел', 'сайт']], [['блок', 'подраздел', 'осуществля', 'управлен', 'главн', 'страниц', 'сайт', 'включ', 'добавлен', 'пункт', 'мен', 'страниц', 'инструкц', 'создан', 'страниц', 'новост', 'инструкц', 'создан', 'новост', 'анонс', 'инструкц', 'создан', 'анонс']], [['есл', 'редактирует', 'сайт', 'структурн', 'подразделен', 'такж', 'будут', 'нужн', 'раздел', 'функциона', 'сотрудник', 'подразделен', 'показ', 'списк', 'карт', 'адрес', 'мета-информац', 'подразделен']], [['очен', 'част', 'перв', 'желан', 'редактор', 'быва', 'завест', 'нов', 'пункт', 'мен', 'однак', 'случа', 'единствен', 'достигнет', 'эт', 'разочарует', 'посетител', 'сво', 'сайт', 'клик', 'пункт', 'мен', 'получ', 'ошибк', 'кром', 'так', 'ошибок', 'сайт', 'хуж', 'индексир', 'поисковик']], [['снача', 'созда', 'страниц', 'наполн', 'содержим', 'внимательн', 'прочита', 'размещен', 'текст', 'портал', 'работ', 'таблиц']], [['тольк', 'созда', 'страниц', 'завод', 'пункт', 'мен', 'чтоб', 'завест', 'нов', 'пункт', 'мен', 'необходим', 'перейт', 'раздел', 'блок', 'мен', 'пол', 'назван', 'пропиш', 'назван', 'пункт', 'мен', 'пол', 'URL', 'ссылк', 'страниц']], [['пункт', 'мен', 'созда', 'раньш', 'соответствующ', 'страниц', 'ссылк', 'прописа', 'правильн', 'страниц', 'открыва', 'проверьт', 'конц', 'ссылк', 'сто', 'пробел', 'удал', 'пробел', 'дан', 'ссылк', 'сайт', 'домен', 'hse.ru', 'сто', 'галочк', 'окол', 'пункт', 'открыва', 'нов', 'окн', 'этот', 'функциона', 'необходим', 'использова', 'каким-т', 'причин', 'хот', 'сосла', 'внешн', 'сайт']], [['рекоменду', 'вест', 'так', 'страниц', 'вручн', 'обязательн', 'забудет', 'скорректирова', 'список', 'изменен', 'кадров', 'состав', 'для', 'вывест', 'мен', 'автоматическ', 'страниц', 'сотрудник', 'необходим', 'прописа', 'пол', 'URL', 'пункт', 'мен', 'слов', 'persons', 'предварительн', 'убед', 'ваш', 'подразделен', 'хот', 'оформлен', 'сотрудник', 'ссылк', 'пуст', 'страниц', 'добавля', 'нужн'], ['есл', 'точн', 'знает', 'ваш', 'подразделен', 'оформлен', 'сотрудник', 'страниц', 'показыва', 'напиш', 'адрес', 'portal', 'hse.ru', 'указа', 'письм', 'ссылк', 'сайт', 'котор', 'идет', 'реч', 'ссылк', 'сотрудник', 'имеющ', 'трудоустройств', 'подразделен', 'трудоустройств', 'должн', 'показыва', 'страниц'], ['подробн', 'появля', 'персональн', 'страниц', 'портал', 'откуд', 'берет', 'информац', 'написа']]]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[[['есл', 'страниц', 'размещ', 'прост', 'текст', 'например', 'необходим', 'вывест', 'список', 'участник', 'мероприят', 'фотограф', 'рекоменду', 'воспользова', 'шаблон', 'составн', 'страницы/новости/анонс', 'инструкц', 'работ', 'страниц', 'наход', 'принцип', 'работ', 'составн', 'страницами/новостями/анонс', 'одинаков', 'посл', 'переключен', 'обычн', 'страниц', 'реж', 'составн', 'получа', 'набор', 'готов', 'элемент', 'оформлен', 'страниц', 'постара', 'разн', 'браузер', 'разн', 'устройств', 'элемент', 'отобража', 'корректн', 'однак', 'замет', 'ошибк', 'пожалуйст', 'напиш', 'нам', 'portal', 'hse.ru', 'есл', 'информац', 'треб', 'сложн', 'оформлен', 'выбира', 'реж', 'прост', 'страниц', 'выделя', 'текст', 'подзаголовк', 'разн', 'уровн', 'треб', 'текст.', 'помн', 'нужн', 'оформ', 'текст', 'заголовок', 'выдел', 'жирн', 'увелич', 'шрифт', 'заголовок', 'важн', 'элемент', 'структур', 'страниц', 'поможет', 'поисковик', 'поня', 'ваш', 'сайт', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац', 'подробн', 'поисков', 'оптимизац', 'прочита', 'есл', 'очен', 'важн', 'страниц', 'понима', 'как', 'блок', 'хотел', 'выдел', 'знает', 'эт', 'сдела', 'напиш', 'сво', 'вопрос', 'portal', 'hse.ru', 'постара', 'помоч'], ['категорическ', 'размеща', 'текст', 'скопирова', 'Word', 'послед', 'очистк', 'посторон', 'стил', 'эт', 'привод', 'непредсказуем', 'отображен', 'текст', 'разн', 'браузер', 'некотор', 'случа', 'мобильн', 'устройств', 'текст', 'выход', 'границ', 'экра', 'посетител', 'принцип', 'сможет', 'прочита', 'текст', 'прост', 'стат', 'невидим', 'подробн', 'размещен', 'текст', 'написа', 'меня', 'размер', 'стил', 'шрифт', 'крас', 'текст', 'разн', 'цвет', 'эт', 'такж', 'привод', 'некорректн', 'отображен', 'конц', 'конц', 'эт', 'прост', 'некрасив', 'сайт', 'выгляд', 'школьн', 'стенгазет', 'выравнива', 'текст', 'ширин', 'стационарн', 'компьютер', 'так', 'форматирован', 'выглядет', 'симпатичн', 'мобильн', 'верс', 'слов', 'могут', 'прилипнут', 'кра', 'экра', 'центр', 'страниц', 'образ', 'пустот', 'размеща', 'текст', 'вид', 'изображен', 'зна', 'мероприят', 'част', 'готов', 'рекламн', 'постер', 'он', 'предназнач', 'размещен', 'стенд', 'сайт', 'текст', 'вид', 'картинок', 'тяжел', 'чита', 'мобильн', 'устройств', 'индексир', 'поисков', 'систем', 'недоступн', 'прочтен', 'слабовидя', 'использ', 'ознакомлен', 'сайт', 'специальн', 'программ', 'писа', 'заголовк', 'использу', 'заглавн', 'букв', 'налич', 'текст', 'заглавн', 'букв', 'усложня', 'восприят', 'чем', 'длин', 'текст', 'набра', 'заглавн', 'букв', 'сложн', 'прочита', 'кром', 'интернет', 'традицион', 'счита', 'автор', 'пишет', 'заглавн', 'букв', 'эт', 'означа', 'крич', 'размеща', 'заголовк', 'нескольк', 'строк', 'мобильн', 'верс', 'будут', 'занима', 'ве', 'экра']]]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[[['кажд', 'новост', 'долж', 'коротк', 'заголовок', 'аннотац', 'рубрик', 'ключев', 'слов', 'текст', 'новост', 'про', 'эт', 'написа', 'инструкц', 'закрепл', 'стандарт', 'форматирован', 'текст', 'абзац', 'перенос', 'строк', 'эт', 'одн', 'ссылк', 'инструкц', 'точк', 'заголовк', 'став', 'иллюстрац', 'хорош', 'новост', 'иллюстрир', 'фотограф', 'сдела', 'вам', 'рамк', 'работ', 'такж', 'здоров', 'изображен', 'переда', 'автор', 'размещен', 'сайт', 'категорическ', 'использова', 'изображен', 'найден', 'сет', 'обязательн', 'проверя', 'копирайт', 'иногд', 'достаточн', 'указа', 'откуд', 'скопирова', 'изображен', 'треб', 'письмен', 'разрешен', 'автор', 'некотор', 'случа', 'размеща', 'изображен', 'принцип', 'при', 'необходим', 'может', 'взят', 'изображен', 'бесплатн', 'фотобанк', 'иллюстрац', 'явля', 'обязательн', 'элемент', 'новост', 'картинк', 'должн', 'горизонтальн', 'хорош', 'качеств', 'недопустим', 'размещен', 'качеств', 'иллюстрац', 'новост', 'скриншот', 'баннер', 'листовок', 'обложек', 'постер', 'логотип']]]</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1945,19 +1857,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[[['страниц', 'показыва', 'штатн', 'сотрудник', 'подразделен', 'проведен', 'зик', 'москв', 'ис-пр', 'кампус', 'подробн', 'ком', 'обраща', 'случа', 'отсутств', 'трудустроен', 'вшэ', 'сотрудник', 'написа']]]</t>
+          <t>[[['быстр', 'ссылк', 'создан', 'новост', 'предосмотр', 'новост', 'составн', 'редактор', 'иллюстрац', 'новост', 'копирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[[['страниц', 'имеет', 'автоматическ', 'формируем', 'техническ', 'им', 'persons', 'чтоб', 'добав', 'автоматическ', 'страниц', 'сотрудник', 'сайт', 'необходим', 'соответств', 'пункт', 'мен', 'прописа', 'адрес', 'сайта/персонс', 'например', 'управлен', 'развит', 'поддержк', 'порта', 'адрес', 'страниц', 'выгляд', 'https', '//portal.hse.ru/persons', 'завод', 'статическ', 'страниц', 'так', 'адрес', 'нужн']]]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[[['редактор', 'подразделен', 'имеет', 'возможн', 'измен', 'автоматическ', 'сортировк', 'сотрудник', 'установ', 'сортировк', 'должност', 'для', 'кажд', 'должност', 'внутр', 'сайт', 'подразделен', 'необходим', 'установ', 'сво', 'порядков', 'номер', 'например', 'руководител', 'имет', 'порядков', 'номер', 'заместител', 'люб', 'друг', 'числ', 'профессор']], [['случа', 'страниц', 'алфавитн', 'порядк', 'будут', 'показыва', 'снача', 'люд', 'должност', 'руководител', 'люд', 'должност', 'заместител', 'руководител', 'сотрудник', 'должност', 'профессор']], [['административн', 'интерфейс', 'раздел', 'найт', 'след', 'пут', 'дан', 'должност', 'для', 'выставлен', 'порядков', 'номер', 'необходим', 'кликнут', 'мышк', 'значок', 'редактирова', 'простав', 'соответств', 'номер']], [[]], [[], ['обрат', 'вниман', 'дан', 'страниц', 'имеет', 'автоматическ', 'кэш', 'час', 'есл', 'хот', 'сраз', 'увидет', 'изменен', 'пересохран', 'основн', 'страниц', 'подразделен']]]</t>
-        </is>
-      </c>
+          <t>[[['раздел', 'новост', 'предусматрива', 'размещен', 'репортаж', 'прошедш', 'мероприят', 'сообщен', 'получен', 'наград', 'профессиональн', 'обществен', 'признан', 'образовательн', 'программ', 'мегафакультет', 'преподавател', 'т.п']], [['новост', 'обязательн', 'должн', 'содержа', 'заголовок', 'кратк', 'аннотац', 'текст', 'новост', 'рубрик', 'ключев', 'слов', 'желан', 'текст', 'новост', 'сопровожда', 'иллюстрац']], [['недопустим', 'размещен', 'английск', 'текст', 'русск', 'верс', 'сайт', 'русск', 'текст', 'английск', 'верс', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент']], [['размеща', 'лент', 'новост', 'анонс', 'мероприят', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн']], [['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'новост', 'пиш', 'portal', 'hse.ru']], [['для', 'добавлен', 'новост', 'необходим', 'зайт', 'редактор', 'дан', 'новост', 'нов', 'зап', 'добавля', 'клик', 'иконк'], ['заголовок', 'кратк', 'указыва', 'сам', 'сут', 'событ', 'заголовок', 'долж', 'назывн', 'кратк', 'заголовок', 'став', 'нескольк', 'предложен', 'одн', 'длин', 'предложен', 'больш', 'количеств', 'подробн', 'пример', 'длин', 'заголовк', 'посмотрет', 'главн', 'лент', 'порта', 'заголовк', 'употребля', 'слов', 'вниман', 'важн', 'информац', 'дорог', 'друз', 'т.д.', 'точк', 'конц', 'заголовк', 'став', 'CapsLock', 'заглавн', 'букв', 'использу'], ['аннотац', 'должн', 'обязательн', 'кратк', 'изложен', 'чем', 'читател', 'узна', 'стат', '2-3', 'предложен'], ['текст', 'долж', 'обязательн', 'непосредствен', 'тел', 'новост', 'подробн', 'раскрыва', 'сут', 'событ', 'новост', 'состоя', 'одн', 'предложен', 'фотограф', 'подробн', 'сопроводительн', 'текст'], ['дублирова', 'аннотац', 'пол', 'текст', 'нужн', 'есл', 'ваш', 'аннотац', 'повторя', 'перв', 'абзац', 'текст', 'новост', 'став', 'напрот', 'пол', 'отобража', 'аннотац', 'нет'], ['при', 'копирован', 'текст', 'Word', 'вставк', 'сайт', 'необходим', 'обязательн', 'порядк', 'чист', 'формат'], ['обязательн', 'выбира', 'рубрик', 'ключев', 'слов'], ['есл', 'имеющ', 'рубрик', 'соответств', 'тематик', 'ваш', 'сайт', 'напиш', 'portal', 'hse.ru', 'пришл', 'список', 'необходим', 'рубрик', 'завед', 'специальн', 'ваш', 'сайт'], [], ['есл', 'необходим', 'может', 'выбра', 'тип', 'материала/статус', 'новости/сфер', 'деятельн', 'выбира', 'действительн', 'соответств', 'содержан', 'новост', 'эт', 'раздел', 'разработа', 'главн', 'лент', 'hse.ru', 'есл', 'подход', 'новост', 'ваш', 'подразделен', 'пропуска'], [], ['ключев', 'слов', 'выбира', 'соответств', 'содержан', 'ваш', 'новост', 'он', 'дальн', 'позволя', 'дела', 'выборк', 'новост', 'ин', 'тем', 'внутр', 'ваш', 'сайт'], ['ключев', 'слов', 'рубрик', 'нужн', 'читател', 'могл', 'найт', 'нужн', 'интересн', 'новост', 'поэт', 'выбира', 'рубрик', 'ключев', 'слов', 'котор', 'соответств', 'тематик', 'новост', 'инач', 'эт', 'прост', 'набор', 'рубрик', 'ключев', 'слов', 'котор', 'ваш', 'новост', 'найдут'], [], ['необходим', 'нажа', 'добав', 'ключев', 'слов', 'вписа', 'необходим', 'слов', 'нажа', 'поиск', 'зат', 'выбра', 'слов', 'словосочетан', 'есл', 'нашл', 'нужн', 'ключев', 'слов', 'может', 'ввест', 'самостоятельн', 'он', 'попадет', 'баз', 'ключев', 'слов', 'настоятельн', 'просьб', 'прежд', 'эт', 'сдела', 'убед', 'нужн', 'ключев', 'слов', 'действительн', 'отсутств']], [['прежд', 'вывод', 'новост', 'лент', 'ваш', 'сайт', 'посмотр', 'пожалуйст', 'получ', 'для', 'нужн', 'воспользова', 'функц', 'предосмотр', 'ссылк', 'располож', 'редакторск', 'интерфейс', 'ряд', 'заголовк', 'новост'], []], [['есл', 'новост', 'треб', 'использова', 'сложн', 'верстк', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['обрат', 'вниман', 'картинк', 'используем', 'новост', 'сайт', 'цел', 'должн', 'размеща', 'соблюден', 'закон', 'авторск', 'прав', 'т.е.', 'эт', 'должн', 'фот', 'либ', 'сдела', 'непосредствен', 'сотрудниками/студент', 'либ', 'приобретен', 'фотоагентств', 'фото/картинк', 'найден', 'случайн', 'образ', 'простор', 'интернет', 'недопустим', 'размещен'], ['фот', 'явля', 'обязательн', 'элемент', 'новост', 'фотограф', 'должн', 'горизонтальн', 'хорош', 'качеств', 'есл', 'картинк', 'плох', 'качеств', 'несет', 'никак', 'смыслов', 'нагрузк', 'нужн', 'загружа', 'новост', 'нужн', 'загружа', 'качеств', 'иллюстрац', 'новост', 'главн', 'страниц', 'сайт', 'скан', 'скриншот', 'баннер', 'постер', 'обложк', 'логотип', 'портретн', 'фот', 'крупн', 'одн', 'лиц'], ['чтоб', 'картинк', 'появ', 'лент', 'новост', 'ваш', 'сайт', 'нужн', 'загруз', 'сплеш-картинк', 'новост', 'размер', 'фот', '1083', '722'], [], ['есл', 'собира', 'размест', 'нескольк', 'изображен', 'воспользова', 'опц', 'фотоальб', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'новост', 'либ', 'может', 'воспользова', 'функционал', 'составн', 'редактор'], ['обрат', 'ваш', 'вниман', 'фот', 'размеща', 'портал', 'необходим', 'оптимизирова']], [['чтоб', 'воспользова', 'функц', 'необходим', 'залогин', 'портал', 'посл', 'открыва', 'нужн', 'новост', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'новост'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'новост', 'двум', 'способ', 'ссылк', 'оригинальн', 'новост', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'аннотац', 'котор', 'будут', 'увод', 'оригинальн', 'новост', 'сможет', 'редактирова', 'втор', 'случа', 'новост', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'новост', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'новост', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'новост', 'размещен', 'ссылк', 'оригинальн', 'новост', 'вам', 'необходим', 'зайт', 'раздел', 'новост', 'импортирова', 'новост', 'ссылк', 'справ', 'найт', 'нужн', 'новост', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'новост', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1986,29 +1894,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'доступ', 'редактирован', 'наполнен', 'сайт', 'размещен', 'текст', 'размещен', 'новост']]]</t>
+          <t>[[['страниц', 'показыва', 'штатн', 'сотрудник', 'подразделен', 'проведен', 'зик', 'москв', 'ис-пр', 'кампус', 'подробн', 'ком', 'обраща', 'случа', 'отсутств', 'трудустроен', 'вшэ', 'сотрудник', 'написа']]]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[[['доступ', 'редактирован', 'сайт', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'как', 'получ', 'доступ', 'написа']], [['перейт', 'режим', 'редактирован', 'сайт', 'двум', 'способ']], [['прям', 'ссылк', 'https', '//www.hse.ru/adm/', 'высвечива', 'список', 'подразделен', 'котор', 'прав', 'пут', 'клик', 'ссылк', 'редактор', 'вниз', 'главн', 'страниц', 'сайт', 'редактирован', 'котор', 'прав', 'дал', 'нажа', 'ссылк', 'дан', 'есл', 'нажмет', 'ссылк', 'редактор', 'статическ', 'страниц', 'новост', 'анонс', 'внутр', 'сайт', 'сраз', 'попадет', 'реж', 'редактирован', 'конкретн', 'элемент']], [[]], [['отдельн', 'прав', 'редактирован', 'английск', 'верс', 'нужн', 'подробн', 'работ', 'английск', 'верс', 'написа']]]</t>
+          <t>[[['страниц', 'имеет', 'автоматическ', 'формируем', 'техническ', 'им', 'persons', 'чтоб', 'добав', 'автоматическ', 'страниц', 'сотрудник', 'сайт', 'необходим', 'соответств', 'пункт', 'мен', 'прописа', 'адрес', 'сайта/персонс', 'например', 'управлен', 'развит', 'поддержк', 'порта', 'адрес', 'страниц', 'выгляд', 'https', '//portal.hse.ru/persons', 'завод', 'статическ', 'страниц', 'так', 'адрес', 'нужн']]]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[[['для', 'работ', 'сайт', 'основн', 'будут', 'нужн', 'четыр', 'подраздел', 'сайт']], [['блок', 'подраздел', 'осуществля', 'управлен', 'главн', 'страниц', 'сайт', 'включ', 'добавлен', 'пункт', 'мен', 'страниц', 'инструкц', 'создан', 'страниц', 'новост', 'инструкц', 'создан', 'новост', 'анонс', 'инструкц', 'создан', 'анонс']], [['есл', 'редактирует', 'сайт', 'структурн', 'подразделен', 'такж', 'будут', 'нужн', 'раздел', 'функциона', 'сотрудник', 'подразделен', 'показ', 'списк', 'карт', 'адрес', 'мета-информац', 'подразделен']], [['очен', 'част', 'перв', 'желан', 'редактор', 'быва', 'завест', 'нов', 'пункт', 'мен', 'однак', 'случа', 'единствен', 'достигнет', 'эт', 'разочарует', 'посетител', 'сво', 'сайт', 'клик', 'пункт', 'мен', 'получ', 'ошибк', 'кром', 'так', 'ошибок', 'сайт', 'хуж', 'индексир', 'поисковик']], [['снача', 'созда', 'страниц', 'наполн', 'содержим', 'внимательн', 'прочита', 'размещен', 'текст', 'портал', 'работ', 'таблиц']], [['тольк', 'созда', 'страниц', 'завод', 'пункт', 'мен', 'чтоб', 'завест', 'нов', 'пункт', 'мен', 'необходим', 'перейт', 'раздел', 'блок', 'мен', 'пол', 'назван', 'пропиш', 'назван', 'пункт', 'мен', 'пол', 'URL', 'ссылк', 'страниц']], [['пункт', 'мен', 'созда', 'раньш', 'соответствующ', 'страниц', 'ссылк', 'прописа', 'правильн', 'страниц', 'открыва', 'проверьт', 'конц', 'ссылк', 'сто', 'пробел', 'удал', 'пробел', 'дан', 'ссылк', 'сайт', 'домен', 'hse.ru', 'сто', 'галочк', 'окол', 'пункт', 'открыва', 'нов', 'окн', 'этот', 'функциона', 'необходим', 'использова', 'каким-т', 'причин', 'хот', 'сосла', 'внешн', 'сайт']], [['рекоменду', 'вест', 'так', 'страниц', 'вручн', 'обязательн', 'забудет', 'скорректирова', 'список', 'изменен', 'кадров', 'состав', 'для', 'вывест', 'мен', 'автоматическ', 'страниц', 'сотрудник', 'необходим', 'прописа', 'пол', 'URL', 'пункт', 'мен', 'слов', 'persons', 'предварительн', 'убед', 'ваш', 'подразделен', 'хот', 'оформлен', 'сотрудник', 'ссылк', 'пуст', 'страниц', 'добавля', 'нужн'], ['есл', 'точн', 'знает', 'ваш', 'подразделен', 'оформлен', 'сотрудник', 'страниц', 'показыва', 'напиш', 'адрес', 'portal', 'hse.ru', 'указа', 'письм', 'ссылк', 'сайт', 'котор', 'идет', 'реч', 'ссылк', 'сотрудник', 'имеющ', 'трудоустройств', 'подразделен', 'трудоустройств', 'должн', 'показыва', 'страниц'], ['подробн', 'появля', 'персональн', 'страниц', 'портал', 'откуд', 'берет', 'информац', 'написа']]]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[[['есл', 'страниц', 'размещ', 'прост', 'текст', 'например', 'необходим', 'вывест', 'список', 'участник', 'мероприят', 'фотограф', 'рекоменду', 'воспользова', 'шаблон', 'составн', 'страницы/новости/анонс', 'инструкц', 'работ', 'страниц', 'наход', 'принцип', 'работ', 'составн', 'страницами/новостями/анонс', 'одинаков', 'посл', 'переключен', 'обычн', 'страниц', 'реж', 'составн', 'получа', 'набор', 'готов', 'элемент', 'оформлен', 'страниц', 'постара', 'разн', 'браузер', 'разн', 'устройств', 'элемент', 'отобража', 'корректн', 'однак', 'замет', 'ошибк', 'пожалуйст', 'напиш', 'нам', 'portal', 'hse.ru', 'есл', 'информац', 'треб', 'сложн', 'оформлен', 'выбира', 'реж', 'прост', 'страниц', 'выделя', 'текст', 'подзаголовк', 'разн', 'уровн', 'треб', 'текст.', 'помн', 'нужн', 'оформ', 'текст', 'заголовок', 'выдел', 'жирн', 'увелич', 'шрифт', 'заголовок', 'важн', 'элемент', 'структур', 'страниц', 'поможет', 'поисковик', 'поня', 'ваш', 'сайт', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац', 'подробн', 'поисков', 'оптимизац', 'прочита', 'есл', 'очен', 'важн', 'страниц', 'понима', 'как', 'блок', 'хотел', 'выдел', 'знает', 'эт', 'сдела', 'напиш', 'сво', 'вопрос', 'portal', 'hse.ru', 'постара', 'помоч'], ['категорическ', 'размеща', 'текст', 'скопирова', 'Word', 'послед', 'очистк', 'посторон', 'стил', 'эт', 'привод', 'непредсказуем', 'отображен', 'текст', 'разн', 'браузер', 'некотор', 'случа', 'мобильн', 'устройств', 'текст', 'выход', 'границ', 'экра', 'посетител', 'принцип', 'сможет', 'прочита', 'текст', 'прост', 'стат', 'невидим', 'подробн', 'размещен', 'текст', 'написа', 'меня', 'размер', 'стил', 'шрифт', 'крас', 'текст', 'разн', 'цвет', 'эт', 'такж', 'привод', 'некорректн', 'отображен', 'конц', 'конц', 'эт', 'прост', 'некрасив', 'сайт', 'выгляд', 'школьн', 'стенгазет', 'выравнива', 'текст', 'ширин', 'стационарн', 'компьютер', 'так', 'форматирован', 'выглядет', 'симпатичн', 'мобильн', 'верс', 'слов', 'могут', 'прилипнут', 'кра', 'экра', 'центр', 'страниц', 'образ', 'пустот', 'размеща', 'текст', 'вид', 'изображен', 'зна', 'мероприят', 'част', 'готов', 'рекламн', 'постер', 'он', 'предназнач', 'размещен', 'стенд', 'сайт', 'текст', 'вид', 'картинок', 'тяжел', 'чита', 'мобильн', 'устройств', 'индексир', 'поисков', 'систем', 'недоступн', 'прочтен', 'слабовидя', 'использ', 'ознакомлен', 'сайт', 'специальн', 'программ', 'писа', 'заголовк', 'использу', 'заглавн', 'букв', 'налич', 'текст', 'заглавн', 'букв', 'усложня', 'восприят', 'чем', 'длин', 'текст', 'набра', 'заглавн', 'букв', 'сложн', 'прочита', 'кром', 'интернет', 'традицион', 'счита', 'автор', 'пишет', 'заглавн', 'букв', 'эт', 'означа', 'крич', 'размеща', 'заголовк', 'нескольк', 'строк', 'мобильн', 'верс', 'будут', 'занима', 'ве', 'экра']]]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[[['кажд', 'новост', 'долж', 'коротк', 'заголовок', 'аннотац', 'рубрик', 'ключев', 'слов', 'текст', 'новост', 'про', 'эт', 'написа', 'инструкц', 'закрепл', 'стандарт', 'форматирован', 'текст', 'абзац', 'перенос', 'строк', 'эт', 'одн', 'ссылк', 'инструкц', 'точк', 'заголовк', 'став', 'иллюстрац', 'хорош', 'новост', 'иллюстрир', 'фотограф', 'сдела', 'вам', 'рамк', 'работ', 'такж', 'здоров', 'изображен', 'переда', 'автор', 'размещен', 'сайт', 'категорическ', 'использова', 'изображен', 'найден', 'сет', 'обязательн', 'проверя', 'копирайт', 'иногд', 'достаточн', 'указа', 'откуд', 'скопирова', 'изображен', 'треб', 'письмен', 'разрешен', 'автор', 'некотор', 'случа', 'размеща', 'изображен', 'принцип', 'при', 'необходим', 'может', 'взят', 'изображен', 'бесплатн', 'фотобанк', 'иллюстрац', 'явля', 'обязательн', 'элемент', 'новост', 'картинк', 'должн', 'горизонтальн', 'хорош', 'качеств', 'недопустим', 'размещен', 'качеств', 'иллюстрац', 'новост', 'скриншот', 'баннер', 'листовок', 'обложек', 'постер', 'логотип']]]</t>
-        </is>
-      </c>
+          <t>[[['редактор', 'подразделен', 'имеет', 'возможн', 'измен', 'автоматическ', 'сортировк', 'сотрудник', 'установ', 'сортировк', 'должност', 'для', 'кажд', 'должност', 'внутр', 'сайт', 'подразделен', 'необходим', 'установ', 'сво', 'порядков', 'номер', 'например', 'руководител', 'имет', 'порядков', 'номер', 'заместител', 'люб', 'друг', 'числ', 'профессор']], [['случа', 'страниц', 'алфавитн', 'порядк', 'будут', 'показыва', 'снача', 'люд', 'должност', 'руководител', 'люд', 'должност', 'заместител', 'руководител', 'сотрудник', 'должност', 'профессор']], [['административн', 'интерфейс', 'раздел', 'найт', 'след', 'пут', 'дан', 'должност', 'для', 'выставлен', 'порядков', 'номер', 'необходим', 'кликнут', 'мышк', 'значок', 'редактирова', 'простав', 'соответств', 'номер']], [[]], [[], ['обрат', 'вниман', 'дан', 'страниц', 'имеет', 'автоматическ', 'кэш', 'час', 'есл', 'хот', 'сраз', 'увидет', 'изменен', 'пересохран', 'основн', 'страниц', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2035,27 +1935,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'создан', 'анонс', 'составн', 'редактор', 'анонс', 'английск', 'верс', 'копирован', 'сайт', 'подписк', 'анонс', 'подразделен']]]</t>
+          <t>[[['быстр', 'ссылк', 'как', 'опубликова', 'анонс', 'портал', 'как', 'созда', 'подписк', 'анонс', 'как', 'сдела', 'сайт', 'мероприят']]]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[[['раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'котор', 'состо', 'ближайш', 'будущ', 'анонс', 'эт', 'новост', 'новост', 'рассказыва', 'прошедш', 'событ', 'есл', 'будущ', 'программ', 'планир', 'никак', 'событ', 'блок', 'мероприят', 'вывод']], [['для', 'добавлен', 'анонс', 'необходим', 'откр', 'дан', 'выбра', 'соответств', 'пункт', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк']], [['заголовок', 'анонс', 'заполня', 'след', 'пол', 'заголовок', 'язык', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'семафор-онлайн', 'необходим', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'аннотац', 'текст', 'добав', 'ключев', 'слов', 'учет', 'результат', 'работ', 'ни', 'вшэ', 'остальн', 'пол', 'трога', 'заголовок', 'долж', 'кратк', 'отража', 'формат', 'мероприят', 'назван', 'например', 'всероссийск', 'научн', 'конференц', 'памят', 'юр', 'левад', 'современ', 'российск', 'обществ', 'социолог', 'лекц', 'ирин', 'новиков', 'образ', 'росс', 'русск', 'истор', 'латвийск', 'мед', 'международн', 'летн', 'школ', 'киберправ', 'ISSC', '2015', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт'], ['мероприят', 'имеет', 'ограничен', 'возраст', 'согласн', 'законодательств', 'мероприят', 'кром', 'научн', 'должн', 'имет', 'соответств', 'маркировк', 'возраст', '12+', 'т.д.', 'например', 'маркировк', 'должн', 'имет', 'анонс', 'дне', 'открыт', 'двер', 'подробн', 'написа', 'положен', 'защ', 'несовершеннолетн', 'обуча', 'ни', 'вшэ', 'информац', 'причиня', 'вред', 'здоров', 'развит', 'для', 'необходим', 'режим', 'редактирован', 'анонс', 'пол', 'мероприят', 'имеет', 'ограничен', 'возраст', 'выстав', 'нужн', 'возраст', 'как', 'поня', 'категор', 'относ', 'ваш', 'информац', 'основан', 'ст.', '5-10', 'федеральн', 'закон', '29.12.2010', '436-фз', 'защ', 'дет', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
+          <t>[[['для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'изначальн', 'размест', 'анонс', 'сайт', 'сво', 'подразделен', 'обраща', 'редактор', 'сво', 'подразделен'], ['информац', 'об', 'анонс', 'размещен', 'сайт', 'подразделен', 'вшэ', 'приход', 'порта', 'след', 'ден', 'редактор', 'порта', 'просматрива', 'анонс', 'соответств', 'всем', 'требован', 'добавля', 'лент', 'событ', 'вшэ', 'раздел', 'мероприят'], ['есл', 'хот', 'сообщ', 'сво', 'анонс', 'раньш', 'придет', 'порта', 'пришл', 'нам', 'заявк', 'portalnews', 'hse.ru', 'заявк', 'представля', 'соб', 'ссылк', 'ваш', 'анонс', 'ссылк', 'сайт', 'мероприят', 'конференц', 'форум'], ['анонс', 'добавля', 'лент', 'порядк', 'общ', 'очеред', 'рабоч', 'дни', 'пн.-пт.'], ['обрат', 'вниман', 'лент', 'событ', 'главн', 'страниц', 'сайт', 'добавля', 'анонс', 'мероприят', 'участ', 'котор', 'приглаша', 'жела', 'сотрудники/', 'уча', 'вшэ', 'есл', 'ваш', 'мероприят', 'рассчита', 'гост', 'вшэ', 'достаточн', 'размест', 'анонс', 'страниц', 'ваш', 'подразделен'], ['пожалуйст', 'пута', 'анонс', 'новост', 'анонс', 'информир', 'предстоя', 'событ', 'приглаша', 'участ', 'новост', 'рассказыва', 'сверш', 'событ']]]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[[['больш', 'част', 'информац', 'распространя', 'университет', 'относ', 'категор', 'т.е.', 'то', 'котор', 'свободн', 'распространя', 'сред', 'дет', 'люб', 'возраст', 'общ', 'правил', 'информац', 'достаточн', 'указа', 'ограничива', 'доступ', 'информац', 'треб']], [['основан', 'ст.', 'закон', 'защ', 'дет', 'мероприят', 'территор', 'университет', 'должн', 'содержа', 'информац', '18+', 'получ', 'специальн', 'разрешен', 'ректор', 'проректор']], [['подробн', 'защ', 'несовершеннолетн', 'обучающих', 'информац', 'причиня', 'вред', 'здоров', 'развит']]]</t>
+          <t>[[['назван', 'мероприятия/', 'заголовок', 'анонс', 'организатор', 'подразделен', 'ни', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.', 'степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак'], ['английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен'], ['недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт']], [['сайт', 'подразделен', 'анонс', 'размеща', 'непосредствен', 'редактор', 'дан', 'подразделен'], ['инструкц', 'размещен', 'анонс']]]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[[['язык', 'мероприят', 'изменя', 'англ.', 'анонс']], [['пол', 'нов', 'порта', 'метк', 'комментар', 'указыва', 'информац', 'срок', 'окончан', 'подач', 'заявок', 'мероприят', 'отобража', 'флажк', 'заголовк'], []], [['пол', 'нов', 'порта', 'семафор', 'онлайн', 'включа', 'налич', 'онлайн-трансляц', 'мероприят'], []], [['при', 'добавлен', 'анонс', 'особ', 'вниман', 'обраща', 'пункт', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'при', 'игнорирован', 'эт', 'пункт', 'ваш', 'анонс', 'отправ', 'арх', 'отобраз', 'сайт', 'подразделен'], [], ['например', 'дат', 'пол', 'мероприят', 'начнет', 'мероприят', 'заверш', 'должн', 'совпада', 'реальн', 'дат', 'событ', 'дат', 'добавля', 'анонс', 'как', 'дат', 'нача', 'мероприят', 'совпадет', 'реальн', 'дат', 'времен', 'анонс', 'пропадет', 'блок', 'мероприят'], ['когд', 'убра', 'анонс', 'мероприят', 'сайт', 'прав', 'став', 'дат', 'последн', 'дня', 'мероприят', 'врем', '23.55'], ['обрат', 'вниман', 'указа', 'часов', 'пояс', 'умолчан', 'сто', 'московск', 'врем']], [['пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'использ', 'необходим', 'отображен', 'главн', 'страниц', 'подразделен', 'общ', 'лент', 'анонс', 'как', 'прав', 'использ', 'мероприят', 'срок', 'подач', 'заявок'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'нет', 'анонс', 'вывод', 'главн', 'страниц', 'блок', 'мероприят', 'доступ', 'общ', 'списк', 'анонс', 'адрес', '/announcements'], [], ['при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'анонс', 'вывод', 'главн', 'страниц'], [], [], ['есл', 'нескольк', 'анонс', 'хот', 'выстро', 'блок', 'мероприят', 'календарн', 'порядк', 'обрат', 'особ', 'вниман', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'желательн', 'анонс', 'дат', 'перв', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'одинаков', 'дал', 'регулирует', 'положен', 'анонс', 'блок', 'главн', 'времен', 'показ', 'чем', 'раньш', 'врем', 'выш', 'анонс', 'блок', 'главн', 'вне', 'зависим', 'дат', 'реальн', 'событ'], ['например'], [], ['набор', 'образовательн', 'программ', 'Bridge', '2015'], [], ['конкурс', 'Cоздан', 'международн', 'лаборатор', 'ни', 'вшэ', 'санкт-петербург'], [], ['HSE', 'Filmfest', '2015'], [], ['дат', 'нача', 'показ', 'анонс', 'одинаков', 'январ', '2015', 'времен', '21.45', '22.00', '22.10', 'скорректирова', 'последовательн', 'отображен']], [['текст', 'аннотац', 'вывод', 'общ', 'текст', 'анонс', 'пожалуйст', 'дублир', 'информац', 'след', 'пол']], [['пол', 'текст', 'указыва', 'подробн', 'предстоя', 'мероприят'], ['текст', 'долж', 'содержа', 'необходим', 'информац', 'котор', 'понадоб', 'посетител', 'мероприят', 'числ', 'сотрудник', 'вышк', 'посетител', 'сторон'], ['назван', 'мероприят', 'организатор', 'подразделен', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['обрат', 'вниман', 'копирован', 'текс', 'Word', 'окн', 'текст', 'текст', 'анонс', 'располага', 'ровн', 'страниц', 'необходим', 'чист', 'код', 'для', 'выдел', 'ве', 'текст', 'окн', 'нажм', 'значк', 'панел', 'управлен', 'ластик', 'метелк'], [], ['посл', 'понадоб', 'удал', 'лишн', 'абзац', 'пробел', 'начал', 'строк'], ['использ', 'курс', 'разн', 'цвет', 'Caps', 'Lock', 'злоупотребля', 'выделен', 'жирн', 'шрифт'], ['подробн', 'форматирован', 'текст', 'использован', 'основн', 'инструмент', 'редактирован', 'страниц', 'прочита'], ['расстав', 'текст', 'ссылк', 'упомянут', 'текст', 'персон', 'подразделен'], ['для', 'выдел', 'необходим', 'врагмент', 'текст', 'нажм', 'значок', 'цепочк'], [], ['откр', 'окн', 'необходим', 'встав', 'ссылк', 'адрес', 'электрон', 'почт', 'граф', 'адрес', 'нажа', 'сниз', 'кнопк', 'встав'], [], ['либ', 'персон', 'подразделен', 'принадлеж', 'ни', 'вшэ', 'желательн', 'выбра', 'баз', 'подразделен', 'персон', 'порта', 'тогд', 'автоматическ', 'подгруз', 'страниц', 'дан', 'персон', 'подразделен', 'эт', 'избав', 'необходим', 'иска', 'страниц', 'персон', 'подразделен', 'отдельн', 'поиск', 'портал', 'позвол', 'сэконом', 'врем'], ['для', 'вставл', 'граф', 'адрес', 'нужн', 'выбра', 'строк', 'сво', 'ссылк', 'пункт', 'персон', 'подразделен'], [], ['нажа', 'кнопк', 'выбра', 'ряд', 'граф', 'сво', 'ссылк', 'появ', 'окн', 'поиск', 'помощ', 'поисков', 'строк', 'Ctrl', 'найт', 'нужн', 'подразделен'], [], ['когд', 'персон', 'подразделен', 'выбра', 'баз', 'адрес', 'строк', 'адрес', 'имет', 'след', 'вид'], [], ['когд', 'ссылк', 'сформирова', 'забудьт', 'нажа', 'кнопк', 'встав']], [['для', 'добавлен', 'ключев', 'слов', 'анонс', 'нажм', 'кнопк', 'добав', 'ключев', 'слов', 'через', 'поиск', 'найд', 'нужн', 'слов', 'баз', 'ключев', 'слов', 'порта', 'добавьт'], [], ['завершен', 'заполнен', 'необходим', 'пол', 'статус', 'анонс', 'проставля', 'активн', 'нажима', 'кнопк', 'сохран', 'анонс', 'гот']], [['есл', 'анонс', 'треб', 'использова', 'верстк', 'различн', 'элемент', 'например', 'постав', 'кнопк', 'регистрац', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн'], [], ['дал', 'следу', 'инструкц', 'составн', 'страниц']], [['важн', 'английск', 'верс', 'подразделен', 'такж', 'должн', 'публикова', 'анонс', 'мероприят', 'котор', 'провод', 'английск', 'язык', 'существ', 'вариант', 'размещен'], ['вариант', 'постав', 'анонс', 'перевод', 'для', 'необходим', 'встав', 'перевод', 'сохранен', 'ран', 'анонс', 'русск', 'верс', 'над', 'заголовк', 'нажа', 'британск', 'флаг', 'перевод', 'заполн', 'соответств', 'пол', 'заголовок', 'перевод', 'англ.', 'ключев', 'слов', 'постав', 'статус', 'показыва', 'нажа', 'сохран'], ['важн', 'посл', 'сохранен', 'перевод', 'окажет', 'русск', 'верс', 'анонс', 'след', 'нажа', 'сохран', 'русск', 'страниц'], ['вариант', 'полност', 'английск', 'анонс', 'созда', 'нов', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'заполня', 'принцип', 'русскоязычн', 'анонс', 'полност', 'английск', 'став', 'язык', 'английск', 'анонс', 'отобража', 'английск', 'верс', 'сайт']], [['чтоб', 'воспользова', 'функц', 'необходим', 'выполн', 'вход', 'личн', 'кабинет', 'адрес', 'https', '//www.hse.ru/user/', 'посл', 'открыва', 'нужн', 'анонс', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'анонс'], ['списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова'], ['размест', 'анонс', 'двум', 'способ', 'ссылк', 'оригинальн', 'анонс', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'котор', 'увод', 'оригинальн', 'анонс', 'сможет', 'редактирова', 'втор', 'случа', 'анонс', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'анонс', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'анонс', 'размещен', 'полн', 'клонирован', 'подтянет'], [], [], ['есл', 'вам', 'необходим', 'убра', 'анонс', 'размещен', 'ссылк', 'оригинальн', 'анонс', 'вам', 'необходим', 'зайт', 'раздел', 'анонс', 'импортирова', 'анонс', 'ссылк', 'справ', 'найт', 'нужн', 'анонс', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'анонс', 'подразделен'], ['есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн'], ['есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'анонс', 'пиш', 'portal', 'hse.ru']]]</t>
+          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
+          <t>[[['есл', 'ваш', 'подразделен', 'провод', 'крупн', 'мероприят', 'например', 'конференц', 'летн', 'школ', 'подразумева', 'размещен', 'разнопланов', 'информац', 'программ', 'организатор', 'спикер', 'др.', 'может', 'созда', 'сайт', 'мероприят'], ['сотрудник', 'порта', 'завод', 'сайт', 'выда', 'прав', 'ответствен', 'ваш', 'подразделен', 'котор', 'занима', 'наполнен', 'сайт', 'порта', 'оказыва', 'консультацион', 'поддержк', 'такж', 'помога', 'оформлен', 'част', 'нужн', 'сложн', 'верстк'], ['для', 'заказа', 'сайт', 'мероприят', 'необходим', 'присла', 'portal', 'hse.ru', 'заявк', 'котор', 'указыва'], ['жела', 'шаблон', 'сайт', 'стандартн', 'сайт', 'мероприят', 'лендинг', 'жела', 'адрес', 'сайт', 'ссылк', 'сайт', 'мероприят', 'предыдущ', 'год', 'мероприят', 'ежегодн', 'заголовок', 'сайт', 'назван', 'мероприят', 'фи', 'ответствен', 'редактирован', 'сайт']]]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2084,29 +1984,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'как', 'опубликова', 'анонс', 'портал', 'как', 'созда', 'подписк', 'анонс', 'как', 'сдела', 'сайт', 'мероприят']]]</t>
+          <t>[[['для', 'вход', 'реж', 'редактирован', 'перейд', 'ссылк', 'редактор', 'главн', 'страниц', 'сайт', 'нажм', 'наверх', 'ссылк', 'дан', 'перейд', 'раздел', 'блок', 'русск', 'верс', 'блоки_англ', 'английск', 'верс']], [[]]]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[[['для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'изначальн', 'размест', 'анонс', 'сайт', 'сво', 'подразделен', 'обраща', 'редактор', 'сво', 'подразделен'], ['информац', 'об', 'анонс', 'размещен', 'сайт', 'подразделен', 'вшэ', 'приход', 'порта', 'след', 'ден', 'редактор', 'порта', 'просматрива', 'анонс', 'соответств', 'всем', 'требован', 'добавля', 'лент', 'событ', 'вшэ', 'раздел', 'мероприят'], ['есл', 'хот', 'сообщ', 'сво', 'анонс', 'раньш', 'придет', 'порта', 'пришл', 'нам', 'заявк', 'portalnews', 'hse.ru', 'заявк', 'представля', 'соб', 'ссылк', 'ваш', 'анонс', 'ссылк', 'сайт', 'мероприят', 'конференц', 'форум'], ['анонс', 'добавля', 'лент', 'порядк', 'общ', 'очеред', 'рабоч', 'дни', 'пн.-пт.'], ['обрат', 'вниман', 'лент', 'событ', 'главн', 'страниц', 'сайт', 'добавля', 'анонс', 'мероприят', 'участ', 'котор', 'приглаша', 'жела', 'сотрудники/', 'уча', 'вшэ', 'есл', 'ваш', 'мероприят', 'рассчита', 'гост', 'вшэ', 'достаточн', 'размест', 'анонс', 'страниц', 'ваш', 'подразделен'], ['пожалуйст', 'пута', 'анонс', 'новост', 'анонс', 'информир', 'предстоя', 'событ', 'приглаша', 'участ', 'новост', 'рассказыва', 'сверш', 'событ']]]</t>
+          <t>[[['быстр', 'ссылк', 'шапк', 'мен', 'основн', 'колонк', 'виджет']]]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[[['назван', 'мероприятия/', 'заголовок', 'анонс', 'организатор', 'подразделен', 'ни', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.', 'степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск'], ['соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак'], ['английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен'], ['недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт']], [['сайт', 'подразделен', 'анонс', 'размеща', 'непосредствен', 'редактор', 'дан', 'подразделен'], ['инструкц', 'размещен', 'анонс']]]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[[['может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям'], ['чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт'], []]]</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>[[['есл', 'ваш', 'подразделен', 'провод', 'крупн', 'мероприят', 'например', 'конференц', 'летн', 'школ', 'подразумева', 'размещен', 'разнопланов', 'информац', 'программ', 'организатор', 'спикер', 'др.', 'может', 'созда', 'сайт', 'мероприят'], ['сотрудник', 'порта', 'завод', 'сайт', 'выда', 'прав', 'ответствен', 'ваш', 'подразделен', 'котор', 'занима', 'наполнен', 'сайт', 'порта', 'оказыва', 'консультацион', 'поддержк', 'такж', 'помога', 'оформлен', 'част', 'нужн', 'сложн', 'верстк'], ['для', 'заказа', 'сайт', 'мероприят', 'необходим', 'присла', 'portal', 'hse.ru', 'заявк', 'котор', 'указыва'], ['жела', 'шаблон', 'сайт', 'стандартн', 'сайт', 'мероприят', 'лендинг', 'жела', 'адрес', 'сайт', 'ссылк', 'сайт', 'мероприят', 'предыдущ', 'год', 'мероприят', 'ежегодн', 'заголовок', 'сайт', 'назван', 'мероприят', 'фи', 'ответствен', 'редактирован', 'сайт']]]</t>
-        </is>
-      </c>
+          <t>[[['дан', 'раздел', 'редактир', 'размеща', 'шапк', 'сайт', 'картинк', 'заголовок', 'подзаголовок', 'кнопк'], ['при', 'выбор', 'картинк', 'шапк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1600', 'пиксел', 'ширин', 'вес', '200-300', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'проект', 'сво', 'фирстил', 'котор', 'долж', 'отраж', 'шапк', 'необходим', 'учитыва', 'требован', 'картинк'], ['чтоб', 'шапк', 'отобража', 'главн', 'внутрен', 'страниц', 'сайт', 'нужн', 'зайт', 'раздел', 'шапк', 'втор', 'страниц', 'выбра', 'шапк', 'главн', 'страниц', 'сво', 'шапк', 'обычн', 'показ', 'внутрен', 'страниц', 'сайт', 'использ', 'шапк', 'главн', 'страниц']], [['отображен', 'мен', 'регулир', 'раздел', 'шапк', 'умолчан', 'мен', 'скрыт', 'есл', 'нужн', 'он', 'показыва', 'выбра', 'хот', 'вывест', 'сниз', 'сверх'], ['ест', 'такж', 'опц', 'сдела', 'мен', 'центр', 'сам', 'пункт', 'мен', 'редактир', 'данные-блоки-мен']], [['основн', 'колонк', 'главн', 'страниц', 'главн', 'раздел', 'котор', 'пользует', 'слев', 'располож', 'набор', 'виджет', 'справ', 'пол', 'виджет', 'нужн', 'перемест', 'располага', 'ваш', 'контент'], ['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк', 'нажима', 'сохран', 'конц', 'страниц', 'обязательн', 'проверя', 'получ'], [], ['текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'чтоб', 'текст', 'смотрел', 'браузер', 'удал', 'лишн', 'пробел', 'стоя', 'кавычк', 'елочк', 'лапк', 'слов', 'цифр', 'соединя', 'тир', 'дефис', 'использ', 'программ', 'типограф'], ['изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова'], ['виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок'], ['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor'], ['цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример'], ['новост', 'новост', 'размеща', 'раздел', 'новост', 'см.', 'инструкц', 'при', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'новост', 'выбра', 'оформлен', 'плитк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'новост', 'пол', 'заголовок', 'пример'], ['мероприят', 'анонс', 'анонс', 'размеща', 'раздел', 'анонс', 'см.', 'инструкц', 'при', 'анонс', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'мероприят', 'выбра', 'стил', 'карточк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'мероприят', 'пол', 'заголовок', 'пример'], ['связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример'], ['список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример'], ['хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример'], ['партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример'], ['колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['контент-блок', 'есл', 'необходим', 'разб', 'текст', 'смыслов', 'част', 'налож', 'текст', 'фон', 'цвет', 'картинк', 'воспользова', 'виджет', 'контент-блок', 'перенос', 'виджет', 'добавля', 'цвет', 'картинк', 'внутр', 'перенос', 'виджет', 'котор', 'непосредствен', 'будет', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример'], ['плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'мож', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример'], ['дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример'], ['цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример'], ['выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример'], ['кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример'], ['част', 'задава', 'вопрос', 'есл', 'нужн', 'созда', 'блок', 'част', 'задава', 'вопрос', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'част', 'задава', 'вопрос', 'заполня', 'пол', 'вопрос', 'ответ', 'дал', 'нажима', 'добав', 'откр', 'пол', 'заполня', 'назван', 'кнопк', 'ссылк', 'страниц', 'кнопк', 'должн', 'вест', 'кнопок', 'нескольк', 'кнопк', 'сдела', 'заливк', 'прозрачн', 'пример', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример'], ['вкладк', 'есл', 'хот', 'размест', 'информац', 'вид', 'переключа', 'соб', 'блок', 'нужн', 'выбра', 'виджет', 'вкладк', 'дал', 'нажима', 'добав', 'вкладк', 'пол', 'заголовок', 'пиш', 'назван', 'вкладк', 'пуст', 'пол', 'перемеща', 'виджет', 'фрагмент', 'текст', 'заголовк', 'размеща', 'информац', 'пример'], ['слайдер', 'инструкц', 'размещен', 'баннер', 'виджет', 'слайдер', 'может', 'прочита']]]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2133,19 +2025,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[[['для', 'вход', 'реж', 'редактирован', 'перейд', 'ссылк', 'редактор', 'главн', 'страниц', 'сайт', 'нажм', 'наверх', 'ссылк', 'дан', 'перейд', 'раздел', 'блок', 'русск', 'верс', 'блоки_англ', 'английск', 'верс']], [[]]]</t>
+          <t>[[['состо', 'текст', 'фонов', 'изображен', 'фон', 'долж', 'так', 'нем', 'чита', 'текст', 'бел', 'цвет', 'фон', 'должн', 'значим', 'элемент', 'котор', 'обреза', 'пересека', 'текст', 'ширин', 'фонов', 'изображен', '1600px', 'картинк', 'обязательн', 'должн', 'оптимизирова', 'https', '//portal.hse.ru/photo']]]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[[['быстр', 'ссылк', 'шапк', 'мен', 'основн', 'колонк', 'виджет']]]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>[[['дан', 'раздел', 'редактир', 'размеща', 'шапк', 'сайт', 'картинк', 'заголовок', 'подзаголовок', 'кнопк'], ['при', 'выбор', 'картинк', 'шапк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1600', 'пиксел', 'ширин', 'вес', '200-300', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'проект', 'сво', 'фирстил', 'котор', 'долж', 'отраж', 'шапк', 'необходим', 'учитыва', 'требован', 'картинк'], ['чтоб', 'шапк', 'отобража', 'главн', 'внутрен', 'страниц', 'сайт', 'нужн', 'зайт', 'раздел', 'шапк', 'втор', 'страниц', 'выбра', 'шапк', 'главн', 'страниц', 'сво', 'шапк', 'обычн', 'показ', 'внутрен', 'страниц', 'сайт', 'использ', 'шапк', 'главн', 'страниц']], [['отображен', 'мен', 'регулир', 'раздел', 'шапк', 'умолчан', 'мен', 'скрыт', 'есл', 'нужн', 'он', 'показыва', 'выбра', 'хот', 'вывест', 'сниз', 'сверх'], ['ест', 'такж', 'опц', 'сдела', 'мен', 'центр', 'сам', 'пункт', 'мен', 'редактир', 'данные-блоки-мен']], [['основн', 'колонк', 'главн', 'страниц', 'главн', 'раздел', 'котор', 'пользует', 'слев', 'располож', 'набор', 'виджет', 'справ', 'пол', 'виджет', 'нужн', 'перемест', 'располага', 'ваш', 'контент'], ['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк', 'нажима', 'сохран', 'конц', 'страниц', 'обязательн', 'проверя', 'получ'], [], ['текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'чтоб', 'текст', 'смотрел', 'браузер', 'удал', 'лишн', 'пробел', 'стоя', 'кавычк', 'елочк', 'лапк', 'слов', 'цифр', 'соединя', 'тир', 'дефис', 'использ', 'программ', 'типограф'], ['изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова'], ['виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок'], ['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor'], ['цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример'], ['новост', 'новост', 'размеща', 'раздел', 'новост', 'см.', 'инструкц', 'при', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'новост', 'выбра', 'оформлен', 'плитк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'новост', 'пол', 'заголовок', 'пример'], ['мероприят', 'анонс', 'анонс', 'размеща', 'раздел', 'анонс', 'см.', 'инструкц', 'при', 'анонс', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'мероприят', 'выбра', 'стил', 'карточк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'мероприят', 'пол', 'заголовок', 'пример'], ['связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример'], ['список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример'], ['хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример'], ['партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример'], ['колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['контент-блок', 'есл', 'необходим', 'разб', 'текст', 'смыслов', 'част', 'налож', 'текст', 'фон', 'цвет', 'картинк', 'воспользова', 'виджет', 'контент-блок', 'перенос', 'виджет', 'добавля', 'цвет', 'картинк', 'внутр', 'перенос', 'виджет', 'котор', 'непосредствен', 'будет', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример'], ['соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример'], ['плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'мож', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример'], ['дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример'], ['цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример'], ['выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример'], ['кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример'], ['част', 'задава', 'вопрос', 'есл', 'нужн', 'созда', 'блок', 'част', 'задава', 'вопрос', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'част', 'задава', 'вопрос', 'заполня', 'пол', 'вопрос', 'ответ', 'дал', 'нажима', 'добав', 'откр', 'пол', 'заполня', 'назван', 'кнопк', 'ссылк', 'страниц', 'кнопк', 'должн', 'вест', 'кнопок', 'нескольк', 'кнопк', 'сдела', 'заливк', 'прозрачн', 'пример', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример'], ['вкладк', 'есл', 'хот', 'размест', 'информац', 'вид', 'переключа', 'соб', 'блок', 'нужн', 'выбра', 'виджет', 'вкладк', 'дал', 'нажима', 'добав', 'вкладк', 'пол', 'заголовок', 'пиш', 'назван', 'вкладк', 'пуст', 'пол', 'перемеща', 'виджет', 'фрагмент', 'текст', 'заголовк', 'размеща', 'информац', 'пример'], ['слайдер', 'инструкц', 'размещен', 'баннер', 'виджет', 'слайдер', 'может', 'прочита']]]</t>
-        </is>
-      </c>
+          <t>[[['баннер/шапк', 'представля', 'композиц', 'меньш', 'основн', 'элемент']], [['фон', 'пример', 'заливк', 'цвет', 'паттерн']], [['значим', 'текст', 'пример', 'заголовк', 'назван', 'мероприят', 'опциональн', 'кнопк']], [['графическ', 'элемент', 'пример', 'логотип', 'иллюстрац', 'фот']], [['при', 'подготовк', 'макет', 'важн', 'предусмотрет', 'адаптац', 'размер', 'взаимн', 'расположен', 'основн', 'элемент', 'разн', 'ширин', 'экра', 'макет', 'направля', 'команд', 'порта', '3-х', 'вариант', 'ширин']], [['375px', 'мобильн', 'устройств']], [['800px', 'планшет']], [['1600px', 'ноутбук']], [['высот', 'баннер', 'главн', 'страниц', 'порта', '600px', '180px', 'сверх', '80px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['высот', 'шапк', 'лендинг', '490px', '45px', 'сверх', '50px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['для', 'верстк', 'сложн', 'вариант', 'баннера/шапк', 'след', 'присла', 'послойн', 'картинк', 'эт', 'означа', 'отдельн', 'элемент', 'лежат', 'разн', 'сло', 'изображен', 'верстальщик', 'использова', 'отдельн', 'друг', 'друг']]]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2174,18 +2062,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[[['состо', 'текст', 'фонов', 'изображен', 'фон', 'долж', 'так', 'нем', 'чита', 'текст', 'бел', 'цвет', 'фон', 'должн', 'значим', 'элемент', 'котор', 'обреза', 'пересека', 'текст', 'ширин', 'фонов', 'изображен', '1600px', 'картинк', 'обязательн', 'должн', 'оптимизирова', 'https', '//portal.hse.ru/photo']]]</t>
+          <t>[[['вход', 'редакторск', 'реж', 'https', '//www.hse.ru/adm/', 'логин', 'парол', 'так', 'ваш', 'личн', 'кабинет', 'елк']]]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[[['баннер/шапк', 'представля', 'композиц', 'меньш', 'основн', 'элемент']], [['фон', 'пример', 'заливк', 'цвет', 'паттерн']], [['значим', 'текст', 'пример', 'заголовк', 'назван', 'мероприят', 'опциональн', 'кнопк']], [['графическ', 'элемент', 'пример', 'логотип', 'иллюстрац', 'фот']], [['при', 'подготовк', 'макет', 'важн', 'предусмотрет', 'адаптац', 'размер', 'взаимн', 'расположен', 'основн', 'элемент', 'разн', 'ширин', 'экра', 'макет', 'направля', 'команд', 'порта', '3-х', 'вариант', 'ширин']], [['375px', 'мобильн', 'устройств']], [['800px', 'планшет']], [['1600px', 'ноутбук']], [['высот', 'баннер', 'главн', 'страниц', 'порта', '600px', '180px', 'сверх', '80px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['высот', 'шапк', 'лендинг', '490px', '45px', 'сверх', '50px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон']], [['для', 'верстк', 'сложн', 'вариант', 'баннера/шапк', 'след', 'присла', 'послойн', 'картинк', 'эт', 'означа', 'отдельн', 'элемент', 'лежат', 'разн', 'сло', 'изображен', 'верстальщик', 'использова', 'отдельн', 'друг', 'друг']]]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>[[['основн', 'вкладк', 'котор', 'будет', 'работа', 'эт', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'сайт', 'опрос', 'создан', 'форм', 'регистрац', 'мероприят', 'блок']], [[]], [['основн', 'управлен', 'контент', 'происход', 'вкладк', 'блок', 'блок', 'англ.', 'английск', 'верс', 'сайт']], [['чтоб', 'вам', 'легч', 'сориентирова', 'редакторск', 'интерфейс', 'пояснен', 'разн', 'пол', 'внесен', 'информац', 'отмечен', 'звездочк', 'сер', 'шрифт']], [[]], [['пункт', 'заполня', 'блок', 'прав', 'колонк', 'дан', 'мероприят']], [['рекоменд', 'заполня', 'об', 'верхн', 'пол', 'текст', 'перв', 'строк', 'отобража', 'мелк', 'шрифт', 'тогд', 'текст', 'основн', 'назван', 'мероприят', 'отобража', 'крупн']], [['создан', 'форм', 'регистрац']], [['заполня', 'пол', 'пояснен', 'надп', 'важн', 'дат', 'варьирова', 'усмотрен']], [['вкладк', 'может', 'заполня', 'использова', 'друг', 'пол', 'врем', 'нача', 'мероприят', 'язык', 'мероприят', 'ссылк', 'карт', 'как', 'добра', 'важн', 'ссылк', 'файл', 'дан', 'будут', 'отобража', 'прав', 'част', 'сайт']], [['мен', 'горизонтальн', 'центральн', 'част', 'страниц']], [['необходим', 'созда', 'нов', 'групп', 'внутр', 'групп', 'добав', 'ссылк', 'перв', 'строк', 'назван', 'пункт', 'мен', 'втор', 'ссылк', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц'], [], ['для', 'пункт', 'мен', 'выстраива', 'горизонтальн', 'лин', 'необходим', 'кажд', 'пункт', 'мен', 'создава', 'нов', 'групп', 'при', 'добавлен', 'ссылк', 'то', 'групп', 'след', 'пункт', 'мен', 'располага', 'предыдущ'], [], ['возмож', 'вариант', 'расположен', 'мен', 'прав', 'част', 'сайт', 'дат', 'мероприят', 'см.', 'рисунок', 'ниж'], ['логик', 'заполнен', 'редактирован', 'прав', 'част', 'сайт', 'дан', 'пункт', 'внос']], [[], []]]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[[['информац', 'котор', 'размеща', 'главн', 'страниц', 'сайт', 'явля', 'ключев', 'должн', 'отража', 'важност', 'проводим', 'мероприят']], [['для', 'заполнения/редактирован', 'аннотац', 'необходим', 'зайт', 'редакторск', 'интерфейс', 'главн', 'страниц', 'люб', 'https', '//www.hse.ru/adm/', 'дан', 'либ', 'помощ', 'значк', 'редактор', 'нижн', 'прав', 'угл', 'главн', 'страниц']], [['аннотац', 'наход', 'пол', 'подразделен', 'верста', 'аналог', 'верстк', 'текст', 'статическ', 'страниц', 'использован', 'так', 'инструментар']]]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[[['вниз', 'главн', 'страниц', 'может', 'размест', 'член', 'программн', 'организацион', 'комитет', 'ключев', 'спикер', 'докладчик', 'партнер', 'пр.', 'фот', 'регал', 'ссылк', 'персон']], [['внутр', 'завод', 'соответств', 'групп', 'ключев', 'спикер', 'например', 'поочередн', 'добавля', 'персон', 'ссылк', 'персональн', 'страниц', 'фотограф', 'сотрудник', 'вышк', 'подгружа', 'автоматическ', 'для', 'персон', 'вшэ', 'может', 'подгружа', 'фот', 'ссылк', 'откр', 'окн', 'вручн'], [], ['аналогичн', 'принцип', 'устро', 'пункт', 'оформлен', 'партнер', 'мероприят']], [['необходим', 'добавля', 'логотип', 'организации-партнер', 'ссылк'], [], ['однак', 'зачаст', 'быва', 'удобн', 'размеща', 'партнер', 'прав', 'част', 'сайт'], [], ['зде', 'снов', 'работа', 'логик', 'работ', 'прав', 'колонк']], [['необходим', 'завест', 'нов', 'текстов', 'блок', 'заполн', 'картинками-логотип', 'желан', 'ссылк', 'сайт', 'партнер'], []]]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[[['такж', 'вас', 'возможн', 'сверста', 'программ', 'ваш', 'мероприят', 'он', 'располага', 'главн', 'страниц', 'сайт', 'мероприят', 'аннотац']], [['структур', 'программ', 'выстраива', 'пут', 'добавлен', 'пункт', 'добав', 'ден', 'добав', 'мероприят', 'добав', 'событ', 'зависим', 'структур', 'продолжительн', 'ваш', 'мероприят'], [], []]]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[[['есл', 'реш', 'созда', 'отдельн', 'статическ', 'страниц', 'перечислен', 'член', 'организацион', 'программн', 'комитет', 'докладчик', 'др.', 'вам', 'необходим', 'использова', 'созда', 'составн', 'страниц', 'выбра', 'виджет', 'список', 'персон', 'как', 'эт', 'сдела', 'может', 'прочита', 'инструкц', 'https', '//portal.hse.ru/sostav']], [[]], [[]], [['главн', 'забыва', 'нажима', 'кнопк', 'сохран', 'вниз', 'кажд', 'карточк', 'котор', 'заполня']]]</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2211,46 +2115,94 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[[['вход', 'редакторск', 'реж', 'https', '//www.hse.ru/adm/', 'логин', 'парол', 'так', 'ваш', 'личн', 'кабинет', 'елк']]]</t>
+          <t>[[['шаблон', 'сайт', 'образовательн', 'программ', 'сам', 'сложн', 'портал', 'при', 'формирован', 'страниц', 'использ', 'информац', 'различн', 'баз', 'дан', 'университет', 'аса', 'руз', 'внутрен', 'баз', 'порта', 'поэт', 'случа', 'необходим', 'добавления/корректировк', 'информац', 'необходим', 'правк', 'имен', 'эт', 'баз', 'дан']], [['шаблон', 'позволя', 'постав', 'главн', 'страниц', 'сайт', 'люб', 'блок', 'люб', 'последовательн', 'зависим', 'этап', 'приемн', 'кампан', 'при', 'меня', 'информац', 'страниц', 'редактор', 'сайт', 'программ', 'самостоятельн', 'обра', 'помощ', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'исключен', 'аннотац', 'шапк', 'образовательн', 'программ', 'текст', 'вывод', 'баз', 'дан', 'каталог', 'образовательн', 'программ', 'ест', 'возможн', 'созда', 'турбо-верс', 'сайт', 'эт', 'помога', 'существен', 'увелич', 'трафик', 'мобильн', 'устройств', 'размещен', 'SEO-оптимизирова', 'текст', 'SEO', 'search', 'engine', 'optimization', 'главн', 'страниц', 'служ', 'поднят', 'позиц', 'сайт', 'результат', 'выдач', 'поисков', 'сист', 'определен', 'запрос', 'пользовател', 'обрат', 'вниман', 'SEO-оптимизац', 'эт', 'комплекс', 'мероприят', 'продвижен', 'сайт', 'однак', 'наибольш', 'рол', 'игра', 'качествен', 'контент']]]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[[['основн', 'вкладк', 'котор', 'будет', 'работа', 'эт', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'сайт', 'опрос', 'создан', 'форм', 'регистрац', 'мероприят', 'блок']], [[]], [['основн', 'управлен', 'контент', 'происход', 'вкладк', 'блок', 'блок', 'англ.', 'английск', 'верс', 'сайт']], [['чтоб', 'вам', 'легч', 'сориентирова', 'редакторск', 'интерфейс', 'пояснен', 'разн', 'пол', 'внесен', 'информац', 'отмечен', 'звездочк', 'сер', 'шрифт']], [[]], [['пункт', 'заполня', 'блок', 'прав', 'колонк', 'дан', 'мероприят']], [['рекоменд', 'заполня', 'об', 'верхн', 'пол', 'текст', 'перв', 'строк', 'отобража', 'мелк', 'шрифт', 'тогд', 'текст', 'основн', 'назван', 'мероприят', 'отобража', 'крупн']], [['создан', 'форм', 'регистрац']], [['заполня', 'пол', 'пояснен', 'надп', 'важн', 'дат', 'варьирова', 'усмотрен']], [['вкладк', 'может', 'заполня', 'использова', 'друг', 'пол', 'врем', 'нача', 'мероприят', 'язык', 'мероприят', 'ссылк', 'карт', 'как', 'добра', 'важн', 'ссылк', 'файл', 'дан', 'будут', 'отобража', 'прав', 'част', 'сайт']], [['мен', 'горизонтальн', 'центральн', 'част', 'страниц']], [['необходим', 'созда', 'нов', 'групп', 'внутр', 'групп', 'добав', 'ссылк', 'перв', 'строк', 'назван', 'пункт', 'мен', 'втор', 'ссылк', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц'], [], ['для', 'пункт', 'мен', 'выстраива', 'горизонтальн', 'лин', 'необходим', 'кажд', 'пункт', 'мен', 'создава', 'нов', 'групп', 'при', 'добавлен', 'ссылк', 'то', 'групп', 'след', 'пункт', 'мен', 'располага', 'предыдущ'], [], ['возмож', 'вариант', 'расположен', 'мен', 'прав', 'част', 'сайт', 'дат', 'мероприят', 'см.', 'рисунок', 'ниж'], ['логик', 'заполнен', 'редактирован', 'прав', 'част', 'сайт', 'дан', 'пункт', 'внос']], [[], []]]</t>
+          <t>[[['служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'получен', 'редакторск', 'прав', 'размещен', 'виде', 'главн', 'страниц', 'налич', 'виде', 'Youtube', 'включен', 'раздел', 'студент', 'выпускник', 'налич', 'наполнен', 'страниц', 'раздел', 'добавлен', 'ссылок', 'пункт', 'мен', 'помечен', 'замочк', 'ссылк', 'общ', 'мен', 'страниц', 'рейтинг', 'общ', 'техническ', 'вопрос', 'редактирован', 'сайт', 'вынесен', 'пункт', 'ниж', 'никитин', 'мар', 'константиновн', 'управлен', 'развит', 'поддержк', 'порта', 'английск', 'верс', 'сайт', 'райа', 'сюзан', 'халилевн', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'раздел', 'руководств', 'руководител', 'менеджер', 'игнатов', 'натал', 'генадиевн', 'центр', 'сервис', 'департамент', 'страниц', 'рейтинг', 'курс', 'преподавател', 'раздел', 'документ', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'управлен', 'развит', 'образовательн', 'программ', 'раздел', 'паспорт', 'образовательн', 'программ', 'аббасов', 'ел', 'сергеевн', 'центр', 'сервис', 'студент', 'страниц', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'редактор', 'подразделен', 'реализ', 'программ', 'размещен', 'анонс', 'шапк', 'программ', 'шишк', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'дирекц', 'маркетингов', 'коммуникац', 'съемк', 'проморолик', 'участ', 'акад', 'руководител', 'размещен', 'проморолик', 'Yоутубе-канал', 'ни', 'вшэ']]]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[[['информац', 'котор', 'размеща', 'главн', 'страниц', 'сайт', 'явля', 'ключев', 'должн', 'отража', 'важност', 'проводим', 'мероприят']], [['для', 'заполнения/редактирован', 'аннотац', 'необходим', 'зайт', 'редакторск', 'интерфейс', 'главн', 'страниц', 'люб', 'https', '//www.hse.ru/adm/', 'дан', 'либ', 'помощ', 'значк', 'редактор', 'нижн', 'прав', 'угл', 'главн', 'страниц']], [['аннотац', 'наход', 'пол', 'подразделен', 'верста', 'аналог', 'верстк', 'текст', 'статическ', 'страниц', 'использован', 'так', 'инструментар']]]</t>
+          <t>[[['стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'бакалавриат', 'магистратур', 'специалитет', 'корпоративн', 'сайт', 'портал', 'национальн', 'исследовательск', 'университет', 'высш', 'школ', 'экономик']], [['положен', 'основн', 'образовательн', 'программ', 'высш', 'образован']], [['быстр', 'ссылк', 'как', 'нача', 'что', 'дела', 'программ', 'нов', 'сайт', 'как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'структур', 'сайт', 'образовательн', 'программ', 'шапк', 'сайт', 'образовательн', 'программ', 'размещен', 'анонс', 'шапк', 'сайт', 'главн', 'страниц', 'программ', 'верхн', 'мен', 'раздел', 'программ', 'общ', 'мен', 'создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'адрес', 'текстов', 'блок', 'учебн', 'офис', 'социальн', 'кнопк', 'буклет', 'программ', 'турбо-верс', 'английск', 'верс', 'таблиц', 'регистрацион', 'форм']]]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[[['вниз', 'главн', 'страниц', 'может', 'размест', 'член', 'программн', 'организацион', 'комитет', 'ключев', 'спикер', 'докладчик', 'партнер', 'пр.', 'фот', 'регал', 'ссылк', 'персон']], [['внутр', 'завод', 'соответств', 'групп', 'ключев', 'спикер', 'например', 'поочередн', 'добавля', 'персон', 'ссылк', 'персональн', 'страниц', 'фотограф', 'сотрудник', 'вышк', 'подгружа', 'автоматическ', 'для', 'персон', 'вшэ', 'может', 'подгружа', 'фот', 'ссылк', 'откр', 'окн', 'вручн'], [], ['аналогичн', 'принцип', 'устро', 'пункт', 'оформлен', 'партнер', 'мероприят']], [['необходим', 'добавля', 'логотип', 'организации-партнер', 'ссылк'], [], ['однак', 'зачаст', 'быва', 'удобн', 'размеща', 'партнер', 'прав', 'част', 'сайт'], [], ['зде', 'снов', 'работа', 'логик', 'работ', 'прав', 'колонк']], [['необходим', 'завест', 'нов', 'текстов', 'блок', 'заполн', 'картинками-логотип', 'желан', 'ссылк', 'сайт', 'партнер'], []]]</t>
+          <t>[[['есл', 'ран', 'работа', 'сайт', 'образовательн', 'программ', 'т.ч.', 'предыдущ', 'верс', 'получ', 'прав', 'редактор', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'указа', 'ссылк', 'сайт', 'программ', 'котор', 'необходим', 'доступ', 'для', 'получен', 'редакторск', 'доступ', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'порта', 'заявк', 'присыла', 'одн', 'письм']]]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[[['такж', 'вас', 'возможн', 'сверста', 'программ', 'ваш', 'мероприят', 'он', 'располага', 'главн', 'страниц', 'сайт', 'мероприят', 'аннотац']], [['структур', 'программ', 'выстраива', 'пут', 'добавлен', 'пункт', 'добав', 'ден', 'добав', 'мероприят', 'добав', 'событ', 'зависим', 'структур', 'продолжительн', 'ваш', 'мероприят'], [], []]]</t>
+          <t>[[['сайт', 'открыва', 'программ', 'утвержден', 'учен', 'совет', 'вшэ', 'контент', 'сайт', 'нача', 'готов', 'заран']], [['точн', 'назван', 'программ', 'русск', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'аннотац', 'шапк', 'программ', '500', 'знак', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'контакт', 'адрес', 'указан', 'город', 'телефон', 'e-mail', 'ком', 'предостав', 'редакторск', 'прав', 'сотрудник', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'портал']]]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[[['есл', 'реш', 'созда', 'отдельн', 'статическ', 'страниц', 'перечислен', 'член', 'организацион', 'программн', 'комитет', 'докладчик', 'др.', 'вам', 'необходим', 'использова', 'созда', 'составн', 'страниц', 'выбра', 'виджет', 'список', 'персон', 'как', 'эт', 'сдела', 'может', 'прочита', 'инструкц', 'https', '//portal.hse.ru/sostav']], [[]], [[]], [['главн', 'забыва', 'нажима', 'кнопк', 'сохран', 'вниз', 'кажд', 'карточк', 'котор', 'заполня']]]</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+          <t>[[['необходим', 'определ', 'готов', 'самостоятельн', 'подготов', 'текст', 'техническ', 'задан', 'получен', 'управлен', 'развит', 'поддержк', 'порта', 'нужн', 'услуг', 'копирайтер', 'порта', 'втор', 'случа', 'срок', 'подготовк', 'текст', 'будут', 'зависет', 'общ', 'загружен', 'внешн', 'копирайтер', 'порта']], [['работ', 'подготовк', 'текст', 'начина', 'получен', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'заявк', 'подготовк', 'техническ', 'задан', 'копирайтер', 'эт', 'необходим', 'текст', 'сайт', 'заявк', 'необходим', 'указа', 'адрес', 'сайт', 'нов', 'программ', 'прилож', 'письм', 'концепц', 'программ', 'описан', 'курс', 'проч.', 'документ', 'основ', 'котор', 'состав', 'представлен', 'содержан', 'программ']], [['обрат', 'вниман', 'налич', 'SEO-оптимизирова', 'текст', 'сайт', 'программ', 'учитыва', 'KPI', 'декан', 'ежегодн', 'проверк', 'сайт', 'котор', 'обычн', 'проход', 'ноябре-декабр', 'есл', 'программ', 'англоязычн', 'SEO-оптимизац', 'обязательн', 'порядк', 'подлежат', 'такж', 'текст', 'английск', 'верс', 'сайт']]]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[[['сайт', 'имеет', 'жестк', 'структур', 'мен', 'назван', 'раздел', 'измен']], [['главн', 'страниц', 'абитуриент', 'программ', 'ведущ', 'набор', 'текущ', 'год', 'студент', 'программ', 'имеющ', 'студент', 'выпускник', 'программ', 'имеющ', 'выпускник', 'открыва', 'желан', 'программ']], [['обязательн', 'подраздел', 'мен', 'определя', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ']], [['есл', 'программ', 'необходим', 'завест', 'страниц', 'пункт', 'мен', 'определен', 'стандарт', 'сдела', 'эт', 'самостоятельн', 'все', 'страниц', 'созда', 'редактор', 'сайт', 'самостоятельн', 'никак', 'запрет', 'эт']], [['требован', 'содержан', 'сайт', 'определ', 'закон', 'образован', 'локальн', 'акт', 'университет']]]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[[['шапк', 'образовательн', 'программ', 'размеща']], [[]], [['аннотац', 'программ', 'объем', '500', 'знак', 'текст', 'аннотац', 'присыла', 'представител', 'программ', 'размеща', 'внос', 'правк', 'текст', 'просьб', 'служб', 'поддержк', 'порта', 'кнопк', 'обратн', 'связ', 'например', 'зада', 'вопрос', 'программ', 'опросн', 'форм', 'созда', 'размеща', 'кнопк', 'шапк', 'служб', 'поддержк', 'порта', 'чтоб', 'ознаком', 'инструкц', 'создан', 'опросн', 'форм', 'перейд', 'ссылк', 'https', '//portal.hse.ru/poll', 'тизер', 'очен', 'важн', 'анонс', 'обычн', 'анонс', 'дня', 'открыт', 'двер']], [['размещен', 'тизер', 'шапк', 'сайт']], [['перед', 'размест', 'тизер', 'шапк', 'образовательн', 'программ', 'необходим', 'размест', 'непосредствен', 'анонс', 'подробн', 'размещен', 'анонс', 'сам', 'тизер', 'шапк', 'добавля', 'сайт', 'программ', 'сайт', 'подразделен', 'котор', 'реализ', 'программ', 'для', 'необходим', 'войт', 'редактор', 'дан', 'блоки→', 'образовательн', 'программ', 'проставля', 'дат', 'событ', 'заголовок', 'заголовк', 'прописыва', 'назван', 'например', 'ден', 'открыт', 'двер', 'дополнительн', 'прописыва', 'дат', 'назван', 'программ', 'нужн', 'ссылк', 'анонс', 'обязательн', 'став', 'галочк', 'активн', 'проставля', 'дат', 'котор', 'тизер', 'отобража', 'программ', 'посл', 'клика', 'выбра', 'образовательн', 'программ', 'откроет', 'список', 'всем', 'программ', 'бакалаврск', 'магистерск', 'котор', 'реализ', 'подразделен', 'проставля', 'галк', 'напрот', 'нужн', 'сохраня']]]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[[['главн', 'страниц', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'при', 'открыт', 'сайт', 'служб', 'поддержк', 'порта', 'созда', 'базов', 'структур', 'страниц', 'поэт', 'нул', 'работа', 'не', 'придет']], [['как', 'элемент', 'страниц', 'открыт', 'сайт']], [['метаинформац']], [['основн', 'дан', 'программ', 'соста', 'элемент', 'блок', 'неизмен', 'для', 'русск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'количеств', 'мест', 'язык', 'обучен', 'информац', 'аккредитац', 'английск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'стоимост', 'обучен', 'язык', 'обучен', 'информац', 'аккредитац', 'все', 'дан', 'вывод', 'баз', 'дан', 'порта', 'котор', 'внос', 'утвержден', 'учен', 'совет', 'университет', 'случа', 'обнаружен', 'ошибк', 'напиш', 'portal', 'hse.ru', 'предварительн', 'провер', 'дан', 'сайт', 'программ', 'действительн', 'отлича', 'официальн', 'дан', 'сайт', 'приемн', 'комисс', 'бакалавриат', 'магистратур', 'есл', 'согласн', 'информац', 'эт', 'сайт', 'обраща', 'коллег', 'приемн', 'комисс', 'исключен', 'составля', 'информац', 'международн', 'аккредитац', 'профессионально-обществен', 'аккредитац', 'независим', 'оценк', 'качеств', 'образован', 'налич', 'дан', 'информац', 'размеща', 'прав', 'редактор', 'сайт', 'раздел', 'дан', 'блок', 'аккредитац', 'дан', 'стоимост', 'показыва', 'английск', 'верс', 'вид', 'диапазон', 'цен', 'случа', 'точн', 'дан', 'стипенд', 'иностранц', 'зависим', 'получен', 'балл', 'есл', 'программ', 'особ', 'услов', 'предоставлен', 'скидок', 'умолчан', 'сто', 'полн', 'стоимост', 'программ', 'письм', 'адрес', 'служб', 'поддержк', 'portal', 'hse.ru', 'добавл', 'примечан', 'особ', 'услов', 'предоставлен', 'скидок', 'формулировк', 'HSE', 'Scholarships', 'for', 'International', 'Applicants']], [['университеты-партнер', 'образовательн', 'программ']], [['дан', 'вывод', 'баз', 'порта', 'есл', 'хот', 'поменя', 'добав', 'партнер', 'portal', 'hse.ru', 'нужн', 'присла', 'назван', 'университет', 'ссылк', 'сайт', 'логотип', 'максимальн', 'числ', 'партнер', 'главн', 'есл', 'необходим', 'показа', 'возможн', 'партнерск', 'отношен', 'эт', 'необходим', 'сдела', 'отдельн', 'страниц', 'партнер', 'Partners', 'раздел', 'главн', 'подробн', 'см.', 'стандарт']], [['информац', 'раскрыва', 'блок']], [['редактирован', 'блок', 'осуществля', 'раздел', 'дан', 'блок', 'главн', 'страниц', 'информац', 'аккордеон', 'блок', 'использ', 'формирован', 'турбо-верс', 'поэт', 'подразумева', 'добавлен', 'графическ', 'информац', 'затрудня', 'загрузк', 'страниц', 'мобильн', 'устройств', 'обычн', 'раздел', 'сто', 'SEO-оптимизирова', 'текст']], [['виде', 'опциональн']], [['главн', 'страниц', 'программ', 'размест', 'проморолик', 'выступлен', 'академическ', 'руководител', 'статистик', 'просмотр', 'видеоролик', 'посмотрет', 'обычн', 'работ', 'съемк', 'видеоролик', 'организ', 'реализ', 'подразделен', 'самостоятельн', 'случа', 'невозможн', 'снят', 'виде', 'сил', 'подразделен', 'обрат', 'дирекц', 'маркетингов', 'коммуникац', 'продвижен', 'шишков', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'есл', 'программ', 'готов', 'ролик', 'необходим', 'зал', 'YоуTубе-кана', 'подразделен', 'YоуTубе-кана', 'университет', 'последн', 'случа', 'обрат', 'семенов', 'алин', 'викторовн', 'для', 'размещен', 'проморолик', 'сайт', 'программ', 'пришл', 'ссылк', 'YouTube', 'адрес', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru']], [['важн', 'объявлен']], [['использ', 'акцентирован', 'важн', 'событий/нов', 'программ', 'помн', 'важн', 'объявлен', 'должн', 'содержа', 'символ', 'он', 'занима', 'одн', 'строк', 'экран', 'все', 'подробн', 'перечисля', 'ссылк', 'важн', 'объявлен', 'одн', 'максимум', 'нужн', 'размеща', 'важн', 'объявлен', 'ссылк', 'мероприят', 'использ', 'функциона', 'анонс', 'важн', 'объявлен', 'оформля', 'ссылк', 'отдельн', 'страниц', 'сам', 'программ', 'люб', 'страниц', 'порта', 'внешн', 'ресурс', 'дан', 'редактир', 'раздел', 'дан', 'блок', 'важн', 'объявлен', 'нажм', 'важн', 'объявлен', 'добав', 'объявлен', 'заполня', 'пол', 'текст', 'пол', 'ссылк', 'добавьт', 'адрес', 'страниц', 'котор', 'перенаправл', 'пользовател', 'нажат', 'текст', 'объявлен', 'информац', 'пол', 'дат', 'отобража', 'лев', 'ссылк', 'объявлен', 'подход', 'уточнен', 'времен', 'событ', 'размещен', 'объявлен', 'пол', 'заполня', 'посл', 'обязательн', 'поставьт', 'галк', 'объявлен', 'активн', 'пол', 'укаж', 'дат', 'котор', 'дан', 'объявлен', 'вывод', 'главн', 'страниц', 'программ', 'нажима', 'сохран', 'объявлен', 'добавл']], [['мероприят']], [['раздел', 'анонсы/мероприят', 'эт', 'раздел', 'котор', 'предусмотр', 'кажд', 'образовательн', 'программ', 'располага', 'адрес', '/announcements', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'значим', 'все', 'программ', 'цел', 'например', 'предстоя', 'лекция/мастер-класс', 'учен', 'цикл', 'лекций/семинар', 'конференц', 'конкурс', 'студент', 'зимние/летн', 'школ', 'встреч', 'работодател', 'дни', 'открыт', 'двер', 'защит', 'предзащит', 'все', 'значим', 'студент', 'абитуриент', 'программ', 'зде', 'могут', 'размещ', 'объявлен', 'конкурс', 'грант', 'приглашен', 'летние/зимн', 'школ', 'мероприят', 'определен', 'срок', 'подач', 'заявок', 'при', 'добавлен', 'анонс', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'можн', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'сообщен', 'инструкц', 'размещен', 'анонс', 'наход', 'адрес', 'https', '//portal.hse.ru/instann', 'анонсирован', 'дне', 'открыт', 'двер', 'как', 'необходим', 'размеща', 'информац', 'сайт', 'факультет', 'образовательн', 'программ', 'случа', 'ден', 'открыт', 'двер', 'провод', 'сраз', 'нескольк', 'образовательн', 'программ', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'посл', 'сайт', 'факультет', 'необходим', 'размест', 'ссылк', 'анонс', 'котор', 'вывод', 'шапк', 'образовательн', 'программ', 'вид', 'тизер', 'обрат', 'вниман', 'назван', 'анонс', 'должн', 'представля', 'соб', 'развернут', 'предложен', 'достаточн', 'прост', 'написа', 'ден', 'открыт', 'двер', 'дополнительн', 'анонс', 'дня', 'открыт', 'двер', 'размест', 'анонс', 'раздел', 'главн', 'абитуриент', 'сайт', 'образовательн', 'программ', 'полност', 'копирова', 'анонс', 'мероприят', 'сайт', 'программ', 'такж', 'нужн', 'достаточн', 'воспользова', 'функционал', 'размест', 'подразделен', 'выбер', 'вариант', 'ссылк', 'оригинальн', 'анонс', 'есл', 'ден', 'открыт', 'двер', 'провод', 'одн', 'программ', 'анонс', 'размеща', 'непосредствен', 'сайт', 'соответств', 'программ', 'раздел', 'главн', 'абитуриент', 'такж', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'для', 'использ', 'функциона', 'размест', 'подразделен', 'случа', 'мероприят', 'обширн', 'программ', 'например', 'https', '//www.hse.ru/dod2021', 'мероприят', 'созда', 'отдельн', 'ресурс', 'случа', 'размещен', 'анонс', 'сайт', 'факультет', 'программ', 'такж', 'тизер', 'став', 'гиперссылк', 'сайт', 'мероприят', 'обычн', 'случа', 'реч', 'идет', 'факультетск', 'дне', 'открыт', 'двер', 'котор', 'инач', 'присутств', 'программ', 'для', 'создан', 'страниц', 'нужн', 'отправ', 'запрос', 'адрес', 'portal', 'hse.ru', 'прилож', 'письм', 'наполнен', 'сайт']], [['новост']], [['раздел', 'новост', 'предусматрива', 'размещен', 'развернут', 'материал', 'прошедш', 'состоя', 'событ', 'зде', 'например', 'могут', 'размещ', 'новост', 'имен', 'прошл', 'событ', 'анонсируем', 'мероприят', 'информац', 'студент', 'выигра', 'какие-либ', 'олимпиады/грант', 'заключен', 'договор', 'иностра', 'университет', 'программ', 'обм', 'исследован', 'каса', 'тематик', 'программ', 'поздравлен', 'значим', 'событиями/достижениями…', 'при', 'добавлен', 'новост', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'так', 'раздел', 'четыр', 'главн', 'абитуриент', 'студент', 'выпускник', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'новост', 'случа', 'выбра', 'раздел', 'программ', 'добавлен', 'информац', 'отобража', 'сайт', 'программ', 'инструкц', 'размещен', 'новост']], [['похож', 'программ']], [['вниз', 'главн', 'страниц', 'программ', 'вывод', 'список', 'программ', 'реализуем', 'вшэ', 'так', 'направлен', 'обучен', 'однак', 'список', 'отобража', 'программ', 'измен', 'редактирован', 'дан', 'блок', 'бакалаврск', 'программ', 'друг', 'образовательн', 'программ', 'для', 'изменен', 'списк', 'программ', 'заход', 'друг', 'образовательн', 'программ', 'нажима', 'добав', 'откр', 'окн', 'ввод', 'назван', 'программ', 'нажима', 'найт', 'результат', 'поиск', 'выбира', 'нужн', 'программ', 'клика', 'ок.', 'посл', 'добавл', 'хот', 'одн', 'программ', 'дан', 'блок', 'главн', 'страниц', 'пропадут', 'программ', 'котор', 'вывод', 'автоматическ', 'будут', 'вывод', 'котор', 'зада', 'вручн', 'блок', 'друг', 'образовательн', 'программ']], [['вокруг', 'социальн', 'блок']], [['есл', 'страниц', 'ваш', 'профил', 'социальн', 'сет', 'идет', 'активн', 'жизн', 'социальн', 'сет', 'материал', 'интересн', 'абитуриент', 'студент', 'программ', 'ссылк', 'актуальн', 'пост', 'запис', 'вывод', 'непосредствен', 'главн', 'страниц', 'программ', 'для', 'предусмотр', 'блок', 'вокруг', 'обрат', 'вниман', 'добавля', 'ссылк', 'кажд', 'нов', 'интересн', 'пост', 'убира', 'неактуальн', 'пост', 'необходим', 'вручн', 'раздел', 'блок', 'выбира', 'вокруг', 'социальн', 'блок', 'добавля', 'заголовок', 'блок', 'добавля', 'запис', 'заполн', 'необходим', 'пол', 'посл', 'проставля', 'галк', 'включ', 'нажима', 'сохран', 'обновля', 'главн', 'страниц', 'кнопк', 'клавиатур', 'проверя', 'отобраз', 'блок', 'социальн', 'сет']], [['мен', 'прав', 'колонк']], [['редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'мен', 'главн', 'страниц', 'может', 'дублирова', 'пункт', 'мен', 'раздел', 'главн', 'содержа', 'какие-т', 'друг', 'важн', 'пункт', 'усмотрен', 'программ', 'заполня', 'менеджер', 'программ', 'отобража', 'главн', 'страниц', 'сайт', 'программ', 'одн', 'сам', 'кликабельн', 'мест', 'справ', 'верхн', 'част', 'главн', 'страниц']], [['руководств', 'программ', 'руководител', 'менеджер']], [['раздел', 'редактир', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'вопрос', 'внесен', 'изменен', 'необходим', 'обраща', 'сюзан', 'райа']]]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[[['верхн', 'мен', 'наход', 'раздел', 'программ', 'абитуриент', 'студент', 'выпускник', 'чтоб', 'попаст', 'главн', 'страниц', 'кажд', 'раздел', 'необходим', 'щелкнут', 'назван', 'вкладк']], [['раздел', 'программ', 'абитуриент', 'появля', 'мен', 'мер', 'наполнен', 'раздел', 'блок', 'главн', 'административн', 'интерфейс', 'раздел', 'студент', 'выпускник', 'программ', 'включаеют', 'отключа', 'служб', 'поддержк', 'порта', 'есл', 'программ', 'необходим', 'включ', 'отключ', 'раздел', 'студент', 'и/', 'выпускник', 'пиш', 'portal', 'hse.ru']], [['раздел', 'программ']], [['дан', 'раздел', 'размеща', 'общ', 'информац', 'программ', 'раздел', 'программ', 'должн', 'вход', 'след', 'пункт', 'программ', 'статстраниц', 'техническ', 'имен', 'about', 'специализац', 'налич', 'специализац', 'добавля', 'подпункт', 'мен', 'партнер', 'статстраниц', 'техническ', 'имен', 'partners', 'рассказ', 'партнер', 'программ', 'зарубежн', 'российск', 'внутрен', 'подразделен', 'вшэ', 'относя', 'факультет', 'пункт', 'явля', 'обязательн', 'достижен', 'студент', 'статстраниц', 'техническ', 'имен', 'success', 'пункт', 'созда', 'случа', 'программ', 'готов', 'дела', 'сводн', 'текст', 'достижен', 'студент', 'вест', 'статистик', 'пункт', 'явля', 'обязательн', 'выпускник', 'статстраниц', 'техническ', 'имен', 'alumni', 'страниц', 'рассказыва', 'выпускник', 'программ', 'привод', 'статистик', 'пункт', 'явля', 'обязательн', 'научно-исследовательск', 'семинар', 'статстраниц', 'техническ', 'имен', 'seminar', 'пункт', 'явля', 'обязательн', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'главн', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'абитуриент', 'набор']], [['раздел', 'абитуриент', 'доступ', 'ссылк', '/admission', 'центральн', 'част', 'дан', 'раздел', 'составля', 'паспорт', 'программ', 'такж', 'страниц', 'вывод', 'виде', 'программ', 'новост', 'мероприят', 'важн', 'объявлен', 'налич', 'вся', 'информац', 'представлен', 'паспорт', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'размещен', 'некорректн', 'информац', 'необходим', 'отправ', 'запрос', 'внесен', 'изменен', 'portal', 'hse.ru', 'раздел', 'абитуриент', 'вход', 'след', 'обязательн', 'пункт', 'траектор', 'поступлен', 'статстраниц', 'техническ', 'имен', 'tracks', 'будущ', 'професс', 'статстраниц', 'техническ', 'имен', 'career', 'подготовк', 'статстраниц', 'техническ', 'имен', 'requirements', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'абитурент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк']], [['раздел', 'студент', 'студент']], [['раздел', 'студент', 'программ', 'доступ', 'ссылк', '/students', 'нем', 'обязательн', 'представл', 'мен', 'предусмотрен', 'программ', 'верхн', 'сер', 'блок', 'доск', 'объявлен', 'при', 'налич', 'программ', 'новост', 'мероприят', 'ориентирова', 'студент', 'такж', 'вывод', 'главн', 'страниц', 'раздел', 'студент', 'сер', 'блок', 'сер', 'блок', 'вынос', 'тематическ', 'ссылк', 'сред', 'котор', 'обязательн', 'котор', 'программ', 'добав', 'сам', 'существ', 'ограничен', 'скольк', 'добав', 'ссылок', 'блок', 'блок', 'ссылок', 'для', 'кажд', 'филиа', 'набор', 'ссылок', 'сво', 'ссылк', 'умолчан', 'программ', 'блок', 'студенческ', 'жизн', 'студенческ', 'организац', 'вшэ', 'https', '//studlife.hse.ru/studentlife', 'спорт', 'http', '//sport.hse.ru/', 'студенческ', 'совет', 'вшэ', 'http', '//studsovet.hse.ru/', 'центр', 'развит', 'карьер', 'http', '//career.hse.ru/', 'блок', 'социальн', 'сфер', 'стипенд', 'http', '//www.hse.ru/scholarships/', 'социальн', 'поддержк', 'http', '//www.hse.ru/org/hse/aup/social/', 'служб', 'психологическ', 'помощ', 'http', '//www.hse.ru/cpc/studenti', 'общежит', 'http', '//www.hse.ru/dormitory/', 'блок', 'информацион', 'сред', 'LMS', 'http', '//lms.hse.ru/', 'антиплагиат', 'http', '//www.hse.ru/org/hse/antiplagiat_info/', 'справочник', 'учебн', 'процесс', 'http', '//www.hse.ru/studyspravka/', 'библиотек', 'http', '//library.hse.ru/', 'кажд', 'колонок', 'редактир', 'соответств', 'раздел', 'блок', 'пункт', 'колонок', 'котор', 'явля', 'обязательн', 'программ', 'отобража', 'редакторск', 'интерфейс', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'назван', 'пункт', 'меня', 'программ', 'сраз', 'редакторск', 'интерфейс', 'программ', 'отобража', 'пункт', 'колонок', 'котор', 'менеджер', 'программ', 'добавляют/редактир', 'самостоятельн', 'раздел', 'студент', 'вход', 'след', 'обязательн', 'пункт', 'рейтинг', 'автоматическ', 'страниц', 'техническ', 'имен', 'ratings', 'курс', 'выбор', 'проектн', 'работ', 'http', '//electives.hse.ru/', 'рекомендова', 'онлайн-курс', 'MOOCs', 'статстраниц', 'техническ', 'имен', 'moocs', 'студенческ', 'мобильн', 'cтажировк', 'программ', 'обмен', 'проч.', 'статстраниц', 'техническ', 'имен', 'mobility', 'практическ', 'подготовк', 'статстраниц', 'техническ', 'имен', 'internships', 'каталог', 'вкр', 'автоматическ', 'страниц', 'техническ', 'имен', 'diplomas', 'итогов', 'аттестац', 'актуальн', 'статстраниц', 'техническ', 'имен', 'assessment', 'страниц', 'рейтинг', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/ратингс', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'страниц', 'каталог', 'вкр', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/дипломас', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'студент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'доск', 'объявлен', 'доск', 'объявлен', 'доступн', 'адрес', '/blackboard', 'использ', 'коротк', 'объявлен', 'текущ', 'учебн', 'процесс', 'изменен', 'расписан', 'отм', 'перенос', 'занят', 'вопрос', 'подготовк', 'письмен', 'работ', 'консультац', 'экзамен', 'разнообразн', 'оповещен', 'справк', 'пр.', 'подробн', 'инструкц', 'настройк', 'работ', 'доск', 'объявлен', 'представл']], [['раздел', 'выпускник', 'информац', 'выпускник']], [['раздел', 'отобража', 'верхн', 'мен', 'программ', 'случа', 'заполн', 'страниц', 'относя', 'раздел', 'мен', 'выпускник', 'проставл', 'ссылк', 'дан', 'страниц', 'непосредствен', 'главн', 'страниц', 'раздел', 'могут', 'располага', 'новост', 'анонс', 'раздел', 'могут', 'вход', 'след', 'пункт', 'ваканс', 'клуб', 'выпускников/встреч', 'выпускник', 'пожертвован', 'фонд', 'целев', 'капита', 'мен', 'раздел', 'редактир', 'редактор', 'блок', 'нов', 'мен', 'выпускник']]]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[[['показыва', 'прав', 'колонк', 'страниц', 'сайт', 'программ', 'чтоб', 'вывест', 'пункт', 'сайт', 'нужн', 'написа', 'portal', 'hse.ru', 'предварительн', 'необходим', 'провер', 'показыва', 'информац', 'соответств', 'страниц']], [['учебн', 'курс']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/courses', 'основ', 'дан', 'LMS', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['преподавател']], [['страниц', 'генерир', 'автоматическ', 'адрес', '/tutors', 'основ', 'дан', 'нагрузк', 'преподавател', 'аса', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн']], [['числ', 'студент', 'вакантн', 'бюджетн', 'мест']], [['автоматическ', 'страниц', 'доступн', 'адрес', '/vacant', 'дан', 'внос', 'редакторск', 'интерфейс', 'для', 'главн', 'страниц', 'сайт', 'программ', 'необходим', 'зайт', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'дан', 'бюджетн', 'вакантн', 'мест', 'есл', 'дан', 'обновл', 'показыва', 'некорректн', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'аббасов', 'елен', 'сергеевн', 'информац', 'обновля', 'мен', 'четырех', 'год']], [['документ']], [['раздел', 'располага', 'адрес', '/documents', 'част', 'документ', 'вывод', 'страниц', 'автоматическ', 'аса', 'част', 'внос', 'менеджер', 'структур', 'документ', 'образовательн', 'программ', 'выгляд', 'след', 'образ', 'включа', 'паспорт', 'образовательн', 'программ', 'изменя', 'част', 'документ', 'образовательн', 'программ', 'учебн', 'план', 'образовательн', 'программ', 'календарн', 'учебн', 'график', 'документ', 'автоматическ', 'загружа', 'аса', 'оценочн', 'материал', 'методическ', 'материал', 'ин', 'компонент', 'образовательн', 'программ', 'заполня', 'ответствен', 'программ', 'редактирован', 'страниц', 'образовательн', 'программ', 'инструкц', 'заполнен', 'раздел', 'документ', 'для', 'внесен', 'информац', 'раздел', 'документ', 'зайт', 'сайт', 'сво', 'образовательн', 'программ', 'дал', 'редактор', 'блок', 'раздел', 'документ', 'образовательн', 'программ', 'при', 'нажат', 'раздел', 'документ', 'откроет', 'так', 'окн', 'программ', 'практик', 'ссылк', 'страниц', 'описан', 'практик', 'добавля', 'самостоятельн', 'оценочн', 'материал', 'образовательн', 'программ', 'нажима', 'кнопк', 'добав', 'размеща', 'ссылк', 'имеющ', 'документ', 'необходим', 'например', 'программ', 'госэкзам', 'методическ', 'рекомендац', 'подготовк', 'вкр', 'ссылк', 'файл', 'добавля', 'обязательн', 'методическ', 'материал', 'образовательн', 'программ', 'могут', 'добавля', 'требован', 'организац', 'результат', 'проектн', 'научно-исследовательск', 'деятельн', 'студент', 'ссылк', 'файл', 'методическ', 'рекомендац', 'подготовк', 'курсов', 'работ', 'ссылк', 'файл', 'перечен', 'вкр', 'ссылк', 'баз', 'вкр', 'прошл', 'лет', 'выпуск', 'прикреп', 'файл', 'примерн', 'тем', 'вкр', 'обязательн', 'тем', 'вкр', 'котор', 'ин', 'компонент', 'образовательн', 'программ', 'добавля', 'ссылк', 'имеющ', 'документ', 'перечен', 'курсов', 'работ', 'предусмотр', 'прикрепля', 'файл', 'пример', 'курсов', 'перечен', 'тематик', 'проект', 'студент', 'предусмотр', 'прикрепля', 'файл', 'пример', 'проект', 'инструкц', 'заполнен', 'паспорт', 'образовательн', 'программ', 'необходим', 'зайт', 'порта', 'страниц', 'сво', 'образовательн', 'программ', 'качеств', 'редактор', 'дал', 'блок', 'паспорт', 'программ', 'приступа', 'заполнен', 'раздел', 'паспорт', 'пол', 'утвержден', 'программ', 'должн', 'пол', 'реквизит', 'документ', 'утверд', 'программ', 'например', 'приказ', '15.07.2014', '6.18.1-01/1507-07', 'тех', 'новеньк', 'протокол', 'заседан', 'учен', 'совет', '28.09.2018', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'обраща', 'вниман', 'реквизит', 'утвержден', 'программ', 'паспорт', 'дат', 'документ', 'котор', 'утвержда', 'программ', 'пол', 'дат', 'обновлен', 'паспорт', 'должн', 'дат', 'обновлен', 'документ', 'реквизит', 'соответств', 'документ', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'например', '26.08.2019', 'протокол', 'пол', 'количеств', 'зачетн', 'единиц', 'внос', 'значен', 'объем', 'ваш', 'образовательн', 'программ', 'з.е.', 'пол', 'конкурентн', 'преимуществ', 'программ', 'бер', 'соответств', 'текст', 'сво', 'программ', 'пол', 'характеристик', 'профессиональн', 'деятельн', 'перечен', 'профессиональн', 'компетенц', 'выпускник', 'бер', 'текст', 'сво', 'программ', 'соответств', 'стандарт', 'пол', 'характеристик', 'образовательн', 'модул', 'программ', 'берет', 'текст', 'сво', 'программ', 'соответств', 'учебн', 'план', 'посл', 'заполнен', 'пол', 'нажима', 'кнопк', 'сохран', 'информац', 'отраз', 'паспорт', 'вопрос', 'раздел', 'паспорт', 'образовательн', 'программ', 'необходим', 'направля', 'управлен', 'развит', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн']], [['расписан']], [['страниц', 'генерир', 'автоматическ', 'основ', 'дан', 'руз', 'доступн', 'адрес', '/timetable', 'есл', 'расписан', 'загруж', 'руз', 'формирован', 'автоматическ', 'страниц', 'адрес', 'timetable', 'необходим', 'редакторск', 'интерфейс', 'раздел', 'расписан', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'настройк', 'расписан', 'простав', 'галк', 'отобража', 'страниц', 'расписан']], [['академическ', 'совет']], [['страниц', 'академическ', 'совет', 'созда', 'редактир', 'раздел', 'академическ', 'совет', 'блок', 'зде', 'сможет', 'добав', 'сотрудник', 'вшэ', 'внешн', 'люд', 'есл', 'сотрудник', 'вшэ', 'вписыва', 'фамил', 'нажима', 'найт', 'откр', 'окн', 'выбира', 'нужн', 'персон', 'должност', 'может', 'добав', 'котор', 'предлага', 'систем', 'либ', 'вписа', 'должност', 'самостоятельн', 'меня', 'порядок', 'расположен', 'член', 'академическ', 'совет', 'прост', 'перетаскив', 'мышк', 'ин', 'зап', 'нужн', 'мест', 'обрат', 'вниман', 'дан', 'блок', 'прописыва', 'назван', 'групп', 'персон', 'академическ', 'совет', 'нужн', 'посл', 'заполн', 'блок', 'проверьт', 'страниц', 'совет', 'выгляд', 'нужн', 'адресн', 'строк', 'прописа', 'адрес', 'ваш', 'программы/аcадем_cоунc', 'когд', 'убед', 'порядк', 'напиш', 'portal', 'hse.ru', 'просьб', 'откр', 'пункт', 'мен']]]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[[['прежд', 'создава', 'страниц', 'прочита', 'информац', 'каса', 'страниц', 'раздел', 'верхн', 'мен', 'раздел', 'программ']], [['прежд', 'добав', 'нов', 'пункт', 'мен', 'необходим', 'созда', 'статическ', 'страниц', 'наполнен', 'поможет', 'инструкц', 'создан', 'нов', 'статическ', 'страниц', 'при', 'добавлен', 'страниц', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'случа', 'например', 'клик', 'раздел', 'подготовк', 'пользовател', 'остава', 'раздел', 'абитуриент', 'страниц', 'быва', 'прост', 'составн', 'есл', 'необходим', 'прост', 'аккуратн', 'размест', 'текст', 'текст', 'таблиц', 'достаточн', 'прост', 'страниц', 'есл', 'хот', 'добав', 'фот', 'преподавателей/студент', 'кнопк', 'проч.', 'воспользова', 'составн', 'страниц']], [['зат', 'выбира', 'мен', 'главн', 'абитуриент', 'студент', 'котор', 'располага', 'ссылк', 'статическ', 'страниц', 'нажима', 'добав', 'групп', 'прописыва', 'назван', 'групп', 'пункт', 'мен', 'ссылк', 'статстраниц', 'сохраня']], [[]], [['есл', 'какого-т', 'пункт', 'предусмотр', 'подмен', 'внутр', 'групп', 'клика', 'добав', 'ссылк', 'прописыва', 'назван', 'страниц', 'ссылк', 'не', 'сохраня']], [['обрат', 'вниман', 'групп', 'сто', 'символ', 'замок', 'менеджер', 'программ', 'редактирова', 'дан', 'пункт', 'мен', 'однак', 'созда', 'редактирова', 'непосредствен', 'страниц', 'для', 'внесен', 'изменен', 'мен', 'добавлен', 'ссылк', 'страниц', 'заблокирова', 'пункт', 'мен', 'необходим', 'отправ', 'письм', 'portal', 'hse.ru']], [['пункт', 'мен', 'раздел', 'общ', 'такж', 'открыва', 'служб', 'поддержк', 'порта', 'запрос', 'программ']], [['важн', 'создава', 'нов', 'пункт', 'мен', 'аналогичн', 'наход', 'замочк']]]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[[['отредактирова', 'добав', 'адрес', 'подразделен', 'реализ', 'программ', 'зайд', 'раздел', 'текстов', 'блок', 'главн', 'страниц', 'заход', 'редактор', 'дан', 'блок', 'заголовк', 'указыва', 'назван', 'блок', 'опциональн', 'пол', 'текст', 'непосредствен', 'фактическ', 'адрес']], [[]], [['кром', 'текстов', 'блок', 'позволя', 'добавля', 'люб', 'дополнительн', 'информац', 'прав', 'колонк', 'сайт', 'контактн', 'информац', 'дополнительн', 'ссылк', 'руководств', 'т.п']], [['текстов', 'блок', 'использ', 'след', 'визуальн', 'редактор']], [[]], [['иллюстрац', 'указа', 'основн', 'инструмент', 'обрат', 'вниман', 'назначен', 'кажд', 'инструмент', 'узна', 'навед', 'курсор', 'соответств', 'иконк', 'панел']], [[]]]</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[[['нов', 'буклет', 'образовательн', 'программ', 'ежегодн', 'верста', 'сотрудник', 'отдел', 'визуальн', 'коммуникац', 'обновля', 'буклет', 'сайт', 'служб', 'поддержк', 'порта', 'получен', 'файл', 'отдел', 'визуальн', 'коммуникац', 'обрат', 'вниман', 'созда', 'буклет', 'самостоятельн', 'отправ', 'служб', 'поддержк', 'порта', 'просьб', 'замен', 'буклет', 'сайт', 'снача', 'соглас', 'готов', 'макет', 'руководител', 'отдел', 'визуальн', 'коммуникац', 'кутьков', 'ю.']]]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[[['главн', 'страниц', 'необходим', 'добав', 'ссылк', 'учебн', 'офис', 'программ', 'редакторск', 'интерфейс', 'сайт', 'образовательн', 'программ', 'предусмотр', 'возможн', 'создан', 'страниц', 'учебн', 'офис', 'специальн', 'функциона', 'чтоб', 'добра', 'блок', 'учебн', 'офис', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'учебн', 'офис']], [[]], [['вам', 'необходим', 'зайт', 'блок', 'учебн', 'офис', 'добав', 'персон', 'обрат', 'вниман', 'такж', 'предусмотр', 'возможн', 'добавлен', 'контактн', 'дан', 'кажд', 'персон', 'нажа', 'кнопк', 'сохран', 'посмотрет', 'получ', 'может', 'страниц', 'адрес', 'http', '//адрес_вашей_программы/студы_оффиc', 'например', 'http', '//www.hse.ru/ba/cultural/study_office/', 'посл', 'нов', 'ссылк', 'необходим', 'добав', 'раздел', 'ссылк', 'учебн', 'офис']], [[]]]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[[['блок', 'социальн', 'кнопк', 'использ', 'программ', 'проф', 'популярн', 'социальн', 'сет', 'редакторск', 'интерфейс', 'необходим', 'лиш', 'выбра', 'сет', 'дат', 'ссылк', 'профил']], [[]], [['порядок', 'расположен', 'ссылок', 'социальн', 'сет', 'легк', 'меня', 'прост', 'перетащ', 'ссылк', 'нужн', 'строк']]]</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[[['турбо-страниц', 'ускоря', 'загрузк', 'контент', 'поиск', 'яндекс', 'новост', 'дзен', '3G-сет', 'турбо-страниц', 'формир', 'един', 'шаблон', 'быстр', 'загружа', 'смартфон', 'медлен', 'нестабильн', 'интернет']], [['при', 'открыт', 'сайт', 'нов', 'программ', 'турбо-верс', 'созда', 'служб', 'поддержк', 'порта', 'дальн', 'корректировк', 'содержан', 'турбо-верс', 'дела', 'самостоятельн', 'изменен', 'турбо-верс', 'привод', 'автоматическ', 'изменен', 'главн', 'страниц', 'сайт']], [['турбо-верс', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'турбо-верс']], [[]], [['шапк', 'турбо-верс']], [['навигацион', 'мен', 'содержа', 'максимальн', 'вкладк', 'кажд', 'дает', 'ссылк', 'главн', 'страниц', 'сайт']], [['программ', 'абитуриент', 'студент', 'выпускник']], [['есл', 'программ', 'появ', 'вкладк', 'котор', 'ран', 'например', 'студент', 'выпускник', 'добавьт', 'навигацион', 'мен', 'турбо-верс', 'заголовок', 'ссылк', 'забудьт', 'сохран', 'изменен']], [['важн', 'заголовк', 'уровн', 'такж', 'изображен', 'внос', 'сотрудник', 'служб', 'поддержк', 'порта']], [[]], [['главн', 'страниц', 'турбо-верс']], [['виджет', 'текст', 'текстов', 'пол', 'внос', 'скопирова', 'главн', 'страниц', 'описан', 'программ', 'при', 'изменен', 'описан', 'зам', 'текст', 'главн', 'страниц', 'производ', 'сотрудник', 'служб', 'порта', 'меня', 'текст', 'турбо-верс']], [['виджет', 'информац', 'аккордеон', 'зам', 'текст', 'внутр', 'происход', 'автоматическ', 'измен', 'текст', 'раскрыва', 'блок', 'главн', 'страниц', 'сайт']], [['виджет', 'кнопк', 'заголовок', 'вынос', 'назван', 'кнопк', 'пол', 'ссылк', 'став', 'ссылк', 'есл', 'главн', 'страниц', 'поменя', 'назван', 'кнопк', 'ссылк', 'забудьт', 'внест', 'обновлен', 'турбо-верс', 'добавля', 'турбо-верс', 'одн', 'кнопк']], [['виджет', 'ссылк', 'виде', 'став', 'налич', 'виде', 'главн', 'страниц', 'оп.', 'есл', 'виде', 'измен', 'главн', 'страниц', 'он', 'появ', 'автоматическ', 'турбо-верс', 'должн', 'поменя', 'ссылк', 'самостоятельн']], [[]]]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[[['есл', 'программ', 'английск', 'верс', 'редактирован', 'происход', 'русск', 'верс', 'английск', 'блок', 'редактор', 'дан', 'блок', 'англ.']], [['единствен', 'отлич', 'создан', 'статическ', 'страниц', 'пол', 'язык', 'необходим', 'установ', 'английск', 'есл', 'программ', 'существ', 'страниц', 'одинаков', 'содержан', 'русск', 'английск', 'язык', 'например', 'программ', 'техническ', 'им', 'должн', 'совпада', 'нужн', 'имен', 'английск', 'страниц', 'задава', 'различ', 'дан', 'случа', 'служ', 'пол', 'язык']], [['тольк', 'случа', 'им', 'стат.', 'страниц', 'разн', 'язык', 'совпада', 'пользовател', 'переход', 'страниц', 'одн', 'язык', 'страниц', 'друг', 'язык', 'попада', 'идентичн', 'страниц', 'главн', 'страниц', 'программ', 'есл', 'программ', 'английск', 'верс', 'необходим', 'программ', 'провод', 'английск', 'язык', 'больш', 'числ', 'англоязычн', 'курс', 'след', 'присла', 'заявк', 'активац', 'английск', 'верс', 'главн', 'редактор', 'мар', 'никитин', 'mpustovoyt', 'hse.ru', 'письм', 'необходим', 'прилож', 'имеющ', 'английск', 'текст', 'программ', 'есл', 'готов', 'текст', 'нужн', 'указа', 'список', 'страниц', 'перевод']], [['есл', 'программ', 'существ', 'английск', 'верс', 'необходим', 'поддержива', 'обновля', 'добавля', 'новост', 'анонс', 'мероприят', 'интересн', 'иностра', 'аудитор']], [['подробн', 'инструкц', 'guidelines', 'работ', 'английск', 'верс', 'сайт', 'образовательн', 'программ']]]</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2264,29 +2216,69 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[[['2021', 'год', 'заказ', 'операцион', 'управлен', 'дополнительн', 'профессиональн', 'образован', 'портал', 'ни', 'вшэ', 'внедр', 'нов', 'карточк', 'образовательн', 'программ', 'дополнительн', 'образован']], [['особен', 'карточк', 'ярк', 'визуальн', 'ряд', 'жестк', 'требован', 'формат', 'вся', 'информац', 'размеща', 'помощ', 'виджет', 'позволя', 'верста', 'сайт', 'име', 'опыт', 'работ', 'HTML', 'CSS']]]</t>
+          <t>[[[]]]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[[['видеозапис', 'семинар', 'апрел', '2021', 'ма', '2021']]]</t>
+          <t>[[['чтоб', 'включ', 'доск', 'объявлен', 'сайт', 'образовательн', 'программ', 'необходим', 'откр', 'блок', 'доск', 'объявлен', 'дан', 'блок', 'постав', 'соответств', 'галочк']]]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[[['содержательн', 'вопрос', 'работ', 'каталог', 'операцион', 'управлен', 'дпо', 'жгун', 'окса', 'леонидовн', 'фатьянов', 'екатерин', 'алексеевн'], ['получен', 'доступ', 'вопрос', 'работ', 'редакторск', 'интерфейс', 'получ', 'доступ', 'редактирован', 'получ', 'консультац', 'цифров', 'маркетинг', 'программ', 'дпо', 'доступ', 'поддержк', 'получ', 'доступ', 'веб-аналитик', 'получ', 'доступ', 'Roistat', 'получ', 'доступ', 'Unisender', 'запрос', 'поддержк', 'CRM', 'техническ', 'поддержк', 'получ', 'доступ', 'CRM', 'запрос', 'доработк', 'сообщ', 'ошибк', 'запрос', 'поддержк'], []], [[]], [['пыта', 'внедр', 'собствен', 'шрифт', 'стил', 'вам', 'нужн', 'прост', 'размест', 'текст', 'очист', 'сторон', 'форматирован'], ['исходн', 'изображен', 'необходим', 'оптимизирова', 'веб', 'зач', 'эт', 'нужн', 'подробн', 'написа'], ['уважа', 'авторск', 'прав', 'нельз', 'прост', 'взят', 'скача', 'люб', 'изображен', 'интернет'], ['быстр', 'ссылк', 'как', 'нача', 'как', 'клонирова', 'карточк', 'как', 'дат', 'ссылк', 'существ', 'лендинг', 'программ', 'как', 'посмотрет', 'получ', 'собира', 'шапк', 'сайт', 'программ', 'изображен', 'шапк', 'программ', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'собира', 'страниц', 'программ', 'виджет', 'якор', 'виджет', 'важн', 'объявлен', 'виджет', 'программ', 'виджет', 'нумерова', 'блок', 'виджет', 'результат', 'виджет', 'для', 'ког', 'виджет', 'список', 'изображен', 'виджет', 'документ', 'окончан', 'виджет', 'текст', 'заголовк', 'виджет', 'программ', 'обучен', 'виджет', 'FAQ', 'виджет', 'сообществ', 'виджет', 'отзыв', 'выпускник', 'виджет', 'контакт', 'виджет', 'стоимост', 'услов', 'виджет', 'преподавател', 'виджет', 'школ', 'виджет', 'формат', 'обучен', 'виджет', 'загрузк', 'файл', 'виджет', 'показ', 'учебн', 'план', 'связа', 'программ', 'сведен', 'образовательн', 'организац', 'мен', 'SEO']], [['добавлен', 'программ', 'создан', 'нов', 'карточк', 'осуществля', 'каталог', 'операцион', 'управлен', 'дпо', 'самостоятельн', 'добавлен', 'программ', 'портал', 'закрыт', 'случа', 'отсутств', 'карточк', 'программ', 'каталог', 'обраща', 'операцион', 'управлен', 'дпо', 'фатьянов', 'екатерин', 'алексеевн'], ['чтоб', 'продолж', 'заполнен', 'карточк', 'войд', 'административн', 'интерфейс', 'https', '//www.hse.ru/adm/', 'перейд', 'раздел', 'образован', 'дополнительн', 'образован', 'new'], ['увид', 'список', 'карточек', 'программ', 'дпо', 'ни', 'вшэ'], [], ['для', 'поиск', 'внесен', 'программ', 'воспольз', 'пол', 'фильтр', 'поиск', 'осуществля', 'назван', 'программ', 'для', 'редактирован', 'программ', 'нажм', 'значок', 'карандаш', 'есл', 'увер', 'программ', 'нужн', 'нужн', 'удал', 'напиш', 'portal', 'hse.ru', 'для', 'времен', 'скрыт', 'сайт', 'карточк', 'сдела', 'карточк', 'неактивн', 'раздел', 'дан', 'конкретн', 'карточк'], ['есл', 'может', 'войт', 'административн', 'интерфейс', 'знач', 'хвата', 'прав.', 'получ', 'прав', 'менеджер', 'дополнительн', 'образован', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта'], ['клонирован', 'карточек', 'программ', 'есл', 'двух', 'программ', 'общ', 'клонирова', 'карточк', 'существ', 'программ', 'чтоб', 'клонирова', 'карточк', 'напиш', 'portal', 'hse.ru', 'указа', 'ссылк', 'карточк', 'котор', 'необходим', 'клонирова', 'точн', 'назван', 'программ', 'нов', 'карточк', 'программ', 'каталог', 'операцион', 'управлен', 'дпо', 'уточн', 'операцион', 'управлен', 'дпо', 'помн', 'страниц', 'иска', 'поисков', 'систем', 'долж', 'уникальн', 'контент', 'одн', 'дел', 'реч', 'идет', 'преподавател', 'программ', 'друг', 'двух', 'программ', 'совпада', 'описан', 'преимуществ', 'проч'], ['что', 'дела', 'программ', 'полноцен', 'лендинг', 'котор', 'идет', 'реклам', 'случа', 'вам', 'необходим', 'заполн', 'пол', 'раздел', 'дан', 'пол', 'сайт', 'программ', 'программ', 'имеющ', 'лендинг', 'вписа', 'адрес', 'лендинг', 'программ']], [[], ['посл', 'нажат', 'знак', 'перв', 'страниц', 'попадет', 'редактор', 'карточк', 'дпо', 'раздел', 'дан'], ['раздел', 'подел', 'част'], ['дан', 'импортируем', 'баз', 'дпо', 'заполнен', 'редактирован', 'пол', 'назван', 'тип', 'программ', 'проч.', 'осуществля', 'баз', 'дан', 'каталог', 'дпо', 'сам', 'карточк', 'пол', 'внесен', 'изменен', 'закрыт', 'вопрос', 'работ', 'каталог', 'дпо', 'необходим', 'обраща', 'фатьянов', 'екатерин', 'алексеевн'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дополнительн', 'дан', 'карточк', 'портал', 'пол', 'менторств', 'изображен', 'ключев', 'выгод', 'программ', 'одн', 'предложен', 'соста', 'занят', 'итогов', 'работ', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дан', 'сведен', 'вшэ', 'основ', 'формир', 'информац', 'обязательн', 'кажд', 'университет', 'раздел', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['есл', 'нужн', 'посмотрет', 'как', 'дан', 'карточк', 'синхронизац', 'каталог', 'дпо', 'может', 'зайт', 'раздел', 'стар', 'дан']], [['подбер', 'изображен', 'шапк', 'при', 'выбор', 'картинк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр'], ['размер', 'изображен', '1520', '800', 'пиксел', 'вес', '100-250'], ['изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/'], ['есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза']], [['шапк', 'добав', 'форм', 'прием', 'заявок', 'форм', 'зада', 'вопрос', 'при', 'установк', 'ползунк', 'показ', 'кнопк', 'заявк', 'показ', 'кнопк', 'форм', 'позиц', 'включ', 'форм', 'созда', 'автоматическ', 'забудьт', 'перейт', 'реж', 'редактирован', 'нажа', 'иконк', 'ряд', 'слов', 'редактирова', 'форм', 'измен', 'дат', 'актуальн', 'форм', 'при', 'необходим', 'может', 'измен', 'пол', 'форм', 'подробн', 'редактирован', 'форм', 'прочита', 'https', '//portal.hse.ru/poll', 'част', 'создан', 'форм', 'нужн', 'пропуст', 'ваш', 'случа', 'форм', 'созда', 'стандартн', 'вид'], [], ['есл', 'каким-т', 'причин', 'форм', 'карточк', 'подход', 'хот', 'дат', 'ссылк', 'форм', 'созда', 'друг', 'сайт', 'может', 'указа', 'ссылк', 'пол', 'ссылк', 'внешн', 'форм', 'заявки/вопрос'], ['кнопк', 'будут', 'показыва', 'шапк', 'такж', 'плашк', 'результат', 'документ', 'образован', 'стоимост', 'услов', 'подложк']], [['верхн', 'прав', 'угл', 'размещ', 'кнопк', 'откр', 'сайт', 'нажм', 'есл', 'вид', 'ошибк', '404', 'проверьт', 'карточк', 'имеет', 'статус', 'активн', 'раздел', 'дан']], [['все', 'программ', 'унифицирова', 'формат', 'подач', 'информац', 'почт', 'вся', 'работ', 'происход', 'вкладк', 'конструктор', 'выпада', 'списк', 'выбер', 'нужн', 'виджет', 'нажм', 'знак'], [], ['порядок', 'виджет', 'изменя', 'для', 'перемест', 'курсор', 'влев', 'назван', 'виджет', 'см.', 'скриншот', 'нажа', 'лев', 'кнопк', 'мыш', 'перемест', 'виджет', 'нужн', 'мест'], [], ['виджет', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'дан', 'случа', 'якор', 'нуж', 'мен', 'переход', 'определен', 'раздел', 'сайт', 'вам', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'URL', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'важн', 'объявлен', 'дан', 'функциона', 'необход', 'хот', 'донест', 'посетител', 'сайт', 'что-т', 'крайн', 'важн', 'использ', 'важн', 'объявлен', 'размещен', 'информац', 'котор', 'страниц', 'стара', 'сайт', 'одн', 'важн', 'объявлен', 'заполн', 'пол', 'выбер', 'фонов', 'цвет', 'объявлен', 'выбор', 'цвет', 'кликн', 'пипетк', 'соответств', 'пол', 'дат', 'указыва', 'необязательн', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'виджет', 'две', 'вкладк', 'текст', 'виде', 'вкладк', 'текст', 'явля', 'обязательн', 'заполнен', 'забудьт', 'выдел', 'текст', 'очист', 'посторон', 'форматирован', 'нажа', 'иконк', 'вкладк', 'виде', 'размест', 'проморолик', 'программ', 'виде', 'приветствен', 'слов', 'руководител', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/VYSTPqTdHqk', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'ве', 'код', 'копирова', 'нужн', 'нужн', 'взят', 'ссылк', 'embed', 'встав', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'подп', 'загруз', 'прев', 'виде', 'оптимизирова', 'изображен', '314×184', 'пиксел', 'ил', 'нажм', 'загруз', 'прев', 'административн', 'интерфейс', 'случа', 'использова', 'заставк', 'Youtube', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'нумерова', 'блок', 'заголовк', 'размеща', 'ключев', 'навык', 'котор', 'получат', 'выпускник', 'программ', 'дал', 'необходим', 'размест', 'тезис', 'раскрыва', 'сут', 'обучен', 'программ', 'числ', 'пункт', 'огранич', 'визуальн', 'смотр', 'тезис', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'результат', 'виджет', 'позволя', 'размест', 'заголовок', 'подзаголовок', 'нескольк', 'карточек', 'текст', 'оптимальн', 'карточк', 'хот', 'количеств', 'карточек', 'огранич', 'здрав', 'смысл', 'плашк', 'плашк', 'автоматическ', 'добав', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'ран', 'включ', 'раздел', 'дан', 'забудьт', 'измен', 'размер', 'загружа', 'картинок', 'оптимизирова', 'веб', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'для', 'ког', 'пол', 'основн', 'подзаголовок', 'обязательн', 'заполнен', 'числ', 'пункт', 'огранич', 'желательн', '3-5', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'список', 'изображен', 'виджет', 'позволя', 'зал', 'изображен', 'размер', 'изображен', '100', '250', 'пиксел', 'гиперссылк', 'например', 'использова', 'виджет', 'публикац', 'логотип', 'партнер', 'обрат', 'вниман', 'логотип', 'необходим', 'вписа', 'прямоугольник', '100', '250', 'пиксел', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'документ', 'окончан', 'заполн', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'загружа', 'страниц', 'изображен', 'документ', 'необязательн', 'изображен', 'документ', 'показа', 'справочник', 'основ', 'то', 'информац', 'котор', 'внесл', 'пол', 'тип', 'документ', 'образован', 'раздел', 'дан', 'однак', 'какой-т', 'причин', 'устраива', 'изображен', 'умолчан', 'может', 'загруз', 'сво', 'вариант', 'ширин', 'изображен', '430', 'пиксел', 'изображен', 'спозиционирова', 'центр', 'вертика', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'текст', 'заголовк', 'можн', 'добав', 'текст', 'заголовк', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'обучен', 'пол', 'заголовок', 'указа', 'назван', 'дисциплин', 'блок', 'дисциплин', 'пол', 'бейдж', 'числ', 'час', 'кредитн', 'единиц', 'пол', 'текст', 'кратк', 'описан', 'список', 'дисциплин', 'ран', 'указа', 'назван', 'блок', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'FAQ', 'нажм', 'кнопк', '+вопрос', 'заполн', 'соответств', 'пол', 'пол', 'ответ', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'сообществ', 'виджет', 'позволя', 'размест', 'нескольк', 'иконок', 'текст', 'изображен', 'должн', 'имет', 'размер', '80×80', 'пиксел', 'рекомендуем', 'формат', 'gif', 'png', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'отзыв', 'выпускник', 'позволя', 'размест', 'текст', 'отзыв', 'рекомендуем', 'числ', 'знак', '650', 'знак', 'пробел', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'размер', 'фот', '48×48', 'пиксел', 'посл', 'заливк', 'фот', 'нажима', 'выреза', 'выбра', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'контакт', 'заполн', 'пол', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'обрат', 'вниман', 'телефон', 'номер', 'ввод', 'формат', '000', '000-00-00', 'обязательн', 'указыва', 'код', 'город', 'кажд', 'нов', 'телефон', 'указыва', 'сво', 'пол', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'стоимост', 'услов', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'прост', 'позволя', 'добав', 'заголовок', 'подзаголовок', 'гиперссылк', 'переход', 'страниц', 'подробн', 'необязательн', 'лейбл', 'скидк', 'помим', 'текст', 'подзаголовк', 'гиперссылк', 'добав', 'лейбл', 'скидк', 'подложк', 'позволя', 'дополнительн', 'размест', 'текст', 'кнопк', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'все', 'дан', 'стоимост', 'необходим', 'внос', 'рамк', 'одн', 'виджет', 'случа', 'информац', 'выстраива', 'столбик', 'начина', 'кажд', 'нов', 'строк', 'есл', 'вариант', 'скидок', 'разн', 'услов', 'дат', 'информац', 'прост', 'текст', 'использова', 'виджет', 'текст', 'заголовк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'преподавател', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'вшэ', 'вшэ', 'виджет', 'вшэ', 'позволя', 'выбра', 'преподавател', 'списк', 'персон', 'вшэ', 'забудьт', 'выбор', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'изображен', 'нерезк', 'есл', 'добавля', 'сотрудник', 'вшэ', 'заполня', 'пол', 'всплыва', 'текст', 'клик', 'осуществля', 'переход', 'персональн', 'страниц', 'сайт', 'вшэ', 'есл', 'пол', 'заполн', 'откроет', 'всплыва', 'текст.', 'пол', 'должност', 'может', 'вписа', 'вручн', 'должност', 'котор', 'должн', 'отобража', 'карточк', 'устраива', 'автоматическ', 'вывод', 'информац', 'виджет', 'вшэ', 'позволя', 'добав', 'персон', 'след', 'атрибут', 'фи', 'должност', 'фот', 'желательн', 'горизонтальн', 'ориентирова', 'всплыва', 'текст.', 'забудьт', 'выбор', 'фот', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'вшэ', 'вшэ', 'условн', 'делен', 'есл', 'хот', 'оформ', 'фот', 'одн', 'стил', 'преподавател', 'загруз', 'вшэ', 'виджет', 'использова', 'списк', 'преподавател', 'т.к.', 'заголовок', 'раздел', 'редактируем', 'ответствен', 'подход', 'выбор', 'фотограф', 'есл', 'фот', 'паспорт', 'конференц', 'фон', 'провод', 'фуршет', 'бокал', 'вероятн', 'использован', 'фотограф', 'блок', 'сто', 'отказа', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'школ', 'позволя', 'загруз', 'горизонтальн', 'ориентирова', 'фотограф', 'текст.', 'рекомендова', 'ширин', 'фотограф', '1600', 'пиксел', 'контейнер', 'изображен', 'имеет', 'фиксирова', 'высот', 'изображен', 'заполня', 'спозиционирова', 'центр', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'параметр', 'изображен', 'меня', 'зависим', 'разрешен', 'экра', 'текст', 'добавля', 'строк', 'внутр', 'строк', 'колонк', 'максимальн', 'количеств', 'колонок', 'однак', 'рекоменду', 'дела', 'одн', 'строк', 'колонок', 'оптимальн', '1-3', 'колонк', 'кажд', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'например', 'хот', 'две', 'одинаков', 'ширин', 'колонк', 'кажд', 'колонк', 'необходим', 'зада', 'ширин', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'формат', 'обучен', 'формир', 'основ', 'сведен', 'раздел', 'дан'], ['загрузк', 'файл', 'страниц', 'загруз', 'нескольк', 'файл', 'для', 'загрузк', 'файл', 'использ', 'виджет', 'список', 'файл', 'при', 'загрузк', 'файл', 'указа', 'текст', 'клик', 'котор', 'открыва', 'файл', 'есл', 'хот', 'загруз', 'сайт', 'учебн', 'план', 'использ', 'виджет', 'учебн', 'план', 'загружа', 'файл', 'прост', 'дума', 'запрос', 'пользовател', 'как', 'выгляд', 'административн', 'интерфейс'], ['показ', 'учебн', 'план', 'учебн', 'план', 'загружа', 'раздел', 'дан', 'сведен', 'образовательн', 'организац', 'посл', 'загрузк', 'файл', 'необходим', 'перейт', 'раздел', 'конструктор', 'помощ', 'виджет', 'учебн', 'план', 'указа', 'мест', 'страниц', 'необходим', 'использова', 'файл', 'пожалуйст', 'использ', 'загрузк', 'учебн', 'план', 'виджет', 'список', 'файл'], ['связа', 'программ', 'страниц', 'программ', 'указа', 'релевантн', 'программ', 'для', 'перейд', 'раздел', 'дан', 'связа', 'программ', 'нажм', 'введ', 'пол', 'поиск', 'назван', 'программ', 'есл', 'программ', 'наход', 'точн', 'нов', 'каталог', 'программ', 'попроб', 'иска', 'част', 'назван'], ['сведен', 'образовательн', 'организац', 'посл', 'внедрен', 'нов', 'каталог', 'дпо', 'информац', 'раздел', 'кратк', 'характеристик', 'программ', 'аннотац', 'рабоч', 'программ', 'дисциплин', 'учебн', 'план', 'календарн', 'учебн', 'график', 'показыва', 'раздел', 'сведен', 'образовательн', 'организац', 'обязательн', 'раздел', 'сайт', 'вуз', 'файл', 'учебн', 'план', 'показа', 'страниц', 'программ', 'для', 'загрузк', 'файл', 'перейд', 'дан', 'сведен', 'образовательн', 'организац', 'как', 'выгляд', 'административн', 'интерфейс'], ['мен', 'для', 'упрощен', 'навигац', 'страниц', 'добав', 'страниц', 'программ', 'пункт', 'мен', 'предварительн', 'раздел', 'конструктор', 'добавьт', 'нужн', 'мест', 'якор', 'мен', 'пол', 'URL', 'нужн', 'прописа', 'адрес', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor'], ['SEO', 'заполн', 'пол', 'описан', 'документ', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'соб', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'есл', 'знает', 'написа', 'пол', 'напиш', 'назван', 'программ', 'дал', 'текст', 'длин', '50-110', 'символ', 'тем', 'дает', 'программ', 'конц', 'добавьт', 'номер', 'телефон', 'желан', 'ни', 'вшэ', 'кавычек', 'пол', 'использова', 'качеств', 'заголовк', 'окн', 'убра', 'автоматическ', 'формируем', 'част', 'окн', 'меня', 'нужн', 'эт', 'пол', 'работа', 'специалист', 'проверьт', 'порядок', 'расположен', 'блок', 'страниц', 'программ', 'порядок', 'влия', 'приоритет', 'ключев', 'слов', 'поисков', 'систем', 'рекомендуем', 'порядок', 'блок', 'программ', 'для', 'ког', 'описан', 'начина', 'слов', 'очная/онлайн', 'программ', 'назван', 'программ', 'формат', 'обучен', 'программ', 'обучен', 'эт', 'возможн', 'помим', 'назван', 'дисциплин', 'указыва', 'тип', 'дисциплин', 'лекц', 'семинар', 'т.д.', 'добавля', 'кратк', 'аннотац', 'дисциплин', 'результат', 'документ', 'окончан', 'преимуществ', 'программ', 'преподавател', 'стоимост', 'услов', 'как', 'поступ', 'программ', 'наш', 'выпускник', 'трудоустро', 'ведущ', 'компан', 'партнер', 'программ', 'отзыв', 'выпускник', 'контакт', 'адрес', 'повтор', 'назван', 'программ', '1-3', 'раз', 'текст', 'вне', 'заголовк', 'обрат', 'особ', 'вниман', 'раздел', 'описан', 'преподава', 'программ', 'дисциплин', 'чем', 'подробн', 'доходчив', 'распишет', 'изуча', 'слушател', 'программ', 'есл', 'достаточн', 'есл', 'сдела', 'перечислен', 'выш', 'полност', 'удовлетвор', 'результат', 'трафик', 'отправьт', 'заявк', 'подбор', 'ключев', 'слов', 'portal', 'hse.ru', 'ссылк', 'программ', 'команд', 'порта', 'подберет', 'набор', 'слов', 'словосочетан', 'взяв', 'основ', 'назван', 'ваш', 'программ', 'список', 'дисциплин', 'список', 'слов', 'должн', 'будет', 'добав', 'размещен', 'страниц', 'программ', 'контент', 'срок', 'подбор', 'составля', 'дне', 'зависим', 'текущ', 'объем', 'работ']]]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[[['блок', 'добав', 'нов', 'рубрик', 'фильтр', 'обрат', 'вниман', 'умолчан', 'доск', 'объявлен', 'содержат', 'ряд', 'типов', 'част', 'встреча', 'рубрик', 'кажд', 'объявлен', 'обязательн', 'порядк', 'должн', 'привяза', 'хот', 'одн', 'фильтр', 'умолчан', 'эт', 'курс', 'хот', 'одн', 'рубрик']]]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[[['программ', 'котор', 'имеют', 'нескольк', 'специализац', 'рекоменду', 'добав', 'дополнительн', 'фильтр', 'рубрик', 'специализац', 'имет', 'возможн', 'публикова', 'объявлен', 'студент', 'обуча', 'разн', 'трекам.чтоб', 'добав', 'нов', 'объявлен', 'мен', 'личн', 'кабинет', 'hse.ru/user', 'раздел', 'мо', 'задач', 'редактор', 'сайт', 'образовательн', 'программ', 'долж', 'выбра', 'пункт', 'объявлен', 'доск', 'объявлен']]]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[[['откр', 'страниц', 'будут', 'доступн', 'ссылк', 'добавлен', 'нов', 'объявлен', 'ниж', 'наход', 'список', 'размещен', 'ран', 'объявлен', 'таков']]]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[[['обрат', 'вниман', 'явля', 'редактор', 'сайт', 'нескольк', 'программ', 'создан', 'нов', 'объявлен', 'след', 'выбра', 'нужн', 'доск', 'списк']]]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[[[]]]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[[['что', 'след', 'дела']]]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[[['создава', 'фильтр', 'тем', 'несущ', 'смыслов', 'нагрузк', 'так', 'например', 'относ', 'важн', 'информац', 'важн', 'пропуст', 'всем', 'использова', 'написан', 'заголовк', 'прописн', 'заглавн', 'букв', 'неправильн', 'обновл', 'расписан', 'правильн', 'обновл', 'расписан', 'пренебрега', 'форматирован', 'текст', 'текст', 'больш', 'количеств', 'пробел', 'интервал', 'т.п.', 'неудобн', 'чита']]]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[[['все', 'материал', 'связа', 'образовательн', 'программ', 'необходим', 'размеща', 'сайт', 'программ', 'например', 'расписан', 'должн', 'наход', 'сайт', 'образовательн', 'программ', 'сайт', 'факультет']]]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[[['инструкц', 'редактирован', 'сайт', 'образовательн', 'программ', 'размещ', 'http', '//portal.hse.ru/progs']]]</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2305,17 +2297,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[[['портал', 'организова', 'при', 'платеж', 'участ', 'проводим', 'подразделен', 'ни', 'вшэ', 'мероприят', 'заявк', 'создан', 'форм', 'прием', 'платеж', 'направля', 'руководител', 'подразделен', 'адрес', 'underground', 'hse.ru', 'срок', 'оказан', 'услуг', 'рабоч', 'дня', 'момент', 'получен', 'полн', 'пакет', 'необходим', 'сведен', 'заказчик', 'услов', 'создан', 'стандартн', 'форм']]]</t>
+          <t>[[['2021', 'год', 'заказ', 'операцион', 'управлен', 'дополнительн', 'профессиональн', 'образован', 'портал', 'ни', 'вшэ', 'внедр', 'нов', 'карточк', 'образовательн', 'программ', 'дополнительн', 'образован']], [['особен', 'карточк', 'ярк', 'визуальн', 'ряд', 'жестк', 'требован', 'формат', 'вся', 'информац', 'размеща', 'помощ', 'виджет', 'позволя', 'верста', 'сайт', 'име', 'опыт', 'работ', 'HTML', 'CSS']]]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[[['обрат', 'вниман', 'требован', 'финансов', 'блок', 'создан', 'форм', 'прием', 'платеж', 'возможн', 'налич', 'подписа', 'приказ', 'проведен', 'мероприят', 'приказ', 'созда', 'подразделение-организатор', 'мероприят', 'документ', 'соглас', 'руководител', 'соответств', 'полномоч', 'есл', 'доход', 'расход', 'мероприят', 'треб', 'проставлен', 'финансов', 'аналитик', 'согласован', 'такж', 'участв', 'пфу', 'коп', 'договор', 'необходим', 'прилож', 'заявк', 'нужн', 'указа']], [['номер', 'учетн', 'договор', 'пфу', 'номер', 'бэст', 'котор', 'вест', 'при', 'средств', 'для', 'учет', 'поступа', 'средств', 'мероприят', 'ис-пр', 'созда', 'управленческ', 'договор', 'договор', 'созда', 'подразделен', 'самостоятельн', 'подразделен', 'имеет', 'доступ', 'ис-пр', 'соответств', 'прав', 'либ', 'ответствен', 'работник', 'пфу', 'наименован', 'подразделен', 'котор', 'осуществля', 'при', 'платеж', 'шифр', 'подразделен', 'ис-пр', 'адрес', 'сайт', 'зон', 'hse.ru', 'размещ', 'страниц', 'мероприят', 'желательн', 'указа', 'такж', 'адрес', 'страниц', 'описан', 'особен', 'оплат', 'список', 'электрон', 'почтов', 'адрес', 'ответствен', 'лиц', 'домен', 'hse.ru', 'ежедневн', 'выгрузк', 'отчет', 'произведен', 'оплат', 'срок', 'прием', 'платеж', 'включ', 'сумм', 'платеж', 'ндс', 'треб', 'англоязычн', 'верс', 'форм', 'список', 'категор', 'участник', 'перевод', 'английск', 'язык', 'необходим', 'создан', 'форм', 'английск', 'язык', 'соответств', 'сумм', 'платеж', 'рубл', 'текст', 'договора-оферт', 'котор', 'размещ', 'страниц', 'форм', 'прием', 'платеж', 'согласова', 'юрист', 'при', 'необходим', 'бланк', 'платежн', 'извещен', 'оплат', 'участник', 'валют', 'рубл', 'банк', 'размещен', 'страниц', 'мероприят']], [['есл', 'форм', 'платеж', 'нужн', 'разов', 'мероприят', 'пожалуйст', 'добавьт', 'заявк', 'информац', 'тип', 'платеж', 'оплат', 'обучен', 'оплат', 'проживан', 'оплат', 'проч', 'услуг', 'либ', 'нов', 'вид', 'оплат', 'договорен', 'пфу', 'уб']], [['взаимодейств', 'участник', 'мероприят', 'провод', 'основан', 'договора-оферт', 'котор', 'долж', 'размещ', 'страниц', 'мероприят', 'случа', 'необходим', 'предоставлен', 'участник', 'мероприят', 'каких-либ', 'подтвержда', 'документ', 'перечен', 'необходим', 'обязательн', 'порядк', 'предварительн', 'согласова', 'бухгалтер', 'ни', 'вшэ']], [['важн', 'планир', 'расценк', 'участ', 'мероприят', 'учет', 'страниц', 'сбор', 'платеж', 'сумм', 'оплат', 'указыва', 'рубл', 'указан', 'сумм', 'иностра', 'валют', 'допуска', 'числ', 'иностра', 'участников.•', 'банк', 'удержива', 'комисс', 'сумм', 'платеж', 'комисс', 'карт', 'сбербанк', 'взима', 'актуальн', 'размер', 'комисс', 'завис', 'услов', 'банка-эмитент', 'карт', 'платеж', 'требован', 'банк', 'выделя', 'комисс', 'сумм', 'платеж', 'страниц', 'оплат', 'мероприят']]]</t>
+          <t>[[['видеозапис', 'семинар', 'апрел', '2021', 'ма', '2021']]]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[[['для', 'стандартн', 'форм', 'оплат', 'допуска', 'налич', 'нескольк', 'категор', 'участник', 'кажд', 'котор', 'присво', 'отдельн', 'сумм', 'оплат', 'например', 'сотрудник', 'ни', 'вшэ', 'руб.', 'иностра', 'гражда', 'руб.', 'автоматическ', 'проверк', 'статус', 'участник', 'момент', 'оплат', 'производ', 'стандартн', 'форм', 'оплат', 'выгляд']]]</t>
+          <t>[[['содержательн', 'вопрос', 'работ', 'каталог', 'операцион', 'управлен', 'дпо', 'жгун', 'окса', 'леонидовн', 'фатьянов', 'екатерин', 'алексеевн'], ['получен', 'доступ', 'вопрос', 'работ', 'редакторск', 'интерфейс', 'получ', 'доступ', 'редактирован', 'получ', 'консультац', 'цифров', 'маркетинг', 'программ', 'дпо', 'доступ', 'поддержк', 'получ', 'доступ', 'веб-аналитик', 'получ', 'доступ', 'Roistat', 'получ', 'доступ', 'Unisender', 'запрос', 'поддержк', 'CRM', 'техническ', 'поддержк', 'получ', 'доступ', 'CRM', 'запрос', 'доработк', 'сообщ', 'ошибк', 'запрос', 'поддержк'], []], [[]], [['пыта', 'внедр', 'собствен', 'шрифт', 'стил', 'вам', 'нужн', 'прост', 'размест', 'текст', 'очист', 'сторон', 'форматирован'], ['исходн', 'изображен', 'необходим', 'оптимизирова', 'веб', 'зач', 'эт', 'нужн', 'подробн', 'написа'], ['уважа', 'авторск', 'прав', 'нельз', 'прост', 'взят', 'скача', 'люб', 'изображен', 'интернет'], ['быстр', 'ссылк', 'как', 'нача', 'как', 'клонирова', 'карточк', 'как', 'дат', 'ссылк', 'существ', 'лендинг', 'программ', 'как', 'посмотрет', 'получ', 'собира', 'шапк', 'сайт', 'программ', 'изображен', 'шапк', 'программ', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'собира', 'страниц', 'программ', 'виджет', 'якор', 'виджет', 'важн', 'объявлен', 'виджет', 'программ', 'виджет', 'нумерова', 'блок', 'виджет', 'результат', 'виджет', 'для', 'ког', 'виджет', 'список', 'изображен', 'виджет', 'документ', 'окончан', 'виджет', 'текст', 'заголовк', 'виджет', 'программ', 'обучен', 'виджет', 'FAQ', 'виджет', 'сообществ', 'виджет', 'отзыв', 'выпускник', 'виджет', 'контакт', 'виджет', 'стоимост', 'услов', 'виджет', 'преподавател', 'виджет', 'школ', 'виджет', 'формат', 'обучен', 'виджет', 'загрузк', 'файл', 'виджет', 'показ', 'учебн', 'план', 'связа', 'программ', 'сведен', 'образовательн', 'организац', 'мен', 'SEO']], [['добавлен', 'программ', 'создан', 'нов', 'карточк', 'осуществля', 'каталог', 'операцион', 'управлен', 'дпо', 'самостоятельн', 'добавлен', 'программ', 'портал', 'закрыт', 'случа', 'отсутств', 'карточк', 'программ', 'каталог', 'обраща', 'операцион', 'управлен', 'дпо', 'фатьянов', 'екатерин', 'алексеевн'], ['чтоб', 'продолж', 'заполнен', 'карточк', 'войд', 'административн', 'интерфейс', 'https', '//www.hse.ru/adm/', 'перейд', 'раздел', 'образован', 'дополнительн', 'образован', 'new'], ['увид', 'список', 'карточек', 'программ', 'дпо', 'ни', 'вшэ'], [], ['для', 'поиск', 'внесен', 'программ', 'воспольз', 'пол', 'фильтр', 'поиск', 'осуществля', 'назван', 'программ', 'для', 'редактирован', 'программ', 'нажм', 'значок', 'карандаш', 'есл', 'увер', 'программ', 'нужн', 'нужн', 'удал', 'напиш', 'portal', 'hse.ru', 'для', 'времен', 'скрыт', 'сайт', 'карточк', 'сдела', 'карточк', 'неактивн', 'раздел', 'дан', 'конкретн', 'карточк'], ['есл', 'может', 'войт', 'административн', 'интерфейс', 'знач', 'хвата', 'прав.', 'получ', 'прав', 'менеджер', 'дополнительн', 'образован', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта'], ['клонирован', 'карточек', 'программ', 'есл', 'двух', 'программ', 'общ', 'клонирова', 'карточк', 'существ', 'программ', 'чтоб', 'клонирова', 'карточк', 'напиш', 'portal', 'hse.ru', 'указа', 'ссылк', 'карточк', 'котор', 'необходим', 'клонирова', 'точн', 'назван', 'программ', 'нов', 'карточк', 'программ', 'каталог', 'операцион', 'управлен', 'дпо', 'уточн', 'операцион', 'управлен', 'дпо', 'помн', 'страниц', 'иска', 'поисков', 'систем', 'долж', 'уникальн', 'контент', 'одн', 'дел', 'реч', 'идет', 'преподавател', 'программ', 'друг', 'двух', 'программ', 'совпада', 'описан', 'преимуществ', 'проч'], ['что', 'дела', 'программ', 'полноцен', 'лендинг', 'котор', 'идет', 'реклам', 'случа', 'вам', 'необходим', 'заполн', 'пол', 'раздел', 'дан', 'пол', 'сайт', 'программ', 'программ', 'имеющ', 'лендинг', 'вписа', 'адрес', 'лендинг', 'программ']], [[], ['посл', 'нажат', 'знак', 'перв', 'страниц', 'попадет', 'редактор', 'карточк', 'дпо', 'раздел', 'дан'], ['раздел', 'подел', 'част'], ['дан', 'импортируем', 'баз', 'дпо', 'заполнен', 'редактирован', 'пол', 'назван', 'тип', 'программ', 'проч.', 'осуществля', 'баз', 'дан', 'каталог', 'дпо', 'сам', 'карточк', 'пол', 'внесен', 'изменен', 'закрыт', 'вопрос', 'работ', 'каталог', 'дпо', 'необходим', 'обраща', 'фатьянов', 'екатерин', 'алексеевн'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дополнительн', 'дан', 'карточк', 'портал', 'пол', 'менторств', 'изображен', 'ключев', 'выгод', 'программ', 'одн', 'предложен', 'соста', 'занят', 'итогов', 'работ', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['дан', 'сведен', 'вшэ', 'основ', 'формир', 'информац', 'обязательн', 'кажд', 'университет', 'раздел', 'заполня', 'редактир', 'карточк'], ['как', 'выгляд', 'административн', 'интерфейс'], [], ['есл', 'нужн', 'посмотрет', 'как', 'дан', 'карточк', 'синхронизац', 'каталог', 'дпо', 'может', 'зайт', 'раздел', 'стар', 'дан']], [['подбер', 'изображен', 'шапк', 'при', 'выбор', 'картинк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр'], ['размер', 'изображен', '1520', '800', 'пиксел', 'вес', '100-250'], ['изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/'], ['есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза']], [['шапк', 'добав', 'форм', 'прием', 'заявок', 'форм', 'зада', 'вопрос', 'при', 'установк', 'ползунк', 'показ', 'кнопк', 'заявк', 'показ', 'кнопк', 'форм', 'позиц', 'включ', 'форм', 'созда', 'автоматическ', 'забудьт', 'перейт', 'реж', 'редактирован', 'нажа', 'иконк', 'ряд', 'слов', 'редактирова', 'форм', 'измен', 'дат', 'актуальн', 'форм', 'при', 'необходим', 'может', 'измен', 'пол', 'форм', 'подробн', 'редактирован', 'форм', 'прочита', 'https', '//portal.hse.ru/poll', 'част', 'создан', 'форм', 'нужн', 'пропуст', 'ваш', 'случа', 'форм', 'созда', 'стандартн', 'вид'], [], ['есл', 'каким-т', 'причин', 'форм', 'карточк', 'подход', 'хот', 'дат', 'ссылк', 'форм', 'созда', 'друг', 'сайт', 'может', 'указа', 'ссылк', 'пол', 'ссылк', 'внешн', 'форм', 'заявки/вопрос'], ['кнопк', 'будут', 'показыва', 'шапк', 'такж', 'плашк', 'результат', 'документ', 'образован', 'стоимост', 'услов', 'подложк']], [['верхн', 'прав', 'угл', 'размещ', 'кнопк', 'откр', 'сайт', 'нажм', 'есл', 'вид', 'ошибк', '404', 'проверьт', 'карточк', 'имеет', 'статус', 'активн', 'раздел', 'дан']], [['все', 'программ', 'унифицирова', 'формат', 'подач', 'информац', 'почт', 'вся', 'работ', 'происход', 'вкладк', 'конструктор', 'выпада', 'списк', 'выбер', 'нужн', 'виджет', 'нажм', 'знак'], [], ['порядок', 'виджет', 'изменя', 'для', 'перемест', 'курсор', 'влев', 'назван', 'виджет', 'см.', 'скриншот', 'нажа', 'лев', 'кнопк', 'мыш', 'перемест', 'виджет', 'нужн', 'мест'], [], ['виджет', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'дан', 'случа', 'якор', 'нуж', 'мен', 'переход', 'определен', 'раздел', 'сайт', 'вам', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'URL', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'важн', 'объявлен', 'дан', 'функциона', 'необход', 'хот', 'донест', 'посетител', 'сайт', 'что-т', 'крайн', 'важн', 'использ', 'важн', 'объявлен', 'размещен', 'информац', 'котор', 'страниц', 'стара', 'сайт', 'одн', 'важн', 'объявлен', 'заполн', 'пол', 'выбер', 'фонов', 'цвет', 'объявлен', 'выбор', 'цвет', 'кликн', 'пипетк', 'соответств', 'пол', 'дат', 'указыва', 'необязательн', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'виджет', 'две', 'вкладк', 'текст', 'виде', 'вкладк', 'текст', 'явля', 'обязательн', 'заполнен', 'забудьт', 'выдел', 'текст', 'очист', 'посторон', 'форматирован', 'нажа', 'иконк', 'вкладк', 'виде', 'размест', 'проморолик', 'программ', 'виде', 'приветствен', 'слов', 'руководител', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/VYSTPqTdHqk', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'ве', 'код', 'копирова', 'нужн', 'нужн', 'взят', 'ссылк', 'embed', 'встав', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'подп', 'загруз', 'прев', 'виде', 'оптимизирова', 'изображен', '314×184', 'пиксел', 'ил', 'нажм', 'загруз', 'прев', 'административн', 'интерфейс', 'случа', 'использова', 'заставк', 'Youtube', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'нумерова', 'блок', 'заголовк', 'размеща', 'ключев', 'навык', 'котор', 'получат', 'выпускник', 'программ', 'дал', 'необходим', 'размест', 'тезис', 'раскрыва', 'сут', 'обучен', 'программ', 'числ', 'пункт', 'огранич', 'визуальн', 'смотр', 'тезис', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'результат', 'виджет', 'позволя', 'размест', 'заголовок', 'подзаголовок', 'нескольк', 'карточек', 'текст', 'оптимальн', 'карточк', 'хот', 'количеств', 'карточек', 'огранич', 'здрав', 'смысл', 'плашк', 'плашк', 'автоматическ', 'добав', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'ран', 'включ', 'раздел', 'дан', 'забудьт', 'измен', 'размер', 'загружа', 'картинок', 'оптимизирова', 'веб', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'для', 'ког', 'пол', 'основн', 'подзаголовок', 'обязательн', 'заполнен', 'числ', 'пункт', 'огранич', 'желательн', '3-5', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'список', 'изображен', 'виджет', 'позволя', 'зал', 'изображен', 'размер', 'изображен', '100', '250', 'пиксел', 'гиперссылк', 'например', 'использова', 'виджет', 'публикац', 'логотип', 'партнер', 'обрат', 'вниман', 'логотип', 'необходим', 'вписа', 'прямоугольник', '100', '250', 'пиксел', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'документ', 'окончан', 'заполн', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'загружа', 'страниц', 'изображен', 'документ', 'необязательн', 'изображен', 'документ', 'показа', 'справочник', 'основ', 'то', 'информац', 'котор', 'внесл', 'пол', 'тип', 'документ', 'образован', 'раздел', 'дан', 'однак', 'какой-т', 'причин', 'устраива', 'изображен', 'умолчан', 'может', 'загруз', 'сво', 'вариант', 'ширин', 'изображен', '430', 'пиксел', 'изображен', 'спозиционирова', 'центр', 'вертика', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'текст', 'заголовк', 'можн', 'добав', 'текст', 'заголовк', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'программ', 'обучен', 'пол', 'заголовок', 'указа', 'назван', 'дисциплин', 'блок', 'дисциплин', 'пол', 'бейдж', 'числ', 'час', 'кредитн', 'единиц', 'пол', 'текст', 'кратк', 'описан', 'список', 'дисциплин', 'ран', 'указа', 'назван', 'блок', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'FAQ', 'нажм', 'кнопк', '+вопрос', 'заполн', 'соответств', 'пол', 'пол', 'ответ', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'сообществ', 'виджет', 'позволя', 'размест', 'нескольк', 'иконок', 'текст', 'изображен', 'должн', 'имет', 'размер', '80×80', 'пиксел', 'рекомендуем', 'формат', 'gif', 'png', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'отзыв', 'выпускник', 'позволя', 'размест', 'текст', 'отзыв', 'рекомендуем', 'числ', 'знак', '650', 'знак', 'пробел', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'размер', 'фот', '48×48', 'пиксел', 'посл', 'заливк', 'фот', 'нажима', 'выреза', 'выбра', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'контакт', 'заполн', 'пол', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'обрат', 'вниман', 'телефон', 'номер', 'ввод', 'формат', '000', '000-00-00', 'обязательн', 'указыва', 'код', 'город', 'кажд', 'нов', 'телефон', 'указыва', 'сво', 'пол', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'стоимост', 'услов', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'прост', 'позволя', 'добав', 'заголовок', 'подзаголовок', 'гиперссылк', 'переход', 'страниц', 'подробн', 'необязательн', 'лейбл', 'скидк', 'помим', 'текст', 'подзаголовк', 'гиперссылк', 'добав', 'лейбл', 'скидк', 'подложк', 'позволя', 'дополнительн', 'размест', 'текст', 'кнопк', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'все', 'дан', 'стоимост', 'необходим', 'внос', 'рамк', 'одн', 'виджет', 'случа', 'информац', 'выстраива', 'столбик', 'начина', 'кажд', 'нов', 'строк', 'есл', 'вариант', 'скидок', 'разн', 'услов', 'дат', 'информац', 'прост', 'текст', 'использова', 'виджет', 'текст', 'заголовк', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'преподавател', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'вшэ', 'вшэ', 'виджет', 'вшэ', 'позволя', 'выбра', 'преподавател', 'списк', 'персон', 'вшэ', 'забудьт', 'выбор', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'изображен', 'нерезк', 'есл', 'добавля', 'сотрудник', 'вшэ', 'заполня', 'пол', 'всплыва', 'текст', 'клик', 'осуществля', 'переход', 'персональн', 'страниц', 'сайт', 'вшэ', 'есл', 'пол', 'заполн', 'откроет', 'всплыва', 'текст.', 'пол', 'должност', 'может', 'вписа', 'вручн', 'должност', 'котор', 'должн', 'отобража', 'карточк', 'устраива', 'автоматическ', 'вывод', 'информац', 'виджет', 'вшэ', 'позволя', 'добав', 'персон', 'след', 'атрибут', 'фи', 'должност', 'фот', 'желательн', 'горизонтальн', 'ориентирова', 'всплыва', 'текст.', 'забудьт', 'выбор', 'фот', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'вшэ', 'вшэ', 'условн', 'делен', 'есл', 'хот', 'оформ', 'фот', 'одн', 'стил', 'преподавател', 'загруз', 'вшэ', 'виджет', 'использова', 'списк', 'преподавател', 'т.к.', 'заголовок', 'раздел', 'редактируем', 'ответствен', 'подход', 'выбор', 'фотограф', 'есл', 'фот', 'паспорт', 'конференц', 'фон', 'провод', 'фуршет', 'бокал', 'вероятн', 'использован', 'фотограф', 'блок', 'сто', 'отказа', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'школ', 'позволя', 'загруз', 'горизонтальн', 'ориентирова', 'фотограф', 'текст.', 'рекомендова', 'ширин', 'фотограф', '1600', 'пиксел', 'контейнер', 'изображен', 'имеет', 'фиксирова', 'высот', 'изображен', 'заполня', 'спозиционирова', 'центр', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'параметр', 'изображен', 'меня', 'зависим', 'разрешен', 'экра', 'текст', 'добавля', 'строк', 'внутр', 'строк', 'колонк', 'максимальн', 'количеств', 'колонок', 'однак', 'рекоменду', 'дела', 'одн', 'строк', 'колонок', 'оптимальн', '1-3', 'колонк', 'кажд', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'например', 'хот', 'две', 'одинаков', 'ширин', 'колонк', 'кажд', 'колонк', 'необходим', 'зада', 'ширин', 'как', 'выгляд', 'административн', 'интерфейс'], ['виджет', 'формат', 'обучен', 'формир', 'основ', 'сведен', 'раздел', 'дан'], ['загрузк', 'файл', 'страниц', 'загруз', 'нескольк', 'файл', 'для', 'загрузк', 'файл', 'использ', 'виджет', 'список', 'файл', 'при', 'загрузк', 'файл', 'указа', 'текст', 'клик', 'котор', 'открыва', 'файл', 'есл', 'хот', 'загруз', 'сайт', 'учебн', 'план', 'использ', 'виджет', 'учебн', 'план', 'загружа', 'файл', 'прост', 'дума', 'запрос', 'пользовател', 'как', 'выгляд', 'административн', 'интерфейс'], ['показ', 'учебн', 'план', 'учебн', 'план', 'загружа', 'раздел', 'дан', 'сведен', 'образовательн', 'организац', 'посл', 'загрузк', 'файл', 'необходим', 'перейт', 'раздел', 'конструктор', 'помощ', 'виджет', 'учебн', 'план', 'указа', 'мест', 'страниц', 'необходим', 'использова', 'файл', 'пожалуйст', 'использ', 'загрузк', 'учебн', 'план', 'виджет', 'список', 'файл'], ['связа', 'программ', 'страниц', 'программ', 'указа', 'релевантн', 'программ', 'для', 'перейд', 'раздел', 'дан', 'связа', 'программ', 'нажм', 'введ', 'пол', 'поиск', 'назван', 'программ', 'есл', 'программ', 'наход', 'точн', 'нов', 'каталог', 'программ', 'попроб', 'иска', 'част', 'назван'], ['сведен', 'образовательн', 'организац', 'посл', 'внедрен', 'нов', 'каталог', 'дпо', 'информац', 'раздел', 'кратк', 'характеристик', 'программ', 'аннотац', 'рабоч', 'программ', 'дисциплин', 'учебн', 'план', 'календарн', 'учебн', 'график', 'показыва', 'раздел', 'сведен', 'образовательн', 'организац', 'обязательн', 'раздел', 'сайт', 'вуз', 'файл', 'учебн', 'план', 'показа', 'страниц', 'программ', 'для', 'загрузк', 'файл', 'перейд', 'дан', 'сведен', 'образовательн', 'организац', 'как', 'выгляд', 'административн', 'интерфейс'], ['мен', 'для', 'упрощен', 'навигац', 'страниц', 'добав', 'страниц', 'программ', 'пункт', 'мен', 'предварительн', 'раздел', 'конструктор', 'добавьт', 'нужн', 'мест', 'якор', 'мен', 'пол', 'URL', 'нужн', 'прописа', 'адрес', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor'], ['SEO', 'заполн', 'пол', 'описан', 'документ', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'соб', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'есл', 'знает', 'написа', 'пол', 'напиш', 'назван', 'программ', 'дал', 'текст', 'длин', '50-110', 'символ', 'тем', 'дает', 'программ', 'конц', 'добавьт', 'номер', 'телефон', 'желан', 'ни', 'вшэ', 'кавычек', 'пол', 'использова', 'качеств', 'заголовк', 'окн', 'убра', 'автоматическ', 'формируем', 'част', 'окн', 'меня', 'нужн', 'эт', 'пол', 'работа', 'специалист', 'проверьт', 'порядок', 'расположен', 'блок', 'страниц', 'программ', 'порядок', 'влия', 'приоритет', 'ключев', 'слов', 'поисков', 'систем', 'рекомендуем', 'порядок', 'блок', 'программ', 'для', 'ког', 'описан', 'начина', 'слов', 'очная/онлайн', 'программ', 'назван', 'программ', 'формат', 'обучен', 'программ', 'обучен', 'эт', 'возможн', 'помим', 'назван', 'дисциплин', 'указыва', 'тип', 'дисциплин', 'лекц', 'семинар', 'т.д.', 'добавля', 'кратк', 'аннотац', 'дисциплин', 'результат', 'документ', 'окончан', 'преимуществ', 'программ', 'преподавател', 'стоимост', 'услов', 'как', 'поступ', 'программ', 'наш', 'выпускник', 'трудоустро', 'ведущ', 'компан', 'партнер', 'программ', 'отзыв', 'выпускник', 'контакт', 'адрес', 'повтор', 'назван', 'программ', '1-3', 'раз', 'текст', 'вне', 'заголовк', 'обрат', 'особ', 'вниман', 'раздел', 'описан', 'преподава', 'программ', 'дисциплин', 'чем', 'подробн', 'доходчив', 'распишет', 'изуча', 'слушател', 'программ', 'есл', 'достаточн', 'есл', 'сдела', 'перечислен', 'выш', 'полност', 'удовлетвор', 'результат', 'трафик', 'отправьт', 'заявк', 'подбор', 'ключев', 'слов', 'portal', 'hse.ru', 'ссылк', 'программ', 'команд', 'порта', 'подберет', 'набор', 'слов', 'словосочетан', 'взяв', 'основ', 'назван', 'ваш', 'программ', 'список', 'дисциплин', 'список', 'слов', 'должн', 'будет', 'добав', 'размещен', 'страниц', 'программ', 'контент', 'срок', 'подбор', 'составля', 'дне', 'зависим', 'текущ', 'объем', 'работ']]]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2346,19 +2338,59 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[[['дан', 'обозначен', 'использова', 'оформлен', 'лендинг', 'цвет', 'подложк', 'шапк', 'основн', 'колонк', 'контент-блок', 'цвет', 'подложек', 'виджет', 'набор', 'выпадайк', 'таб', 'карточк', 'виджет', 'цифр', 'дня', 'плашк', 'цифр', 'хронолог', 'фон', 'виджет', 'программ', 'карусел', 'цифр', 'цифр', 'факт', 'ссылк', 'мероприят', 'публикац', 'такж', 'мобильн', 'тулбар']]]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>[[['2017', 'год', 'ваш', 'распоряжен', 'полн', 'набор', 'инструмент', 'предоставля', 'нэб/ринц', 'помощ', 'уточн', 'улучш', 'ваш', 'показател', 'ринц', 'большинств', 'операц', 'может', 'выполн', 'самостоятельн', 'никт', 'кром', 'сможет', 'эт', 'сдела', 'должн', 'образ', 'некотор', 'случа', 'необходим', 'обрат', 'представител', 'подразделен']]]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[[['что', 'сдела', 'перв', 'очеред', 'зарегистрирова', 'ринц', 'Science', 'Index', 'уточн', 'регистрацион', 'дан', 'улучшен', 'привязк', 'публикац', 'провер', 'скорректирова', 'сво', 'список', 'публикац', 'провер', 'скорректирова', 'список', 'ссылок', 'сво', 'публикац']]]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[[['ниж', 'привед', 'кратк', 'инструкц', 'учет', 'опыт', 'работ', 'ринц', 'ни', 'вшэ', 'полн', 'инструкц', 'автор', 'найт', 'сайт', 'ринц']]]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[[['вниман', 'для', 'корректн', 'работ', 'сайт', 'ринц', 'необходим', 'отключ', 'блокировк', 'всплыва', 'окон', 'elibrary.ru']]]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[[['инструкц', 'регистрац', 'Science', 'Iндеxвнесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикацийработ', 'списк', 'публикацийработ', 'ссылк', 'публикациипорядок', 'обращен', 'ответствен', 'подразделенийанализ', 'публикацион', 'активн', 'автор']]]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[[['есл', 'зарегистрирова', 'Science', 'Index', 'пройд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isnew=1', 'inreestr=on', 'либ', 'выбер', 'кнопк', 'регистрац', 'панел', 'вход', 'сайт', 'elibrary.ru']], [['убед', 'регистрацион', 'анкет', 'проставл', 'галочк', 'зарегистрирова', 'автор', 'систем', 'Science', 'Index']], [[]]]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[[['при', 'регистрац', 'необходим', 'внест', 'дан', 'пол', 'обязательн', 'заполнен', 'однак', 'рекоменду', 'обрат', 'вниман', 'друг', 'пол', 'эт', 'поможет', 'автоматическ', 'привяза', 'максимальн', 'числ', 'ваш', 'публикац', 'аккаунт', 'есл', 'зарегистрирова', 'Science', 'Index', 'может', 'внест', 'дан', 'перейд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isold=1', 'пройд', 'личн', 'кабинет', 'профил', 'автор', 'регистрацион', 'карточк', 'автор']], [['проверьт', 'указа', 'аффилиац', 'ни', 'вшэ']], [[]], [['нижн', 'част', 'форм', 'наход', 'пол', 'котор', 'могут', 'улучш', 'качеств', 'автоматическ', 'привязк', 'публикац']], [[]], [['пол', 'журнал', 'внес', 'журнал', 'котор', 'публикова', 'пол', 'организац', 'укаж', 'друг', 'организац', 'котор', 'могл', 'работа', 'ран', 'есл', 'раньш', 'друг', 'фамил', 'укаж', 'пол', 'предыдущ', 'фамил', 'девич', 'есл', 'публикова', 'собира', 'публикова', 'зарубежн', 'издан', 'укаж', 'вариант', 'написан', 'фамил', 'латиниц', 'запят', 'пол', 'идентификацион', 'код', 'автор', 'укаж', 'люб', 'друг', 'сво', 'идентификацион', 'код']], [['посл', 'сохранен', 'карточк', 'течен', '2-10', 'дне', 'получ', 'уникальн', 'идентификатор', 'SPIN-код', 'автор']], [[]], [['указа', 'панел', 'сесс', 'слев', 'такж', 'начал', 'регистрацион', 'карточк', 'необходим', 'указа', 'SPIN-код', 'сво', 'личн', 'кабинет', 'портал', 'ни', 'вшэ']], [['посл', 'получен', 'SPIN-код', 'систем', 'выполн', 'привязк', 'публикац', 'ваш', 'профил', 'получ', 'возможн', 'внос', 'исправлен', 'список', 'публикац', 'список', 'ссылок', 'публикац']]]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[[['посл', 'регистрац', 'заполнен', 'карточк', 'систем', 'попыта', 'идентифицирова', 'ваш', 'работ', 'автоматическ', 'привяза', 'ваш', 'профил', 'однак', 'возможн', 'ошибк', 'идентификац']], [['начн', 'просмотр', 'списк', 'ваш', 'публикац', 'профил', 'автор', 'мо', 'публикац', 'проверьт', 'публикац', 'присутств', 'списк', 'нет', 'публикац', 'друг', 'автор', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'публикации…', 'проверьт', 'правильн', 'указа', 'аффилиац', 'эт', 'публикац', 'например', 'аффилиац', 'ни', 'вшэ', 'должн', 'выглядет', 'рисунк', 'ниж', 'оформл', 'вид', 'гиперссылк', 'всплыва', 'полн', 'назван']], [[]], [['есл', 'эт', 'нажм', 'идентифицирова', 'организац', 'указа', 'публикац', 'качеств', 'мест', 'мо', 'работ', 'панел', 'инструмент']], [['есл', 'списк', 'обнаруж', 'некотор', 'публикац', 'выбер', 'выпада', 'списк', 'показыва', 'непривяза', 'публикац', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'публикац', 'список', 'работ', 'автор']], [[]], [['есл', 'некотор', 'публикац', 'одн', 'указа', 'двух', 'списк', 'эт', 'означа', 'систем', 'смогл', 'идентифицирова', 'публикац', 'автоматическ', 'так', 'случа', 'попыта', 'найт', 'привяза', 'публикац', 'вручн', 'воспольз', 'расширен', 'поиск', 'лев', 'верхн', 'част', 'страниц', 'вначал', 'поиска', 'неполн', 'имен', 'отчеств', 'автор', 'зат', 'например', 'известн', 'точн', 'назван', 'публикац', 'назван', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'найден', 'публикац', 'звездочк', 'помеч', 'котор', 'привяза', 'ваш', 'профил', 'есл', 'списк', 'найден', 'публикац', 'вид', 'котор', 'необходим', 'привяза', 'щелкн', 'назван', 'откроет', 'страниц', 'описан', 'панел', 'инструмент', 'выбер', 'пункт', 'добав', 'публикац', 'список', 'мо', 'работ', 'явля', 'автор', 'посл', 'проверк', 'публикац', 'привяза', 'ваш', 'профил']], [['есл', 'уда', 'найт', 'публикац', 'одн', 'эт', 'случа', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'нужн', 'публикац']]]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[[['работ', 'ссылк', 'мног', 'напомина', 'работ', 'публикац']], [['начн', 'просмотр', 'списк', 'ссылок', 'профил', 'автор', 'мо', 'цитирован', 'либ', 'списк', 'публикац', 'панел', 'инструмент', 'выбер', 'вывест', 'список', 'ссылок', 'работ', 'автор', 'проверьт', 'списк', 'лишн', 'ссылок', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'ссылк', 'списк', 'цитирован', 'автор']], [['выпада', 'списк', 'показыва', 'выбер', 'непривяза', 'ссылк', 'котор', 'могут', 'принадлежа', 'дан', 'автор']], [[]], [['откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'цитирован', 'автор']], [['есл', 'какие-т', 'ссылк', 'эт', 'списк', 'отсутств', 'попыта', 'привяза', 'вручн', 'для', 'профил', 'автор', 'перейд', 'раздел', 'поиск', 'цитирован', 'ринц', 'довольн', 'част', 'ссылк', 'могут', 'привяза', 'цитир', 'работ', 'неверн', 'указа', 'фи', 'автор', 'поэт', 'нача', 'поиск', 'ввод', 'пол', 'автор', 'цитируем', 'публикац', 'фамил', 'автор', 'инициал', 'част', 'фамил', 'есл', 'хотел', 'уточн', 'список', 'ссылок', 'конкретн', 'работ', 'пол', 'люб', 'слов', 'текст', 'ссылк', 'ввест', 'част', 'назван', 'работ', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'работ', 'соответств', 'ссылк', 'звездочк', 'означа', 'дан', 'ссылк', 'привяза', 'ваш', 'публикац', 'выбер', 'списк', 'ссылк', 'котор', 'необходим', 'привяза', 'панел', 'инструмент', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'мо', 'цитирован']], [['есл', 'ссылк', 'по-прежн', 'отсутств', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'цитир', 'публикац', 'ринц', 'см.', 'ниж']]]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[[['как', 'видн', 'сказа', 'выш', 'автор', 'имеет', 'достаточн', 'богат', 'набор', 'инструмент', 'уточнен', 'дан', 'сво', 'публикац', 'следовательн', 'уточнен', 'индекс', 'цитирован', 'единствен', 'существен', 'ограничен', 'отсутств', 'возможн', 'добавля', 'публикац', 'прич', 'эт', 'каса', 'добавлен', 'ссылок', 'ваш', 'публикац', 'добавлен', 'ссылк', 'равносильн', 'добавлен', 'публикац']], [['пожалуйст', 'прим', 'вниман', 'ответствен', 'подразделен', 'сможет', 'добав', 'публикац', 'полн', 'описан', 'оператор', 'сторон', 'ринц', 'отказа', 'добавлен', 'ссылк', 'опубликова', 'стат', 'электрон', 'коп']], [['поэт', 'обращен', 'ответствен', 'необходим', 'предостав', 'след', 'дан', 'есл', 'эт', 'стат', 'назван', 'стат', 'назван', 'журна', 'год', 'номер', 'страниц', 'тематик', 'желательн', 'классификатор', 'грнти', 'список', 'литератур', 'прям', 'ссылк', 'опубликова', 'стат', 'желательн', 'электрон', 'коп', 'стат']], [['есл', 'эт', 'книга/сборник', 'назван', 'издательств', 'год', 'мест', 'издан', 'город', 'тематик', 'желательн', 'классификатор', 'грнти', 'прям', 'ссылк', 'описан', 'книг', 'сайт', 'издательств', 'желательн', 'электрон', 'коп', 'книг']], [['случа', 'добавлен', 'публикац', 'треб', 'привязк', 'качеств', 'ссылк', 'одн', 'ваш', 'публикац', 'привед', 'назван', 'сво', 'публикац', 'дал', 'список', 'ссыла', 'публикац', 'всем', 'необходим', 'дан', 'см.', 'выш']], [['ответствен', 'сво', 'подразделен', 'может', 'найт', 'списк', 'ниж', 'есл', 'ответствен', 'списк', 'написа', 'ощепков', 'иван', 'владимирович']]]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[[['чтоб', 'оцен', 'влиян', 'вносим', 'изменен', 'показател', 'публикацион', 'активн', 'индекс', 'хирш', 'т.п.', 'пожалуйст', 'перейд', 'страниц', 'анализ', 'публикацион', 'активн', 'автор', 'попаст', 'страниц', 'раздел', 'персональн', 'профил', 'автор', 'такж', 'авторск', 'указател', 'щелкнув', 'мыш', 'цветн', 'иконк', 'гистограмм']], [['есл', 'внесл', 'изменен', 'эт', 'отобраз', 'статистик', 'нажм', 'обнов', 'показател', 'автор', 'панел', 'инструмент']], [['как', 'прав', 'внесен', 'изменен', 'будут', 'отраж', 'ваш', 'показател', 'ден', 'однак', 'отдельн', 'напр.', 'спорн', 'случа', 'изменен', 'могут', 'учт', 'лиш', 'некотор', 'врем', 'недел', 'двух', 'месяц', 'есл', 'счита', 'нек', 'изменен', 'учт', 'течен', 'долг', 'времен', 'обрат', 'ответствен', 'ваш', 'подразделен']]]</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2379,36 +2411,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[[['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'помощ', 'узна', 'количеств', 'посещен', 'сайт', 'проанализирова', 'действ', 'пользовател', 'поня', 'перешл', 'ин', 'страниц', 'доступн', 'такж', 'статистик', 'скачиван', 'файл']]]</t>
+          <t>[[['аспирантск', 'школ', 'экономик']]]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[[['вопрос', 'связа', 'посещаем', 'страниц', 'порта', 'занима', 'отдел', 'веб-аналитик', 'моделирован']]]</t>
+          <t>[[['аспирантск', 'школ', 'менеджмент']]]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[[['доступ', 'предоставля', 'отдельн', 'представлен', 'Google', 'Analytics', 'выделен', 'представлен', 'присутств', 'дан', 'отдельн', 'поддом', 'настройк', 'представлен', 'производ', 'специалист', 'привлечен', 'трафик', 'посредств', 'GTM', 'Google', 'Tag', 'Manager']], [['доступ', 'предоставля', 'сотрудник', 'вшэ', 'Google', 'Analytics', 'я.метрик', 'ограничен'], ['доступ', 'предоставля', 'течен', 'одн', 'рабоч', 'дня'], ['запрос', 'предоставлен', 'доступ']]]</t>
+          <t>[[['аспирантск', 'школ', 'государствен', 'муниципальн', 'управлен', 'философск', 'наук']]]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[[['сам', 'прост', 'способ', 'узна', 'скольк', 'человек', 'посет', 'страниц', 'сайт', 'ваш', 'подразделен', 'мероприят', 'яндекс.метрик', 'использова', 'сервис', 'стандартн', 'отчет', 'заголовк', 'страниц'], [], ['пол', 'поиск', 'зада', 'назван', 'страниц', 'результир', 'таблиц', 'содержат', 'значен', 'указа', 'времен', 'диапазон', 'числ', 'просмотр', 'загрузок', 'страниц', 'числ', 'посетител', 'количеств', 'уникальн', 'люд', 'пришедш', 'ваш', 'страниц', 'подробн', 'пользовательск', 'инструкц', 'яндекс.метрик', 'доступн', 'адрес', 'https', '//yandex.ru/support/metrika/']], [['мен', 'сервис', 'расположен', 'лев', 'част', 'экра', 'выбира', 'вкладк', 'поведен', 'контент', 'сайт', 'все', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'нужн', 'страниц', 'указан', 'сетев', 'протокол', 'https'], [], ['для', 'увеличен', 'точност', 'анализ', 'нужн', 'передвинут', 'соответств', 'бегунок', 'вверх', 'экра', 'строк', 'выбор', 'дат', 'такж', 'выбра', 'узк', 'времен', 'промежуток', 'подробн', 'пользовательск', 'инструкц', 'Google', 'Analytics', 'наход', 'адрес', 'https', '//support.google.com/analytics/']]]</t>
+          <t>[[['аспирантск', 'школ', 'прав']]]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[[['стандартн', 'отчет', 'формир', 'отчет', 'стандартн', 'отчет', 'содержан', 'загрузк', 'файл'], [], ['зада', 'необходим', 'времен', 'промежуток', 'график', 'выбира', 'URL', 'загрузк', 'файл', 'котор', 'интерес']], [['мен', 'сервис', 'выбира', 'вкладк', 'поведен', 'событ', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'страниц', 'котор', 'наход', 'ссылк', 'файл', 'указан', 'сетев', 'протокол', 'https'], [], ['выбира', 'категор', 'событ', 'Download', 'результирующ', 'таблиц', 'показыва', 'числ', 'скача', 'страниц', 'файл', 'выбра', 'промежуток', 'времен']]]</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>[[['аспирантск', 'школ', 'социологическ', 'наук', 'политическ', 'наук', 'искусств', 'дизайн', 'международн', 'отношен', 'зарубежн', 'региональн', 'исследован']]]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'историческ', 'наук', 'филологическ', 'наук', 'философск', 'наук', 'культуролог']]]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'техническ', 'наук']]]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'компьютерн', 'наук', 'физик']]]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'образован']]]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'психолог']]]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[[['аспирантск', 'школ', 'математик']]]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[[['академическ', 'аспирантур']]]</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -2428,59 +2488,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[[['2017', 'год', 'ваш', 'распоряжен', 'полн', 'набор', 'инструмент', 'предоставля', 'нэб/ринц', 'помощ', 'уточн', 'улучш', 'ваш', 'показател', 'ринц', 'большинств', 'операц', 'может', 'выполн', 'самостоятельн', 'никт', 'кром', 'сможет', 'эт', 'сдела', 'должн', 'образ', 'некотор', 'случа', 'необходим', 'обрат', 'представител', 'подразделен']]]</t>
+          <t>[[['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'помощ', 'узна', 'количеств', 'посещен', 'сайт', 'проанализирова', 'действ', 'пользовател', 'поня', 'перешл', 'ин', 'страниц', 'доступн', 'такж', 'статистик', 'скачиван', 'файл']]]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[[['что', 'сдела', 'перв', 'очеред', 'зарегистрирова', 'ринц', 'Science', 'Index', 'уточн', 'регистрацион', 'дан', 'улучшен', 'привязк', 'публикац', 'провер', 'скорректирова', 'сво', 'список', 'публикац', 'провер', 'скорректирова', 'список', 'ссылок', 'сво', 'публикац']]]</t>
+          <t>[[['вопрос', 'связа', 'посещаем', 'страниц', 'порта', 'занима', 'отдел', 'веб-аналитик', 'моделирован']]]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[[['ниж', 'привед', 'кратк', 'инструкц', 'учет', 'опыт', 'работ', 'ринц', 'ни', 'вшэ', 'полн', 'инструкц', 'автор', 'найт', 'сайт', 'ринц']]]</t>
+          <t>[[['доступ', 'предоставля', 'отдельн', 'представлен', 'Google', 'Analytics', 'выделен', 'представлен', 'присутств', 'дан', 'отдельн', 'поддом', 'настройк', 'представлен', 'производ', 'специалист', 'привлечен', 'трафик', 'посредств', 'GTM', 'Google', 'Tag', 'Manager']], [['доступ', 'предоставля', 'сотрудник', 'вшэ', 'Google', 'Analytics', 'я.метрик', 'ограничен'], ['доступ', 'предоставля', 'течен', 'одн', 'рабоч', 'дня'], ['запрос', 'предоставлен', 'доступ']]]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[[['вниман', 'для', 'корректн', 'работ', 'сайт', 'ринц', 'необходим', 'отключ', 'блокировк', 'всплыва', 'окон', 'elibrary.ru']]]</t>
+          <t>[[['сам', 'прост', 'способ', 'узна', 'скольк', 'человек', 'посет', 'страниц', 'сайт', 'ваш', 'подразделен', 'мероприят', 'яндекс.метрик', 'использова', 'сервис', 'стандартн', 'отчет', 'заголовк', 'страниц'], [], ['пол', 'поиск', 'зада', 'назван', 'страниц', 'результир', 'таблиц', 'содержат', 'значен', 'указа', 'времен', 'диапазон', 'числ', 'просмотр', 'загрузок', 'страниц', 'числ', 'посетител', 'количеств', 'уникальн', 'люд', 'пришедш', 'ваш', 'страниц', 'подробн', 'пользовательск', 'инструкц', 'яндекс.метрик', 'доступн', 'адрес', 'https', '//yandex.ru/support/metrika/']], [['мен', 'сервис', 'расположен', 'лев', 'част', 'экра', 'выбира', 'вкладк', 'поведен', 'контент', 'сайт', 'все', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'нужн', 'страниц', 'указан', 'сетев', 'протокол', 'https'], [], ['для', 'увеличен', 'точност', 'анализ', 'нужн', 'передвинут', 'соответств', 'бегунок', 'вверх', 'экра', 'строк', 'выбор', 'дат', 'такж', 'выбра', 'узк', 'времен', 'промежуток', 'подробн', 'пользовательск', 'инструкц', 'Google', 'Analytics', 'наход', 'адрес', 'https', '//support.google.com/analytics/']]]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[[['инструкц', 'регистрац', 'Science', 'Iндеxвнесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикацийработ', 'списк', 'публикацийработ', 'ссылк', 'публикациипорядок', 'обращен', 'ответствен', 'подразделенийанализ', 'публикацион', 'активн', 'автор']]]</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>[[['есл', 'зарегистрирова', 'Science', 'Index', 'пройд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isnew=1', 'inreestr=on', 'либ', 'выбер', 'кнопк', 'регистрац', 'панел', 'вход', 'сайт', 'elibrary.ru']], [['убед', 'регистрацион', 'анкет', 'проставл', 'галочк', 'зарегистрирова', 'автор', 'систем', 'Science', 'Index']], [[]]]</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>[[['при', 'регистрац', 'необходим', 'внест', 'дан', 'пол', 'обязательн', 'заполнен', 'однак', 'рекоменду', 'обрат', 'вниман', 'друг', 'пол', 'эт', 'поможет', 'автоматическ', 'привяза', 'максимальн', 'числ', 'ваш', 'публикац', 'аккаунт', 'есл', 'зарегистрирова', 'Science', 'Index', 'может', 'внест', 'дан', 'перейд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isold=1', 'пройд', 'личн', 'кабинет', 'профил', 'автор', 'регистрацион', 'карточк', 'автор']], [['проверьт', 'указа', 'аффилиац', 'ни', 'вшэ']], [[]], [['нижн', 'част', 'форм', 'наход', 'пол', 'котор', 'могут', 'улучш', 'качеств', 'автоматическ', 'привязк', 'публикац']], [[]], [['пол', 'журнал', 'внес', 'журнал', 'котор', 'публикова', 'пол', 'организац', 'укаж', 'друг', 'организац', 'котор', 'могл', 'работа', 'ран', 'есл', 'раньш', 'друг', 'фамил', 'укаж', 'пол', 'предыдущ', 'фамил', 'девич', 'есл', 'публикова', 'собира', 'публикова', 'зарубежн', 'издан', 'укаж', 'вариант', 'написан', 'фамил', 'латиниц', 'запят', 'пол', 'идентификацион', 'код', 'автор', 'укаж', 'люб', 'друг', 'сво', 'идентификацион', 'код']], [['посл', 'сохранен', 'карточк', 'течен', '2-10', 'дне', 'получ', 'уникальн', 'идентификатор', 'SPIN-код', 'автор']], [[]], [['указа', 'панел', 'сесс', 'слев', 'такж', 'начал', 'регистрацион', 'карточк', 'необходим', 'указа', 'SPIN-код', 'сво', 'личн', 'кабинет', 'портал', 'ни', 'вшэ']], [['посл', 'получен', 'SPIN-код', 'систем', 'выполн', 'привязк', 'публикац', 'ваш', 'профил', 'получ', 'возможн', 'внос', 'исправлен', 'список', 'публикац', 'список', 'ссылок', 'публикац']]]</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[[['посл', 'регистрац', 'заполнен', 'карточк', 'систем', 'попыта', 'идентифицирова', 'ваш', 'работ', 'автоматическ', 'привяза', 'ваш', 'профил', 'однак', 'возможн', 'ошибк', 'идентификац']], [['начн', 'просмотр', 'списк', 'ваш', 'публикац', 'профил', 'автор', 'мо', 'публикац', 'проверьт', 'публикац', 'присутств', 'списк', 'нет', 'публикац', 'друг', 'автор', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'публикации…', 'проверьт', 'правильн', 'указа', 'аффилиац', 'эт', 'публикац', 'например', 'аффилиац', 'ни', 'вшэ', 'должн', 'выглядет', 'рисунк', 'ниж', 'оформл', 'вид', 'гиперссылк', 'всплыва', 'полн', 'назван']], [[]], [['есл', 'эт', 'нажм', 'идентифицирова', 'организац', 'указа', 'публикац', 'качеств', 'мест', 'мо', 'работ', 'панел', 'инструмент']], [['есл', 'списк', 'обнаруж', 'некотор', 'публикац', 'выбер', 'выпада', 'списк', 'показыва', 'непривяза', 'публикац', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'публикац', 'список', 'работ', 'автор']], [[]], [['есл', 'некотор', 'публикац', 'одн', 'указа', 'двух', 'списк', 'эт', 'означа', 'систем', 'смогл', 'идентифицирова', 'публикац', 'автоматическ', 'так', 'случа', 'попыта', 'найт', 'привяза', 'публикац', 'вручн', 'воспольз', 'расширен', 'поиск', 'лев', 'верхн', 'част', 'страниц', 'вначал', 'поиска', 'неполн', 'имен', 'отчеств', 'автор', 'зат', 'например', 'известн', 'точн', 'назван', 'публикац', 'назван', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'найден', 'публикац', 'звездочк', 'помеч', 'котор', 'привяза', 'ваш', 'профил', 'есл', 'списк', 'найден', 'публикац', 'вид', 'котор', 'необходим', 'привяза', 'щелкн', 'назван', 'откроет', 'страниц', 'описан', 'панел', 'инструмент', 'выбер', 'пункт', 'добав', 'публикац', 'список', 'мо', 'работ', 'явля', 'автор', 'посл', 'проверк', 'публикац', 'привяза', 'ваш', 'профил']], [['есл', 'уда', 'найт', 'публикац', 'одн', 'эт', 'случа', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'нужн', 'публикац']]]</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>[[['работ', 'ссылк', 'мног', 'напомина', 'работ', 'публикац']], [['начн', 'просмотр', 'списк', 'ссылок', 'профил', 'автор', 'мо', 'цитирован', 'либ', 'списк', 'публикац', 'панел', 'инструмент', 'выбер', 'вывест', 'список', 'ссылок', 'работ', 'автор', 'проверьт', 'списк', 'лишн', 'ссылок', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'ссылк', 'списк', 'цитирован', 'автор']], [['выпада', 'списк', 'показыва', 'выбер', 'непривяза', 'ссылк', 'котор', 'могут', 'принадлежа', 'дан', 'автор']], [[]], [['откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'цитирован', 'автор']], [['есл', 'какие-т', 'ссылк', 'эт', 'списк', 'отсутств', 'попыта', 'привяза', 'вручн', 'для', 'профил', 'автор', 'перейд', 'раздел', 'поиск', 'цитирован', 'ринц', 'довольн', 'част', 'ссылк', 'могут', 'привяза', 'цитир', 'работ', 'неверн', 'указа', 'фи', 'автор', 'поэт', 'нача', 'поиск', 'ввод', 'пол', 'автор', 'цитируем', 'публикац', 'фамил', 'автор', 'инициал', 'част', 'фамил', 'есл', 'хотел', 'уточн', 'список', 'ссылок', 'конкретн', 'работ', 'пол', 'люб', 'слов', 'текст', 'ссылк', 'ввест', 'част', 'назван', 'работ', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'работ', 'соответств', 'ссылк', 'звездочк', 'означа', 'дан', 'ссылк', 'привяза', 'ваш', 'публикац', 'выбер', 'списк', 'ссылк', 'котор', 'необходим', 'привяза', 'панел', 'инструмент', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'мо', 'цитирован']], [['есл', 'ссылк', 'по-прежн', 'отсутств', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'цитир', 'публикац', 'ринц', 'см.', 'ниж']]]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>[[['как', 'видн', 'сказа', 'выш', 'автор', 'имеет', 'достаточн', 'богат', 'набор', 'инструмент', 'уточнен', 'дан', 'сво', 'публикац', 'следовательн', 'уточнен', 'индекс', 'цитирован', 'единствен', 'существен', 'ограничен', 'отсутств', 'возможн', 'добавля', 'публикац', 'прич', 'эт', 'каса', 'добавлен', 'ссылок', 'ваш', 'публикац', 'добавлен', 'ссылк', 'равносильн', 'добавлен', 'публикац']], [['пожалуйст', 'прим', 'вниман', 'ответствен', 'подразделен', 'сможет', 'добав', 'публикац', 'полн', 'описан', 'оператор', 'сторон', 'ринц', 'отказа', 'добавлен', 'ссылк', 'опубликова', 'стат', 'электрон', 'коп']], [['поэт', 'обращен', 'ответствен', 'необходим', 'предостав', 'след', 'дан', 'есл', 'эт', 'стат', 'назван', 'стат', 'назван', 'журна', 'год', 'номер', 'страниц', 'тематик', 'желательн', 'классификатор', 'грнти', 'список', 'литератур', 'прям', 'ссылк', 'опубликова', 'стат', 'желательн', 'электрон', 'коп', 'стат']], [['есл', 'эт', 'книга/сборник', 'назван', 'издательств', 'год', 'мест', 'издан', 'город', 'тематик', 'желательн', 'классификатор', 'грнти', 'прям', 'ссылк', 'описан', 'книг', 'сайт', 'издательств', 'желательн', 'электрон', 'коп', 'книг']], [['случа', 'добавлен', 'публикац', 'треб', 'привязк', 'качеств', 'ссылк', 'одн', 'ваш', 'публикац', 'привед', 'назван', 'сво', 'публикац', 'дал', 'список', 'ссыла', 'публикац', 'всем', 'необходим', 'дан', 'см.', 'выш']], [['ответствен', 'сво', 'подразделен', 'может', 'найт', 'списк', 'ниж', 'есл', 'ответствен', 'списк', 'написа', 'ощепков', 'иван', 'владимирович']]]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>[[['чтоб', 'оцен', 'влиян', 'вносим', 'изменен', 'показател', 'публикацион', 'активн', 'индекс', 'хирш', 'т.п.', 'пожалуйст', 'перейд', 'страниц', 'анализ', 'публикацион', 'активн', 'автор', 'попаст', 'страниц', 'раздел', 'персональн', 'профил', 'автор', 'такж', 'авторск', 'указател', 'щелкнув', 'мыш', 'цветн', 'иконк', 'гистограмм']], [['есл', 'внесл', 'изменен', 'эт', 'отобраз', 'статистик', 'нажм', 'обнов', 'показател', 'автор', 'панел', 'инструмент']], [['как', 'прав', 'внесен', 'изменен', 'будут', 'отраж', 'ваш', 'показател', 'ден', 'однак', 'отдельн', 'напр.', 'спорн', 'случа', 'изменен', 'могут', 'учт', 'лиш', 'некотор', 'врем', 'недел', 'двух', 'месяц', 'есл', 'счита', 'нек', 'изменен', 'учт', 'течен', 'долг', 'времен', 'обрат', 'ответствен', 'ваш', 'подразделен']]]</t>
-        </is>
-      </c>
+          <t>[[['стандартн', 'отчет', 'формир', 'отчет', 'стандартн', 'отчет', 'содержан', 'загрузк', 'файл'], [], ['зада', 'необходим', 'времен', 'промежуток', 'график', 'выбира', 'URL', 'загрузк', 'файл', 'котор', 'интерес']], [['мен', 'сервис', 'выбира', 'вкладк', 'поведен', 'событ', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'страниц', 'котор', 'наход', 'ссылк', 'файл', 'указан', 'сетев', 'протокол', 'https'], [], ['выбира', 'категор', 'событ', 'Download', 'результирующ', 'таблиц', 'показыва', 'числ', 'скача', 'страниц', 'файл', 'выбра', 'промежуток', 'времен']]]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2501,64 +2537,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[[['аспирантск', 'школ', 'экономик']]]</t>
+          <t>[[['портал', 'организова', 'при', 'платеж', 'участ', 'проводим', 'подразделен', 'ни', 'вшэ', 'мероприят', 'заявк', 'создан', 'форм', 'прием', 'платеж', 'направля', 'руководител', 'подразделен', 'адрес', 'underground', 'hse.ru', 'срок', 'оказан', 'услуг', 'рабоч', 'дня', 'момент', 'получен', 'полн', 'пакет', 'необходим', 'сведен', 'заказчик', 'услов', 'создан', 'стандартн', 'форм']]]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[[['аспирантск', 'школ', 'менеджмент']]]</t>
+          <t>[[['обрат', 'вниман', 'требован', 'финансов', 'блок', 'создан', 'форм', 'прием', 'платеж', 'возможн', 'налич', 'подписа', 'приказ', 'проведен', 'мероприят', 'приказ', 'созда', 'подразделение-организатор', 'мероприят', 'документ', 'соглас', 'руководител', 'соответств', 'полномоч', 'есл', 'доход', 'расход', 'мероприят', 'треб', 'проставлен', 'финансов', 'аналитик', 'согласован', 'такж', 'участв', 'пфу', 'коп', 'договор', 'необходим', 'прилож', 'заявк', 'нужн', 'указа']], [['номер', 'учетн', 'договор', 'пфу', 'номер', 'бэст', 'котор', 'вест', 'при', 'средств', 'для', 'учет', 'поступа', 'средств', 'мероприят', 'ис-пр', 'созда', 'управленческ', 'договор', 'договор', 'созда', 'подразделен', 'самостоятельн', 'подразделен', 'имеет', 'доступ', 'ис-пр', 'соответств', 'прав', 'либ', 'ответствен', 'работник', 'пфу', 'наименован', 'подразделен', 'котор', 'осуществля', 'при', 'платеж', 'шифр', 'подразделен', 'ис-пр', 'адрес', 'сайт', 'зон', 'hse.ru', 'размещ', 'страниц', 'мероприят', 'желательн', 'указа', 'такж', 'адрес', 'страниц', 'описан', 'особен', 'оплат', 'список', 'электрон', 'почтов', 'адрес', 'ответствен', 'лиц', 'домен', 'hse.ru', 'ежедневн', 'выгрузк', 'отчет', 'произведен', 'оплат', 'срок', 'прием', 'платеж', 'включ', 'сумм', 'платеж', 'ндс', 'треб', 'англоязычн', 'верс', 'форм', 'список', 'категор', 'участник', 'перевод', 'английск', 'язык', 'необходим', 'создан', 'форм', 'английск', 'язык', 'соответств', 'сумм', 'платеж', 'рубл', 'текст', 'договора-оферт', 'котор', 'размещ', 'страниц', 'форм', 'прием', 'платеж', 'согласова', 'юрист', 'при', 'необходим', 'бланк', 'платежн', 'извещен', 'оплат', 'участник', 'валют', 'рубл', 'банк', 'размещен', 'страниц', 'мероприят']], [['есл', 'форм', 'платеж', 'нужн', 'разов', 'мероприят', 'пожалуйст', 'добавьт', 'заявк', 'информац', 'тип', 'платеж', 'оплат', 'обучен', 'оплат', 'проживан', 'оплат', 'проч', 'услуг', 'либ', 'нов', 'вид', 'оплат', 'договорен', 'пфу', 'уб']], [['взаимодейств', 'участник', 'мероприят', 'провод', 'основан', 'договора-оферт', 'котор', 'долж', 'размещ', 'страниц', 'мероприят', 'случа', 'необходим', 'предоставлен', 'участник', 'мероприят', 'каких-либ', 'подтвержда', 'документ', 'перечен', 'необходим', 'обязательн', 'порядк', 'предварительн', 'согласова', 'бухгалтер', 'ни', 'вшэ']], [['важн', 'планир', 'расценк', 'участ', 'мероприят', 'учет', 'страниц', 'сбор', 'платеж', 'сумм', 'оплат', 'указыва', 'рубл', 'указан', 'сумм', 'иностра', 'валют', 'допуска', 'числ', 'иностра', 'участников.•', 'банк', 'удержива', 'комисс', 'сумм', 'платеж', 'комисс', 'карт', 'сбербанк', 'взима', 'актуальн', 'размер', 'комисс', 'завис', 'услов', 'банка-эмитент', 'карт', 'платеж', 'требован', 'банк', 'выделя', 'комисс', 'сумм', 'платеж', 'страниц', 'оплат', 'мероприят']]]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[[['аспирантск', 'школ', 'государствен', 'муниципальн', 'управлен', 'философск', 'наук']]]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'прав']]]</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'социологическ', 'наук', 'политическ', 'наук', 'искусств', 'дизайн', 'международн', 'отношен', 'зарубежн', 'региональн', 'исследован']]]</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'историческ', 'наук', 'филологическ', 'наук', 'философск', 'наук', 'культуролог']]]</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'техническ', 'наук']]]</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'компьютерн', 'наук', 'физик']]]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'образован']]]</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'психолог']]]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>[[['аспирантск', 'школ', 'математик']]]</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>[[['академическ', 'аспирантур']]]</t>
-        </is>
-      </c>
+          <t>[[['для', 'стандартн', 'форм', 'оплат', 'допуска', 'налич', 'нескольк', 'категор', 'участник', 'кажд', 'котор', 'присво', 'отдельн', 'сумм', 'оплат', 'например', 'сотрудник', 'ни', 'вшэ', 'руб.', 'иностра', 'гражда', 'руб.', 'автоматическ', 'проверк', 'статус', 'участник', 'момент', 'оплат', 'производ', 'стандартн', 'форм', 'оплат', 'выгляд']]]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
